--- a/AAII_Financials/Quarterly/BCH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCH_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>BCH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,131 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>652400</v>
+        <v>687300</v>
       </c>
       <c r="E8" s="3">
-        <v>769300</v>
+        <v>707100</v>
       </c>
       <c r="F8" s="3">
-        <v>551200</v>
+        <v>632100</v>
       </c>
       <c r="G8" s="3">
-        <v>672500</v>
+        <v>745300</v>
       </c>
       <c r="H8" s="3">
-        <v>650700</v>
+        <v>534000</v>
       </c>
       <c r="I8" s="3">
+        <v>651400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>630400</v>
+      </c>
+      <c r="K8" s="3">
         <v>634800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>601400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>705400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>579000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>809800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>671400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>702900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>721300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,52 +1052,64 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-22000</v>
+        <v>-22900</v>
       </c>
       <c r="E15" s="3">
-        <v>-22400</v>
+        <v>-23100</v>
       </c>
       <c r="F15" s="3">
-        <v>-22000</v>
+        <v>-21400</v>
       </c>
       <c r="G15" s="3">
-        <v>-12500</v>
+        <v>-21700</v>
       </c>
       <c r="H15" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="I15" s="3">
         <v>-12100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-11900</v>
       </c>
       <c r="J15" s="3">
         <v>-11700</v>
       </c>
       <c r="K15" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="L15" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="M15" s="3">
         <v>-13300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>-13200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>-12700</v>
-      </c>
-      <c r="N15" s="3">
-        <v>-12600</v>
-      </c>
-      <c r="O15" s="3">
-        <v>-12600</v>
       </c>
       <c r="P15" s="3">
         <v>-12600</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="R15" s="3">
+        <v>-12600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>334600</v>
+        <v>409400</v>
       </c>
       <c r="E17" s="3">
-        <v>387700</v>
+        <v>380000</v>
       </c>
       <c r="F17" s="3">
-        <v>280100</v>
+        <v>324200</v>
       </c>
       <c r="G17" s="3">
-        <v>316500</v>
+        <v>375500</v>
       </c>
       <c r="H17" s="3">
-        <v>346600</v>
+        <v>271400</v>
       </c>
       <c r="I17" s="3">
+        <v>306600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>335700</v>
+      </c>
+      <c r="K17" s="3">
         <v>280000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>287100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>323900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>236400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>425600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>318000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>372400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>352500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>317800</v>
+        <v>277900</v>
       </c>
       <c r="E18" s="3">
-        <v>381700</v>
+        <v>327100</v>
       </c>
       <c r="F18" s="3">
-        <v>271100</v>
+        <v>307900</v>
       </c>
       <c r="G18" s="3">
-        <v>356000</v>
+        <v>369700</v>
       </c>
       <c r="H18" s="3">
-        <v>304100</v>
+        <v>262600</v>
       </c>
       <c r="I18" s="3">
+        <v>344900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>294600</v>
+      </c>
+      <c r="K18" s="3">
         <v>354800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>314300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>381500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>342700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>384200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>353400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>330400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>368900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1243,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-70800</v>
+        <v>-68200</v>
       </c>
       <c r="E20" s="3">
-        <v>-72500</v>
+        <v>-88500</v>
       </c>
       <c r="F20" s="3">
-        <v>-97400</v>
+        <v>-68600</v>
       </c>
       <c r="G20" s="3">
-        <v>-68100</v>
+        <v>-70200</v>
       </c>
       <c r="H20" s="3">
-        <v>-98400</v>
+        <v>-94300</v>
       </c>
       <c r="I20" s="3">
+        <v>-66000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-95300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-105400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-95600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-125500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-110000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-104600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-105900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-114200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-116200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>269000</v>
+        <v>232600</v>
       </c>
       <c r="E21" s="3">
-        <v>331500</v>
+        <v>261800</v>
       </c>
       <c r="F21" s="3">
-        <v>195700</v>
+        <v>260600</v>
       </c>
       <c r="G21" s="3">
-        <v>300400</v>
+        <v>321100</v>
       </c>
       <c r="H21" s="3">
-        <v>217800</v>
+        <v>189600</v>
       </c>
       <c r="I21" s="3">
+        <v>291000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>211000</v>
+      </c>
+      <c r="K21" s="3">
         <v>261300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>230500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>269300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>245900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>292300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>260100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>228900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>265300</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1389,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>247000</v>
+        <v>209700</v>
       </c>
       <c r="E23" s="3">
-        <v>309100</v>
+        <v>238700</v>
       </c>
       <c r="F23" s="3">
-        <v>173700</v>
+        <v>239300</v>
       </c>
       <c r="G23" s="3">
-        <v>287900</v>
+        <v>299500</v>
       </c>
       <c r="H23" s="3">
-        <v>205800</v>
+        <v>168300</v>
       </c>
       <c r="I23" s="3">
+        <v>278900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>199300</v>
+      </c>
+      <c r="K23" s="3">
         <v>249400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>218700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>256000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>232700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>279600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>247600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>216200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>252700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>52200</v>
+        <v>40000</v>
       </c>
       <c r="E24" s="3">
-        <v>63200</v>
+        <v>56200</v>
       </c>
       <c r="F24" s="3">
-        <v>43800</v>
+        <v>50500</v>
       </c>
       <c r="G24" s="3">
-        <v>81100</v>
+        <v>61200</v>
       </c>
       <c r="H24" s="3">
-        <v>41700</v>
+        <v>42400</v>
       </c>
       <c r="I24" s="3">
+        <v>78600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>40400</v>
+      </c>
+      <c r="K24" s="3">
         <v>41300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>36100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>46700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>35900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>44700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>41800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>28900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>194800</v>
+        <v>169700</v>
       </c>
       <c r="E26" s="3">
-        <v>245900</v>
+        <v>182500</v>
       </c>
       <c r="F26" s="3">
-        <v>130000</v>
+        <v>188700</v>
       </c>
       <c r="G26" s="3">
-        <v>206700</v>
+        <v>238200</v>
       </c>
       <c r="H26" s="3">
-        <v>164000</v>
+        <v>125900</v>
       </c>
       <c r="I26" s="3">
+        <v>200300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>158900</v>
+      </c>
+      <c r="K26" s="3">
         <v>208100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>182600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>209300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>196800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>234900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>205800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>187300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>194800</v>
+        <v>169700</v>
       </c>
       <c r="E27" s="3">
-        <v>245900</v>
+        <v>182500</v>
       </c>
       <c r="F27" s="3">
-        <v>130000</v>
+        <v>188700</v>
       </c>
       <c r="G27" s="3">
-        <v>206700</v>
+        <v>238200</v>
       </c>
       <c r="H27" s="3">
-        <v>164000</v>
+        <v>125900</v>
       </c>
       <c r="I27" s="3">
+        <v>200300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>158900</v>
+      </c>
+      <c r="K27" s="3">
         <v>208100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>182600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>209300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>196800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>234900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>205800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>187300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>70800</v>
+        <v>68200</v>
       </c>
       <c r="E32" s="3">
-        <v>72500</v>
+        <v>88500</v>
       </c>
       <c r="F32" s="3">
-        <v>97400</v>
+        <v>68600</v>
       </c>
       <c r="G32" s="3">
-        <v>68100</v>
+        <v>70200</v>
       </c>
       <c r="H32" s="3">
-        <v>98400</v>
+        <v>94300</v>
       </c>
       <c r="I32" s="3">
+        <v>66000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>95300</v>
+      </c>
+      <c r="K32" s="3">
         <v>105400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>95600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>125500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>110000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>104600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>105900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>114200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>116200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>194800</v>
+        <v>169700</v>
       </c>
       <c r="E33" s="3">
-        <v>245900</v>
+        <v>182500</v>
       </c>
       <c r="F33" s="3">
-        <v>130000</v>
+        <v>188700</v>
       </c>
       <c r="G33" s="3">
-        <v>206700</v>
+        <v>238200</v>
       </c>
       <c r="H33" s="3">
-        <v>164000</v>
+        <v>125900</v>
       </c>
       <c r="I33" s="3">
+        <v>200300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>158900</v>
+      </c>
+      <c r="K33" s="3">
         <v>208100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>182600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>209300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>196800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>234900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>205800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>187300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>194800</v>
+        <v>169700</v>
       </c>
       <c r="E35" s="3">
-        <v>245900</v>
+        <v>182500</v>
       </c>
       <c r="F35" s="3">
-        <v>130000</v>
+        <v>188700</v>
       </c>
       <c r="G35" s="3">
-        <v>206700</v>
+        <v>238200</v>
       </c>
       <c r="H35" s="3">
-        <v>164000</v>
+        <v>125900</v>
       </c>
       <c r="I35" s="3">
+        <v>200300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>158900</v>
+      </c>
+      <c r="K35" s="3">
         <v>208100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>182600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>209300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>196800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>234900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>205800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>187300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,96 +2138,110 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3477100</v>
+        <v>4230700</v>
       </c>
       <c r="E41" s="3">
-        <v>4045400</v>
+        <v>3462600</v>
       </c>
       <c r="F41" s="3">
-        <v>3299100</v>
+        <v>3368500</v>
       </c>
       <c r="G41" s="3">
-        <v>3611300</v>
+        <v>3919000</v>
       </c>
       <c r="H41" s="3">
-        <v>3539500</v>
+        <v>3196000</v>
       </c>
       <c r="I41" s="3">
+        <v>3498400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>3428900</v>
+      </c>
+      <c r="K41" s="3">
         <v>3538600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2836400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2891200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3077300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2958500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>3387100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>3523000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3447400</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6353500</v>
+        <v>9591800</v>
       </c>
       <c r="E42" s="3">
-        <v>4205300</v>
+        <v>7594700</v>
       </c>
       <c r="F42" s="3">
-        <v>4260800</v>
+        <v>6155000</v>
       </c>
       <c r="G42" s="3">
-        <v>4467200</v>
+        <v>4073900</v>
       </c>
       <c r="H42" s="3">
-        <v>4253500</v>
+        <v>4127700</v>
       </c>
       <c r="I42" s="3">
+        <v>4327600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>4120600</v>
+      </c>
+      <c r="K42" s="3">
         <v>3732800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>4057800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>4892500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>3759300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>4831100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>4779700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>4568200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>4469300</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2284,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2334,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2384,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,140 +2434,164 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>65300</v>
+      </c>
+      <c r="E47" s="3">
         <v>62900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>61000</v>
       </c>
-      <c r="F47" s="3">
-        <v>58500</v>
-      </c>
       <c r="G47" s="3">
-        <v>57000</v>
+        <v>59100</v>
       </c>
       <c r="H47" s="3">
-        <v>56800</v>
+        <v>56700</v>
       </c>
       <c r="I47" s="3">
+        <v>55300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>55000</v>
+      </c>
+      <c r="K47" s="3">
         <v>53200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>49900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>55900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>53600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>51200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>50200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>49200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>495400</v>
+        <v>476100</v>
       </c>
       <c r="E48" s="3">
-        <v>497400</v>
+        <v>476300</v>
       </c>
       <c r="F48" s="3">
-        <v>498300</v>
+        <v>479900</v>
       </c>
       <c r="G48" s="3">
-        <v>294200</v>
+        <v>481800</v>
       </c>
       <c r="H48" s="3">
-        <v>294900</v>
+        <v>482800</v>
       </c>
       <c r="I48" s="3">
+        <v>285000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>285700</v>
+      </c>
+      <c r="K48" s="3">
         <v>290400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>289800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>338900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>338500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>338100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>340900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>353000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>350300</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>70100</v>
+        <v>72900</v>
       </c>
       <c r="E49" s="3">
-        <v>69700</v>
+        <v>72300</v>
       </c>
       <c r="F49" s="3">
         <v>67900</v>
       </c>
       <c r="G49" s="3">
-        <v>66600</v>
+        <v>67500</v>
       </c>
       <c r="H49" s="3">
-        <v>61900</v>
+        <v>65800</v>
       </c>
       <c r="I49" s="3">
+        <v>64600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>60000</v>
+      </c>
+      <c r="K49" s="3">
         <v>58300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>53500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>57400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>49900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>45000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>44100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>44300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>404500</v>
+        <v>392600</v>
       </c>
       <c r="E52" s="3">
-        <v>409500</v>
+        <v>398000</v>
       </c>
       <c r="F52" s="3">
-        <v>354000</v>
+        <v>391900</v>
       </c>
       <c r="G52" s="3">
-        <v>355700</v>
+        <v>396700</v>
       </c>
       <c r="H52" s="3">
-        <v>342500</v>
+        <v>342900</v>
       </c>
       <c r="I52" s="3">
+        <v>344600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>331800</v>
+      </c>
+      <c r="K52" s="3">
         <v>333300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>339900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>393100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>436900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>435600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>433600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>425400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>50492600</v>
+        <v>55547900</v>
       </c>
       <c r="E54" s="3">
-        <v>47686000</v>
+        <v>51178900</v>
       </c>
       <c r="F54" s="3">
-        <v>46198200</v>
+        <v>48914700</v>
       </c>
       <c r="G54" s="3">
-        <v>45985900</v>
+        <v>46195800</v>
       </c>
       <c r="H54" s="3">
-        <v>44908600</v>
+        <v>44754500</v>
       </c>
       <c r="I54" s="3">
+        <v>44548800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>43505300</v>
+      </c>
+      <c r="K54" s="3">
         <v>43981900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>42552000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>48251600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>46956400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>47447700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>46794000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>47615900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>46838400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,140 +2878,160 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>839700</v>
+        <v>870600</v>
       </c>
       <c r="E57" s="3">
-        <v>1228600</v>
+        <v>723600</v>
       </c>
       <c r="F57" s="3">
-        <v>998700</v>
+        <v>813400</v>
       </c>
       <c r="G57" s="3">
-        <v>655900</v>
+        <v>1190200</v>
       </c>
       <c r="H57" s="3">
-        <v>883200</v>
+        <v>967500</v>
       </c>
       <c r="I57" s="3">
+        <v>635400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>855600</v>
+      </c>
+      <c r="K57" s="3">
         <v>770600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>834400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>714200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>723800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1213600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>773100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>515500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>680800</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4287000</v>
+        <v>4077100</v>
       </c>
       <c r="E58" s="3">
-        <v>4229300</v>
+        <v>3880600</v>
       </c>
       <c r="F58" s="3">
-        <v>3569600</v>
+        <v>4187800</v>
       </c>
       <c r="G58" s="3">
-        <v>3962400</v>
+        <v>4132100</v>
       </c>
       <c r="H58" s="3">
-        <v>3654900</v>
+        <v>3493400</v>
       </c>
       <c r="I58" s="3">
+        <v>3838600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>3540700</v>
+      </c>
+      <c r="K58" s="3">
         <v>3309200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>3137700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3693500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3661200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>3726400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>3443200</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>363100</v>
+        <v>160200</v>
       </c>
       <c r="E59" s="3">
-        <v>286800</v>
+        <v>469000</v>
       </c>
       <c r="F59" s="3">
-        <v>118900</v>
+        <v>351800</v>
       </c>
       <c r="G59" s="3">
-        <v>419100</v>
+        <v>277800</v>
       </c>
       <c r="H59" s="3">
-        <v>286700</v>
+        <v>115200</v>
       </c>
       <c r="I59" s="3">
+        <v>406000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>277700</v>
+      </c>
+      <c r="K59" s="3">
         <v>202400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>99500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>466800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>352500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>235000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>110600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>432900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>339800</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,96 +3074,114 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9732200</v>
+        <v>10228700</v>
       </c>
       <c r="E61" s="3">
-        <v>8632400</v>
+        <v>9744100</v>
       </c>
       <c r="F61" s="3">
-        <v>8368900</v>
+        <v>9393400</v>
       </c>
       <c r="G61" s="3">
-        <v>8087700</v>
+        <v>8327700</v>
       </c>
       <c r="H61" s="3">
-        <v>7876300</v>
+        <v>8072000</v>
       </c>
       <c r="I61" s="3">
+        <v>7834900</v>
+      </c>
+      <c r="J61" s="3">
+        <v>7630200</v>
+      </c>
+      <c r="K61" s="3">
         <v>7685300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>7531900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>8090800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>7957500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>8136900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>8411800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>11180300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>11255500</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>473300</v>
+        <v>447400</v>
       </c>
       <c r="E62" s="3">
-        <v>458800</v>
+        <v>476400</v>
       </c>
       <c r="F62" s="3">
-        <v>433600</v>
+        <v>458600</v>
       </c>
       <c r="G62" s="3">
-        <v>466800</v>
+        <v>444400</v>
       </c>
       <c r="H62" s="3">
-        <v>453800</v>
+        <v>420100</v>
       </c>
       <c r="I62" s="3">
+        <v>452200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>439600</v>
+      </c>
+      <c r="K62" s="3">
         <v>454100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>458700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>563000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>590800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>576700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>553100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>569000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>589100</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>46109900</v>
+        <v>51144800</v>
       </c>
       <c r="E66" s="3">
-        <v>43343400</v>
+        <v>46803900</v>
       </c>
       <c r="F66" s="3">
-        <v>41973000</v>
+        <v>44669000</v>
       </c>
       <c r="G66" s="3">
-        <v>41756600</v>
+        <v>41988900</v>
       </c>
       <c r="H66" s="3">
-        <v>40782500</v>
+        <v>40661300</v>
       </c>
       <c r="I66" s="3">
+        <v>40451700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>39508100</v>
+      </c>
+      <c r="K66" s="3">
         <v>39927200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>38580100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>43686200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>42491400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>43061400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>42536500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>43255900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>42530100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1433700</v>
+        <v>1509200</v>
       </c>
       <c r="E72" s="3">
-        <v>1324700</v>
+        <v>1471400</v>
       </c>
       <c r="F72" s="3">
-        <v>1185100</v>
+        <v>1388900</v>
       </c>
       <c r="G72" s="3">
-        <v>1201600</v>
+        <v>1283300</v>
       </c>
       <c r="H72" s="3">
-        <v>1104200</v>
+        <v>1148000</v>
       </c>
       <c r="I72" s="3">
+        <v>1164000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1069700</v>
+      </c>
+      <c r="K72" s="3">
         <v>1019000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>910500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1242200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1147100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1065000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>959400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1171800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4382700</v>
+        <v>4403100</v>
       </c>
       <c r="E76" s="3">
-        <v>4342600</v>
+        <v>4375000</v>
       </c>
       <c r="F76" s="3">
-        <v>4225200</v>
+        <v>4245700</v>
       </c>
       <c r="G76" s="3">
-        <v>4229300</v>
+        <v>4206900</v>
       </c>
       <c r="H76" s="3">
-        <v>4126100</v>
+        <v>4093200</v>
       </c>
       <c r="I76" s="3">
+        <v>4097100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>3997200</v>
+      </c>
+      <c r="K76" s="3">
         <v>4054600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3971900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>4565400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>4465000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>4386200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>4257500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>4360000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>4308300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>194800</v>
+        <v>169700</v>
       </c>
       <c r="E81" s="3">
-        <v>245900</v>
+        <v>182500</v>
       </c>
       <c r="F81" s="3">
-        <v>130000</v>
+        <v>188700</v>
       </c>
       <c r="G81" s="3">
-        <v>206700</v>
+        <v>238200</v>
       </c>
       <c r="H81" s="3">
-        <v>164000</v>
+        <v>125900</v>
       </c>
       <c r="I81" s="3">
+        <v>200300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>158900</v>
+      </c>
+      <c r="K81" s="3">
         <v>208100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>182600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>209300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>196800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>234900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>205800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>187300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>22000</v>
+        <v>22900</v>
       </c>
       <c r="E83" s="3">
-        <v>22400</v>
+        <v>23100</v>
       </c>
       <c r="F83" s="3">
-        <v>22000</v>
+        <v>21400</v>
       </c>
       <c r="G83" s="3">
-        <v>12500</v>
+        <v>21700</v>
       </c>
       <c r="H83" s="3">
+        <v>21300</v>
+      </c>
+      <c r="I83" s="3">
         <v>12100</v>
-      </c>
-      <c r="I83" s="3">
-        <v>11900</v>
       </c>
       <c r="J83" s="3">
         <v>11700</v>
       </c>
       <c r="K83" s="3">
+        <v>11900</v>
+      </c>
+      <c r="L83" s="3">
+        <v>11700</v>
+      </c>
+      <c r="M83" s="3">
         <v>13300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>13200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>12700</v>
-      </c>
-      <c r="N83" s="3">
-        <v>12600</v>
-      </c>
-      <c r="O83" s="3">
-        <v>12600</v>
       </c>
       <c r="P83" s="3">
         <v>12600</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>12600</v>
+      </c>
+      <c r="R83" s="3">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>62200</v>
+        <v>303300</v>
       </c>
       <c r="E89" s="3">
-        <v>-898600</v>
+        <v>1071500</v>
       </c>
       <c r="F89" s="3">
-        <v>1312100</v>
+        <v>60300</v>
       </c>
       <c r="G89" s="3">
-        <v>-619400</v>
+        <v>-872200</v>
       </c>
       <c r="H89" s="3">
-        <v>-448900</v>
+        <v>1272800</v>
       </c>
       <c r="I89" s="3">
+        <v>-600100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-434900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-266200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>136000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>703800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>250800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>435500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>179000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>398600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-193700</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-14800</v>
+        <v>-500</v>
       </c>
       <c r="E91" s="3">
-        <v>-7300</v>
+        <v>-16500</v>
       </c>
       <c r="F91" s="3">
-        <v>-16600</v>
+        <v>-14400</v>
       </c>
       <c r="G91" s="3">
-        <v>-8700</v>
+        <v>-21400</v>
       </c>
       <c r="H91" s="3">
-        <v>-13200</v>
+        <v>-1700</v>
       </c>
       <c r="I91" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-10800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-10300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-10500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-6700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-6700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-12200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-135300</v>
+        <v>-381100</v>
       </c>
       <c r="E94" s="3">
-        <v>76600</v>
+        <v>-79300</v>
       </c>
       <c r="F94" s="3">
-        <v>-368400</v>
+        <v>-131100</v>
       </c>
       <c r="G94" s="3">
-        <v>368100</v>
+        <v>74200</v>
       </c>
       <c r="H94" s="3">
-        <v>90800</v>
+        <v>-356900</v>
       </c>
       <c r="I94" s="3">
+        <v>356600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>88000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-36700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>110800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-319300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-565800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-682600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-165900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>8300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>260000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4613,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-434700</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-456100</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-441800</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-478800</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-502800</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1099300</v>
+        <v>-146400</v>
       </c>
       <c r="E100" s="3">
-        <v>852500</v>
+        <v>-226300</v>
       </c>
       <c r="F100" s="3">
-        <v>-691000</v>
+        <v>1064900</v>
       </c>
       <c r="G100" s="3">
-        <v>579900</v>
+        <v>825800</v>
       </c>
       <c r="H100" s="3">
-        <v>292500</v>
+        <v>-669400</v>
       </c>
       <c r="I100" s="3">
+        <v>561800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>283400</v>
+      </c>
+      <c r="K100" s="3">
         <v>152300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-199200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>237400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-152300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>17700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>92300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-55300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>329700</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>53400</v>
+        <v>42500</v>
       </c>
       <c r="E101" s="3">
-        <v>-6200</v>
+        <v>-13900</v>
       </c>
       <c r="F101" s="3">
-        <v>11100</v>
+        <v>51700</v>
       </c>
       <c r="G101" s="3">
-        <v>35100</v>
+        <v>-6000</v>
       </c>
       <c r="H101" s="3">
-        <v>37500</v>
+        <v>10800</v>
       </c>
       <c r="I101" s="3">
+        <v>34000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>36400</v>
+      </c>
+      <c r="K101" s="3">
         <v>86400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-10300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-34600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-12900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>10300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-19200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>14300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1079600</v>
+        <v>-181600</v>
       </c>
       <c r="E102" s="3">
-        <v>24300</v>
+        <v>752000</v>
       </c>
       <c r="F102" s="3">
-        <v>263900</v>
+        <v>1045800</v>
       </c>
       <c r="G102" s="3">
-        <v>363700</v>
+        <v>23500</v>
       </c>
       <c r="H102" s="3">
-        <v>-28100</v>
+        <v>255600</v>
       </c>
       <c r="I102" s="3">
+        <v>352300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-64200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>37300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>587400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-480200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-219200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>86200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>365900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>383400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BCH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>BCH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,138 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>687300</v>
+        <v>559800</v>
       </c>
       <c r="E8" s="3">
-        <v>707100</v>
+        <v>703900</v>
       </c>
       <c r="F8" s="3">
-        <v>632100</v>
+        <v>724200</v>
       </c>
       <c r="G8" s="3">
-        <v>745300</v>
+        <v>647300</v>
       </c>
       <c r="H8" s="3">
-        <v>534000</v>
+        <v>763300</v>
       </c>
       <c r="I8" s="3">
-        <v>651400</v>
+        <v>546900</v>
       </c>
       <c r="J8" s="3">
+        <v>667200</v>
+      </c>
+      <c r="K8" s="3">
         <v>630400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>634800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>601400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>705400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>579000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>809800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>671400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>702900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>721300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,49 +1078,52 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-22900</v>
+        <v>-22400</v>
       </c>
       <c r="E15" s="3">
-        <v>-23100</v>
+        <v>-23500</v>
       </c>
       <c r="F15" s="3">
-        <v>-21400</v>
+        <v>-23700</v>
       </c>
       <c r="G15" s="3">
-        <v>-21700</v>
+        <v>-21900</v>
       </c>
       <c r="H15" s="3">
-        <v>-21300</v>
+        <v>-22200</v>
       </c>
       <c r="I15" s="3">
-        <v>-12100</v>
+        <v>-21800</v>
       </c>
       <c r="J15" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="K15" s="3">
         <v>-11700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-11900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-11700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-13300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-13200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-12700</v>
-      </c>
-      <c r="P15" s="3">
-        <v>-12600</v>
       </c>
       <c r="Q15" s="3">
         <v>-12600</v>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>-12600</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>-12600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>409400</v>
+        <v>325100</v>
       </c>
       <c r="E17" s="3">
-        <v>380000</v>
+        <v>419300</v>
       </c>
       <c r="F17" s="3">
-        <v>324200</v>
+        <v>389200</v>
       </c>
       <c r="G17" s="3">
-        <v>375500</v>
+        <v>332000</v>
       </c>
       <c r="H17" s="3">
-        <v>271400</v>
+        <v>384600</v>
       </c>
       <c r="I17" s="3">
-        <v>306600</v>
+        <v>277900</v>
       </c>
       <c r="J17" s="3">
+        <v>314000</v>
+      </c>
+      <c r="K17" s="3">
         <v>335700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>280000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>287100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>323900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>236400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>425600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>318000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>372400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>352500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>277900</v>
+        <v>234700</v>
       </c>
       <c r="E18" s="3">
-        <v>327100</v>
+        <v>284700</v>
       </c>
       <c r="F18" s="3">
-        <v>307900</v>
+        <v>335000</v>
       </c>
       <c r="G18" s="3">
-        <v>369700</v>
+        <v>315300</v>
       </c>
       <c r="H18" s="3">
-        <v>262600</v>
+        <v>378700</v>
       </c>
       <c r="I18" s="3">
-        <v>344900</v>
+        <v>269000</v>
       </c>
       <c r="J18" s="3">
+        <v>353200</v>
+      </c>
+      <c r="K18" s="3">
         <v>294600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>354800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>314300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>381500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>342700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>384200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>353400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>330400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>368900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,108 +1278,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-68200</v>
+        <v>-53400</v>
       </c>
       <c r="E20" s="3">
-        <v>-88500</v>
+        <v>-69900</v>
       </c>
       <c r="F20" s="3">
-        <v>-68600</v>
+        <v>-90600</v>
       </c>
       <c r="G20" s="3">
-        <v>-70200</v>
+        <v>-70300</v>
       </c>
       <c r="H20" s="3">
-        <v>-94300</v>
+        <v>-71900</v>
       </c>
       <c r="I20" s="3">
-        <v>-66000</v>
+        <v>-96600</v>
       </c>
       <c r="J20" s="3">
+        <v>-67600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-95300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-105400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-95600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-125500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-110000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-104600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-105900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-114200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-116200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>232600</v>
+        <v>203700</v>
       </c>
       <c r="E21" s="3">
-        <v>261800</v>
+        <v>238300</v>
       </c>
       <c r="F21" s="3">
-        <v>260600</v>
+        <v>268100</v>
       </c>
       <c r="G21" s="3">
-        <v>321100</v>
+        <v>266900</v>
       </c>
       <c r="H21" s="3">
-        <v>189600</v>
+        <v>328900</v>
       </c>
       <c r="I21" s="3">
-        <v>291000</v>
+        <v>194200</v>
       </c>
       <c r="J21" s="3">
+        <v>298000</v>
+      </c>
+      <c r="K21" s="3">
         <v>211000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>261300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>230500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>269300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>245900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>292300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>260100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>228900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>265300</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>209700</v>
+        <v>181300</v>
       </c>
       <c r="E23" s="3">
-        <v>238700</v>
+        <v>214800</v>
       </c>
       <c r="F23" s="3">
-        <v>239300</v>
+        <v>244500</v>
       </c>
       <c r="G23" s="3">
-        <v>299500</v>
+        <v>245100</v>
       </c>
       <c r="H23" s="3">
-        <v>168300</v>
+        <v>306700</v>
       </c>
       <c r="I23" s="3">
-        <v>278900</v>
+        <v>172400</v>
       </c>
       <c r="J23" s="3">
+        <v>285600</v>
+      </c>
+      <c r="K23" s="3">
         <v>199300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>249400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>218700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>256000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>232700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>279600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>247600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>216200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>252700</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>40000</v>
+        <v>39400</v>
       </c>
       <c r="E24" s="3">
-        <v>56200</v>
+        <v>41000</v>
       </c>
       <c r="F24" s="3">
-        <v>50500</v>
+        <v>57600</v>
       </c>
       <c r="G24" s="3">
-        <v>61200</v>
+        <v>51800</v>
       </c>
       <c r="H24" s="3">
-        <v>42400</v>
+        <v>62700</v>
       </c>
       <c r="I24" s="3">
-        <v>78600</v>
+        <v>43400</v>
       </c>
       <c r="J24" s="3">
+        <v>80500</v>
+      </c>
+      <c r="K24" s="3">
         <v>40400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>41300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>36100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>46700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>35900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>44700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>41800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>28900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>169700</v>
+        <v>141900</v>
       </c>
       <c r="E26" s="3">
-        <v>182500</v>
+        <v>173800</v>
       </c>
       <c r="F26" s="3">
-        <v>188700</v>
+        <v>186900</v>
       </c>
       <c r="G26" s="3">
-        <v>238200</v>
+        <v>193300</v>
       </c>
       <c r="H26" s="3">
-        <v>125900</v>
+        <v>244000</v>
       </c>
       <c r="I26" s="3">
-        <v>200300</v>
+        <v>129000</v>
       </c>
       <c r="J26" s="3">
+        <v>205100</v>
+      </c>
+      <c r="K26" s="3">
         <v>158900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>208100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>182600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>209300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>196800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>234900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>205800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>187300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>169700</v>
+        <v>141900</v>
       </c>
       <c r="E27" s="3">
-        <v>182500</v>
+        <v>173800</v>
       </c>
       <c r="F27" s="3">
-        <v>188700</v>
+        <v>186900</v>
       </c>
       <c r="G27" s="3">
-        <v>238200</v>
+        <v>193300</v>
       </c>
       <c r="H27" s="3">
-        <v>125900</v>
+        <v>244000</v>
       </c>
       <c r="I27" s="3">
-        <v>200300</v>
+        <v>129000</v>
       </c>
       <c r="J27" s="3">
+        <v>205100</v>
+      </c>
+      <c r="K27" s="3">
         <v>158900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>208100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>182600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>209300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>196800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>234900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>205800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>187300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>68200</v>
+        <v>53400</v>
       </c>
       <c r="E32" s="3">
-        <v>88500</v>
+        <v>69900</v>
       </c>
       <c r="F32" s="3">
-        <v>68600</v>
+        <v>90600</v>
       </c>
       <c r="G32" s="3">
-        <v>70200</v>
+        <v>70300</v>
       </c>
       <c r="H32" s="3">
-        <v>94300</v>
+        <v>71900</v>
       </c>
       <c r="I32" s="3">
-        <v>66000</v>
+        <v>96600</v>
       </c>
       <c r="J32" s="3">
+        <v>67600</v>
+      </c>
+      <c r="K32" s="3">
         <v>95300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>105400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>95600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>125500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>110000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>104600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>105900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>114200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>116200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>169700</v>
+        <v>141900</v>
       </c>
       <c r="E33" s="3">
-        <v>182500</v>
+        <v>173800</v>
       </c>
       <c r="F33" s="3">
-        <v>188700</v>
+        <v>186900</v>
       </c>
       <c r="G33" s="3">
-        <v>238200</v>
+        <v>193300</v>
       </c>
       <c r="H33" s="3">
-        <v>125900</v>
+        <v>244000</v>
       </c>
       <c r="I33" s="3">
-        <v>200300</v>
+        <v>129000</v>
       </c>
       <c r="J33" s="3">
+        <v>205100</v>
+      </c>
+      <c r="K33" s="3">
         <v>158900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>208100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>182600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>209300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>196800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>234900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>205800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>187300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>169700</v>
+        <v>141900</v>
       </c>
       <c r="E35" s="3">
-        <v>182500</v>
+        <v>173800</v>
       </c>
       <c r="F35" s="3">
-        <v>188700</v>
+        <v>186900</v>
       </c>
       <c r="G35" s="3">
-        <v>238200</v>
+        <v>193300</v>
       </c>
       <c r="H35" s="3">
-        <v>125900</v>
+        <v>244000</v>
       </c>
       <c r="I35" s="3">
-        <v>200300</v>
+        <v>129000</v>
       </c>
       <c r="J35" s="3">
+        <v>205100</v>
+      </c>
+      <c r="K35" s="3">
         <v>158900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>208100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>182600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>209300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>196800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>234900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>205800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>187300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,108 +2226,115 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4230700</v>
+        <v>4318200</v>
       </c>
       <c r="E41" s="3">
-        <v>3462600</v>
+        <v>4333000</v>
       </c>
       <c r="F41" s="3">
-        <v>3368500</v>
+        <v>3546400</v>
       </c>
       <c r="G41" s="3">
-        <v>3919000</v>
+        <v>3450000</v>
       </c>
       <c r="H41" s="3">
-        <v>3196000</v>
+        <v>4013800</v>
       </c>
       <c r="I41" s="3">
-        <v>3498400</v>
+        <v>3273300</v>
       </c>
       <c r="J41" s="3">
+        <v>3583100</v>
+      </c>
+      <c r="K41" s="3">
         <v>3428900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3538600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2836400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2891200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3077300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2958500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3387100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3523000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3447400</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9591800</v>
+        <v>11811500</v>
       </c>
       <c r="E42" s="3">
-        <v>7594700</v>
+        <v>9823800</v>
       </c>
       <c r="F42" s="3">
-        <v>6155000</v>
+        <v>7778400</v>
       </c>
       <c r="G42" s="3">
-        <v>4073900</v>
+        <v>6303900</v>
       </c>
       <c r="H42" s="3">
-        <v>4127700</v>
+        <v>4172500</v>
       </c>
       <c r="I42" s="3">
-        <v>4327600</v>
+        <v>4227500</v>
       </c>
       <c r="J42" s="3">
+        <v>4432300</v>
+      </c>
+      <c r="K42" s="3">
         <v>4120600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3732800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4057800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4892500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3759300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>4831100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>4779700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>4568200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>4469300</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,158 +2542,170 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>65300</v>
+        <v>65100</v>
       </c>
       <c r="E47" s="3">
-        <v>62900</v>
+        <v>66900</v>
       </c>
       <c r="F47" s="3">
-        <v>61000</v>
+        <v>64500</v>
       </c>
       <c r="G47" s="3">
-        <v>59100</v>
+        <v>62400</v>
       </c>
       <c r="H47" s="3">
-        <v>56700</v>
+        <v>60600</v>
       </c>
       <c r="I47" s="3">
-        <v>55300</v>
+        <v>58100</v>
       </c>
       <c r="J47" s="3">
+        <v>56600</v>
+      </c>
+      <c r="K47" s="3">
         <v>55000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>53200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>49900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>55900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>53600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>51200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>50200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>49200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>476100</v>
+        <v>471100</v>
       </c>
       <c r="E48" s="3">
-        <v>476300</v>
+        <v>487600</v>
       </c>
       <c r="F48" s="3">
-        <v>479900</v>
+        <v>487800</v>
       </c>
       <c r="G48" s="3">
-        <v>481800</v>
+        <v>491600</v>
       </c>
       <c r="H48" s="3">
-        <v>482800</v>
+        <v>493500</v>
       </c>
       <c r="I48" s="3">
-        <v>285000</v>
+        <v>494500</v>
       </c>
       <c r="J48" s="3">
+        <v>291900</v>
+      </c>
+      <c r="K48" s="3">
         <v>285700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>290400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>289800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>338900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>338500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>338100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>340900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>353000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>350300</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>72900</v>
+        <v>75500</v>
       </c>
       <c r="E49" s="3">
-        <v>72300</v>
+        <v>74600</v>
       </c>
       <c r="F49" s="3">
-        <v>67900</v>
+        <v>74000</v>
       </c>
       <c r="G49" s="3">
-        <v>67500</v>
+        <v>69600</v>
       </c>
       <c r="H49" s="3">
-        <v>65800</v>
+        <v>69100</v>
       </c>
       <c r="I49" s="3">
-        <v>64600</v>
+        <v>67300</v>
       </c>
       <c r="J49" s="3">
+        <v>66100</v>
+      </c>
+      <c r="K49" s="3">
         <v>60000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>58300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>53500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>57400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>49900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>45000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>44100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>44300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>392600</v>
+        <v>411700</v>
       </c>
       <c r="E52" s="3">
-        <v>398000</v>
+        <v>402100</v>
       </c>
       <c r="F52" s="3">
-        <v>391900</v>
+        <v>407600</v>
       </c>
       <c r="G52" s="3">
-        <v>396700</v>
+        <v>401400</v>
       </c>
       <c r="H52" s="3">
-        <v>342900</v>
+        <v>406300</v>
       </c>
       <c r="I52" s="3">
-        <v>344600</v>
+        <v>351200</v>
       </c>
       <c r="J52" s="3">
+        <v>353000</v>
+      </c>
+      <c r="K52" s="3">
         <v>331800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>333300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>339900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>393100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>436900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>435600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>433600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>425400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>55547900</v>
+        <v>58601100</v>
       </c>
       <c r="E54" s="3">
-        <v>51178900</v>
+        <v>56891800</v>
       </c>
       <c r="F54" s="3">
-        <v>48914700</v>
+        <v>52417100</v>
       </c>
       <c r="G54" s="3">
-        <v>46195800</v>
+        <v>50098100</v>
       </c>
       <c r="H54" s="3">
-        <v>44754500</v>
+        <v>47313400</v>
       </c>
       <c r="I54" s="3">
-        <v>44548800</v>
+        <v>45837300</v>
       </c>
       <c r="J54" s="3">
+        <v>45626600</v>
+      </c>
+      <c r="K54" s="3">
         <v>43505300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>43981900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>42552000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>48251600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>46956400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>47447700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>46794000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>47615900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>46838400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,158 +3010,168 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>870600</v>
+        <v>1005500</v>
       </c>
       <c r="E57" s="3">
-        <v>723600</v>
+        <v>891700</v>
       </c>
       <c r="F57" s="3">
-        <v>813400</v>
+        <v>741200</v>
       </c>
       <c r="G57" s="3">
-        <v>1190200</v>
+        <v>833100</v>
       </c>
       <c r="H57" s="3">
-        <v>967500</v>
+        <v>1219000</v>
       </c>
       <c r="I57" s="3">
-        <v>635400</v>
+        <v>990900</v>
       </c>
       <c r="J57" s="3">
+        <v>650700</v>
+      </c>
+      <c r="K57" s="3">
         <v>855600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>770600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>834400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>714200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>723800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1213600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>773100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>515500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>680800</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4077100</v>
+        <v>3511900</v>
       </c>
       <c r="E58" s="3">
-        <v>3880600</v>
+        <v>4175700</v>
       </c>
       <c r="F58" s="3">
-        <v>4187800</v>
+        <v>3974500</v>
       </c>
       <c r="G58" s="3">
-        <v>4132100</v>
+        <v>4289100</v>
       </c>
       <c r="H58" s="3">
-        <v>3493400</v>
+        <v>4232000</v>
       </c>
       <c r="I58" s="3">
-        <v>3838600</v>
+        <v>3577900</v>
       </c>
       <c r="J58" s="3">
+        <v>3931500</v>
+      </c>
+      <c r="K58" s="3">
         <v>3540700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3309200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3137700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3693500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3661200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3726400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3443200</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>160200</v>
+        <v>157900</v>
       </c>
       <c r="E59" s="3">
-        <v>469000</v>
+        <v>164100</v>
       </c>
       <c r="F59" s="3">
-        <v>351800</v>
+        <v>480300</v>
       </c>
       <c r="G59" s="3">
-        <v>277800</v>
+        <v>360300</v>
       </c>
       <c r="H59" s="3">
-        <v>115200</v>
+        <v>284500</v>
       </c>
       <c r="I59" s="3">
-        <v>406000</v>
+        <v>118000</v>
       </c>
       <c r="J59" s="3">
+        <v>415800</v>
+      </c>
+      <c r="K59" s="3">
         <v>277700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>202400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>99500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>466800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>352500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>235000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>110600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>432900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>339800</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3080,108 +3220,117 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10228700</v>
+        <v>14187200</v>
       </c>
       <c r="E61" s="3">
-        <v>9744100</v>
+        <v>10476200</v>
       </c>
       <c r="F61" s="3">
-        <v>9393400</v>
+        <v>9979800</v>
       </c>
       <c r="G61" s="3">
-        <v>8327700</v>
+        <v>9620700</v>
       </c>
       <c r="H61" s="3">
-        <v>8072000</v>
+        <v>8529200</v>
       </c>
       <c r="I61" s="3">
-        <v>7834900</v>
+        <v>8267300</v>
       </c>
       <c r="J61" s="3">
+        <v>8024500</v>
+      </c>
+      <c r="K61" s="3">
         <v>7630200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7685300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7531900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8090800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7957500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8136900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8411800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>11180300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>11255500</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>447400</v>
+        <v>568300</v>
       </c>
       <c r="E62" s="3">
-        <v>476400</v>
+        <v>458200</v>
       </c>
       <c r="F62" s="3">
-        <v>458600</v>
+        <v>487900</v>
       </c>
       <c r="G62" s="3">
-        <v>444400</v>
+        <v>469600</v>
       </c>
       <c r="H62" s="3">
-        <v>420100</v>
+        <v>455200</v>
       </c>
       <c r="I62" s="3">
-        <v>452200</v>
+        <v>430300</v>
       </c>
       <c r="J62" s="3">
+        <v>463200</v>
+      </c>
+      <c r="K62" s="3">
         <v>439600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>454100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>458700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>563000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>590800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>576700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>553100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>569000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>589100</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>51144800</v>
+        <v>54055900</v>
       </c>
       <c r="E66" s="3">
-        <v>46803900</v>
+        <v>52382200</v>
       </c>
       <c r="F66" s="3">
-        <v>44669000</v>
+        <v>47936300</v>
       </c>
       <c r="G66" s="3">
-        <v>41988900</v>
+        <v>45749700</v>
       </c>
       <c r="H66" s="3">
-        <v>40661300</v>
+        <v>43004800</v>
       </c>
       <c r="I66" s="3">
-        <v>40451700</v>
+        <v>41645100</v>
       </c>
       <c r="J66" s="3">
+        <v>41430300</v>
+      </c>
+      <c r="K66" s="3">
         <v>39508100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>39927200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>38580100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>43686200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>42491400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>43061400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>42536500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>43255900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>42530100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1509200</v>
+        <v>1621200</v>
       </c>
       <c r="E72" s="3">
-        <v>1471400</v>
+        <v>1545700</v>
       </c>
       <c r="F72" s="3">
-        <v>1388900</v>
+        <v>1507000</v>
       </c>
       <c r="G72" s="3">
-        <v>1283300</v>
+        <v>1422500</v>
       </c>
       <c r="H72" s="3">
-        <v>1148000</v>
+        <v>1314300</v>
       </c>
       <c r="I72" s="3">
-        <v>1164000</v>
+        <v>1175800</v>
       </c>
       <c r="J72" s="3">
+        <v>1192200</v>
+      </c>
+      <c r="K72" s="3">
         <v>1069700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1019000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>910500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1242200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1147100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1065000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>959400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1171800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4403100</v>
+        <v>4545200</v>
       </c>
       <c r="E76" s="3">
-        <v>4375000</v>
+        <v>4509600</v>
       </c>
       <c r="F76" s="3">
-        <v>4245700</v>
+        <v>4480800</v>
       </c>
       <c r="G76" s="3">
-        <v>4206900</v>
+        <v>4348400</v>
       </c>
       <c r="H76" s="3">
-        <v>4093200</v>
+        <v>4308700</v>
       </c>
       <c r="I76" s="3">
-        <v>4097100</v>
+        <v>4192200</v>
       </c>
       <c r="J76" s="3">
+        <v>4196300</v>
+      </c>
+      <c r="K76" s="3">
         <v>3997200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4054600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3971900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4565400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4465000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4386200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4257500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4360000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4308300</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>169700</v>
+        <v>141900</v>
       </c>
       <c r="E81" s="3">
-        <v>182500</v>
+        <v>173800</v>
       </c>
       <c r="F81" s="3">
-        <v>188700</v>
+        <v>186900</v>
       </c>
       <c r="G81" s="3">
-        <v>238200</v>
+        <v>193300</v>
       </c>
       <c r="H81" s="3">
-        <v>125900</v>
+        <v>244000</v>
       </c>
       <c r="I81" s="3">
-        <v>200300</v>
+        <v>129000</v>
       </c>
       <c r="J81" s="3">
+        <v>205100</v>
+      </c>
+      <c r="K81" s="3">
         <v>158900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>208100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>182600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>209300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>196800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>234900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>205800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>187300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,49 +4223,50 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>22900</v>
+        <v>22400</v>
       </c>
       <c r="E83" s="3">
-        <v>23100</v>
+        <v>23500</v>
       </c>
       <c r="F83" s="3">
-        <v>21400</v>
+        <v>23700</v>
       </c>
       <c r="G83" s="3">
-        <v>21700</v>
+        <v>21900</v>
       </c>
       <c r="H83" s="3">
-        <v>21300</v>
+        <v>22200</v>
       </c>
       <c r="I83" s="3">
-        <v>12100</v>
+        <v>21800</v>
       </c>
       <c r="J83" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K83" s="3">
         <v>11700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>13300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>13200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>12700</v>
-      </c>
-      <c r="P83" s="3">
-        <v>12600</v>
       </c>
       <c r="Q83" s="3">
         <v>12600</v>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>12600</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>303300</v>
+        <v>-863700</v>
       </c>
       <c r="E89" s="3">
-        <v>1071500</v>
+        <v>310700</v>
       </c>
       <c r="F89" s="3">
-        <v>60300</v>
+        <v>1097500</v>
       </c>
       <c r="G89" s="3">
-        <v>-872200</v>
+        <v>61700</v>
       </c>
       <c r="H89" s="3">
-        <v>1272800</v>
+        <v>-893300</v>
       </c>
       <c r="I89" s="3">
-        <v>-600100</v>
+        <v>1303600</v>
       </c>
       <c r="J89" s="3">
+        <v>-614600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-434900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-266200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>136000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>703800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>250800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>435500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>179000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>398600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-193700</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
-        <v>-16500</v>
-      </c>
       <c r="F91" s="3">
-        <v>-14400</v>
+        <v>-16900</v>
       </c>
       <c r="G91" s="3">
-        <v>-21400</v>
+        <v>-14700</v>
       </c>
       <c r="H91" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="I91" s="3">
         <v>-1700</v>
       </c>
-      <c r="I91" s="3">
-        <v>-8400</v>
-      </c>
       <c r="J91" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-12800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-10500</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-6700</v>
       </c>
       <c r="P91" s="3">
         <v>-6700</v>
       </c>
       <c r="Q91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="R91" s="3">
         <v>-12200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-381100</v>
+        <v>38500</v>
       </c>
       <c r="E94" s="3">
-        <v>-79300</v>
+        <v>-390300</v>
       </c>
       <c r="F94" s="3">
-        <v>-131100</v>
+        <v>-81200</v>
       </c>
       <c r="G94" s="3">
-        <v>74200</v>
+        <v>-134300</v>
       </c>
       <c r="H94" s="3">
-        <v>-356900</v>
+        <v>76000</v>
       </c>
       <c r="I94" s="3">
-        <v>356600</v>
+        <v>-365500</v>
       </c>
       <c r="J94" s="3">
+        <v>365300</v>
+      </c>
+      <c r="K94" s="3">
         <v>88000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-36700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>110800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-319300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-565800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-682600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-165900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>8300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>260000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,16 +4848,17 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-434700</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-445200</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -4633,10 +4867,10 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-441800</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-452500</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -4645,11 +4879,11 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-478800</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -4657,16 +4891,19 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-502800</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-146400</v>
+        <v>3252900</v>
       </c>
       <c r="E100" s="3">
-        <v>-226300</v>
+        <v>-149900</v>
       </c>
       <c r="F100" s="3">
-        <v>1064900</v>
+        <v>-231800</v>
       </c>
       <c r="G100" s="3">
-        <v>825800</v>
+        <v>1090700</v>
       </c>
       <c r="H100" s="3">
-        <v>-669400</v>
+        <v>845800</v>
       </c>
       <c r="I100" s="3">
-        <v>561800</v>
+        <v>-685600</v>
       </c>
       <c r="J100" s="3">
+        <v>575400</v>
+      </c>
+      <c r="K100" s="3">
         <v>283400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>152300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-199200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>237400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-152300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>17700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>92300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-55300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>329700</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>42500</v>
+        <v>101800</v>
       </c>
       <c r="E101" s="3">
-        <v>-13900</v>
+        <v>43600</v>
       </c>
       <c r="F101" s="3">
-        <v>51700</v>
+        <v>-14300</v>
       </c>
       <c r="G101" s="3">
-        <v>-6000</v>
+        <v>53000</v>
       </c>
       <c r="H101" s="3">
-        <v>10800</v>
+        <v>-6200</v>
       </c>
       <c r="I101" s="3">
-        <v>34000</v>
+        <v>11000</v>
       </c>
       <c r="J101" s="3">
+        <v>34800</v>
+      </c>
+      <c r="K101" s="3">
         <v>36400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>86400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-10300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-34600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-12900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>10300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-19200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>14300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-181600</v>
+        <v>2529400</v>
       </c>
       <c r="E102" s="3">
-        <v>752000</v>
+        <v>-186000</v>
       </c>
       <c r="F102" s="3">
-        <v>1045800</v>
+        <v>770200</v>
       </c>
       <c r="G102" s="3">
-        <v>23500</v>
+        <v>1071100</v>
       </c>
       <c r="H102" s="3">
-        <v>255600</v>
+        <v>24100</v>
       </c>
       <c r="I102" s="3">
-        <v>352300</v>
+        <v>261800</v>
       </c>
       <c r="J102" s="3">
+        <v>360800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-27200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-64200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>37300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>587400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-480200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-219200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>86200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>365900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>383400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BCH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>BCH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,145 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>559800</v>
+        <v>468700</v>
       </c>
       <c r="E8" s="3">
-        <v>703900</v>
+        <v>573000</v>
       </c>
       <c r="F8" s="3">
-        <v>724200</v>
+        <v>720600</v>
       </c>
       <c r="G8" s="3">
-        <v>647300</v>
+        <v>741300</v>
       </c>
       <c r="H8" s="3">
-        <v>763300</v>
+        <v>662600</v>
       </c>
       <c r="I8" s="3">
-        <v>546900</v>
+        <v>781300</v>
       </c>
       <c r="J8" s="3">
+        <v>559900</v>
+      </c>
+      <c r="K8" s="3">
         <v>667200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>630400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>634800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>601400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>705400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>579000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>809800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>671400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>702900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>721300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,52 +1101,55 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="H15" s="3">
         <v>-22400</v>
       </c>
-      <c r="E15" s="3">
-        <v>-23500</v>
-      </c>
-      <c r="F15" s="3">
-        <v>-23700</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-21900</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-22200</v>
-      </c>
       <c r="I15" s="3">
-        <v>-21800</v>
+        <v>-22700</v>
       </c>
       <c r="J15" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="K15" s="3">
         <v>-12400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-11700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-11900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-11700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-13300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-13200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-12700</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>-12600</v>
       </c>
       <c r="R15" s="3">
         <v>-12600</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>-12600</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>-12600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>325100</v>
+        <v>203500</v>
       </c>
       <c r="E17" s="3">
-        <v>419300</v>
+        <v>332800</v>
       </c>
       <c r="F17" s="3">
-        <v>389200</v>
+        <v>429200</v>
       </c>
       <c r="G17" s="3">
-        <v>332000</v>
+        <v>398400</v>
       </c>
       <c r="H17" s="3">
-        <v>384600</v>
+        <v>339800</v>
       </c>
       <c r="I17" s="3">
-        <v>277900</v>
+        <v>393700</v>
       </c>
       <c r="J17" s="3">
+        <v>284500</v>
+      </c>
+      <c r="K17" s="3">
         <v>314000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>335700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>280000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>287100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>323900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>236400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>425600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>318000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>372400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>352500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>234700</v>
+        <v>265200</v>
       </c>
       <c r="E18" s="3">
-        <v>284700</v>
+        <v>240200</v>
       </c>
       <c r="F18" s="3">
-        <v>335000</v>
+        <v>291400</v>
       </c>
       <c r="G18" s="3">
-        <v>315300</v>
+        <v>343000</v>
       </c>
       <c r="H18" s="3">
-        <v>378700</v>
+        <v>322800</v>
       </c>
       <c r="I18" s="3">
-        <v>269000</v>
+        <v>387600</v>
       </c>
       <c r="J18" s="3">
+        <v>275400</v>
+      </c>
+      <c r="K18" s="3">
         <v>353200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>294600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>354800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>314300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>381500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>342700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>384200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>353400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>330400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>368900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-53400</v>
+        <v>-110400</v>
       </c>
       <c r="E20" s="3">
-        <v>-69900</v>
+        <v>-54700</v>
       </c>
       <c r="F20" s="3">
-        <v>-90600</v>
+        <v>-71500</v>
       </c>
       <c r="G20" s="3">
-        <v>-70300</v>
+        <v>-92700</v>
       </c>
       <c r="H20" s="3">
         <v>-71900</v>
       </c>
       <c r="I20" s="3">
-        <v>-96600</v>
+        <v>-73600</v>
       </c>
       <c r="J20" s="3">
+        <v>-98900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-67600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-95300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-105400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-95600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-125500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-110000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-104600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-105900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-114200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-116200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>203700</v>
+        <v>179100</v>
       </c>
       <c r="E21" s="3">
-        <v>238300</v>
+        <v>208500</v>
       </c>
       <c r="F21" s="3">
-        <v>268100</v>
+        <v>243900</v>
       </c>
       <c r="G21" s="3">
-        <v>266900</v>
+        <v>274500</v>
       </c>
       <c r="H21" s="3">
-        <v>328900</v>
+        <v>273200</v>
       </c>
       <c r="I21" s="3">
-        <v>194200</v>
+        <v>336700</v>
       </c>
       <c r="J21" s="3">
+        <v>198800</v>
+      </c>
+      <c r="K21" s="3">
         <v>298000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>211000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>261300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>230500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>269300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>245900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>292300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>260100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>228900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>265300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>181300</v>
+        <v>154800</v>
       </c>
       <c r="E23" s="3">
-        <v>214800</v>
+        <v>185600</v>
       </c>
       <c r="F23" s="3">
-        <v>244500</v>
+        <v>219900</v>
       </c>
       <c r="G23" s="3">
-        <v>245100</v>
+        <v>250200</v>
       </c>
       <c r="H23" s="3">
-        <v>306700</v>
+        <v>250900</v>
       </c>
       <c r="I23" s="3">
-        <v>172400</v>
+        <v>314000</v>
       </c>
       <c r="J23" s="3">
+        <v>176400</v>
+      </c>
+      <c r="K23" s="3">
         <v>285600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>199300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>249400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>218700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>256000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>232700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>279600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>247600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>216200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>252700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>39400</v>
+        <v>40000</v>
       </c>
       <c r="E24" s="3">
-        <v>41000</v>
+        <v>40400</v>
       </c>
       <c r="F24" s="3">
-        <v>57600</v>
+        <v>41900</v>
       </c>
       <c r="G24" s="3">
-        <v>51800</v>
+        <v>58900</v>
       </c>
       <c r="H24" s="3">
-        <v>62700</v>
+        <v>53000</v>
       </c>
       <c r="I24" s="3">
-        <v>43400</v>
+        <v>64200</v>
       </c>
       <c r="J24" s="3">
+        <v>44400</v>
+      </c>
+      <c r="K24" s="3">
         <v>80500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>40400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>41300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>36100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>46700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>35900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>44700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>41800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>28900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>141900</v>
+        <v>114700</v>
       </c>
       <c r="E26" s="3">
-        <v>173800</v>
+        <v>145200</v>
       </c>
       <c r="F26" s="3">
-        <v>186900</v>
+        <v>177900</v>
       </c>
       <c r="G26" s="3">
-        <v>193300</v>
+        <v>191300</v>
       </c>
       <c r="H26" s="3">
-        <v>244000</v>
+        <v>197900</v>
       </c>
       <c r="I26" s="3">
-        <v>129000</v>
+        <v>249800</v>
       </c>
       <c r="J26" s="3">
+        <v>132000</v>
+      </c>
+      <c r="K26" s="3">
         <v>205100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>158900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>208100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>182600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>209300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>196800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>234900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>205800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>187300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>141900</v>
+        <v>114700</v>
       </c>
       <c r="E27" s="3">
-        <v>173800</v>
+        <v>145200</v>
       </c>
       <c r="F27" s="3">
-        <v>186900</v>
+        <v>177900</v>
       </c>
       <c r="G27" s="3">
-        <v>193300</v>
+        <v>191300</v>
       </c>
       <c r="H27" s="3">
-        <v>244000</v>
+        <v>197900</v>
       </c>
       <c r="I27" s="3">
-        <v>129000</v>
+        <v>249800</v>
       </c>
       <c r="J27" s="3">
+        <v>132000</v>
+      </c>
+      <c r="K27" s="3">
         <v>205100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>158900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>208100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>182600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>209300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>196800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>234900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>205800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>187300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>53400</v>
+        <v>110400</v>
       </c>
       <c r="E32" s="3">
-        <v>69900</v>
+        <v>54700</v>
       </c>
       <c r="F32" s="3">
-        <v>90600</v>
+        <v>71500</v>
       </c>
       <c r="G32" s="3">
-        <v>70300</v>
+        <v>92700</v>
       </c>
       <c r="H32" s="3">
         <v>71900</v>
       </c>
       <c r="I32" s="3">
-        <v>96600</v>
+        <v>73600</v>
       </c>
       <c r="J32" s="3">
+        <v>98900</v>
+      </c>
+      <c r="K32" s="3">
         <v>67600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>95300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>105400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>95600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>125500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>110000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>104600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>105900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>114200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>116200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>141900</v>
+        <v>114700</v>
       </c>
       <c r="E33" s="3">
-        <v>173800</v>
+        <v>145200</v>
       </c>
       <c r="F33" s="3">
-        <v>186900</v>
+        <v>177900</v>
       </c>
       <c r="G33" s="3">
-        <v>193300</v>
+        <v>191300</v>
       </c>
       <c r="H33" s="3">
-        <v>244000</v>
+        <v>197900</v>
       </c>
       <c r="I33" s="3">
-        <v>129000</v>
+        <v>249800</v>
       </c>
       <c r="J33" s="3">
+        <v>132000</v>
+      </c>
+      <c r="K33" s="3">
         <v>205100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>158900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>208100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>182600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>209300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>196800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>234900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>205800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>187300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>141900</v>
+        <v>114700</v>
       </c>
       <c r="E35" s="3">
-        <v>173800</v>
+        <v>145200</v>
       </c>
       <c r="F35" s="3">
-        <v>186900</v>
+        <v>177900</v>
       </c>
       <c r="G35" s="3">
-        <v>193300</v>
+        <v>191300</v>
       </c>
       <c r="H35" s="3">
-        <v>244000</v>
+        <v>197900</v>
       </c>
       <c r="I35" s="3">
-        <v>129000</v>
+        <v>249800</v>
       </c>
       <c r="J35" s="3">
+        <v>132000</v>
+      </c>
+      <c r="K35" s="3">
         <v>205100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>158900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>208100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>182600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>209300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>196800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>234900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>205800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>187300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,114 +2313,121 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4318200</v>
+        <v>5136500</v>
       </c>
       <c r="E41" s="3">
-        <v>4333000</v>
+        <v>4420200</v>
       </c>
       <c r="F41" s="3">
-        <v>3546400</v>
+        <v>4435400</v>
       </c>
       <c r="G41" s="3">
-        <v>3450000</v>
+        <v>3630200</v>
       </c>
       <c r="H41" s="3">
-        <v>4013800</v>
+        <v>3531500</v>
       </c>
       <c r="I41" s="3">
-        <v>3273300</v>
+        <v>4108700</v>
       </c>
       <c r="J41" s="3">
+        <v>3350700</v>
+      </c>
+      <c r="K41" s="3">
         <v>3583100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3428900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3538600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2836400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2891200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3077300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2958500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3387100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3523000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3447400</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>11811500</v>
+        <v>10594400</v>
       </c>
       <c r="E42" s="3">
-        <v>9823800</v>
+        <v>12090500</v>
       </c>
       <c r="F42" s="3">
-        <v>7778400</v>
+        <v>10055900</v>
       </c>
       <c r="G42" s="3">
-        <v>6303900</v>
+        <v>7962100</v>
       </c>
       <c r="H42" s="3">
-        <v>4172500</v>
+        <v>6452800</v>
       </c>
       <c r="I42" s="3">
-        <v>4227500</v>
+        <v>4271000</v>
       </c>
       <c r="J42" s="3">
+        <v>4327400</v>
+      </c>
+      <c r="K42" s="3">
         <v>4432300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4120600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3732800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4057800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>4892500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3759300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>4831100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>4779700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>4568200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>4469300</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,167 +2647,179 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>65100</v>
+        <v>63700</v>
       </c>
       <c r="E47" s="3">
-        <v>66900</v>
+        <v>66700</v>
       </c>
       <c r="F47" s="3">
-        <v>64500</v>
+        <v>68400</v>
       </c>
       <c r="G47" s="3">
-        <v>62400</v>
+        <v>66000</v>
       </c>
       <c r="H47" s="3">
-        <v>60600</v>
+        <v>63900</v>
       </c>
       <c r="I47" s="3">
-        <v>58100</v>
+        <v>62000</v>
       </c>
       <c r="J47" s="3">
+        <v>59400</v>
+      </c>
+      <c r="K47" s="3">
         <v>56600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>55000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>53200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>49900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>55900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>53600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>51200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>50200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>49200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>471100</v>
+        <v>468100</v>
       </c>
       <c r="E48" s="3">
-        <v>487600</v>
+        <v>482200</v>
       </c>
       <c r="F48" s="3">
-        <v>487800</v>
+        <v>499200</v>
       </c>
       <c r="G48" s="3">
-        <v>491600</v>
+        <v>499400</v>
       </c>
       <c r="H48" s="3">
-        <v>493500</v>
+        <v>503200</v>
       </c>
       <c r="I48" s="3">
-        <v>494500</v>
+        <v>505100</v>
       </c>
       <c r="J48" s="3">
+        <v>506100</v>
+      </c>
+      <c r="K48" s="3">
         <v>291900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>285700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>290400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>289800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>338900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>338500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>338100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>340900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>353000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>350300</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>75500</v>
+        <v>78100</v>
       </c>
       <c r="E49" s="3">
-        <v>74600</v>
+        <v>77300</v>
       </c>
       <c r="F49" s="3">
-        <v>74000</v>
+        <v>76400</v>
       </c>
       <c r="G49" s="3">
-        <v>69600</v>
+        <v>75800</v>
       </c>
       <c r="H49" s="3">
-        <v>69100</v>
+        <v>71200</v>
       </c>
       <c r="I49" s="3">
-        <v>67300</v>
+        <v>70700</v>
       </c>
       <c r="J49" s="3">
+        <v>68900</v>
+      </c>
+      <c r="K49" s="3">
         <v>66100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>60000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>58300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>53500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>57400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>49900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>45000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>44100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>44300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>411700</v>
+        <v>433300</v>
       </c>
       <c r="E52" s="3">
-        <v>402100</v>
+        <v>421500</v>
       </c>
       <c r="F52" s="3">
-        <v>407600</v>
+        <v>411600</v>
       </c>
       <c r="G52" s="3">
-        <v>401400</v>
+        <v>417200</v>
       </c>
       <c r="H52" s="3">
-        <v>406300</v>
+        <v>410800</v>
       </c>
       <c r="I52" s="3">
-        <v>351200</v>
+        <v>415900</v>
       </c>
       <c r="J52" s="3">
+        <v>359500</v>
+      </c>
+      <c r="K52" s="3">
         <v>353000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>331800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>333300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>339900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>393100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>436900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>435600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>433600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>425400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>58601100</v>
+        <v>58928800</v>
       </c>
       <c r="E54" s="3">
-        <v>56891800</v>
+        <v>59985400</v>
       </c>
       <c r="F54" s="3">
-        <v>52417100</v>
+        <v>58235700</v>
       </c>
       <c r="G54" s="3">
-        <v>50098100</v>
+        <v>53655300</v>
       </c>
       <c r="H54" s="3">
-        <v>47313400</v>
+        <v>51281600</v>
       </c>
       <c r="I54" s="3">
-        <v>45837300</v>
+        <v>48431100</v>
       </c>
       <c r="J54" s="3">
+        <v>46920100</v>
+      </c>
+      <c r="K54" s="3">
         <v>45626600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>43505300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>43981900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>42552000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>48251600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>46956400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>47447700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>46794000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>47615900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>46838400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,167 +3141,177 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1005500</v>
+        <v>1590800</v>
       </c>
       <c r="E57" s="3">
-        <v>891700</v>
+        <v>1029300</v>
       </c>
       <c r="F57" s="3">
-        <v>741200</v>
+        <v>912700</v>
       </c>
       <c r="G57" s="3">
-        <v>833100</v>
+        <v>758700</v>
       </c>
       <c r="H57" s="3">
-        <v>1219000</v>
+        <v>852800</v>
       </c>
       <c r="I57" s="3">
-        <v>990900</v>
+        <v>1247800</v>
       </c>
       <c r="J57" s="3">
+        <v>1014300</v>
+      </c>
+      <c r="K57" s="3">
         <v>650700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>855600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>770600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>834400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>714200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>723800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1213600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>773100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>515500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>680800</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3511900</v>
+        <v>2891400</v>
       </c>
       <c r="E58" s="3">
-        <v>4175700</v>
+        <v>3594900</v>
       </c>
       <c r="F58" s="3">
-        <v>3974500</v>
+        <v>4274400</v>
       </c>
       <c r="G58" s="3">
-        <v>4289100</v>
+        <v>4068400</v>
       </c>
       <c r="H58" s="3">
-        <v>4232000</v>
+        <v>4390400</v>
       </c>
       <c r="I58" s="3">
-        <v>3577900</v>
+        <v>4332000</v>
       </c>
       <c r="J58" s="3">
+        <v>3662400</v>
+      </c>
+      <c r="K58" s="3">
         <v>3931500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3540700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3309200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3137700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3693500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3661200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3726400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3443200</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>157900</v>
+        <v>227800</v>
       </c>
       <c r="E59" s="3">
-        <v>164100</v>
+        <v>161600</v>
       </c>
       <c r="F59" s="3">
-        <v>480300</v>
+        <v>168000</v>
       </c>
       <c r="G59" s="3">
-        <v>360300</v>
+        <v>491700</v>
       </c>
       <c r="H59" s="3">
-        <v>284500</v>
+        <v>368800</v>
       </c>
       <c r="I59" s="3">
-        <v>118000</v>
+        <v>291300</v>
       </c>
       <c r="J59" s="3">
+        <v>120800</v>
+      </c>
+      <c r="K59" s="3">
         <v>415800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>277700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>202400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>99500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>466800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>352500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>235000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>110600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>432900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>339800</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,114 +3363,123 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14187200</v>
+        <v>14125100</v>
       </c>
       <c r="E61" s="3">
-        <v>10476200</v>
+        <v>14522300</v>
       </c>
       <c r="F61" s="3">
-        <v>9979800</v>
+        <v>10723700</v>
       </c>
       <c r="G61" s="3">
-        <v>9620700</v>
+        <v>10215600</v>
       </c>
       <c r="H61" s="3">
-        <v>8529200</v>
+        <v>9847900</v>
       </c>
       <c r="I61" s="3">
-        <v>8267300</v>
+        <v>8730700</v>
       </c>
       <c r="J61" s="3">
+        <v>8462600</v>
+      </c>
+      <c r="K61" s="3">
         <v>8024500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7630200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7685300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7531900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8090800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7957500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8136900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8411800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>11180300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>11255500</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>568300</v>
+        <v>547300</v>
       </c>
       <c r="E62" s="3">
-        <v>458200</v>
+        <v>581700</v>
       </c>
       <c r="F62" s="3">
-        <v>487900</v>
+        <v>469100</v>
       </c>
       <c r="G62" s="3">
-        <v>469600</v>
+        <v>499500</v>
       </c>
       <c r="H62" s="3">
-        <v>455200</v>
+        <v>480700</v>
       </c>
       <c r="I62" s="3">
-        <v>430300</v>
+        <v>465900</v>
       </c>
       <c r="J62" s="3">
+        <v>440400</v>
+      </c>
+      <c r="K62" s="3">
         <v>463200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>439600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>454100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>458700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>563000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>590800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>576700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>553100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>569000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>589100</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>54055900</v>
+        <v>54207900</v>
       </c>
       <c r="E66" s="3">
-        <v>52382200</v>
+        <v>55332800</v>
       </c>
       <c r="F66" s="3">
-        <v>47936300</v>
+        <v>53619500</v>
       </c>
       <c r="G66" s="3">
-        <v>45749700</v>
+        <v>49068600</v>
       </c>
       <c r="H66" s="3">
-        <v>43004800</v>
+        <v>46830400</v>
       </c>
       <c r="I66" s="3">
-        <v>41645100</v>
+        <v>44020600</v>
       </c>
       <c r="J66" s="3">
+        <v>42628800</v>
+      </c>
+      <c r="K66" s="3">
         <v>41430300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>39508100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>39927200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>38580100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>43686200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>42491400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>43061400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>42536500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>43255900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>42530100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1621200</v>
+        <v>1700800</v>
       </c>
       <c r="E72" s="3">
-        <v>1545700</v>
+        <v>1659500</v>
       </c>
       <c r="F72" s="3">
-        <v>1507000</v>
+        <v>1582200</v>
       </c>
       <c r="G72" s="3">
-        <v>1422500</v>
+        <v>1542600</v>
       </c>
       <c r="H72" s="3">
-        <v>1314300</v>
+        <v>1456100</v>
       </c>
       <c r="I72" s="3">
-        <v>1175800</v>
+        <v>1345400</v>
       </c>
       <c r="J72" s="3">
+        <v>1203600</v>
+      </c>
+      <c r="K72" s="3">
         <v>1192200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1069700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1019000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>910500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1242200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1147100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1065000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>959400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1171800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4545200</v>
+        <v>4720900</v>
       </c>
       <c r="E76" s="3">
-        <v>4509600</v>
+        <v>4652600</v>
       </c>
       <c r="F76" s="3">
-        <v>4480800</v>
+        <v>4616200</v>
       </c>
       <c r="G76" s="3">
-        <v>4348400</v>
+        <v>4586700</v>
       </c>
       <c r="H76" s="3">
-        <v>4308700</v>
+        <v>4451100</v>
       </c>
       <c r="I76" s="3">
-        <v>4192200</v>
+        <v>4410400</v>
       </c>
       <c r="J76" s="3">
+        <v>4291200</v>
+      </c>
+      <c r="K76" s="3">
         <v>4196300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3997200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4054600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3971900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4565400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4465000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4386200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4257500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4360000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4308300</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>141900</v>
+        <v>114700</v>
       </c>
       <c r="E81" s="3">
-        <v>173800</v>
+        <v>145200</v>
       </c>
       <c r="F81" s="3">
-        <v>186900</v>
+        <v>177900</v>
       </c>
       <c r="G81" s="3">
-        <v>193300</v>
+        <v>191300</v>
       </c>
       <c r="H81" s="3">
-        <v>244000</v>
+        <v>197900</v>
       </c>
       <c r="I81" s="3">
-        <v>129000</v>
+        <v>249800</v>
       </c>
       <c r="J81" s="3">
+        <v>132000</v>
+      </c>
+      <c r="K81" s="3">
         <v>205100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>158900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>208100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>182600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>209300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>196800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>234900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>205800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>187300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,52 +4422,53 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>22900</v>
+      </c>
+      <c r="F83" s="3">
+        <v>24000</v>
+      </c>
+      <c r="G83" s="3">
+        <v>24300</v>
+      </c>
+      <c r="H83" s="3">
         <v>22400</v>
       </c>
-      <c r="E83" s="3">
-        <v>23500</v>
-      </c>
-      <c r="F83" s="3">
-        <v>23700</v>
-      </c>
-      <c r="G83" s="3">
-        <v>21900</v>
-      </c>
-      <c r="H83" s="3">
-        <v>22200</v>
-      </c>
       <c r="I83" s="3">
-        <v>21800</v>
+        <v>22700</v>
       </c>
       <c r="J83" s="3">
+        <v>22400</v>
+      </c>
+      <c r="K83" s="3">
         <v>12400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>11700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>13300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>13200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>12700</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>12600</v>
       </c>
       <c r="R83" s="3">
         <v>12600</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>12600</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-863700</v>
+        <v>342700</v>
       </c>
       <c r="E89" s="3">
-        <v>310700</v>
+        <v>-884100</v>
       </c>
       <c r="F89" s="3">
-        <v>1097500</v>
+        <v>318000</v>
       </c>
       <c r="G89" s="3">
-        <v>61700</v>
+        <v>1123400</v>
       </c>
       <c r="H89" s="3">
-        <v>-893300</v>
+        <v>63200</v>
       </c>
       <c r="I89" s="3">
-        <v>1303600</v>
+        <v>-914400</v>
       </c>
       <c r="J89" s="3">
+        <v>1334400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-614600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-434900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-266200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>136000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>703800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>250800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>435500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>179000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>398600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-193700</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
-        <v>-16900</v>
-      </c>
       <c r="G91" s="3">
-        <v>-14700</v>
+        <v>-17300</v>
       </c>
       <c r="H91" s="3">
-        <v>-21900</v>
+        <v>-15100</v>
       </c>
       <c r="I91" s="3">
-        <v>-1700</v>
+        <v>-22400</v>
       </c>
       <c r="J91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-8600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-12800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-10300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-10500</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-6700</v>
       </c>
       <c r="Q91" s="3">
         <v>-6700</v>
       </c>
       <c r="R91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="S91" s="3">
         <v>-12200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>38500</v>
+        <v>396900</v>
       </c>
       <c r="E94" s="3">
-        <v>-390300</v>
+        <v>39400</v>
       </c>
       <c r="F94" s="3">
-        <v>-81200</v>
+        <v>-399500</v>
       </c>
       <c r="G94" s="3">
-        <v>-134300</v>
+        <v>-83100</v>
       </c>
       <c r="H94" s="3">
-        <v>76000</v>
+        <v>-137500</v>
       </c>
       <c r="I94" s="3">
-        <v>-365500</v>
+        <v>77800</v>
       </c>
       <c r="J94" s="3">
+        <v>-374100</v>
+      </c>
+      <c r="K94" s="3">
         <v>365300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>88000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-36700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>110800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-319300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-565800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-682600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-165900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>8300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>260000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4858,10 +5092,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-445200</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-455700</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -4870,10 +5104,10 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-452500</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-463200</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -4882,11 +5116,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-478800</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -4894,16 +5128,19 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-502800</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3252900</v>
+        <v>-1055300</v>
       </c>
       <c r="E100" s="3">
-        <v>-149900</v>
+        <v>3329700</v>
       </c>
       <c r="F100" s="3">
-        <v>-231800</v>
+        <v>-153400</v>
       </c>
       <c r="G100" s="3">
-        <v>1090700</v>
+        <v>-237300</v>
       </c>
       <c r="H100" s="3">
-        <v>845800</v>
+        <v>1116500</v>
       </c>
       <c r="I100" s="3">
-        <v>-685600</v>
+        <v>865800</v>
       </c>
       <c r="J100" s="3">
+        <v>-701800</v>
+      </c>
+      <c r="K100" s="3">
         <v>575400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>283400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>152300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-199200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>237400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-152300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>17700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>92300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-55300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>329700</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>101800</v>
+        <v>-78200</v>
       </c>
       <c r="E101" s="3">
-        <v>43600</v>
+        <v>104200</v>
       </c>
       <c r="F101" s="3">
-        <v>-14300</v>
+        <v>44600</v>
       </c>
       <c r="G101" s="3">
-        <v>53000</v>
+        <v>-14600</v>
       </c>
       <c r="H101" s="3">
-        <v>-6200</v>
+        <v>54200</v>
       </c>
       <c r="I101" s="3">
-        <v>11000</v>
+        <v>-6300</v>
       </c>
       <c r="J101" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K101" s="3">
         <v>34800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>36400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>86400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-10300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-34600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-12900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>10300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-19200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>14300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2529400</v>
+        <v>-393900</v>
       </c>
       <c r="E102" s="3">
-        <v>-186000</v>
+        <v>2589200</v>
       </c>
       <c r="F102" s="3">
-        <v>770200</v>
+        <v>-190400</v>
       </c>
       <c r="G102" s="3">
-        <v>1071100</v>
+        <v>788400</v>
       </c>
       <c r="H102" s="3">
-        <v>24100</v>
+        <v>1096400</v>
       </c>
       <c r="I102" s="3">
-        <v>261800</v>
+        <v>24700</v>
       </c>
       <c r="J102" s="3">
+        <v>268000</v>
+      </c>
+      <c r="K102" s="3">
         <v>360800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-27200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-64200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>37300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>587400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-480200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-219200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>86200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>365900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>383400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BCH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>BCH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,151 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>468700</v>
+        <v>714000</v>
       </c>
       <c r="E8" s="3">
-        <v>573000</v>
+        <v>497600</v>
       </c>
       <c r="F8" s="3">
-        <v>720600</v>
+        <v>608300</v>
       </c>
       <c r="G8" s="3">
-        <v>741300</v>
+        <v>764900</v>
       </c>
       <c r="H8" s="3">
-        <v>662600</v>
+        <v>786900</v>
       </c>
       <c r="I8" s="3">
-        <v>781300</v>
+        <v>703400</v>
       </c>
       <c r="J8" s="3">
+        <v>829400</v>
+      </c>
+      <c r="K8" s="3">
         <v>559900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>667200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>630400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>634800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>601400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>705400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>579000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>809800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>671400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>702900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>721300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,55 +1123,58 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-24400</v>
+        <v>-25500</v>
       </c>
       <c r="E15" s="3">
-        <v>-22900</v>
+        <v>-25900</v>
       </c>
       <c r="F15" s="3">
-        <v>-24000</v>
+        <v>-24300</v>
       </c>
       <c r="G15" s="3">
-        <v>-24300</v>
+        <v>-25500</v>
       </c>
       <c r="H15" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="K15" s="3">
         <v>-22400</v>
       </c>
-      <c r="I15" s="3">
-        <v>-22700</v>
-      </c>
-      <c r="J15" s="3">
-        <v>-22400</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-12400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-11700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-11900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-11700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-13300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-13200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-12700</v>
-      </c>
-      <c r="R15" s="3">
-        <v>-12600</v>
       </c>
       <c r="S15" s="3">
         <v>-12600</v>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>-12600</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>-12600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>203500</v>
+        <v>348200</v>
       </c>
       <c r="E17" s="3">
-        <v>332800</v>
+        <v>216100</v>
       </c>
       <c r="F17" s="3">
-        <v>429200</v>
+        <v>353300</v>
       </c>
       <c r="G17" s="3">
-        <v>398400</v>
+        <v>455600</v>
       </c>
       <c r="H17" s="3">
-        <v>339800</v>
+        <v>422900</v>
       </c>
       <c r="I17" s="3">
-        <v>393700</v>
+        <v>360800</v>
       </c>
       <c r="J17" s="3">
+        <v>417900</v>
+      </c>
+      <c r="K17" s="3">
         <v>284500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>314000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>335700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>280000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>287100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>323900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>236400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>425600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>318000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>372400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>352500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>265200</v>
+        <v>365800</v>
       </c>
       <c r="E18" s="3">
-        <v>240200</v>
+        <v>281500</v>
       </c>
       <c r="F18" s="3">
-        <v>291400</v>
+        <v>255000</v>
       </c>
       <c r="G18" s="3">
-        <v>343000</v>
+        <v>309300</v>
       </c>
       <c r="H18" s="3">
-        <v>322800</v>
+        <v>364100</v>
       </c>
       <c r="I18" s="3">
-        <v>387600</v>
+        <v>342700</v>
       </c>
       <c r="J18" s="3">
+        <v>411500</v>
+      </c>
+      <c r="K18" s="3">
         <v>275400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>353200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>294600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>354800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>314300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>381500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>342700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>384200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>353400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>330400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>368900</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1345,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-110400</v>
+        <v>-147600</v>
       </c>
       <c r="E20" s="3">
-        <v>-54700</v>
+        <v>-117200</v>
       </c>
       <c r="F20" s="3">
-        <v>-71500</v>
+        <v>-58000</v>
       </c>
       <c r="G20" s="3">
-        <v>-92700</v>
+        <v>-75900</v>
       </c>
       <c r="H20" s="3">
-        <v>-71900</v>
+        <v>-98400</v>
       </c>
       <c r="I20" s="3">
-        <v>-73600</v>
+        <v>-76400</v>
       </c>
       <c r="J20" s="3">
+        <v>-78200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-98900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-67600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-95300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-105400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-95600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-125500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-110000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-104600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-105900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-114200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-116200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>179100</v>
+        <v>243800</v>
       </c>
       <c r="E21" s="3">
-        <v>208500</v>
+        <v>190200</v>
       </c>
       <c r="F21" s="3">
-        <v>243900</v>
+        <v>221300</v>
       </c>
       <c r="G21" s="3">
-        <v>274500</v>
+        <v>258900</v>
       </c>
       <c r="H21" s="3">
-        <v>273200</v>
+        <v>291400</v>
       </c>
       <c r="I21" s="3">
-        <v>336700</v>
+        <v>290000</v>
       </c>
       <c r="J21" s="3">
+        <v>357400</v>
+      </c>
+      <c r="K21" s="3">
         <v>198800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>298000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>211000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>261300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>230500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>269300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>245900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>292300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>260100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>228900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>265300</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,120 +1520,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>154800</v>
+        <v>218200</v>
       </c>
       <c r="E23" s="3">
-        <v>185600</v>
+        <v>164300</v>
       </c>
       <c r="F23" s="3">
-        <v>219900</v>
+        <v>197000</v>
       </c>
       <c r="G23" s="3">
-        <v>250200</v>
+        <v>233400</v>
       </c>
       <c r="H23" s="3">
-        <v>250900</v>
+        <v>265600</v>
       </c>
       <c r="I23" s="3">
-        <v>314000</v>
+        <v>266300</v>
       </c>
       <c r="J23" s="3">
+        <v>333300</v>
+      </c>
+      <c r="K23" s="3">
         <v>176400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>285600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>199300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>249400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>218700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>256000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>232700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>279600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>247600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>216200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>252700</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>40000</v>
+        <v>44000</v>
       </c>
       <c r="E24" s="3">
+        <v>42500</v>
+      </c>
+      <c r="F24" s="3">
+        <v>42800</v>
+      </c>
+      <c r="G24" s="3">
+        <v>44500</v>
+      </c>
+      <c r="H24" s="3">
+        <v>62600</v>
+      </c>
+      <c r="I24" s="3">
+        <v>56300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>68200</v>
+      </c>
+      <c r="K24" s="3">
+        <v>44400</v>
+      </c>
+      <c r="L24" s="3">
+        <v>80500</v>
+      </c>
+      <c r="M24" s="3">
         <v>40400</v>
       </c>
-      <c r="F24" s="3">
-        <v>41900</v>
-      </c>
-      <c r="G24" s="3">
-        <v>58900</v>
-      </c>
-      <c r="H24" s="3">
-        <v>53000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>64200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>44400</v>
-      </c>
-      <c r="K24" s="3">
-        <v>80500</v>
-      </c>
-      <c r="L24" s="3">
-        <v>40400</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>41300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>36100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>46700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>35900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>44700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>41800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>28900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>114700</v>
+        <v>174300</v>
       </c>
       <c r="E26" s="3">
-        <v>145200</v>
+        <v>121800</v>
       </c>
       <c r="F26" s="3">
-        <v>177900</v>
+        <v>154200</v>
       </c>
       <c r="G26" s="3">
-        <v>191300</v>
+        <v>188900</v>
       </c>
       <c r="H26" s="3">
-        <v>197900</v>
+        <v>203100</v>
       </c>
       <c r="I26" s="3">
-        <v>249800</v>
+        <v>210000</v>
       </c>
       <c r="J26" s="3">
+        <v>265100</v>
+      </c>
+      <c r="K26" s="3">
         <v>132000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>205100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>158900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>208100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>182600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>209300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>196800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>234900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>205800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>187300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>114700</v>
+        <v>174300</v>
       </c>
       <c r="E27" s="3">
-        <v>145200</v>
+        <v>121800</v>
       </c>
       <c r="F27" s="3">
-        <v>177900</v>
+        <v>154200</v>
       </c>
       <c r="G27" s="3">
-        <v>191300</v>
+        <v>188900</v>
       </c>
       <c r="H27" s="3">
-        <v>197900</v>
+        <v>203100</v>
       </c>
       <c r="I27" s="3">
-        <v>249800</v>
+        <v>210000</v>
       </c>
       <c r="J27" s="3">
+        <v>265100</v>
+      </c>
+      <c r="K27" s="3">
         <v>132000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>205100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>158900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>208100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>182600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>209300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>196800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>234900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>205800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>187300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>110400</v>
+        <v>147600</v>
       </c>
       <c r="E32" s="3">
-        <v>54700</v>
+        <v>117200</v>
       </c>
       <c r="F32" s="3">
-        <v>71500</v>
+        <v>58000</v>
       </c>
       <c r="G32" s="3">
-        <v>92700</v>
+        <v>75900</v>
       </c>
       <c r="H32" s="3">
-        <v>71900</v>
+        <v>98400</v>
       </c>
       <c r="I32" s="3">
-        <v>73600</v>
+        <v>76400</v>
       </c>
       <c r="J32" s="3">
+        <v>78200</v>
+      </c>
+      <c r="K32" s="3">
         <v>98900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>67600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>95300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>105400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>95600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>125500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>110000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>104600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>105900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>114200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>116200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>114700</v>
+        <v>174300</v>
       </c>
       <c r="E33" s="3">
-        <v>145200</v>
+        <v>121800</v>
       </c>
       <c r="F33" s="3">
-        <v>177900</v>
+        <v>154200</v>
       </c>
       <c r="G33" s="3">
-        <v>191300</v>
+        <v>188900</v>
       </c>
       <c r="H33" s="3">
-        <v>197900</v>
+        <v>203100</v>
       </c>
       <c r="I33" s="3">
-        <v>249800</v>
+        <v>210000</v>
       </c>
       <c r="J33" s="3">
+        <v>265100</v>
+      </c>
+      <c r="K33" s="3">
         <v>132000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>205100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>158900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>208100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>182600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>209300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>196800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>234900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>205800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>187300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>114700</v>
+        <v>174300</v>
       </c>
       <c r="E35" s="3">
-        <v>145200</v>
+        <v>121800</v>
       </c>
       <c r="F35" s="3">
-        <v>177900</v>
+        <v>154200</v>
       </c>
       <c r="G35" s="3">
-        <v>191300</v>
+        <v>188900</v>
       </c>
       <c r="H35" s="3">
-        <v>197900</v>
+        <v>203100</v>
       </c>
       <c r="I35" s="3">
-        <v>249800</v>
+        <v>210000</v>
       </c>
       <c r="J35" s="3">
+        <v>265100</v>
+      </c>
+      <c r="K35" s="3">
         <v>132000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>205100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>158900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>208100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>182600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>209300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>196800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>234900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>205800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>187300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,120 +2399,127 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5136500</v>
+        <v>6595100</v>
       </c>
       <c r="E41" s="3">
-        <v>4420200</v>
+        <v>5452600</v>
       </c>
       <c r="F41" s="3">
-        <v>4435400</v>
+        <v>4692300</v>
       </c>
       <c r="G41" s="3">
-        <v>3630200</v>
+        <v>4708300</v>
       </c>
       <c r="H41" s="3">
-        <v>3531500</v>
+        <v>3853600</v>
       </c>
       <c r="I41" s="3">
-        <v>4108700</v>
+        <v>3748800</v>
       </c>
       <c r="J41" s="3">
+        <v>4361500</v>
+      </c>
+      <c r="K41" s="3">
         <v>3350700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3583100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3428900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3538600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2836400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2891200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3077300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2958500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3387100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3523000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3447400</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>10594400</v>
+        <v>11955000</v>
       </c>
       <c r="E42" s="3">
-        <v>12090500</v>
+        <v>11246400</v>
       </c>
       <c r="F42" s="3">
-        <v>10055900</v>
+        <v>12834600</v>
       </c>
       <c r="G42" s="3">
-        <v>7962100</v>
+        <v>10674700</v>
       </c>
       <c r="H42" s="3">
-        <v>6452800</v>
+        <v>8452100</v>
       </c>
       <c r="I42" s="3">
-        <v>4271000</v>
+        <v>6849900</v>
       </c>
       <c r="J42" s="3">
+        <v>4533900</v>
+      </c>
+      <c r="K42" s="3">
         <v>4327400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4432300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4120600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3732800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>4057800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>4892500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3759300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>4831100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>4779700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>4568200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>4469300</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2574,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2633,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2692,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,176 +2751,188 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>63700</v>
+        <v>61600</v>
       </c>
       <c r="E47" s="3">
-        <v>66700</v>
+        <v>67600</v>
       </c>
       <c r="F47" s="3">
-        <v>68400</v>
+        <v>70800</v>
       </c>
       <c r="G47" s="3">
-        <v>66000</v>
+        <v>72700</v>
       </c>
       <c r="H47" s="3">
-        <v>63900</v>
+        <v>70000</v>
       </c>
       <c r="I47" s="3">
-        <v>62000</v>
+        <v>67900</v>
       </c>
       <c r="J47" s="3">
+        <v>65800</v>
+      </c>
+      <c r="K47" s="3">
         <v>59400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>56600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>55000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>53200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>49900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>55900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>53600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>51200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>50200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>49200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>468100</v>
+        <v>482400</v>
       </c>
       <c r="E48" s="3">
-        <v>482200</v>
+        <v>496900</v>
       </c>
       <c r="F48" s="3">
-        <v>499200</v>
+        <v>511900</v>
       </c>
       <c r="G48" s="3">
-        <v>499400</v>
+        <v>529900</v>
       </c>
       <c r="H48" s="3">
-        <v>503200</v>
+        <v>530100</v>
       </c>
       <c r="I48" s="3">
-        <v>505100</v>
+        <v>534100</v>
       </c>
       <c r="J48" s="3">
+        <v>536200</v>
+      </c>
+      <c r="K48" s="3">
         <v>506100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>291900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>285700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>290400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>289800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>338900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>338500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>338100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>340900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>353000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>350300</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>78100</v>
+        <v>83800</v>
       </c>
       <c r="E49" s="3">
-        <v>77300</v>
+        <v>82900</v>
       </c>
       <c r="F49" s="3">
-        <v>76400</v>
+        <v>82100</v>
       </c>
       <c r="G49" s="3">
-        <v>75800</v>
+        <v>81100</v>
       </c>
       <c r="H49" s="3">
-        <v>71200</v>
+        <v>80500</v>
       </c>
       <c r="I49" s="3">
-        <v>70700</v>
+        <v>75600</v>
       </c>
       <c r="J49" s="3">
+        <v>75100</v>
+      </c>
+      <c r="K49" s="3">
         <v>68900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>66100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>60000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>58300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>53500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>57400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>49900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>45000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>44100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>44300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>433300</v>
+        <v>494000</v>
       </c>
       <c r="E52" s="3">
-        <v>421500</v>
+        <v>460000</v>
       </c>
       <c r="F52" s="3">
-        <v>411600</v>
+        <v>447400</v>
       </c>
       <c r="G52" s="3">
-        <v>417200</v>
+        <v>436900</v>
       </c>
       <c r="H52" s="3">
-        <v>410800</v>
+        <v>442900</v>
       </c>
       <c r="I52" s="3">
-        <v>415900</v>
+        <v>436100</v>
       </c>
       <c r="J52" s="3">
+        <v>441500</v>
+      </c>
+      <c r="K52" s="3">
         <v>359500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>353000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>331800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>333300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>339900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>393100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>436900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>435600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>433600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>425400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>58928800</v>
+        <v>63611300</v>
       </c>
       <c r="E54" s="3">
-        <v>59985400</v>
+        <v>62555200</v>
       </c>
       <c r="F54" s="3">
-        <v>58235700</v>
+        <v>63676800</v>
       </c>
       <c r="G54" s="3">
-        <v>53655300</v>
+        <v>61819400</v>
       </c>
       <c r="H54" s="3">
-        <v>51281600</v>
+        <v>56957200</v>
       </c>
       <c r="I54" s="3">
-        <v>48431100</v>
+        <v>54437300</v>
       </c>
       <c r="J54" s="3">
+        <v>51411400</v>
+      </c>
+      <c r="K54" s="3">
         <v>46920100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>45626600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>43505300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>43981900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>42552000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>48251600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>46956400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>47447700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>46794000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>47615900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>46838400</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,176 +3271,186 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1590800</v>
+        <v>2173700</v>
       </c>
       <c r="E57" s="3">
-        <v>1029300</v>
+        <v>1688700</v>
       </c>
       <c r="F57" s="3">
-        <v>912700</v>
+        <v>1092600</v>
       </c>
       <c r="G57" s="3">
-        <v>758700</v>
+        <v>968900</v>
       </c>
       <c r="H57" s="3">
-        <v>852800</v>
+        <v>805300</v>
       </c>
       <c r="I57" s="3">
-        <v>1247800</v>
+        <v>905300</v>
       </c>
       <c r="J57" s="3">
+        <v>1324600</v>
+      </c>
+      <c r="K57" s="3">
         <v>1014300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>650700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>855600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>770600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>834400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>714200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>723800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1213600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>773100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>515500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>680800</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2891400</v>
+        <v>3330900</v>
       </c>
       <c r="E58" s="3">
-        <v>3594900</v>
+        <v>3069300</v>
       </c>
       <c r="F58" s="3">
-        <v>4274400</v>
+        <v>3816100</v>
       </c>
       <c r="G58" s="3">
-        <v>4068400</v>
+        <v>4537400</v>
       </c>
       <c r="H58" s="3">
-        <v>4390400</v>
+        <v>4318700</v>
       </c>
       <c r="I58" s="3">
-        <v>4332000</v>
+        <v>4660600</v>
       </c>
       <c r="J58" s="3">
+        <v>4598600</v>
+      </c>
+      <c r="K58" s="3">
         <v>3662400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3931500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3540700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3309200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3137700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3693500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3661200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3726400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3443200</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>227800</v>
+        <v>310300</v>
       </c>
       <c r="E59" s="3">
-        <v>161600</v>
+        <v>241900</v>
       </c>
       <c r="F59" s="3">
-        <v>168000</v>
+        <v>171600</v>
       </c>
       <c r="G59" s="3">
-        <v>491700</v>
+        <v>178300</v>
       </c>
       <c r="H59" s="3">
-        <v>368800</v>
+        <v>521900</v>
       </c>
       <c r="I59" s="3">
-        <v>291300</v>
+        <v>391500</v>
       </c>
       <c r="J59" s="3">
+        <v>309200</v>
+      </c>
+      <c r="K59" s="3">
         <v>120800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>415800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>277700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>202400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>99500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>466800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>352500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>235000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>110600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>432900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>339800</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,120 +3505,129 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14125100</v>
+        <v>14414500</v>
       </c>
       <c r="E61" s="3">
-        <v>14522300</v>
+        <v>14994300</v>
       </c>
       <c r="F61" s="3">
-        <v>10723700</v>
+        <v>15416000</v>
       </c>
       <c r="G61" s="3">
-        <v>10215600</v>
+        <v>11383600</v>
       </c>
       <c r="H61" s="3">
-        <v>9847900</v>
+        <v>10844200</v>
       </c>
       <c r="I61" s="3">
-        <v>8730700</v>
+        <v>10454000</v>
       </c>
       <c r="J61" s="3">
+        <v>9268000</v>
+      </c>
+      <c r="K61" s="3">
         <v>8462600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8024500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7630200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7685300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7531900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8090800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7957500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8136900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8411800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>11180300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>11255500</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>547300</v>
+        <v>708800</v>
       </c>
       <c r="E62" s="3">
-        <v>581700</v>
+        <v>581000</v>
       </c>
       <c r="F62" s="3">
-        <v>469100</v>
+        <v>617500</v>
       </c>
       <c r="G62" s="3">
-        <v>499500</v>
+        <v>497900</v>
       </c>
       <c r="H62" s="3">
-        <v>480700</v>
+        <v>530200</v>
       </c>
       <c r="I62" s="3">
-        <v>465900</v>
+        <v>510300</v>
       </c>
       <c r="J62" s="3">
+        <v>494600</v>
+      </c>
+      <c r="K62" s="3">
         <v>440400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>463200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>439600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>454100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>458700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>563000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>590800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>576700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>553100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>569000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>589100</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>54207900</v>
+        <v>58469000</v>
       </c>
       <c r="E66" s="3">
-        <v>55332800</v>
+        <v>57543800</v>
       </c>
       <c r="F66" s="3">
-        <v>53619500</v>
+        <v>58737900</v>
       </c>
       <c r="G66" s="3">
-        <v>49068600</v>
+        <v>56919200</v>
       </c>
       <c r="H66" s="3">
-        <v>46830400</v>
+        <v>52088300</v>
       </c>
       <c r="I66" s="3">
-        <v>44020600</v>
+        <v>49712300</v>
       </c>
       <c r="J66" s="3">
+        <v>46729600</v>
+      </c>
+      <c r="K66" s="3">
         <v>42628800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>41430300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>39508100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>39927200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>38580100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>43686200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>42491400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>43061400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>42536500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>43255900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>42530100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1700800</v>
+        <v>1900700</v>
       </c>
       <c r="E72" s="3">
-        <v>1659500</v>
+        <v>1805500</v>
       </c>
       <c r="F72" s="3">
-        <v>1582200</v>
+        <v>1761600</v>
       </c>
       <c r="G72" s="3">
-        <v>1542600</v>
+        <v>1679600</v>
       </c>
       <c r="H72" s="3">
-        <v>1456100</v>
+        <v>1637500</v>
       </c>
       <c r="I72" s="3">
-        <v>1345400</v>
+        <v>1545700</v>
       </c>
       <c r="J72" s="3">
+        <v>1428200</v>
+      </c>
+      <c r="K72" s="3">
         <v>1203600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1192200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1069700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1019000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>910500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1242200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1147100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1065000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>959400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1171800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4720900</v>
+        <v>5142200</v>
       </c>
       <c r="E76" s="3">
-        <v>4652600</v>
+        <v>5011400</v>
       </c>
       <c r="F76" s="3">
-        <v>4616200</v>
+        <v>4938900</v>
       </c>
       <c r="G76" s="3">
-        <v>4586700</v>
+        <v>4900200</v>
       </c>
       <c r="H76" s="3">
-        <v>4451100</v>
+        <v>4868900</v>
       </c>
       <c r="I76" s="3">
-        <v>4410400</v>
+        <v>4725100</v>
       </c>
       <c r="J76" s="3">
+        <v>4681900</v>
+      </c>
+      <c r="K76" s="3">
         <v>4291200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4196300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3997200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4054600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3971900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4565400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4465000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4386200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4257500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4360000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4308300</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>114700</v>
+        <v>174300</v>
       </c>
       <c r="E81" s="3">
-        <v>145200</v>
+        <v>121800</v>
       </c>
       <c r="F81" s="3">
-        <v>177900</v>
+        <v>154200</v>
       </c>
       <c r="G81" s="3">
-        <v>191300</v>
+        <v>188900</v>
       </c>
       <c r="H81" s="3">
-        <v>197900</v>
+        <v>203100</v>
       </c>
       <c r="I81" s="3">
-        <v>249800</v>
+        <v>210000</v>
       </c>
       <c r="J81" s="3">
+        <v>265100</v>
+      </c>
+      <c r="K81" s="3">
         <v>132000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>205100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>158900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>208100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>182600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>209300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>196800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>234900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>205800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>187300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,55 +4620,56 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>24400</v>
+        <v>25500</v>
       </c>
       <c r="E83" s="3">
-        <v>22900</v>
+        <v>25900</v>
       </c>
       <c r="F83" s="3">
-        <v>24000</v>
+        <v>24300</v>
       </c>
       <c r="G83" s="3">
-        <v>24300</v>
+        <v>25500</v>
       </c>
       <c r="H83" s="3">
+        <v>25700</v>
+      </c>
+      <c r="I83" s="3">
+        <v>23800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>24100</v>
+      </c>
+      <c r="K83" s="3">
         <v>22400</v>
       </c>
-      <c r="I83" s="3">
-        <v>22700</v>
-      </c>
-      <c r="J83" s="3">
-        <v>22400</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>11900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>11700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>13300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>13200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>12700</v>
-      </c>
-      <c r="R83" s="3">
-        <v>12600</v>
       </c>
       <c r="S83" s="3">
         <v>12600</v>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>12600</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>342700</v>
+        <v>954300</v>
       </c>
       <c r="E89" s="3">
-        <v>-884100</v>
+        <v>363800</v>
       </c>
       <c r="F89" s="3">
-        <v>318000</v>
+        <v>-938500</v>
       </c>
       <c r="G89" s="3">
-        <v>1123400</v>
+        <v>337600</v>
       </c>
       <c r="H89" s="3">
-        <v>63200</v>
+        <v>1192500</v>
       </c>
       <c r="I89" s="3">
-        <v>-914400</v>
+        <v>67100</v>
       </c>
       <c r="J89" s="3">
+        <v>-970600</v>
+      </c>
+      <c r="K89" s="3">
         <v>1334400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-614600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-434900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-266200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>136000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>703800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>250800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>435500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>179000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>398600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-193700</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
-        <v>-500</v>
-      </c>
       <c r="G91" s="3">
-        <v>-17300</v>
+        <v>-600</v>
       </c>
       <c r="H91" s="3">
-        <v>-15100</v>
+        <v>-18400</v>
       </c>
       <c r="I91" s="3">
-        <v>-22400</v>
+        <v>-16000</v>
       </c>
       <c r="J91" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-12800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-10300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-10500</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-6700</v>
       </c>
       <c r="R91" s="3">
         <v>-6700</v>
       </c>
       <c r="S91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="T91" s="3">
         <v>-12200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>396900</v>
+        <v>250600</v>
       </c>
       <c r="E94" s="3">
-        <v>39400</v>
+        <v>421300</v>
       </c>
       <c r="F94" s="3">
-        <v>-399500</v>
+        <v>41800</v>
       </c>
       <c r="G94" s="3">
-        <v>-83100</v>
+        <v>-424100</v>
       </c>
       <c r="H94" s="3">
-        <v>-137500</v>
+        <v>-88200</v>
       </c>
       <c r="I94" s="3">
-        <v>77800</v>
+        <v>-145900</v>
       </c>
       <c r="J94" s="3">
+        <v>82600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-374100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>365300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>88000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-36700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>110800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-319300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-565800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-682600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-165900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>8300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>260000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5095,10 +5328,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-455700</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-483700</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -5107,11 +5340,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-463200</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -5119,11 +5352,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-478800</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -5131,16 +5364,19 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-502800</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1055300</v>
+        <v>-234500</v>
       </c>
       <c r="E100" s="3">
-        <v>3329700</v>
+        <v>-1120200</v>
       </c>
       <c r="F100" s="3">
-        <v>-153400</v>
+        <v>3534600</v>
       </c>
       <c r="G100" s="3">
-        <v>-237300</v>
+        <v>-162900</v>
       </c>
       <c r="H100" s="3">
-        <v>1116500</v>
+        <v>-251900</v>
       </c>
       <c r="I100" s="3">
-        <v>865800</v>
+        <v>1185200</v>
       </c>
       <c r="J100" s="3">
+        <v>919100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-701800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>575400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>283400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>152300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-199200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>237400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-152300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>17700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>92300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-55300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>329700</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-78200</v>
+        <v>-122400</v>
       </c>
       <c r="E101" s="3">
-        <v>104200</v>
+        <v>-83000</v>
       </c>
       <c r="F101" s="3">
-        <v>44600</v>
+        <v>110600</v>
       </c>
       <c r="G101" s="3">
-        <v>-14600</v>
+        <v>47300</v>
       </c>
       <c r="H101" s="3">
-        <v>54200</v>
+        <v>-15500</v>
       </c>
       <c r="I101" s="3">
-        <v>-6300</v>
+        <v>57600</v>
       </c>
       <c r="J101" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="K101" s="3">
         <v>11300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>34800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>36400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>86400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-10300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-34600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-12900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>10300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-19200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>14300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-393900</v>
+        <v>848000</v>
       </c>
       <c r="E102" s="3">
-        <v>2589200</v>
+        <v>-418100</v>
       </c>
       <c r="F102" s="3">
-        <v>-190400</v>
+        <v>2748500</v>
       </c>
       <c r="G102" s="3">
-        <v>788400</v>
+        <v>-202100</v>
       </c>
       <c r="H102" s="3">
-        <v>1096400</v>
+        <v>836900</v>
       </c>
       <c r="I102" s="3">
-        <v>24700</v>
+        <v>1163900</v>
       </c>
       <c r="J102" s="3">
+        <v>26200</v>
+      </c>
+      <c r="K102" s="3">
         <v>268000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>360800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-27200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-64200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>37300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>587400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-480200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-219200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>86200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>365900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>383400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BCH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>BCH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,158 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>714000</v>
+        <v>663000</v>
       </c>
       <c r="E8" s="3">
-        <v>497600</v>
+        <v>703700</v>
       </c>
       <c r="F8" s="3">
-        <v>608300</v>
+        <v>490400</v>
       </c>
       <c r="G8" s="3">
-        <v>764900</v>
+        <v>599500</v>
       </c>
       <c r="H8" s="3">
-        <v>786900</v>
+        <v>753800</v>
       </c>
       <c r="I8" s="3">
-        <v>703400</v>
+        <v>775500</v>
       </c>
       <c r="J8" s="3">
+        <v>693200</v>
+      </c>
+      <c r="K8" s="3">
         <v>829400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>559900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>667200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>630400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>634800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>601400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>705400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>579000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>809800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>671400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>702900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>721300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1126,58 +1146,61 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="F15" s="3">
         <v>-25500</v>
       </c>
-      <c r="E15" s="3">
-        <v>-25900</v>
-      </c>
-      <c r="F15" s="3">
-        <v>-24300</v>
-      </c>
       <c r="G15" s="3">
-        <v>-25500</v>
+        <v>-24000</v>
       </c>
       <c r="H15" s="3">
-        <v>-25700</v>
+        <v>-25100</v>
       </c>
       <c r="I15" s="3">
-        <v>-23800</v>
+        <v>-25400</v>
       </c>
       <c r="J15" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="K15" s="3">
         <v>-24100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-22400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-12400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-11700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-11900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-11700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-13200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-12700</v>
-      </c>
-      <c r="S15" s="3">
-        <v>-12600</v>
       </c>
       <c r="T15" s="3">
         <v>-12600</v>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>-12600</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>-12600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>348200</v>
+        <v>281500</v>
       </c>
       <c r="E17" s="3">
-        <v>216100</v>
+        <v>343100</v>
       </c>
       <c r="F17" s="3">
-        <v>353300</v>
+        <v>212900</v>
       </c>
       <c r="G17" s="3">
-        <v>455600</v>
+        <v>348100</v>
       </c>
       <c r="H17" s="3">
-        <v>422900</v>
+        <v>449000</v>
       </c>
       <c r="I17" s="3">
-        <v>360800</v>
+        <v>416700</v>
       </c>
       <c r="J17" s="3">
+        <v>355500</v>
+      </c>
+      <c r="K17" s="3">
         <v>417900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>284500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>314000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>335700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>280000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>287100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>323900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>236400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>425600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>318000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>372400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>352500</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>365800</v>
+        <v>381500</v>
       </c>
       <c r="E18" s="3">
-        <v>281500</v>
+        <v>360500</v>
       </c>
       <c r="F18" s="3">
-        <v>255000</v>
+        <v>277400</v>
       </c>
       <c r="G18" s="3">
-        <v>309300</v>
+        <v>251300</v>
       </c>
       <c r="H18" s="3">
-        <v>364100</v>
+        <v>304800</v>
       </c>
       <c r="I18" s="3">
+        <v>358800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>337700</v>
+      </c>
+      <c r="K18" s="3">
+        <v>411500</v>
+      </c>
+      <c r="L18" s="3">
+        <v>275400</v>
+      </c>
+      <c r="M18" s="3">
+        <v>353200</v>
+      </c>
+      <c r="N18" s="3">
+        <v>294600</v>
+      </c>
+      <c r="O18" s="3">
+        <v>354800</v>
+      </c>
+      <c r="P18" s="3">
+        <v>314300</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>381500</v>
+      </c>
+      <c r="R18" s="3">
         <v>342700</v>
       </c>
-      <c r="J18" s="3">
-        <v>411500</v>
-      </c>
-      <c r="K18" s="3">
-        <v>275400</v>
-      </c>
-      <c r="L18" s="3">
-        <v>353200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>294600</v>
-      </c>
-      <c r="N18" s="3">
-        <v>354800</v>
-      </c>
-      <c r="O18" s="3">
-        <v>314300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>381500</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>342700</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>384200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>353400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>330400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>368900</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,126 +1379,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-147600</v>
+        <v>-105100</v>
       </c>
       <c r="E20" s="3">
-        <v>-117200</v>
+        <v>-145500</v>
       </c>
       <c r="F20" s="3">
-        <v>-58000</v>
+        <v>-115500</v>
       </c>
       <c r="G20" s="3">
-        <v>-75900</v>
+        <v>-57200</v>
       </c>
       <c r="H20" s="3">
-        <v>-98400</v>
+        <v>-74800</v>
       </c>
       <c r="I20" s="3">
-        <v>-76400</v>
+        <v>-97000</v>
       </c>
       <c r="J20" s="3">
+        <v>-75300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-78200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-98900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-67600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-95300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-105400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-95600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-125500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-110000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-104600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-105900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-114200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-116200</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>243800</v>
+        <v>301700</v>
       </c>
       <c r="E21" s="3">
-        <v>190200</v>
+        <v>240200</v>
       </c>
       <c r="F21" s="3">
-        <v>221300</v>
+        <v>187400</v>
       </c>
       <c r="G21" s="3">
-        <v>258900</v>
+        <v>218100</v>
       </c>
       <c r="H21" s="3">
-        <v>291400</v>
+        <v>255100</v>
       </c>
       <c r="I21" s="3">
-        <v>290000</v>
+        <v>287200</v>
       </c>
       <c r="J21" s="3">
+        <v>285800</v>
+      </c>
+      <c r="K21" s="3">
         <v>357400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>198800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>298000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>211000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>261300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>230500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>269300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>245900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>292300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>260100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>228900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>265300</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,126 +1563,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>218200</v>
+        <v>276400</v>
       </c>
       <c r="E23" s="3">
-        <v>164300</v>
+        <v>215100</v>
       </c>
       <c r="F23" s="3">
-        <v>197000</v>
+        <v>161900</v>
       </c>
       <c r="G23" s="3">
-        <v>233400</v>
+        <v>194100</v>
       </c>
       <c r="H23" s="3">
-        <v>265600</v>
+        <v>230000</v>
       </c>
       <c r="I23" s="3">
-        <v>266300</v>
+        <v>261800</v>
       </c>
       <c r="J23" s="3">
+        <v>262400</v>
+      </c>
+      <c r="K23" s="3">
         <v>333300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>176400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>285600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>199300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>249400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>218700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>256000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>232700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>279600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>247600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>216200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>252700</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>44000</v>
+        <v>55400</v>
       </c>
       <c r="E24" s="3">
-        <v>42500</v>
+        <v>43300</v>
       </c>
       <c r="F24" s="3">
-        <v>42800</v>
+        <v>41900</v>
       </c>
       <c r="G24" s="3">
-        <v>44500</v>
+        <v>42200</v>
       </c>
       <c r="H24" s="3">
-        <v>62600</v>
+        <v>43900</v>
       </c>
       <c r="I24" s="3">
-        <v>56300</v>
+        <v>61700</v>
       </c>
       <c r="J24" s="3">
+        <v>55400</v>
+      </c>
+      <c r="K24" s="3">
         <v>68200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>44400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>80500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>40400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>41300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>36100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>46700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>35900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>44700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>41800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>28900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>174300</v>
+        <v>221000</v>
       </c>
       <c r="E26" s="3">
-        <v>121800</v>
+        <v>171700</v>
       </c>
       <c r="F26" s="3">
-        <v>154200</v>
+        <v>120000</v>
       </c>
       <c r="G26" s="3">
-        <v>188900</v>
+        <v>151900</v>
       </c>
       <c r="H26" s="3">
-        <v>203100</v>
+        <v>186200</v>
       </c>
       <c r="I26" s="3">
-        <v>210000</v>
+        <v>200100</v>
       </c>
       <c r="J26" s="3">
+        <v>207000</v>
+      </c>
+      <c r="K26" s="3">
         <v>265100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>132000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>205100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>158900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>208100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>182600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>209300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>196800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>234900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>205800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>187300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>174300</v>
+        <v>221000</v>
       </c>
       <c r="E27" s="3">
-        <v>121800</v>
+        <v>171700</v>
       </c>
       <c r="F27" s="3">
-        <v>154200</v>
+        <v>120000</v>
       </c>
       <c r="G27" s="3">
-        <v>188900</v>
+        <v>151900</v>
       </c>
       <c r="H27" s="3">
-        <v>203100</v>
+        <v>186200</v>
       </c>
       <c r="I27" s="3">
-        <v>210000</v>
+        <v>200100</v>
       </c>
       <c r="J27" s="3">
+        <v>207000</v>
+      </c>
+      <c r="K27" s="3">
         <v>265100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>132000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>205100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>158900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>208100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>182600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>209300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>196800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>234900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>205800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>187300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>147600</v>
+        <v>105100</v>
       </c>
       <c r="E32" s="3">
-        <v>117200</v>
+        <v>145500</v>
       </c>
       <c r="F32" s="3">
-        <v>58000</v>
+        <v>115500</v>
       </c>
       <c r="G32" s="3">
-        <v>75900</v>
+        <v>57200</v>
       </c>
       <c r="H32" s="3">
-        <v>98400</v>
+        <v>74800</v>
       </c>
       <c r="I32" s="3">
-        <v>76400</v>
+        <v>97000</v>
       </c>
       <c r="J32" s="3">
+        <v>75300</v>
+      </c>
+      <c r="K32" s="3">
         <v>78200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>98900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>67600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>95300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>105400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>95600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>125500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>110000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>104600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>105900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>114200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>116200</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>174300</v>
+        <v>221000</v>
       </c>
       <c r="E33" s="3">
-        <v>121800</v>
+        <v>171700</v>
       </c>
       <c r="F33" s="3">
-        <v>154200</v>
+        <v>120000</v>
       </c>
       <c r="G33" s="3">
-        <v>188900</v>
+        <v>151900</v>
       </c>
       <c r="H33" s="3">
-        <v>203100</v>
+        <v>186200</v>
       </c>
       <c r="I33" s="3">
-        <v>210000</v>
+        <v>200100</v>
       </c>
       <c r="J33" s="3">
+        <v>207000</v>
+      </c>
+      <c r="K33" s="3">
         <v>265100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>132000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>205100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>158900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>208100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>182600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>209300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>196800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>234900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>205800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>187300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>174300</v>
+        <v>221000</v>
       </c>
       <c r="E35" s="3">
-        <v>121800</v>
+        <v>171700</v>
       </c>
       <c r="F35" s="3">
-        <v>154200</v>
+        <v>120000</v>
       </c>
       <c r="G35" s="3">
-        <v>188900</v>
+        <v>151900</v>
       </c>
       <c r="H35" s="3">
-        <v>203100</v>
+        <v>186200</v>
       </c>
       <c r="I35" s="3">
-        <v>210000</v>
+        <v>200100</v>
       </c>
       <c r="J35" s="3">
+        <v>207000</v>
+      </c>
+      <c r="K35" s="3">
         <v>265100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>132000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>205100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>158900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>208100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>182600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>209300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>196800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>234900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>205800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>187300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,126 +2486,133 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6595100</v>
+        <v>8615300</v>
       </c>
       <c r="E41" s="3">
-        <v>5452600</v>
+        <v>6499500</v>
       </c>
       <c r="F41" s="3">
-        <v>4692300</v>
+        <v>5373600</v>
       </c>
       <c r="G41" s="3">
-        <v>4708300</v>
+        <v>4624200</v>
       </c>
       <c r="H41" s="3">
-        <v>3853600</v>
+        <v>4640100</v>
       </c>
       <c r="I41" s="3">
-        <v>3748800</v>
+        <v>3797700</v>
       </c>
       <c r="J41" s="3">
+        <v>3694500</v>
+      </c>
+      <c r="K41" s="3">
         <v>4361500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3350700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3583100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3428900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3538600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2836400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2891200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3077300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2958500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3387100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3523000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3447400</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>11955000</v>
+        <v>7041600</v>
       </c>
       <c r="E42" s="3">
-        <v>11246400</v>
+        <v>11781700</v>
       </c>
       <c r="F42" s="3">
-        <v>12834600</v>
+        <v>11083400</v>
       </c>
       <c r="G42" s="3">
-        <v>10674700</v>
+        <v>12648600</v>
       </c>
       <c r="H42" s="3">
-        <v>8452100</v>
+        <v>10520000</v>
       </c>
       <c r="I42" s="3">
-        <v>6849900</v>
+        <v>8329600</v>
       </c>
       <c r="J42" s="3">
+        <v>6750600</v>
+      </c>
+      <c r="K42" s="3">
         <v>4533900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4327400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4432300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4120600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3732800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>4057800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>4892500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3759300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>4831100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>4779700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>4568200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>4469300</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2695,8 +2794,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2754,185 +2856,197 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>61600</v>
+        <v>59800</v>
       </c>
       <c r="E47" s="3">
-        <v>67600</v>
+        <v>60700</v>
       </c>
       <c r="F47" s="3">
-        <v>70800</v>
+        <v>66600</v>
       </c>
       <c r="G47" s="3">
-        <v>72700</v>
+        <v>69700</v>
       </c>
       <c r="H47" s="3">
-        <v>70000</v>
+        <v>71600</v>
       </c>
       <c r="I47" s="3">
-        <v>67900</v>
+        <v>69000</v>
       </c>
       <c r="J47" s="3">
+        <v>66900</v>
+      </c>
+      <c r="K47" s="3">
         <v>65800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>59400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>56600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>55000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>53200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>49900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>55900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>53600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>51200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>50200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>49200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>482400</v>
+        <v>480400</v>
       </c>
       <c r="E48" s="3">
-        <v>496900</v>
+        <v>475400</v>
       </c>
       <c r="F48" s="3">
-        <v>511900</v>
+        <v>489700</v>
       </c>
       <c r="G48" s="3">
-        <v>529900</v>
+        <v>504500</v>
       </c>
       <c r="H48" s="3">
-        <v>530100</v>
+        <v>522200</v>
       </c>
       <c r="I48" s="3">
-        <v>534100</v>
+        <v>522400</v>
       </c>
       <c r="J48" s="3">
+        <v>526400</v>
+      </c>
+      <c r="K48" s="3">
         <v>536200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>506100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>291900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>285700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>290400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>289800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>338900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>338500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>338100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>340900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>353000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>350300</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>83800</v>
+        <v>85000</v>
       </c>
       <c r="E49" s="3">
-        <v>82900</v>
+        <v>82600</v>
       </c>
       <c r="F49" s="3">
-        <v>82100</v>
+        <v>81700</v>
       </c>
       <c r="G49" s="3">
-        <v>81100</v>
+        <v>80900</v>
       </c>
       <c r="H49" s="3">
-        <v>80500</v>
+        <v>79900</v>
       </c>
       <c r="I49" s="3">
-        <v>75600</v>
+        <v>79300</v>
       </c>
       <c r="J49" s="3">
+        <v>74500</v>
+      </c>
+      <c r="K49" s="3">
         <v>75100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>68900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>66100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>60000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>58300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>53500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>57400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>49900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>45000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>44100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>44300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>494000</v>
+        <v>481000</v>
       </c>
       <c r="E52" s="3">
-        <v>460000</v>
+        <v>486800</v>
       </c>
       <c r="F52" s="3">
-        <v>447400</v>
+        <v>453300</v>
       </c>
       <c r="G52" s="3">
+        <v>440900</v>
+      </c>
+      <c r="H52" s="3">
+        <v>430600</v>
+      </c>
+      <c r="I52" s="3">
+        <v>436500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>429800</v>
+      </c>
+      <c r="K52" s="3">
+        <v>441500</v>
+      </c>
+      <c r="L52" s="3">
+        <v>359500</v>
+      </c>
+      <c r="M52" s="3">
+        <v>353000</v>
+      </c>
+      <c r="N52" s="3">
+        <v>331800</v>
+      </c>
+      <c r="O52" s="3">
+        <v>333300</v>
+      </c>
+      <c r="P52" s="3">
+        <v>339900</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>393100</v>
+      </c>
+      <c r="R52" s="3">
         <v>436900</v>
       </c>
-      <c r="H52" s="3">
-        <v>442900</v>
-      </c>
-      <c r="I52" s="3">
-        <v>436100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>441500</v>
-      </c>
-      <c r="K52" s="3">
-        <v>359500</v>
-      </c>
-      <c r="L52" s="3">
-        <v>353000</v>
-      </c>
-      <c r="M52" s="3">
-        <v>331800</v>
-      </c>
-      <c r="N52" s="3">
-        <v>333300</v>
-      </c>
-      <c r="O52" s="3">
-        <v>339900</v>
-      </c>
-      <c r="P52" s="3">
-        <v>393100</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>436900</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>435600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>433600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>425400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>63611300</v>
+        <v>61180100</v>
       </c>
       <c r="E54" s="3">
-        <v>62555200</v>
+        <v>62689400</v>
       </c>
       <c r="F54" s="3">
-        <v>63676800</v>
+        <v>61648600</v>
       </c>
       <c r="G54" s="3">
-        <v>61819400</v>
+        <v>62754000</v>
       </c>
       <c r="H54" s="3">
-        <v>56957200</v>
+        <v>60923500</v>
       </c>
       <c r="I54" s="3">
-        <v>54437300</v>
+        <v>56131700</v>
       </c>
       <c r="J54" s="3">
+        <v>53648400</v>
+      </c>
+      <c r="K54" s="3">
         <v>51411400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>46920100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>45626600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>43505300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>43981900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>42552000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>48251600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>46956400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>47447700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>46794000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>47615900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>46838400</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,185 +3402,195 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2173700</v>
+        <v>1447800</v>
       </c>
       <c r="E57" s="3">
-        <v>1688700</v>
+        <v>2142200</v>
       </c>
       <c r="F57" s="3">
-        <v>1092600</v>
+        <v>1664300</v>
       </c>
       <c r="G57" s="3">
-        <v>968900</v>
+        <v>1076800</v>
       </c>
       <c r="H57" s="3">
-        <v>805300</v>
+        <v>954900</v>
       </c>
       <c r="I57" s="3">
-        <v>905300</v>
+        <v>793700</v>
       </c>
       <c r="J57" s="3">
+        <v>892200</v>
+      </c>
+      <c r="K57" s="3">
         <v>1324600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1014300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>650700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>855600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>770600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>834400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>714200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>723800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1213600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>773100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>515500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>680800</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3330900</v>
+        <v>4975800</v>
       </c>
       <c r="E58" s="3">
-        <v>3069300</v>
+        <v>3282600</v>
       </c>
       <c r="F58" s="3">
-        <v>3816100</v>
+        <v>3024800</v>
       </c>
       <c r="G58" s="3">
-        <v>4537400</v>
+        <v>3760800</v>
       </c>
       <c r="H58" s="3">
-        <v>4318700</v>
+        <v>4471700</v>
       </c>
       <c r="I58" s="3">
-        <v>4660600</v>
+        <v>4256100</v>
       </c>
       <c r="J58" s="3">
+        <v>4593000</v>
+      </c>
+      <c r="K58" s="3">
         <v>4598600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3662400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3931500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3540700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3309200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3137700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3693500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3661200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3726400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3443200</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>310300</v>
+        <v>103000</v>
       </c>
       <c r="E59" s="3">
-        <v>241900</v>
+        <v>305900</v>
       </c>
       <c r="F59" s="3">
-        <v>171600</v>
+        <v>238400</v>
       </c>
       <c r="G59" s="3">
-        <v>178300</v>
+        <v>169100</v>
       </c>
       <c r="H59" s="3">
-        <v>521900</v>
+        <v>175700</v>
       </c>
       <c r="I59" s="3">
-        <v>391500</v>
+        <v>514300</v>
       </c>
       <c r="J59" s="3">
+        <v>385800</v>
+      </c>
+      <c r="K59" s="3">
         <v>309200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>120800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>415800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>277700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>202400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>99500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>466800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>352500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>235000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>110600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>432900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>339800</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3508,126 +3648,135 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14414500</v>
+        <v>12863500</v>
       </c>
       <c r="E61" s="3">
-        <v>14994300</v>
+        <v>14205600</v>
       </c>
       <c r="F61" s="3">
-        <v>15416000</v>
+        <v>14777000</v>
       </c>
       <c r="G61" s="3">
-        <v>11383600</v>
+        <v>15192600</v>
       </c>
       <c r="H61" s="3">
-        <v>10844200</v>
+        <v>11218600</v>
       </c>
       <c r="I61" s="3">
-        <v>10454000</v>
+        <v>10687100</v>
       </c>
       <c r="J61" s="3">
+        <v>10302500</v>
+      </c>
+      <c r="K61" s="3">
         <v>9268000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8462600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8024500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7630200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7685300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7531900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8090800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7957500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8136900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8411800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>11180300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>11255500</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>708800</v>
+        <v>713600</v>
       </c>
       <c r="E62" s="3">
-        <v>581000</v>
+        <v>698600</v>
       </c>
       <c r="F62" s="3">
-        <v>617500</v>
+        <v>572600</v>
       </c>
       <c r="G62" s="3">
-        <v>497900</v>
+        <v>608600</v>
       </c>
       <c r="H62" s="3">
-        <v>530200</v>
+        <v>490700</v>
       </c>
       <c r="I62" s="3">
-        <v>510300</v>
+        <v>522500</v>
       </c>
       <c r="J62" s="3">
+        <v>502900</v>
+      </c>
+      <c r="K62" s="3">
         <v>494600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>440400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>463200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>439600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>454100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>458700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>563000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>590800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>576700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>553100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>569000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>589100</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>58469000</v>
+        <v>55984700</v>
       </c>
       <c r="E66" s="3">
-        <v>57543800</v>
+        <v>57621700</v>
       </c>
       <c r="F66" s="3">
-        <v>58737900</v>
+        <v>56709800</v>
       </c>
       <c r="G66" s="3">
-        <v>56919200</v>
+        <v>57886700</v>
       </c>
       <c r="H66" s="3">
-        <v>52088300</v>
+        <v>56094300</v>
       </c>
       <c r="I66" s="3">
-        <v>49712300</v>
+        <v>51333400</v>
       </c>
       <c r="J66" s="3">
+        <v>48991800</v>
+      </c>
+      <c r="K66" s="3">
         <v>46729600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>42628800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>41430300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>39508100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>39927200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>38580100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>43686200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>42491400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>43061400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>42536500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>43255900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>42530100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1900700</v>
+        <v>1998000</v>
       </c>
       <c r="E72" s="3">
-        <v>1805500</v>
+        <v>1873100</v>
       </c>
       <c r="F72" s="3">
-        <v>1761600</v>
+        <v>1779300</v>
       </c>
       <c r="G72" s="3">
-        <v>1679600</v>
+        <v>1736100</v>
       </c>
       <c r="H72" s="3">
-        <v>1637500</v>
+        <v>1655300</v>
       </c>
       <c r="I72" s="3">
-        <v>1545700</v>
+        <v>1613800</v>
       </c>
       <c r="J72" s="3">
+        <v>1523300</v>
+      </c>
+      <c r="K72" s="3">
         <v>1428200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1203600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1192200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1069700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1019000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>910500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1242200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1147100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1065000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>959400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1171800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5142200</v>
+        <v>5195400</v>
       </c>
       <c r="E76" s="3">
-        <v>5011400</v>
+        <v>5067700</v>
       </c>
       <c r="F76" s="3">
-        <v>4938900</v>
+        <v>4938800</v>
       </c>
       <c r="G76" s="3">
-        <v>4900200</v>
+        <v>4867300</v>
       </c>
       <c r="H76" s="3">
-        <v>4868900</v>
+        <v>4829200</v>
       </c>
       <c r="I76" s="3">
-        <v>4725100</v>
+        <v>4798400</v>
       </c>
       <c r="J76" s="3">
+        <v>4656600</v>
+      </c>
+      <c r="K76" s="3">
         <v>4681900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4291200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4196300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3997200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4054600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3971900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4565400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4465000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4386200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4257500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4360000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4308300</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>174300</v>
+        <v>221000</v>
       </c>
       <c r="E81" s="3">
-        <v>121800</v>
+        <v>171700</v>
       </c>
       <c r="F81" s="3">
-        <v>154200</v>
+        <v>120000</v>
       </c>
       <c r="G81" s="3">
-        <v>188900</v>
+        <v>151900</v>
       </c>
       <c r="H81" s="3">
-        <v>203100</v>
+        <v>186200</v>
       </c>
       <c r="I81" s="3">
-        <v>210000</v>
+        <v>200100</v>
       </c>
       <c r="J81" s="3">
+        <v>207000</v>
+      </c>
+      <c r="K81" s="3">
         <v>265100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>132000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>205100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>158900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>208100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>182600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>209300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>196800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>234900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>205800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>187300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,58 +4819,59 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>25100</v>
+      </c>
+      <c r="F83" s="3">
         <v>25500</v>
       </c>
-      <c r="E83" s="3">
-        <v>25900</v>
-      </c>
-      <c r="F83" s="3">
-        <v>24300</v>
-      </c>
       <c r="G83" s="3">
-        <v>25500</v>
+        <v>24000</v>
       </c>
       <c r="H83" s="3">
-        <v>25700</v>
+        <v>25100</v>
       </c>
       <c r="I83" s="3">
-        <v>23800</v>
+        <v>25400</v>
       </c>
       <c r="J83" s="3">
+        <v>23400</v>
+      </c>
+      <c r="K83" s="3">
         <v>24100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>22400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>12400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>11700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>11900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>11700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>13300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>13200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>12700</v>
-      </c>
-      <c r="S83" s="3">
-        <v>12600</v>
       </c>
       <c r="T83" s="3">
         <v>12600</v>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>12600</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>954300</v>
+        <v>-3294100</v>
       </c>
       <c r="E89" s="3">
-        <v>363800</v>
+        <v>940500</v>
       </c>
       <c r="F89" s="3">
-        <v>-938500</v>
+        <v>358500</v>
       </c>
       <c r="G89" s="3">
-        <v>337600</v>
+        <v>-924900</v>
       </c>
       <c r="H89" s="3">
-        <v>1192500</v>
+        <v>332700</v>
       </c>
       <c r="I89" s="3">
-        <v>67100</v>
+        <v>1175200</v>
       </c>
       <c r="J89" s="3">
+        <v>66100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-970600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1334400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-614600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-434900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-266200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>136000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>703800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>250800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>435500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>179000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>398600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-193700</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
-        <v>-18400</v>
-      </c>
       <c r="I91" s="3">
-        <v>-16000</v>
+        <v>-18100</v>
       </c>
       <c r="J91" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-23800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-12800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-10800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-10500</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-6700</v>
       </c>
       <c r="S91" s="3">
         <v>-6700</v>
       </c>
       <c r="T91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="U91" s="3">
         <v>-12200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>250600</v>
+        <v>-43800</v>
       </c>
       <c r="E94" s="3">
-        <v>421300</v>
+        <v>247000</v>
       </c>
       <c r="F94" s="3">
-        <v>41800</v>
+        <v>415200</v>
       </c>
       <c r="G94" s="3">
-        <v>-424100</v>
+        <v>41200</v>
       </c>
       <c r="H94" s="3">
-        <v>-88200</v>
+        <v>-418000</v>
       </c>
       <c r="I94" s="3">
-        <v>-145900</v>
+        <v>-86900</v>
       </c>
       <c r="J94" s="3">
+        <v>-143800</v>
+      </c>
+      <c r="K94" s="3">
         <v>82600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-374100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>365300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>88000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-36700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>110800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-319300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-565800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-682600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-165900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>8300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>260000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,13 +5549,14 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-299600</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -5331,10 +5565,10 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-483700</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-476700</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -5343,11 +5577,11 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-463200</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -5355,11 +5589,11 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-478800</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -5367,16 +5601,19 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-502800</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-234500</v>
+        <v>225400</v>
       </c>
       <c r="E100" s="3">
-        <v>-1120200</v>
+        <v>-231100</v>
       </c>
       <c r="F100" s="3">
-        <v>3534600</v>
+        <v>-1104000</v>
       </c>
       <c r="G100" s="3">
-        <v>-162900</v>
+        <v>3483400</v>
       </c>
       <c r="H100" s="3">
-        <v>-251900</v>
+        <v>-160500</v>
       </c>
       <c r="I100" s="3">
-        <v>1185200</v>
+        <v>-248200</v>
       </c>
       <c r="J100" s="3">
+        <v>1168000</v>
+      </c>
+      <c r="K100" s="3">
         <v>919100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-701800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>575400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>283400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>152300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-199200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>237400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-152300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>17700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>92300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-55300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>329700</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-122400</v>
+        <v>19500</v>
       </c>
       <c r="E101" s="3">
-        <v>-83000</v>
+        <v>-120600</v>
       </c>
       <c r="F101" s="3">
-        <v>110600</v>
+        <v>-81800</v>
       </c>
       <c r="G101" s="3">
-        <v>47300</v>
+        <v>109000</v>
       </c>
       <c r="H101" s="3">
-        <v>-15500</v>
+        <v>46600</v>
       </c>
       <c r="I101" s="3">
-        <v>57600</v>
+        <v>-15300</v>
       </c>
       <c r="J101" s="3">
+        <v>56700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-6700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>11300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>34800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>36400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>86400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-10300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-34600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-12900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>10300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-19200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>14300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>848000</v>
+        <v>-3093000</v>
       </c>
       <c r="E102" s="3">
-        <v>-418100</v>
+        <v>835700</v>
       </c>
       <c r="F102" s="3">
-        <v>2748500</v>
+        <v>-412000</v>
       </c>
       <c r="G102" s="3">
-        <v>-202100</v>
+        <v>2708700</v>
       </c>
       <c r="H102" s="3">
-        <v>836900</v>
+        <v>-199200</v>
       </c>
       <c r="I102" s="3">
-        <v>1163900</v>
+        <v>824800</v>
       </c>
       <c r="J102" s="3">
+        <v>1147000</v>
+      </c>
+      <c r="K102" s="3">
         <v>26200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>268000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>360800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-27200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-64200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>37300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>587400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-480200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-219200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>86200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>365900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>383400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BCH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>BCH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,158 +665,165 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>663000</v>
+        <v>620500</v>
       </c>
       <c r="E8" s="3">
-        <v>703700</v>
+        <v>619100</v>
       </c>
       <c r="F8" s="3">
-        <v>490400</v>
+        <v>657100</v>
       </c>
       <c r="G8" s="3">
-        <v>599500</v>
+        <v>457900</v>
       </c>
       <c r="H8" s="3">
-        <v>753800</v>
+        <v>559800</v>
       </c>
       <c r="I8" s="3">
-        <v>775500</v>
+        <v>703900</v>
       </c>
       <c r="J8" s="3">
+        <v>724200</v>
+      </c>
+      <c r="K8" s="3">
         <v>693200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>829400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>559900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>667200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>630400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>634800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>601400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>705400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>579000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>809800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>671400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>702900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>721300</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,61 +1169,64 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-25300</v>
+        <v>-24300</v>
       </c>
       <c r="E15" s="3">
-        <v>-25100</v>
+        <v>-23600</v>
       </c>
       <c r="F15" s="3">
-        <v>-25500</v>
+        <v>-23500</v>
       </c>
       <c r="G15" s="3">
-        <v>-24000</v>
+        <v>-23800</v>
       </c>
       <c r="H15" s="3">
-        <v>-25100</v>
+        <v>-22400</v>
       </c>
       <c r="I15" s="3">
-        <v>-25400</v>
+        <v>-23500</v>
       </c>
       <c r="J15" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="K15" s="3">
         <v>-23400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-24100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-22400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-12400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-11700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-11900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-13300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-13200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-12700</v>
-      </c>
-      <c r="T15" s="3">
-        <v>-12600</v>
       </c>
       <c r="U15" s="3">
         <v>-12600</v>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>-12600</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>-12600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>281500</v>
+        <v>286600</v>
       </c>
       <c r="E17" s="3">
-        <v>343100</v>
+        <v>262900</v>
       </c>
       <c r="F17" s="3">
-        <v>212900</v>
+        <v>320400</v>
       </c>
       <c r="G17" s="3">
-        <v>348100</v>
+        <v>198800</v>
       </c>
       <c r="H17" s="3">
-        <v>449000</v>
+        <v>325100</v>
       </c>
       <c r="I17" s="3">
-        <v>416700</v>
+        <v>419300</v>
       </c>
       <c r="J17" s="3">
+        <v>389200</v>
+      </c>
+      <c r="K17" s="3">
         <v>355500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>417900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>284500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>314000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>335700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>280000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>287100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>323900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>236400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>425600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>318000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>372400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>352500</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>333900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>356200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>336700</v>
+      </c>
+      <c r="G18" s="3">
+        <v>259100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>234700</v>
+      </c>
+      <c r="I18" s="3">
+        <v>284700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>335000</v>
+      </c>
+      <c r="K18" s="3">
+        <v>337700</v>
+      </c>
+      <c r="L18" s="3">
+        <v>411500</v>
+      </c>
+      <c r="M18" s="3">
+        <v>275400</v>
+      </c>
+      <c r="N18" s="3">
+        <v>353200</v>
+      </c>
+      <c r="O18" s="3">
+        <v>294600</v>
+      </c>
+      <c r="P18" s="3">
+        <v>354800</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>314300</v>
+      </c>
+      <c r="R18" s="3">
         <v>381500</v>
       </c>
-      <c r="E18" s="3">
-        <v>360500</v>
-      </c>
-      <c r="F18" s="3">
-        <v>277400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>251300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>304800</v>
-      </c>
-      <c r="I18" s="3">
-        <v>358800</v>
-      </c>
-      <c r="J18" s="3">
-        <v>337700</v>
-      </c>
-      <c r="K18" s="3">
-        <v>411500</v>
-      </c>
-      <c r="L18" s="3">
-        <v>275400</v>
-      </c>
-      <c r="M18" s="3">
-        <v>353200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>294600</v>
-      </c>
-      <c r="O18" s="3">
-        <v>354800</v>
-      </c>
-      <c r="P18" s="3">
-        <v>314300</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>381500</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>342700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>384200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>353400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>330400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>368900</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,132 +1413,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-105100</v>
+        <v>-76200</v>
       </c>
       <c r="E20" s="3">
-        <v>-145500</v>
+        <v>-98100</v>
       </c>
       <c r="F20" s="3">
-        <v>-115500</v>
+        <v>-135800</v>
       </c>
       <c r="G20" s="3">
-        <v>-57200</v>
+        <v>-107900</v>
       </c>
       <c r="H20" s="3">
-        <v>-74800</v>
+        <v>-53400</v>
       </c>
       <c r="I20" s="3">
-        <v>-97000</v>
+        <v>-69900</v>
       </c>
       <c r="J20" s="3">
+        <v>-90600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-75300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-78200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-98900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-67600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-95300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-105400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-95600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-125500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-110000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-104600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-105900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-114200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-116200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>301700</v>
+        <v>282000</v>
       </c>
       <c r="E21" s="3">
-        <v>240200</v>
+        <v>281700</v>
       </c>
       <c r="F21" s="3">
-        <v>187400</v>
+        <v>224300</v>
       </c>
       <c r="G21" s="3">
-        <v>218100</v>
+        <v>175000</v>
       </c>
       <c r="H21" s="3">
-        <v>255100</v>
+        <v>203700</v>
       </c>
       <c r="I21" s="3">
-        <v>287200</v>
+        <v>238300</v>
       </c>
       <c r="J21" s="3">
+        <v>268100</v>
+      </c>
+      <c r="K21" s="3">
         <v>285800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>357400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>198800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>298000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>211000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>261300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>230500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>269300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>245900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>292300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>260100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>228900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>265300</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,132 +1606,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>276400</v>
+        <v>257700</v>
       </c>
       <c r="E23" s="3">
-        <v>215100</v>
+        <v>258100</v>
       </c>
       <c r="F23" s="3">
-        <v>161900</v>
+        <v>200800</v>
       </c>
       <c r="G23" s="3">
-        <v>194100</v>
+        <v>151200</v>
       </c>
       <c r="H23" s="3">
-        <v>230000</v>
+        <v>181300</v>
       </c>
       <c r="I23" s="3">
-        <v>261800</v>
+        <v>214800</v>
       </c>
       <c r="J23" s="3">
+        <v>244500</v>
+      </c>
+      <c r="K23" s="3">
         <v>262400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>333300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>176400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>285600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>199300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>249400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>218700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>256000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>232700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>279600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>247600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>216200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>252700</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>51700</v>
+      </c>
+      <c r="F24" s="3">
+        <v>40500</v>
+      </c>
+      <c r="G24" s="3">
+        <v>39100</v>
+      </c>
+      <c r="H24" s="3">
+        <v>39400</v>
+      </c>
+      <c r="I24" s="3">
+        <v>41000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>57600</v>
+      </c>
+      <c r="K24" s="3">
         <v>55400</v>
       </c>
-      <c r="E24" s="3">
-        <v>43300</v>
-      </c>
-      <c r="F24" s="3">
-        <v>41900</v>
-      </c>
-      <c r="G24" s="3">
-        <v>42200</v>
-      </c>
-      <c r="H24" s="3">
-        <v>43900</v>
-      </c>
-      <c r="I24" s="3">
-        <v>61700</v>
-      </c>
-      <c r="J24" s="3">
-        <v>55400</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>68200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>44400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>80500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>40400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>41300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>36100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>46700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>35900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>44700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>41800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>28900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>221000</v>
+        <v>206200</v>
       </c>
       <c r="E26" s="3">
-        <v>171700</v>
+        <v>206400</v>
       </c>
       <c r="F26" s="3">
-        <v>120000</v>
+        <v>160400</v>
       </c>
       <c r="G26" s="3">
-        <v>151900</v>
+        <v>112100</v>
       </c>
       <c r="H26" s="3">
-        <v>186200</v>
+        <v>141900</v>
       </c>
       <c r="I26" s="3">
-        <v>200100</v>
+        <v>173800</v>
       </c>
       <c r="J26" s="3">
+        <v>186900</v>
+      </c>
+      <c r="K26" s="3">
         <v>207000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>265100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>132000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>205100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>158900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>208100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>182600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>209300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>196800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>234900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>205800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>187300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>221000</v>
+        <v>206200</v>
       </c>
       <c r="E27" s="3">
-        <v>171700</v>
+        <v>206400</v>
       </c>
       <c r="F27" s="3">
-        <v>120000</v>
+        <v>160400</v>
       </c>
       <c r="G27" s="3">
-        <v>151900</v>
+        <v>112100</v>
       </c>
       <c r="H27" s="3">
-        <v>186200</v>
+        <v>141900</v>
       </c>
       <c r="I27" s="3">
-        <v>200100</v>
+        <v>173800</v>
       </c>
       <c r="J27" s="3">
+        <v>186900</v>
+      </c>
+      <c r="K27" s="3">
         <v>207000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>265100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>132000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>205100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>158900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>208100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>182600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>209300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>196800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>234900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>205800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>187300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>105100</v>
+        <v>76200</v>
       </c>
       <c r="E32" s="3">
-        <v>145500</v>
+        <v>98100</v>
       </c>
       <c r="F32" s="3">
-        <v>115500</v>
+        <v>135800</v>
       </c>
       <c r="G32" s="3">
-        <v>57200</v>
+        <v>107900</v>
       </c>
       <c r="H32" s="3">
-        <v>74800</v>
+        <v>53400</v>
       </c>
       <c r="I32" s="3">
-        <v>97000</v>
+        <v>69900</v>
       </c>
       <c r="J32" s="3">
+        <v>90600</v>
+      </c>
+      <c r="K32" s="3">
         <v>75300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>78200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>98900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>67600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>95300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>105400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>95600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>125500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>110000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>104600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>105900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>114200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>116200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>221000</v>
+        <v>206200</v>
       </c>
       <c r="E33" s="3">
-        <v>171700</v>
+        <v>206400</v>
       </c>
       <c r="F33" s="3">
-        <v>120000</v>
+        <v>160400</v>
       </c>
       <c r="G33" s="3">
-        <v>151900</v>
+        <v>112100</v>
       </c>
       <c r="H33" s="3">
-        <v>186200</v>
+        <v>141900</v>
       </c>
       <c r="I33" s="3">
-        <v>200100</v>
+        <v>173800</v>
       </c>
       <c r="J33" s="3">
+        <v>186900</v>
+      </c>
+      <c r="K33" s="3">
         <v>207000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>265100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>132000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>205100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>158900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>208100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>182600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>209300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>196800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>234900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>205800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>187300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>221000</v>
+        <v>206200</v>
       </c>
       <c r="E35" s="3">
-        <v>171700</v>
+        <v>206400</v>
       </c>
       <c r="F35" s="3">
-        <v>120000</v>
+        <v>160400</v>
       </c>
       <c r="G35" s="3">
-        <v>151900</v>
+        <v>112100</v>
       </c>
       <c r="H35" s="3">
-        <v>186200</v>
+        <v>141900</v>
       </c>
       <c r="I35" s="3">
-        <v>200100</v>
+        <v>173800</v>
       </c>
       <c r="J35" s="3">
+        <v>186900</v>
+      </c>
+      <c r="K35" s="3">
         <v>207000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>265100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>132000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>205100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>158900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>208100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>182600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>209300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>196800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>234900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>205800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>187300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,132 +2573,139 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8615300</v>
+        <v>6726400</v>
       </c>
       <c r="E41" s="3">
-        <v>6499500</v>
+        <v>8045100</v>
       </c>
       <c r="F41" s="3">
-        <v>5373600</v>
+        <v>6069400</v>
       </c>
       <c r="G41" s="3">
-        <v>4624200</v>
+        <v>5018000</v>
       </c>
       <c r="H41" s="3">
-        <v>4640100</v>
+        <v>4318200</v>
       </c>
       <c r="I41" s="3">
-        <v>3797700</v>
+        <v>4333000</v>
       </c>
       <c r="J41" s="3">
+        <v>3546400</v>
+      </c>
+      <c r="K41" s="3">
         <v>3694500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4361500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3350700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3583100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3428900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3538600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2836400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2891200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3077300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2958500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3387100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3523000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3447400</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7041600</v>
+        <v>8310000</v>
       </c>
       <c r="E42" s="3">
-        <v>11781700</v>
+        <v>6575600</v>
       </c>
       <c r="F42" s="3">
-        <v>11083400</v>
+        <v>11002100</v>
       </c>
       <c r="G42" s="3">
-        <v>12648600</v>
+        <v>10349900</v>
       </c>
       <c r="H42" s="3">
-        <v>10520000</v>
+        <v>11811500</v>
       </c>
       <c r="I42" s="3">
-        <v>8329600</v>
+        <v>9823800</v>
       </c>
       <c r="J42" s="3">
+        <v>7778400</v>
+      </c>
+      <c r="K42" s="3">
         <v>6750600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4533900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4327400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4432300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>4120600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3732800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>4057800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>4892500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3759300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>4831100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>4779700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>4568200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>4469300</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2797,8 +2896,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2859,194 +2961,206 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>59800</v>
+        <v>55400</v>
       </c>
       <c r="E47" s="3">
-        <v>60700</v>
+        <v>55900</v>
       </c>
       <c r="F47" s="3">
-        <v>66600</v>
+        <v>56700</v>
       </c>
       <c r="G47" s="3">
-        <v>69700</v>
+        <v>62200</v>
       </c>
       <c r="H47" s="3">
-        <v>71600</v>
+        <v>65100</v>
       </c>
       <c r="I47" s="3">
-        <v>69000</v>
+        <v>66900</v>
       </c>
       <c r="J47" s="3">
+        <v>64500</v>
+      </c>
+      <c r="K47" s="3">
         <v>66900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>65800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>59400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>56600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>55000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>53200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>49900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>55900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>53600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>51200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>50200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>49200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>480400</v>
+        <v>439600</v>
       </c>
       <c r="E48" s="3">
-        <v>475400</v>
+        <v>448700</v>
       </c>
       <c r="F48" s="3">
-        <v>489700</v>
+        <v>444000</v>
       </c>
       <c r="G48" s="3">
-        <v>504500</v>
+        <v>457300</v>
       </c>
       <c r="H48" s="3">
-        <v>522200</v>
+        <v>471100</v>
       </c>
       <c r="I48" s="3">
-        <v>522400</v>
+        <v>487600</v>
       </c>
       <c r="J48" s="3">
+        <v>487800</v>
+      </c>
+      <c r="K48" s="3">
         <v>526400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>536200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>506100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>291900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>285700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>290400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>289800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>338900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>338500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>338100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>340900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>353000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>350300</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>85000</v>
+        <v>84800</v>
       </c>
       <c r="E49" s="3">
-        <v>82600</v>
+        <v>79400</v>
       </c>
       <c r="F49" s="3">
-        <v>81700</v>
+        <v>77100</v>
       </c>
       <c r="G49" s="3">
-        <v>80900</v>
+        <v>76300</v>
       </c>
       <c r="H49" s="3">
-        <v>79900</v>
+        <v>75500</v>
       </c>
       <c r="I49" s="3">
-        <v>79300</v>
+        <v>74600</v>
       </c>
       <c r="J49" s="3">
+        <v>74000</v>
+      </c>
+      <c r="K49" s="3">
         <v>74500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>75100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>68900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>66100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>60000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>58300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>53500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>57400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>49900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>45000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>44100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>44300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>481000</v>
+        <v>484900</v>
       </c>
       <c r="E52" s="3">
-        <v>486800</v>
+        <v>449200</v>
       </c>
       <c r="F52" s="3">
-        <v>453300</v>
+        <v>454600</v>
       </c>
       <c r="G52" s="3">
-        <v>440900</v>
+        <v>423300</v>
       </c>
       <c r="H52" s="3">
-        <v>430600</v>
+        <v>411700</v>
       </c>
       <c r="I52" s="3">
-        <v>436500</v>
+        <v>402100</v>
       </c>
       <c r="J52" s="3">
+        <v>407600</v>
+      </c>
+      <c r="K52" s="3">
         <v>429800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>441500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>359500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>353000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>331800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>333300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>339900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>393100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>436900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>435600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>433600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>425400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>61180100</v>
+        <v>60091600</v>
       </c>
       <c r="E54" s="3">
-        <v>62689400</v>
+        <v>57131400</v>
       </c>
       <c r="F54" s="3">
-        <v>61648600</v>
+        <v>58540800</v>
       </c>
       <c r="G54" s="3">
-        <v>62754000</v>
+        <v>57568900</v>
       </c>
       <c r="H54" s="3">
-        <v>60923500</v>
+        <v>58601100</v>
       </c>
       <c r="I54" s="3">
-        <v>56131700</v>
+        <v>56891800</v>
       </c>
       <c r="J54" s="3">
+        <v>52417100</v>
+      </c>
+      <c r="K54" s="3">
         <v>53648400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>51411400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>46920100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>45626600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>43505300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>43981900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>42552000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>48251600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>46956400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>47447700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>46794000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>47615900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>46838400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,194 +3533,204 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1447800</v>
+        <v>1268300</v>
       </c>
       <c r="E57" s="3">
-        <v>2142200</v>
+        <v>1352000</v>
       </c>
       <c r="F57" s="3">
-        <v>1664300</v>
+        <v>2000400</v>
       </c>
       <c r="G57" s="3">
-        <v>1076800</v>
+        <v>1554100</v>
       </c>
       <c r="H57" s="3">
-        <v>954900</v>
+        <v>1005500</v>
       </c>
       <c r="I57" s="3">
-        <v>793700</v>
+        <v>891700</v>
       </c>
       <c r="J57" s="3">
+        <v>741200</v>
+      </c>
+      <c r="K57" s="3">
         <v>892200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1324600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1014300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>650700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>855600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>770600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>834400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>714200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>723800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1213600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>773100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>515500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>680800</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4975800</v>
+        <v>4570600</v>
       </c>
       <c r="E58" s="3">
-        <v>3282600</v>
+        <v>4646500</v>
       </c>
       <c r="F58" s="3">
-        <v>3024800</v>
+        <v>3065400</v>
       </c>
       <c r="G58" s="3">
-        <v>3760800</v>
+        <v>2824700</v>
       </c>
       <c r="H58" s="3">
-        <v>4471700</v>
+        <v>3511900</v>
       </c>
       <c r="I58" s="3">
-        <v>4256100</v>
+        <v>4175700</v>
       </c>
       <c r="J58" s="3">
+        <v>3974500</v>
+      </c>
+      <c r="K58" s="3">
         <v>4593000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4598600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3662400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3931500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3540700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3309200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3137700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3693500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3661200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3726400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3443200</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>103000</v>
+        <v>219700</v>
       </c>
       <c r="E59" s="3">
-        <v>305900</v>
+        <v>96200</v>
       </c>
       <c r="F59" s="3">
-        <v>238400</v>
+        <v>285600</v>
       </c>
       <c r="G59" s="3">
-        <v>169100</v>
+        <v>222600</v>
       </c>
       <c r="H59" s="3">
-        <v>175700</v>
+        <v>157900</v>
       </c>
       <c r="I59" s="3">
-        <v>514300</v>
+        <v>164100</v>
       </c>
       <c r="J59" s="3">
+        <v>480300</v>
+      </c>
+      <c r="K59" s="3">
         <v>385800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>309200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>120800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>415800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>277700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>202400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>99500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>466800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>352500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>235000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>110600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>432900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>339800</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3651,132 +3791,141 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12863500</v>
+        <v>13485000</v>
       </c>
       <c r="E61" s="3">
-        <v>14205600</v>
+        <v>12012200</v>
       </c>
       <c r="F61" s="3">
-        <v>14777000</v>
+        <v>13265500</v>
       </c>
       <c r="G61" s="3">
-        <v>15192600</v>
+        <v>13799100</v>
       </c>
       <c r="H61" s="3">
-        <v>11218600</v>
+        <v>14187200</v>
       </c>
       <c r="I61" s="3">
-        <v>10687100</v>
+        <v>10476200</v>
       </c>
       <c r="J61" s="3">
+        <v>9979800</v>
+      </c>
+      <c r="K61" s="3">
         <v>10302500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9268000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8462600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8024500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7630200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7685300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7531900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8090800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7957500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8136900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>8411800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>11180300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>11255500</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>713600</v>
+        <v>746100</v>
       </c>
       <c r="E62" s="3">
-        <v>698600</v>
+        <v>666300</v>
       </c>
       <c r="F62" s="3">
-        <v>572600</v>
+        <v>652300</v>
       </c>
       <c r="G62" s="3">
-        <v>608600</v>
+        <v>534700</v>
       </c>
       <c r="H62" s="3">
-        <v>490700</v>
+        <v>568300</v>
       </c>
       <c r="I62" s="3">
-        <v>522500</v>
+        <v>458200</v>
       </c>
       <c r="J62" s="3">
+        <v>487900</v>
+      </c>
+      <c r="K62" s="3">
         <v>502900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>494600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>440400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>463200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>439600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>454100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>458700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>563000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>590800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>576700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>553100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>569000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>589100</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>55984700</v>
+        <v>55096100</v>
       </c>
       <c r="E66" s="3">
-        <v>57621700</v>
+        <v>52279900</v>
       </c>
       <c r="F66" s="3">
-        <v>56709800</v>
+        <v>53808500</v>
       </c>
       <c r="G66" s="3">
-        <v>57886700</v>
+        <v>52957000</v>
       </c>
       <c r="H66" s="3">
-        <v>56094300</v>
+        <v>54055900</v>
       </c>
       <c r="I66" s="3">
-        <v>51333400</v>
+        <v>52382200</v>
       </c>
       <c r="J66" s="3">
+        <v>47936300</v>
+      </c>
+      <c r="K66" s="3">
         <v>48991800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>46729600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>42628800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>41430300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>39508100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>39927200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>38580100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>43686200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>42491400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>43061400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>42536500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>43255900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>42530100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1998000</v>
+        <v>1969100</v>
       </c>
       <c r="E72" s="3">
-        <v>1873100</v>
+        <v>1865800</v>
       </c>
       <c r="F72" s="3">
-        <v>1779300</v>
+        <v>1749200</v>
       </c>
       <c r="G72" s="3">
-        <v>1736100</v>
+        <v>1661600</v>
       </c>
       <c r="H72" s="3">
-        <v>1655300</v>
+        <v>1621200</v>
       </c>
       <c r="I72" s="3">
-        <v>1613800</v>
+        <v>1545700</v>
       </c>
       <c r="J72" s="3">
+        <v>1507000</v>
+      </c>
+      <c r="K72" s="3">
         <v>1523300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1428200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1203600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1192200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1069700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1019000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>910500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1242200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1147100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1065000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>959400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1171800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5195400</v>
+        <v>4995600</v>
       </c>
       <c r="E76" s="3">
-        <v>5067700</v>
+        <v>4851600</v>
       </c>
       <c r="F76" s="3">
-        <v>4938800</v>
+        <v>4732400</v>
       </c>
       <c r="G76" s="3">
-        <v>4867300</v>
+        <v>4612000</v>
       </c>
       <c r="H76" s="3">
-        <v>4829200</v>
+        <v>4545200</v>
       </c>
       <c r="I76" s="3">
-        <v>4798400</v>
+        <v>4509600</v>
       </c>
       <c r="J76" s="3">
+        <v>4480800</v>
+      </c>
+      <c r="K76" s="3">
         <v>4656600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4681900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4291200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4196300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3997200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4054600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3971900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4565400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4465000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4386200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4257500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4360000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4308300</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>221000</v>
+        <v>206200</v>
       </c>
       <c r="E81" s="3">
-        <v>171700</v>
+        <v>206400</v>
       </c>
       <c r="F81" s="3">
-        <v>120000</v>
+        <v>160400</v>
       </c>
       <c r="G81" s="3">
-        <v>151900</v>
+        <v>112100</v>
       </c>
       <c r="H81" s="3">
-        <v>186200</v>
+        <v>141900</v>
       </c>
       <c r="I81" s="3">
-        <v>200100</v>
+        <v>173800</v>
       </c>
       <c r="J81" s="3">
+        <v>186900</v>
+      </c>
+      <c r="K81" s="3">
         <v>207000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>265100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>132000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>205100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>158900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>208100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>182600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>209300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>196800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>234900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>205800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>187300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,61 +5018,62 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>25300</v>
+        <v>24300</v>
       </c>
       <c r="E83" s="3">
-        <v>25100</v>
+        <v>23600</v>
       </c>
       <c r="F83" s="3">
-        <v>25500</v>
+        <v>23500</v>
       </c>
       <c r="G83" s="3">
-        <v>24000</v>
+        <v>23800</v>
       </c>
       <c r="H83" s="3">
-        <v>25100</v>
+        <v>22400</v>
       </c>
       <c r="I83" s="3">
-        <v>25400</v>
+        <v>23500</v>
       </c>
       <c r="J83" s="3">
+        <v>23700</v>
+      </c>
+      <c r="K83" s="3">
         <v>23400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>24100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>22400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>12400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>11700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>11900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>11700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>13300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>13200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>12700</v>
-      </c>
-      <c r="T83" s="3">
-        <v>12600</v>
       </c>
       <c r="U83" s="3">
         <v>12600</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>12600</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3294100</v>
+        <v>2214100</v>
       </c>
       <c r="E89" s="3">
-        <v>940500</v>
+        <v>-3076200</v>
       </c>
       <c r="F89" s="3">
-        <v>358500</v>
+        <v>878200</v>
       </c>
       <c r="G89" s="3">
-        <v>-924900</v>
+        <v>334800</v>
       </c>
       <c r="H89" s="3">
-        <v>332700</v>
+        <v>-863700</v>
       </c>
       <c r="I89" s="3">
-        <v>1175200</v>
+        <v>310700</v>
       </c>
       <c r="J89" s="3">
+        <v>1097500</v>
+      </c>
+      <c r="K89" s="3">
         <v>66100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-970600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1334400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-614600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-434900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-266200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>136000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>703800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>250800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>435500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>179000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>398600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-193700</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
-        <v>-600</v>
-      </c>
       <c r="I91" s="3">
-        <v>-18100</v>
+        <v>-500</v>
       </c>
       <c r="J91" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-15800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-23800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-12800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-10800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-10300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-10500</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-6700</v>
       </c>
       <c r="T91" s="3">
         <v>-6700</v>
       </c>
       <c r="U91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="V91" s="3">
         <v>-12200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-43800</v>
+        <v>-1884200</v>
       </c>
       <c r="E94" s="3">
-        <v>247000</v>
+        <v>-40900</v>
       </c>
       <c r="F94" s="3">
-        <v>415200</v>
+        <v>230700</v>
       </c>
       <c r="G94" s="3">
-        <v>41200</v>
+        <v>387700</v>
       </c>
       <c r="H94" s="3">
-        <v>-418000</v>
+        <v>38500</v>
       </c>
       <c r="I94" s="3">
-        <v>-86900</v>
+        <v>-390300</v>
       </c>
       <c r="J94" s="3">
+        <v>-81200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-143800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>82600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-374100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>365300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>88000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-36700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>110800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-319300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-565800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-682600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-165900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>8300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>260000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,16 +5783,17 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-299600</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-279700</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -5568,10 +5802,10 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-476700</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-445200</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -5580,11 +5814,11 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-463200</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -5592,11 +5826,11 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-478800</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -5604,16 +5838,19 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-502800</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>225400</v>
+        <v>1240000</v>
       </c>
       <c r="E100" s="3">
-        <v>-231100</v>
+        <v>210500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1104000</v>
+        <v>-215800</v>
       </c>
       <c r="G100" s="3">
-        <v>3483400</v>
+        <v>-1030900</v>
       </c>
       <c r="H100" s="3">
-        <v>-160500</v>
+        <v>3252900</v>
       </c>
       <c r="I100" s="3">
-        <v>-248200</v>
+        <v>-149900</v>
       </c>
       <c r="J100" s="3">
+        <v>-231800</v>
+      </c>
+      <c r="K100" s="3">
         <v>1168000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>919100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-701800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>575400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>283400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>152300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-199200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>237400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-152300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>17700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>92300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-55300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>329700</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>19500</v>
+        <v>71100</v>
       </c>
       <c r="E101" s="3">
-        <v>-120600</v>
+        <v>18200</v>
       </c>
       <c r="F101" s="3">
-        <v>-81800</v>
+        <v>-112700</v>
       </c>
       <c r="G101" s="3">
-        <v>109000</v>
+        <v>-76400</v>
       </c>
       <c r="H101" s="3">
-        <v>46600</v>
+        <v>101800</v>
       </c>
       <c r="I101" s="3">
-        <v>-15300</v>
+        <v>43600</v>
       </c>
       <c r="J101" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="K101" s="3">
         <v>56700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>11300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>34800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>36400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>86400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-34600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-12900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>10300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-19200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>14300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3093000</v>
+        <v>1641100</v>
       </c>
       <c r="E102" s="3">
-        <v>835700</v>
+        <v>-2888300</v>
       </c>
       <c r="F102" s="3">
-        <v>-412000</v>
+        <v>780400</v>
       </c>
       <c r="G102" s="3">
-        <v>2708700</v>
+        <v>-384800</v>
       </c>
       <c r="H102" s="3">
-        <v>-199200</v>
+        <v>2529400</v>
       </c>
       <c r="I102" s="3">
-        <v>824800</v>
+        <v>-186000</v>
       </c>
       <c r="J102" s="3">
+        <v>770200</v>
+      </c>
+      <c r="K102" s="3">
         <v>1147000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>26200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>268000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>360800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-27200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-64200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>37300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>587400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-480200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-219200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>86200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>365900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>383400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BCH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>BCH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,172 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>620500</v>
+        <v>641900</v>
       </c>
       <c r="E8" s="3">
-        <v>619100</v>
+        <v>581400</v>
       </c>
       <c r="F8" s="3">
-        <v>657100</v>
+        <v>580100</v>
       </c>
       <c r="G8" s="3">
-        <v>457900</v>
+        <v>615700</v>
       </c>
       <c r="H8" s="3">
-        <v>559800</v>
+        <v>429100</v>
       </c>
       <c r="I8" s="3">
-        <v>703900</v>
+        <v>524500</v>
       </c>
       <c r="J8" s="3">
+        <v>659600</v>
+      </c>
+      <c r="K8" s="3">
         <v>724200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>693200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>829400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>559900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>667200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>630400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>634800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>601400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>705400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>579000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>809800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>671400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>702900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>721300</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,64 +1192,67 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-24300</v>
+        <v>-22900</v>
       </c>
       <c r="E15" s="3">
-        <v>-23600</v>
+        <v>-22800</v>
       </c>
       <c r="F15" s="3">
-        <v>-23500</v>
+        <v>-22200</v>
       </c>
       <c r="G15" s="3">
-        <v>-23800</v>
+        <v>-22000</v>
       </c>
       <c r="H15" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="K15" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="L15" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="M15" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="N15" s="3">
         <v>-22400</v>
       </c>
-      <c r="I15" s="3">
-        <v>-23500</v>
-      </c>
-      <c r="J15" s="3">
-        <v>-23700</v>
-      </c>
-      <c r="K15" s="3">
-        <v>-23400</v>
-      </c>
-      <c r="L15" s="3">
-        <v>-24100</v>
-      </c>
-      <c r="M15" s="3">
-        <v>-22400</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-12400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-11700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-11700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-13300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-13200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-12700</v>
-      </c>
-      <c r="U15" s="3">
-        <v>-12600</v>
       </c>
       <c r="V15" s="3">
         <v>-12600</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>-12600</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>-12600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>286600</v>
+        <v>311800</v>
       </c>
       <c r="E17" s="3">
-        <v>262900</v>
+        <v>268500</v>
       </c>
       <c r="F17" s="3">
-        <v>320400</v>
+        <v>246300</v>
       </c>
       <c r="G17" s="3">
-        <v>198800</v>
+        <v>300200</v>
       </c>
       <c r="H17" s="3">
-        <v>325100</v>
+        <v>186300</v>
       </c>
       <c r="I17" s="3">
-        <v>419300</v>
+        <v>304600</v>
       </c>
       <c r="J17" s="3">
+        <v>392900</v>
+      </c>
+      <c r="K17" s="3">
         <v>389200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>355500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>417900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>284500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>314000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>335700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>280000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>287100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>323900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>236400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>425600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>318000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>372400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>352500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>333900</v>
+        <v>330000</v>
       </c>
       <c r="E18" s="3">
-        <v>356200</v>
+        <v>312800</v>
       </c>
       <c r="F18" s="3">
-        <v>336700</v>
+        <v>333800</v>
       </c>
       <c r="G18" s="3">
-        <v>259100</v>
+        <v>315500</v>
       </c>
       <c r="H18" s="3">
-        <v>234700</v>
+        <v>242800</v>
       </c>
       <c r="I18" s="3">
-        <v>284700</v>
+        <v>219900</v>
       </c>
       <c r="J18" s="3">
+        <v>266700</v>
+      </c>
+      <c r="K18" s="3">
         <v>335000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>337700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>411500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>275400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>353200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>294600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>354800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>314300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>381500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>342700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>384200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>353400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>330400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>368900</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,138 +1447,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-76200</v>
+        <v>-52800</v>
       </c>
       <c r="E20" s="3">
-        <v>-98100</v>
+        <v>-71400</v>
       </c>
       <c r="F20" s="3">
-        <v>-135800</v>
+        <v>-92000</v>
       </c>
       <c r="G20" s="3">
-        <v>-107900</v>
+        <v>-127300</v>
       </c>
       <c r="H20" s="3">
-        <v>-53400</v>
+        <v>-101100</v>
       </c>
       <c r="I20" s="3">
-        <v>-69900</v>
+        <v>-50000</v>
       </c>
       <c r="J20" s="3">
+        <v>-65500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-90600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-75300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-78200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-98900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-67600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-95300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-105400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-95600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-125500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-110000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-104600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-105900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-114200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-116200</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>282000</v>
+        <v>300100</v>
       </c>
       <c r="E21" s="3">
-        <v>281700</v>
+        <v>264300</v>
       </c>
       <c r="F21" s="3">
-        <v>224300</v>
+        <v>264000</v>
       </c>
       <c r="G21" s="3">
-        <v>175000</v>
+        <v>210200</v>
       </c>
       <c r="H21" s="3">
-        <v>203700</v>
+        <v>164000</v>
       </c>
       <c r="I21" s="3">
-        <v>238300</v>
+        <v>190900</v>
       </c>
       <c r="J21" s="3">
+        <v>223200</v>
+      </c>
+      <c r="K21" s="3">
         <v>268100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>285800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>357400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>198800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>298000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>211000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>261300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>230500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>269300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>245900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>292300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>260100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>228900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>265300</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,138 +1649,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>257700</v>
+        <v>277200</v>
       </c>
       <c r="E23" s="3">
-        <v>258100</v>
+        <v>241500</v>
       </c>
       <c r="F23" s="3">
-        <v>200800</v>
+        <v>241800</v>
       </c>
       <c r="G23" s="3">
-        <v>151200</v>
+        <v>188200</v>
       </c>
       <c r="H23" s="3">
-        <v>181300</v>
+        <v>141700</v>
       </c>
       <c r="I23" s="3">
-        <v>214800</v>
+        <v>169900</v>
       </c>
       <c r="J23" s="3">
+        <v>201300</v>
+      </c>
+      <c r="K23" s="3">
         <v>244500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>262400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>333300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>176400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>285600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>199300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>249400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>218700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>256000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>232700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>279600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>247600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>216200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>252700</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>51500</v>
+        <v>57900</v>
       </c>
       <c r="E24" s="3">
-        <v>51700</v>
+        <v>48200</v>
       </c>
       <c r="F24" s="3">
-        <v>40500</v>
+        <v>48500</v>
       </c>
       <c r="G24" s="3">
-        <v>39100</v>
+        <v>37900</v>
       </c>
       <c r="H24" s="3">
-        <v>39400</v>
+        <v>36700</v>
       </c>
       <c r="I24" s="3">
-        <v>41000</v>
+        <v>36900</v>
       </c>
       <c r="J24" s="3">
+        <v>38400</v>
+      </c>
+      <c r="K24" s="3">
         <v>57600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>55400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>68200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>44400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>80500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>40400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>41300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>36100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>46700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>35900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>44700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>41800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>28900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>206200</v>
+        <v>219200</v>
       </c>
       <c r="E26" s="3">
-        <v>206400</v>
+        <v>193200</v>
       </c>
       <c r="F26" s="3">
-        <v>160400</v>
+        <v>193400</v>
       </c>
       <c r="G26" s="3">
-        <v>112100</v>
+        <v>150300</v>
       </c>
       <c r="H26" s="3">
-        <v>141900</v>
+        <v>105000</v>
       </c>
       <c r="I26" s="3">
-        <v>173800</v>
+        <v>132900</v>
       </c>
       <c r="J26" s="3">
+        <v>162900</v>
+      </c>
+      <c r="K26" s="3">
         <v>186900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>207000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>265100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>132000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>205100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>158900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>208100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>182600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>209300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>196800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>234900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>205800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>187300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>206200</v>
+        <v>219200</v>
       </c>
       <c r="E27" s="3">
-        <v>206400</v>
+        <v>193200</v>
       </c>
       <c r="F27" s="3">
-        <v>160400</v>
+        <v>193400</v>
       </c>
       <c r="G27" s="3">
-        <v>112100</v>
+        <v>150300</v>
       </c>
       <c r="H27" s="3">
-        <v>141900</v>
+        <v>105000</v>
       </c>
       <c r="I27" s="3">
-        <v>173800</v>
+        <v>132900</v>
       </c>
       <c r="J27" s="3">
+        <v>162900</v>
+      </c>
+      <c r="K27" s="3">
         <v>186900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>207000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>265100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>132000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>205100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>158900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>208100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>182600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>209300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>196800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>234900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>205800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>187300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>76200</v>
+        <v>52800</v>
       </c>
       <c r="E32" s="3">
-        <v>98100</v>
+        <v>71400</v>
       </c>
       <c r="F32" s="3">
-        <v>135800</v>
+        <v>92000</v>
       </c>
       <c r="G32" s="3">
-        <v>107900</v>
+        <v>127300</v>
       </c>
       <c r="H32" s="3">
-        <v>53400</v>
+        <v>101100</v>
       </c>
       <c r="I32" s="3">
-        <v>69900</v>
+        <v>50000</v>
       </c>
       <c r="J32" s="3">
+        <v>65500</v>
+      </c>
+      <c r="K32" s="3">
         <v>90600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>75300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>78200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>98900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>67600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>95300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>105400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>95600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>125500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>110000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>104600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>105900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>114200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>116200</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>206200</v>
+        <v>219200</v>
       </c>
       <c r="E33" s="3">
-        <v>206400</v>
+        <v>193200</v>
       </c>
       <c r="F33" s="3">
-        <v>160400</v>
+        <v>193400</v>
       </c>
       <c r="G33" s="3">
-        <v>112100</v>
+        <v>150300</v>
       </c>
       <c r="H33" s="3">
-        <v>141900</v>
+        <v>105000</v>
       </c>
       <c r="I33" s="3">
-        <v>173800</v>
+        <v>132900</v>
       </c>
       <c r="J33" s="3">
+        <v>162900</v>
+      </c>
+      <c r="K33" s="3">
         <v>186900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>207000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>265100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>132000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>205100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>158900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>208100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>182600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>209300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>196800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>234900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>205800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>187300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>206200</v>
+        <v>219200</v>
       </c>
       <c r="E35" s="3">
-        <v>206400</v>
+        <v>193200</v>
       </c>
       <c r="F35" s="3">
-        <v>160400</v>
+        <v>193400</v>
       </c>
       <c r="G35" s="3">
-        <v>112100</v>
+        <v>150300</v>
       </c>
       <c r="H35" s="3">
-        <v>141900</v>
+        <v>105000</v>
       </c>
       <c r="I35" s="3">
-        <v>173800</v>
+        <v>132900</v>
       </c>
       <c r="J35" s="3">
+        <v>162900</v>
+      </c>
+      <c r="K35" s="3">
         <v>186900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>207000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>265100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>132000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>205100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>158900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>208100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>182600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>209300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>196800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>234900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>205800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>187300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,138 +2660,145 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6726400</v>
+        <v>4659400</v>
       </c>
       <c r="E41" s="3">
-        <v>8045100</v>
+        <v>6302700</v>
       </c>
       <c r="F41" s="3">
-        <v>6069400</v>
+        <v>7538400</v>
       </c>
       <c r="G41" s="3">
-        <v>5018000</v>
+        <v>5687000</v>
       </c>
       <c r="H41" s="3">
-        <v>4318200</v>
+        <v>4701900</v>
       </c>
       <c r="I41" s="3">
-        <v>4333000</v>
+        <v>4046200</v>
       </c>
       <c r="J41" s="3">
+        <v>4060100</v>
+      </c>
+      <c r="K41" s="3">
         <v>3546400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3694500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4361500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3350700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3583100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3428900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3538600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2836400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2891200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3077300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2958500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3387100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3523000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3447400</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>8310000</v>
+        <v>9133200</v>
       </c>
       <c r="E42" s="3">
-        <v>6575600</v>
+        <v>7786600</v>
       </c>
       <c r="F42" s="3">
-        <v>11002100</v>
+        <v>6161400</v>
       </c>
       <c r="G42" s="3">
-        <v>10349900</v>
+        <v>10309000</v>
       </c>
       <c r="H42" s="3">
-        <v>11811500</v>
+        <v>9698000</v>
       </c>
       <c r="I42" s="3">
-        <v>9823800</v>
+        <v>11067500</v>
       </c>
       <c r="J42" s="3">
+        <v>9205000</v>
+      </c>
+      <c r="K42" s="3">
         <v>7778400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>6750600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4533900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4327400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>4432300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>4120600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3732800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>4057800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>4892500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3759300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>4831100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>4779700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>4568200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>4469300</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2899,8 +2998,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2964,203 +3066,215 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>55400</v>
+        <v>57200</v>
       </c>
       <c r="E47" s="3">
+        <v>51900</v>
+      </c>
+      <c r="F47" s="3">
+        <v>52300</v>
+      </c>
+      <c r="G47" s="3">
+        <v>53100</v>
+      </c>
+      <c r="H47" s="3">
+        <v>58300</v>
+      </c>
+      <c r="I47" s="3">
+        <v>61000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>62600</v>
+      </c>
+      <c r="K47" s="3">
+        <v>64500</v>
+      </c>
+      <c r="L47" s="3">
+        <v>66900</v>
+      </c>
+      <c r="M47" s="3">
+        <v>65800</v>
+      </c>
+      <c r="N47" s="3">
+        <v>59400</v>
+      </c>
+      <c r="O47" s="3">
+        <v>56600</v>
+      </c>
+      <c r="P47" s="3">
+        <v>55000</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>53200</v>
+      </c>
+      <c r="R47" s="3">
+        <v>49900</v>
+      </c>
+      <c r="S47" s="3">
         <v>55900</v>
       </c>
-      <c r="F47" s="3">
-        <v>56700</v>
-      </c>
-      <c r="G47" s="3">
-        <v>62200</v>
-      </c>
-      <c r="H47" s="3">
-        <v>65100</v>
-      </c>
-      <c r="I47" s="3">
-        <v>66900</v>
-      </c>
-      <c r="J47" s="3">
-        <v>64500</v>
-      </c>
-      <c r="K47" s="3">
-        <v>66900</v>
-      </c>
-      <c r="L47" s="3">
-        <v>65800</v>
-      </c>
-      <c r="M47" s="3">
-        <v>59400</v>
-      </c>
-      <c r="N47" s="3">
-        <v>56600</v>
-      </c>
-      <c r="O47" s="3">
-        <v>55000</v>
-      </c>
-      <c r="P47" s="3">
-        <v>53200</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>49900</v>
-      </c>
-      <c r="R47" s="3">
-        <v>55900</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>53600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>51200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>50200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>49200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>439600</v>
+        <v>404000</v>
       </c>
       <c r="E48" s="3">
-        <v>448700</v>
+        <v>411900</v>
       </c>
       <c r="F48" s="3">
-        <v>444000</v>
+        <v>420400</v>
       </c>
       <c r="G48" s="3">
-        <v>457300</v>
+        <v>416000</v>
       </c>
       <c r="H48" s="3">
-        <v>471100</v>
+        <v>428500</v>
       </c>
       <c r="I48" s="3">
-        <v>487600</v>
+        <v>441400</v>
       </c>
       <c r="J48" s="3">
+        <v>456900</v>
+      </c>
+      <c r="K48" s="3">
         <v>487800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>526400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>536200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>506100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>291900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>285700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>290400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>289800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>338900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>338500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>338100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>340900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>353000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>350300</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>84800</v>
+        <v>81400</v>
       </c>
       <c r="E49" s="3">
-        <v>79400</v>
+        <v>79500</v>
       </c>
       <c r="F49" s="3">
-        <v>77100</v>
+        <v>74400</v>
       </c>
       <c r="G49" s="3">
-        <v>76300</v>
+        <v>72200</v>
       </c>
       <c r="H49" s="3">
-        <v>75500</v>
+        <v>71500</v>
       </c>
       <c r="I49" s="3">
-        <v>74600</v>
+        <v>70800</v>
       </c>
       <c r="J49" s="3">
+        <v>69900</v>
+      </c>
+      <c r="K49" s="3">
         <v>74000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>74500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>75100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>68900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>66100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>60000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>58300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>53500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>57400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>49900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>45000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>44100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>44300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>484900</v>
+        <v>460900</v>
       </c>
       <c r="E52" s="3">
-        <v>449200</v>
+        <v>454300</v>
       </c>
       <c r="F52" s="3">
-        <v>454600</v>
+        <v>420900</v>
       </c>
       <c r="G52" s="3">
-        <v>423300</v>
+        <v>426000</v>
       </c>
       <c r="H52" s="3">
-        <v>411700</v>
+        <v>396700</v>
       </c>
       <c r="I52" s="3">
-        <v>402100</v>
+        <v>385800</v>
       </c>
       <c r="J52" s="3">
+        <v>376800</v>
+      </c>
+      <c r="K52" s="3">
         <v>407600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>429800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>441500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>359500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>353000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>331800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>333300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>339900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>393100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>436900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>435600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>433600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>425400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>60091600</v>
+        <v>58569900</v>
       </c>
       <c r="E54" s="3">
-        <v>57131400</v>
+        <v>56306300</v>
       </c>
       <c r="F54" s="3">
-        <v>58540800</v>
+        <v>53532600</v>
       </c>
       <c r="G54" s="3">
-        <v>57568900</v>
+        <v>54853200</v>
       </c>
       <c r="H54" s="3">
-        <v>58601100</v>
+        <v>53942500</v>
       </c>
       <c r="I54" s="3">
-        <v>56891800</v>
+        <v>54909700</v>
       </c>
       <c r="J54" s="3">
+        <v>53308100</v>
+      </c>
+      <c r="K54" s="3">
         <v>52417100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>53648400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>51411400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>46920100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>45626600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>43505300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>43981900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>42552000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>48251600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>46956400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>47447700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>46794000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>47615900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>46838400</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,203 +3664,213 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1268300</v>
+        <v>680800</v>
       </c>
       <c r="E57" s="3">
-        <v>1352000</v>
+        <v>1188400</v>
       </c>
       <c r="F57" s="3">
-        <v>2000400</v>
+        <v>1266800</v>
       </c>
       <c r="G57" s="3">
-        <v>1554100</v>
+        <v>1874400</v>
       </c>
       <c r="H57" s="3">
-        <v>1005500</v>
+        <v>1456200</v>
       </c>
       <c r="I57" s="3">
-        <v>891700</v>
+        <v>942200</v>
       </c>
       <c r="J57" s="3">
+        <v>835500</v>
+      </c>
+      <c r="K57" s="3">
         <v>741200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>892200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1324600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1014300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>650700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>855600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>770600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>834400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>714200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>723800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1213600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>773100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>515500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>680800</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4570600</v>
+        <v>4177200</v>
       </c>
       <c r="E58" s="3">
-        <v>4646500</v>
+        <v>4282700</v>
       </c>
       <c r="F58" s="3">
-        <v>3065400</v>
+        <v>4353800</v>
       </c>
       <c r="G58" s="3">
-        <v>2824700</v>
+        <v>2872300</v>
       </c>
       <c r="H58" s="3">
-        <v>3511900</v>
+        <v>2646700</v>
       </c>
       <c r="I58" s="3">
-        <v>4175700</v>
+        <v>3290700</v>
       </c>
       <c r="J58" s="3">
+        <v>3912700</v>
+      </c>
+      <c r="K58" s="3">
         <v>3974500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4593000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4598600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3662400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3931500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3540700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3309200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3137700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3693500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3661200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3726400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3443200</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>219700</v>
+        <v>374400</v>
       </c>
       <c r="E59" s="3">
-        <v>96200</v>
+        <v>205900</v>
       </c>
       <c r="F59" s="3">
-        <v>285600</v>
+        <v>90200</v>
       </c>
       <c r="G59" s="3">
-        <v>222600</v>
+        <v>267600</v>
       </c>
       <c r="H59" s="3">
-        <v>157900</v>
+        <v>208600</v>
       </c>
       <c r="I59" s="3">
-        <v>164100</v>
+        <v>148000</v>
       </c>
       <c r="J59" s="3">
+        <v>153700</v>
+      </c>
+      <c r="K59" s="3">
         <v>480300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>385800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>309200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>120800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>415800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>277700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>202400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>99500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>466800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>352500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>235000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>110600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>432900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>339800</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3794,138 +3934,147 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13485000</v>
+        <v>12533400</v>
       </c>
       <c r="E61" s="3">
-        <v>12012200</v>
+        <v>12635500</v>
       </c>
       <c r="F61" s="3">
-        <v>13265500</v>
+        <v>11255600</v>
       </c>
       <c r="G61" s="3">
-        <v>13799100</v>
+        <v>12429900</v>
       </c>
       <c r="H61" s="3">
-        <v>14187200</v>
+        <v>12929900</v>
       </c>
       <c r="I61" s="3">
-        <v>10476200</v>
+        <v>13293500</v>
       </c>
       <c r="J61" s="3">
+        <v>9816300</v>
+      </c>
+      <c r="K61" s="3">
         <v>9979800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10302500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9268000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8462600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8024500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7630200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7685300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7531900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8090800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7957500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>8136900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>8411800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>11180300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>11255500</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>746100</v>
+        <v>780700</v>
       </c>
       <c r="E62" s="3">
-        <v>666300</v>
+        <v>699100</v>
       </c>
       <c r="F62" s="3">
-        <v>652300</v>
+        <v>624400</v>
       </c>
       <c r="G62" s="3">
-        <v>534700</v>
+        <v>611200</v>
       </c>
       <c r="H62" s="3">
-        <v>568300</v>
+        <v>501000</v>
       </c>
       <c r="I62" s="3">
-        <v>458200</v>
+        <v>532500</v>
       </c>
       <c r="J62" s="3">
+        <v>429400</v>
+      </c>
+      <c r="K62" s="3">
         <v>487900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>502900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>494600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>440400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>463200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>439600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>454100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>458700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>563000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>590800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>576700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>553100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>569000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>589100</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>55096100</v>
+        <v>53760400</v>
       </c>
       <c r="E66" s="3">
-        <v>52279900</v>
+        <v>51625400</v>
       </c>
       <c r="F66" s="3">
-        <v>53808500</v>
+        <v>48986600</v>
       </c>
       <c r="G66" s="3">
-        <v>52957000</v>
+        <v>50418900</v>
       </c>
       <c r="H66" s="3">
-        <v>54055900</v>
+        <v>49621100</v>
       </c>
       <c r="I66" s="3">
-        <v>52382200</v>
+        <v>50650800</v>
       </c>
       <c r="J66" s="3">
+        <v>49082500</v>
+      </c>
+      <c r="K66" s="3">
         <v>47936300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>48991800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>46729600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>42628800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>41430300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>39508100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>39927200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>38580100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>43686200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>42491400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>43061400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>42536500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>43255900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>42530100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1969100</v>
+        <v>1917600</v>
       </c>
       <c r="E72" s="3">
-        <v>1865800</v>
+        <v>1845000</v>
       </c>
       <c r="F72" s="3">
-        <v>1749200</v>
+        <v>1748300</v>
       </c>
       <c r="G72" s="3">
-        <v>1661600</v>
+        <v>1639000</v>
       </c>
       <c r="H72" s="3">
-        <v>1621200</v>
+        <v>1556900</v>
       </c>
       <c r="I72" s="3">
-        <v>1545700</v>
+        <v>1519100</v>
       </c>
       <c r="J72" s="3">
+        <v>1448400</v>
+      </c>
+      <c r="K72" s="3">
         <v>1507000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1523300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1428200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1203600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1192200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1069700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1019000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>910500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1242200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1147100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1065000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>959400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1171800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4995600</v>
+        <v>4809500</v>
       </c>
       <c r="E76" s="3">
-        <v>4851600</v>
+        <v>4680900</v>
       </c>
       <c r="F76" s="3">
-        <v>4732400</v>
+        <v>4545900</v>
       </c>
       <c r="G76" s="3">
-        <v>4612000</v>
+        <v>4434300</v>
       </c>
       <c r="H76" s="3">
-        <v>4545200</v>
+        <v>4321400</v>
       </c>
       <c r="I76" s="3">
-        <v>4509600</v>
+        <v>4258900</v>
       </c>
       <c r="J76" s="3">
+        <v>4225600</v>
+      </c>
+      <c r="K76" s="3">
         <v>4480800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4656600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4681900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4291200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4196300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3997200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4054600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3971900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4565400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4465000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4386200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4257500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4360000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4308300</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>206200</v>
+        <v>219200</v>
       </c>
       <c r="E81" s="3">
-        <v>206400</v>
+        <v>193200</v>
       </c>
       <c r="F81" s="3">
-        <v>160400</v>
+        <v>193400</v>
       </c>
       <c r="G81" s="3">
-        <v>112100</v>
+        <v>150300</v>
       </c>
       <c r="H81" s="3">
-        <v>141900</v>
+        <v>105000</v>
       </c>
       <c r="I81" s="3">
-        <v>173800</v>
+        <v>132900</v>
       </c>
       <c r="J81" s="3">
+        <v>162900</v>
+      </c>
+      <c r="K81" s="3">
         <v>186900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>207000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>265100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>132000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>205100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>158900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>208100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>182600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>209300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>196800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>234900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>205800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>187300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,64 +5217,65 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>24300</v>
+        <v>22900</v>
       </c>
       <c r="E83" s="3">
-        <v>23600</v>
+        <v>22800</v>
       </c>
       <c r="F83" s="3">
-        <v>23500</v>
+        <v>22200</v>
       </c>
       <c r="G83" s="3">
-        <v>23800</v>
+        <v>7900</v>
       </c>
       <c r="H83" s="3">
+        <v>36400</v>
+      </c>
+      <c r="I83" s="3">
+        <v>21000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>22000</v>
+      </c>
+      <c r="K83" s="3">
+        <v>23700</v>
+      </c>
+      <c r="L83" s="3">
+        <v>23400</v>
+      </c>
+      <c r="M83" s="3">
+        <v>24100</v>
+      </c>
+      <c r="N83" s="3">
         <v>22400</v>
       </c>
-      <c r="I83" s="3">
-        <v>23500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>23700</v>
-      </c>
-      <c r="K83" s="3">
-        <v>23400</v>
-      </c>
-      <c r="L83" s="3">
-        <v>24100</v>
-      </c>
-      <c r="M83" s="3">
-        <v>22400</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>11700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>11900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>11700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>13300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>13200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>12700</v>
-      </c>
-      <c r="U83" s="3">
-        <v>12600</v>
       </c>
       <c r="V83" s="3">
         <v>12600</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>12600</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2214100</v>
+        <v>2862400</v>
       </c>
       <c r="E89" s="3">
-        <v>-3076200</v>
+        <v>2074600</v>
       </c>
       <c r="F89" s="3">
-        <v>878200</v>
+        <v>-2882400</v>
       </c>
       <c r="G89" s="3">
-        <v>334800</v>
+        <v>822900</v>
       </c>
       <c r="H89" s="3">
-        <v>-863700</v>
+        <v>313700</v>
       </c>
       <c r="I89" s="3">
-        <v>310700</v>
+        <v>-809300</v>
       </c>
       <c r="J89" s="3">
+        <v>291100</v>
+      </c>
+      <c r="K89" s="3">
         <v>1097500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>66100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-970600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1334400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-614600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-434900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-266200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>136000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>703800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>250800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>435500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>179000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>398600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-193700</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
-        <v>-400</v>
-      </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-16900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-23800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-12800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-10800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-10300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-10500</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-6700</v>
       </c>
       <c r="U91" s="3">
         <v>-6700</v>
       </c>
       <c r="V91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="W91" s="3">
         <v>-12200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1884200</v>
+        <v>-1572800</v>
       </c>
       <c r="E94" s="3">
-        <v>-40900</v>
+        <v>-1765500</v>
       </c>
       <c r="F94" s="3">
-        <v>230700</v>
+        <v>-38300</v>
       </c>
       <c r="G94" s="3">
-        <v>387700</v>
+        <v>190500</v>
       </c>
       <c r="H94" s="3">
-        <v>38500</v>
+        <v>388900</v>
       </c>
       <c r="I94" s="3">
-        <v>-390300</v>
+        <v>36100</v>
       </c>
       <c r="J94" s="3">
+        <v>-365700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-81200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-143800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>82600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-374100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>365300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>88000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-36700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>110800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-319300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-565800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-682600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-165900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>8300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>260000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5793,10 +6027,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-279700</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-262100</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -5805,10 +6039,10 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-445200</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-417100</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -5817,11 +6051,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-463200</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -5829,11 +6063,11 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-478800</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -5841,16 +6075,19 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-502800</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1240000</v>
+        <v>-412400</v>
       </c>
       <c r="E100" s="3">
-        <v>210500</v>
+        <v>1161900</v>
       </c>
       <c r="F100" s="3">
-        <v>-215800</v>
+        <v>197200</v>
       </c>
       <c r="G100" s="3">
-        <v>-1030900</v>
+        <v>-202200</v>
       </c>
       <c r="H100" s="3">
-        <v>3252900</v>
+        <v>-966000</v>
       </c>
       <c r="I100" s="3">
-        <v>-149900</v>
+        <v>3048000</v>
       </c>
       <c r="J100" s="3">
+        <v>-140500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-231800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1168000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>919100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-701800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>575400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>283400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>152300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-199200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>237400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-152300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>17700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>92300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-55300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>329700</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>71100</v>
+        <v>186100</v>
       </c>
       <c r="E101" s="3">
-        <v>18200</v>
+        <v>66600</v>
       </c>
       <c r="F101" s="3">
-        <v>-112700</v>
+        <v>17100</v>
       </c>
       <c r="G101" s="3">
-        <v>-76400</v>
+        <v>-105600</v>
       </c>
       <c r="H101" s="3">
-        <v>101800</v>
+        <v>-71500</v>
       </c>
       <c r="I101" s="3">
-        <v>43600</v>
+        <v>95400</v>
       </c>
       <c r="J101" s="3">
+        <v>40800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-14300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>56700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-6700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>11300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>34800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>36400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>86400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-10300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-34600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-12900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>10300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-19200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>14300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1641100</v>
+        <v>1063200</v>
       </c>
       <c r="E102" s="3">
-        <v>-2888300</v>
+        <v>1537700</v>
       </c>
       <c r="F102" s="3">
-        <v>780400</v>
+        <v>-2706400</v>
       </c>
       <c r="G102" s="3">
-        <v>-384800</v>
+        <v>731200</v>
       </c>
       <c r="H102" s="3">
-        <v>2529400</v>
+        <v>-360500</v>
       </c>
       <c r="I102" s="3">
-        <v>-186000</v>
+        <v>2370100</v>
       </c>
       <c r="J102" s="3">
+        <v>-174300</v>
+      </c>
+      <c r="K102" s="3">
         <v>770200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1147000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>26200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>268000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>360800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-27200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-64200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>37300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>587400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-480200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-219200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>86200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>365900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>383400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BCH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>BCH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,172 +665,178 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>641900</v>
+        <v>1075800</v>
       </c>
       <c r="E8" s="3">
-        <v>581400</v>
+        <v>668800</v>
       </c>
       <c r="F8" s="3">
-        <v>580100</v>
+        <v>605800</v>
       </c>
       <c r="G8" s="3">
-        <v>615700</v>
+        <v>604500</v>
       </c>
       <c r="H8" s="3">
-        <v>429100</v>
+        <v>641600</v>
       </c>
       <c r="I8" s="3">
-        <v>524500</v>
+        <v>447100</v>
       </c>
       <c r="J8" s="3">
+        <v>546600</v>
+      </c>
+      <c r="K8" s="3">
         <v>659600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>724200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>693200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>829400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>559900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>667200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>630400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>634800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>601400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>705400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>579000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>809800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>671400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>702900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>721300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -897,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,67 +1214,70 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="H15" s="3">
         <v>-22900</v>
       </c>
-      <c r="E15" s="3">
-        <v>-22800</v>
-      </c>
-      <c r="F15" s="3">
-        <v>-22200</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="K15" s="3">
         <v>-22000</v>
       </c>
-      <c r="H15" s="3">
-        <v>-22300</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-21000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>-22000</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-23700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-23400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-24100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-22400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-12400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-11900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-11700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-13300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-13200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-12700</v>
-      </c>
-      <c r="V15" s="3">
-        <v>-12600</v>
       </c>
       <c r="W15" s="3">
         <v>-12600</v>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>-12600</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>-12600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>311800</v>
+        <v>611300</v>
       </c>
       <c r="E17" s="3">
-        <v>268500</v>
+        <v>325000</v>
       </c>
       <c r="F17" s="3">
-        <v>246300</v>
+        <v>279800</v>
       </c>
       <c r="G17" s="3">
-        <v>300200</v>
+        <v>256600</v>
       </c>
       <c r="H17" s="3">
-        <v>186300</v>
+        <v>312800</v>
       </c>
       <c r="I17" s="3">
-        <v>304600</v>
+        <v>194100</v>
       </c>
       <c r="J17" s="3">
+        <v>317400</v>
+      </c>
+      <c r="K17" s="3">
         <v>392900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>389200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>355500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>417900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>284500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>314000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>335700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>280000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>287100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>323900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>236400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>425600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>318000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>372400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>352500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>330000</v>
+        <v>464400</v>
       </c>
       <c r="E18" s="3">
-        <v>312800</v>
+        <v>343900</v>
       </c>
       <c r="F18" s="3">
-        <v>333800</v>
+        <v>326000</v>
       </c>
       <c r="G18" s="3">
-        <v>315500</v>
+        <v>347800</v>
       </c>
       <c r="H18" s="3">
-        <v>242800</v>
+        <v>328700</v>
       </c>
       <c r="I18" s="3">
-        <v>219900</v>
+        <v>253000</v>
       </c>
       <c r="J18" s="3">
+        <v>229100</v>
+      </c>
+      <c r="K18" s="3">
         <v>266700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>335000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>337700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>411500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>275400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>353200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>294600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>354800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>314300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>381500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>342700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>384200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>353400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>330400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>368900</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1480,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-52800</v>
+        <v>-52300</v>
       </c>
       <c r="E20" s="3">
-        <v>-71400</v>
+        <v>-55100</v>
       </c>
       <c r="F20" s="3">
-        <v>-92000</v>
+        <v>-74400</v>
       </c>
       <c r="G20" s="3">
-        <v>-127300</v>
+        <v>-95800</v>
       </c>
       <c r="H20" s="3">
-        <v>-101100</v>
+        <v>-132600</v>
       </c>
       <c r="I20" s="3">
-        <v>-50000</v>
+        <v>-105300</v>
       </c>
       <c r="J20" s="3">
+        <v>-52100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-65500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-90600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-75300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-78200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-98900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-67600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-95300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-105400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-95600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-125500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-110000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-104600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-105900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-114200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-116200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>300100</v>
+        <v>436700</v>
       </c>
       <c r="E21" s="3">
-        <v>264300</v>
+        <v>312700</v>
       </c>
       <c r="F21" s="3">
-        <v>264000</v>
+        <v>275400</v>
       </c>
       <c r="G21" s="3">
-        <v>210200</v>
+        <v>275100</v>
       </c>
       <c r="H21" s="3">
-        <v>164000</v>
+        <v>219000</v>
       </c>
       <c r="I21" s="3">
-        <v>190900</v>
+        <v>170900</v>
       </c>
       <c r="J21" s="3">
+        <v>198900</v>
+      </c>
+      <c r="K21" s="3">
         <v>223200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>268100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>285800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>357400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>198800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>298000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>211000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>261300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>230500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>269300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>245900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>292300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>260100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>228900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>265300</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,144 +1691,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>277200</v>
+        <v>412200</v>
       </c>
       <c r="E23" s="3">
-        <v>241500</v>
+        <v>288800</v>
       </c>
       <c r="F23" s="3">
-        <v>241800</v>
+        <v>251600</v>
       </c>
       <c r="G23" s="3">
-        <v>188200</v>
+        <v>252000</v>
       </c>
       <c r="H23" s="3">
-        <v>141700</v>
+        <v>196100</v>
       </c>
       <c r="I23" s="3">
-        <v>169900</v>
+        <v>147600</v>
       </c>
       <c r="J23" s="3">
+        <v>177000</v>
+      </c>
+      <c r="K23" s="3">
         <v>201300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>244500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>262400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>333300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>176400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>285600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>199300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>249400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>218700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>256000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>232700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>279600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>247600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>216200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>252700</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>57900</v>
+        <v>60200</v>
       </c>
       <c r="E24" s="3">
-        <v>48200</v>
+        <v>60400</v>
       </c>
       <c r="F24" s="3">
-        <v>48500</v>
+        <v>50300</v>
       </c>
       <c r="G24" s="3">
-        <v>37900</v>
+        <v>50500</v>
       </c>
       <c r="H24" s="3">
-        <v>36700</v>
+        <v>39500</v>
       </c>
       <c r="I24" s="3">
-        <v>36900</v>
+        <v>38200</v>
       </c>
       <c r="J24" s="3">
+        <v>38500</v>
+      </c>
+      <c r="K24" s="3">
         <v>38400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>57600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>55400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>68200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>44400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>80500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>40400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>41300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>36100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>46700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>35900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>44700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>41800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>28900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>219200</v>
+        <v>351900</v>
       </c>
       <c r="E26" s="3">
-        <v>193200</v>
+        <v>228500</v>
       </c>
       <c r="F26" s="3">
-        <v>193400</v>
+        <v>201300</v>
       </c>
       <c r="G26" s="3">
-        <v>150300</v>
+        <v>201500</v>
       </c>
       <c r="H26" s="3">
-        <v>105000</v>
+        <v>156600</v>
       </c>
       <c r="I26" s="3">
-        <v>132900</v>
+        <v>109400</v>
       </c>
       <c r="J26" s="3">
+        <v>138500</v>
+      </c>
+      <c r="K26" s="3">
         <v>162900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>186900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>207000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>265100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>132000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>205100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>158900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>208100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>182600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>209300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>196800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>234900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>205800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>187300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>219200</v>
+        <v>351900</v>
       </c>
       <c r="E27" s="3">
-        <v>193200</v>
+        <v>228500</v>
       </c>
       <c r="F27" s="3">
-        <v>193400</v>
+        <v>201300</v>
       </c>
       <c r="G27" s="3">
-        <v>150300</v>
+        <v>201500</v>
       </c>
       <c r="H27" s="3">
-        <v>105000</v>
+        <v>156600</v>
       </c>
       <c r="I27" s="3">
-        <v>132900</v>
+        <v>109400</v>
       </c>
       <c r="J27" s="3">
+        <v>138500</v>
+      </c>
+      <c r="K27" s="3">
         <v>162900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>186900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>207000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>265100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>132000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>205100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>158900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>208100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>182600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>209300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>196800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>234900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>205800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>187300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>52800</v>
+        <v>52300</v>
       </c>
       <c r="E32" s="3">
-        <v>71400</v>
+        <v>55100</v>
       </c>
       <c r="F32" s="3">
-        <v>92000</v>
+        <v>74400</v>
       </c>
       <c r="G32" s="3">
-        <v>127300</v>
+        <v>95800</v>
       </c>
       <c r="H32" s="3">
-        <v>101100</v>
+        <v>132600</v>
       </c>
       <c r="I32" s="3">
-        <v>50000</v>
+        <v>105300</v>
       </c>
       <c r="J32" s="3">
+        <v>52100</v>
+      </c>
+      <c r="K32" s="3">
         <v>65500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>90600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>75300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>78200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>98900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>67600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>95300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>105400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>95600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>125500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>110000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>104600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>105900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>114200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>116200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>219200</v>
+        <v>351900</v>
       </c>
       <c r="E33" s="3">
-        <v>193200</v>
+        <v>228500</v>
       </c>
       <c r="F33" s="3">
-        <v>193400</v>
+        <v>201300</v>
       </c>
       <c r="G33" s="3">
-        <v>150300</v>
+        <v>201500</v>
       </c>
       <c r="H33" s="3">
-        <v>105000</v>
+        <v>156600</v>
       </c>
       <c r="I33" s="3">
-        <v>132900</v>
+        <v>109400</v>
       </c>
       <c r="J33" s="3">
+        <v>138500</v>
+      </c>
+      <c r="K33" s="3">
         <v>162900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>186900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>207000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>265100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>132000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>205100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>158900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>208100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>182600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>209300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>196800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>234900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>205800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>187300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>219200</v>
+        <v>351900</v>
       </c>
       <c r="E35" s="3">
-        <v>193200</v>
+        <v>228500</v>
       </c>
       <c r="F35" s="3">
-        <v>193400</v>
+        <v>201300</v>
       </c>
       <c r="G35" s="3">
-        <v>150300</v>
+        <v>201500</v>
       </c>
       <c r="H35" s="3">
-        <v>105000</v>
+        <v>156600</v>
       </c>
       <c r="I35" s="3">
-        <v>132900</v>
+        <v>109400</v>
       </c>
       <c r="J35" s="3">
+        <v>138500</v>
+      </c>
+      <c r="K35" s="3">
         <v>162900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>186900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>207000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>265100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>132000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>205100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>158900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>208100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>182600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>209300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>196800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>234900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>205800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>187300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,144 +2746,151 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4659400</v>
+        <v>5858800</v>
       </c>
       <c r="E41" s="3">
-        <v>6302700</v>
+        <v>4855200</v>
       </c>
       <c r="F41" s="3">
-        <v>7538400</v>
+        <v>6567500</v>
       </c>
       <c r="G41" s="3">
-        <v>5687000</v>
+        <v>7855100</v>
       </c>
       <c r="H41" s="3">
-        <v>4701900</v>
+        <v>5926000</v>
       </c>
       <c r="I41" s="3">
-        <v>4046200</v>
+        <v>4899400</v>
       </c>
       <c r="J41" s="3">
+        <v>4216200</v>
+      </c>
+      <c r="K41" s="3">
         <v>4060100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3546400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3694500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4361500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3350700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3583100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3428900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3538600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2836400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2891200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3077300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2958500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3387100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3523000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3447400</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9133200</v>
+        <v>9943600</v>
       </c>
       <c r="E42" s="3">
-        <v>7786600</v>
+        <v>9516900</v>
       </c>
       <c r="F42" s="3">
-        <v>6161400</v>
+        <v>8113700</v>
       </c>
       <c r="G42" s="3">
-        <v>10309000</v>
+        <v>6420300</v>
       </c>
       <c r="H42" s="3">
-        <v>9698000</v>
+        <v>10742200</v>
       </c>
       <c r="I42" s="3">
-        <v>11067500</v>
+        <v>10105400</v>
       </c>
       <c r="J42" s="3">
+        <v>11532500</v>
+      </c>
+      <c r="K42" s="3">
         <v>9205000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>7778400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>6750600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4533900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>4327400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>4432300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>4120600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3732800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>4057800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>4892500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3759300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>4831100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>4779700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>4568200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>4469300</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,8 +3099,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,212 +3170,224 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>57200</v>
+        <v>61000</v>
       </c>
       <c r="E47" s="3">
-        <v>51900</v>
+        <v>59600</v>
       </c>
       <c r="F47" s="3">
-        <v>52300</v>
+        <v>54000</v>
       </c>
       <c r="G47" s="3">
-        <v>53100</v>
+        <v>54500</v>
       </c>
       <c r="H47" s="3">
-        <v>58300</v>
+        <v>55400</v>
       </c>
       <c r="I47" s="3">
-        <v>61000</v>
+        <v>60700</v>
       </c>
       <c r="J47" s="3">
+        <v>63600</v>
+      </c>
+      <c r="K47" s="3">
         <v>62600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>64500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>66900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>65800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>59400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>56600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>55000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>53200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>49900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>55900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>53600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>51200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>50200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>49200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>404000</v>
+        <v>415400</v>
       </c>
       <c r="E48" s="3">
-        <v>411900</v>
+        <v>421000</v>
       </c>
       <c r="F48" s="3">
-        <v>420400</v>
+        <v>429200</v>
       </c>
       <c r="G48" s="3">
-        <v>416000</v>
+        <v>438100</v>
       </c>
       <c r="H48" s="3">
-        <v>428500</v>
+        <v>433500</v>
       </c>
       <c r="I48" s="3">
-        <v>441400</v>
+        <v>446500</v>
       </c>
       <c r="J48" s="3">
+        <v>459900</v>
+      </c>
+      <c r="K48" s="3">
         <v>456900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>487800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>526400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>536200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>506100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>291900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>285700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>290400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>289800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>338900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>338500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>338100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>340900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>353000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>350300</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>81400</v>
+        <v>89900</v>
       </c>
       <c r="E49" s="3">
-        <v>79500</v>
+        <v>84800</v>
       </c>
       <c r="F49" s="3">
-        <v>74400</v>
+        <v>82800</v>
       </c>
       <c r="G49" s="3">
-        <v>72200</v>
+        <v>77500</v>
       </c>
       <c r="H49" s="3">
-        <v>71500</v>
+        <v>75300</v>
       </c>
       <c r="I49" s="3">
-        <v>70800</v>
+        <v>74500</v>
       </c>
       <c r="J49" s="3">
+        <v>73700</v>
+      </c>
+      <c r="K49" s="3">
         <v>69900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>74000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>74500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>75100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>68900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>66100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>60000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>58300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>53500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>57400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>49900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>45000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>44100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>44300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>460900</v>
+        <v>544600</v>
       </c>
       <c r="E52" s="3">
-        <v>454300</v>
+        <v>480200</v>
       </c>
       <c r="F52" s="3">
-        <v>420900</v>
+        <v>473400</v>
       </c>
       <c r="G52" s="3">
-        <v>426000</v>
+        <v>438500</v>
       </c>
       <c r="H52" s="3">
-        <v>396700</v>
+        <v>443900</v>
       </c>
       <c r="I52" s="3">
-        <v>385800</v>
+        <v>413300</v>
       </c>
       <c r="J52" s="3">
+        <v>402000</v>
+      </c>
+      <c r="K52" s="3">
         <v>376800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>407600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>429800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>441500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>359500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>353000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>331800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>333300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>339900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>393100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>436900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>435600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>433600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>425400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>58569900</v>
+        <v>64111000</v>
       </c>
       <c r="E54" s="3">
-        <v>56306300</v>
+        <v>61030800</v>
       </c>
       <c r="F54" s="3">
-        <v>53532600</v>
+        <v>58672100</v>
       </c>
       <c r="G54" s="3">
-        <v>54853200</v>
+        <v>55781900</v>
       </c>
       <c r="H54" s="3">
-        <v>53942500</v>
+        <v>57158000</v>
       </c>
       <c r="I54" s="3">
-        <v>54909700</v>
+        <v>56209000</v>
       </c>
       <c r="J54" s="3">
+        <v>57216900</v>
+      </c>
+      <c r="K54" s="3">
         <v>53308100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>52417100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>53648400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>51411400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>46920100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>45626600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>43505300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>43981900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>42552000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>48251600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>46956400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>47447700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>46794000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>47615900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>46838400</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,212 +3794,222 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>844300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>709400</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1238400</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1320100</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1953200</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1517400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>981800</v>
+      </c>
+      <c r="K57" s="3">
+        <v>835500</v>
+      </c>
+      <c r="L57" s="3">
+        <v>741200</v>
+      </c>
+      <c r="M57" s="3">
+        <v>892200</v>
+      </c>
+      <c r="N57" s="3">
+        <v>1324600</v>
+      </c>
+      <c r="O57" s="3">
+        <v>1014300</v>
+      </c>
+      <c r="P57" s="3">
+        <v>650700</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>855600</v>
+      </c>
+      <c r="R57" s="3">
+        <v>770600</v>
+      </c>
+      <c r="S57" s="3">
+        <v>834400</v>
+      </c>
+      <c r="T57" s="3">
+        <v>714200</v>
+      </c>
+      <c r="U57" s="3">
+        <v>723800</v>
+      </c>
+      <c r="V57" s="3">
+        <v>1213600</v>
+      </c>
+      <c r="W57" s="3">
+        <v>773100</v>
+      </c>
+      <c r="X57" s="3">
+        <v>515500</v>
+      </c>
+      <c r="Y57" s="3">
         <v>680800</v>
       </c>
-      <c r="E57" s="3">
-        <v>1188400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1266800</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1874400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1456200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>942200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>835500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>741200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>892200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1324600</v>
-      </c>
-      <c r="N57" s="3">
-        <v>1014300</v>
-      </c>
-      <c r="O57" s="3">
-        <v>650700</v>
-      </c>
-      <c r="P57" s="3">
-        <v>855600</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>770600</v>
-      </c>
-      <c r="R57" s="3">
-        <v>834400</v>
-      </c>
-      <c r="S57" s="3">
-        <v>714200</v>
-      </c>
-      <c r="T57" s="3">
-        <v>723800</v>
-      </c>
-      <c r="U57" s="3">
-        <v>1213600</v>
-      </c>
-      <c r="V57" s="3">
-        <v>773100</v>
-      </c>
-      <c r="W57" s="3">
-        <v>515500</v>
-      </c>
-      <c r="X57" s="3">
-        <v>680800</v>
-      </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4177200</v>
+        <v>4158500</v>
       </c>
       <c r="E58" s="3">
-        <v>4282700</v>
+        <v>4352700</v>
       </c>
       <c r="F58" s="3">
-        <v>4353800</v>
+        <v>4462600</v>
       </c>
       <c r="G58" s="3">
-        <v>2872300</v>
+        <v>4536700</v>
       </c>
       <c r="H58" s="3">
-        <v>2646700</v>
+        <v>2993000</v>
       </c>
       <c r="I58" s="3">
-        <v>3290700</v>
+        <v>2757900</v>
       </c>
       <c r="J58" s="3">
+        <v>3428900</v>
+      </c>
+      <c r="K58" s="3">
         <v>3912700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3974500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4593000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4598600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3662400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3931500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3540700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3309200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3137700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3693500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3661200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3726400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3443200</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
-      </c>
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>374400</v>
+        <v>548300</v>
       </c>
       <c r="E59" s="3">
-        <v>205900</v>
+        <v>390100</v>
       </c>
       <c r="F59" s="3">
-        <v>90200</v>
+        <v>214500</v>
       </c>
       <c r="G59" s="3">
-        <v>267600</v>
+        <v>94000</v>
       </c>
       <c r="H59" s="3">
-        <v>208600</v>
+        <v>278900</v>
       </c>
       <c r="I59" s="3">
-        <v>148000</v>
+        <v>217300</v>
       </c>
       <c r="J59" s="3">
+        <v>154200</v>
+      </c>
+      <c r="K59" s="3">
         <v>153700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>480300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>385800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>309200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>120800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>415800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>277700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>202400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>99500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>466800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>352500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>235000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>110600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>432900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>339800</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3937,144 +4076,153 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12533400</v>
+        <v>14201100</v>
       </c>
       <c r="E61" s="3">
-        <v>12635500</v>
+        <v>13060000</v>
       </c>
       <c r="F61" s="3">
-        <v>11255600</v>
+        <v>13166400</v>
       </c>
       <c r="G61" s="3">
-        <v>12429900</v>
+        <v>11728500</v>
       </c>
       <c r="H61" s="3">
-        <v>12929900</v>
+        <v>12952200</v>
       </c>
       <c r="I61" s="3">
-        <v>13293500</v>
+        <v>13473200</v>
       </c>
       <c r="J61" s="3">
+        <v>13852000</v>
+      </c>
+      <c r="K61" s="3">
         <v>9816300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9979800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10302500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9268000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8462600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8024500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7630200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7685300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7531900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8090800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7957500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>8136900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>8411800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>11180300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>11255500</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>780700</v>
+        <v>897900</v>
       </c>
       <c r="E62" s="3">
-        <v>699100</v>
+        <v>813500</v>
       </c>
       <c r="F62" s="3">
-        <v>624400</v>
+        <v>728400</v>
       </c>
       <c r="G62" s="3">
-        <v>611200</v>
+        <v>650600</v>
       </c>
       <c r="H62" s="3">
-        <v>501000</v>
+        <v>636900</v>
       </c>
       <c r="I62" s="3">
-        <v>532500</v>
+        <v>522000</v>
       </c>
       <c r="J62" s="3">
+        <v>554900</v>
+      </c>
+      <c r="K62" s="3">
         <v>429400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>487900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>502900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>494600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>440400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>463200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>439600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>454100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>458700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>563000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>590800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>576700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>553100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>569000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>589100</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>53760400</v>
+        <v>58874500</v>
       </c>
       <c r="E66" s="3">
-        <v>51625400</v>
+        <v>56019200</v>
       </c>
       <c r="F66" s="3">
-        <v>48986600</v>
+        <v>53794600</v>
       </c>
       <c r="G66" s="3">
-        <v>50418900</v>
+        <v>51044900</v>
       </c>
       <c r="H66" s="3">
-        <v>49621100</v>
+        <v>52537400</v>
       </c>
       <c r="I66" s="3">
-        <v>50650800</v>
+        <v>51706000</v>
       </c>
       <c r="J66" s="3">
+        <v>52779000</v>
+      </c>
+      <c r="K66" s="3">
         <v>49082500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>47936300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>48991800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>46729600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>42628800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>41430300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>39508100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>39927200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>38580100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>43686200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>42491400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>43061400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>42536500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>43255900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>42530100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1917600</v>
+        <v>2234000</v>
       </c>
       <c r="E72" s="3">
-        <v>1845000</v>
+        <v>1998200</v>
       </c>
       <c r="F72" s="3">
-        <v>1748300</v>
+        <v>1922600</v>
       </c>
       <c r="G72" s="3">
-        <v>1639000</v>
+        <v>1821700</v>
       </c>
       <c r="H72" s="3">
-        <v>1556900</v>
+        <v>1707900</v>
       </c>
       <c r="I72" s="3">
-        <v>1519100</v>
+        <v>1622300</v>
       </c>
       <c r="J72" s="3">
+        <v>1582900</v>
+      </c>
+      <c r="K72" s="3">
         <v>1448400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1507000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1523300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1428200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1203600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1192200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1069700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1019000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>910500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1242200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1147100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1065000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>959400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1171800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4809500</v>
+        <v>5236500</v>
       </c>
       <c r="E76" s="3">
-        <v>4680900</v>
+        <v>5011600</v>
       </c>
       <c r="F76" s="3">
-        <v>4545900</v>
+        <v>4877600</v>
       </c>
       <c r="G76" s="3">
-        <v>4434300</v>
+        <v>4737000</v>
       </c>
       <c r="H76" s="3">
-        <v>4321400</v>
+        <v>4620600</v>
       </c>
       <c r="I76" s="3">
-        <v>4258900</v>
+        <v>4503000</v>
       </c>
       <c r="J76" s="3">
+        <v>4437800</v>
+      </c>
+      <c r="K76" s="3">
         <v>4225600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4480800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4656600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4681900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4291200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4196300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3997200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4054600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3971900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4565400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4465000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4386200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4257500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4360000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>4308300</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>219200</v>
+        <v>351900</v>
       </c>
       <c r="E81" s="3">
-        <v>193200</v>
+        <v>228500</v>
       </c>
       <c r="F81" s="3">
-        <v>193400</v>
+        <v>201300</v>
       </c>
       <c r="G81" s="3">
-        <v>150300</v>
+        <v>201500</v>
       </c>
       <c r="H81" s="3">
-        <v>105000</v>
+        <v>156600</v>
       </c>
       <c r="I81" s="3">
-        <v>132900</v>
+        <v>109400</v>
       </c>
       <c r="J81" s="3">
+        <v>138500</v>
+      </c>
+      <c r="K81" s="3">
         <v>162900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>186900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>207000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>265100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>132000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>205100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>158900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>208100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>182600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>209300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>196800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>234900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>205800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>187300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,67 +5415,68 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>22900</v>
+        <v>24500</v>
       </c>
       <c r="E83" s="3">
-        <v>22800</v>
+        <v>23900</v>
       </c>
       <c r="F83" s="3">
-        <v>22200</v>
+        <v>23700</v>
       </c>
       <c r="G83" s="3">
-        <v>7900</v>
+        <v>23100</v>
       </c>
       <c r="H83" s="3">
-        <v>36400</v>
+        <v>8300</v>
       </c>
       <c r="I83" s="3">
-        <v>21000</v>
+        <v>37900</v>
       </c>
       <c r="J83" s="3">
+        <v>21900</v>
+      </c>
+      <c r="K83" s="3">
         <v>22000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>23700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>23400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>24100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>22400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>12400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>11700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>11900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>11700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>13300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>13200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>12700</v>
-      </c>
-      <c r="V83" s="3">
-        <v>12600</v>
       </c>
       <c r="W83" s="3">
         <v>12600</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>12600</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2862400</v>
+        <v>871500</v>
       </c>
       <c r="E89" s="3">
-        <v>2074600</v>
+        <v>2982700</v>
       </c>
       <c r="F89" s="3">
-        <v>-2882400</v>
+        <v>2161800</v>
       </c>
       <c r="G89" s="3">
-        <v>822900</v>
+        <v>-3003500</v>
       </c>
       <c r="H89" s="3">
-        <v>313700</v>
+        <v>857500</v>
       </c>
       <c r="I89" s="3">
-        <v>-809300</v>
+        <v>326900</v>
       </c>
       <c r="J89" s="3">
+        <v>-843300</v>
+      </c>
+      <c r="K89" s="3">
         <v>291100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1097500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>66100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-970600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1334400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-614600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-434900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-266200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>136000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>703800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>250800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>435500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>179000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>398600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-193700</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
-        <v>-300</v>
-      </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-16900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-23800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-12800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-10800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-10300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-10500</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-6700</v>
       </c>
       <c r="V91" s="3">
         <v>-6700</v>
       </c>
       <c r="W91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="X91" s="3">
         <v>-12200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1572800</v>
+        <v>-77900</v>
       </c>
       <c r="E94" s="3">
-        <v>-1765500</v>
+        <v>-1638900</v>
       </c>
       <c r="F94" s="3">
-        <v>-38300</v>
+        <v>-1839700</v>
       </c>
       <c r="G94" s="3">
-        <v>190500</v>
+        <v>-39900</v>
       </c>
       <c r="H94" s="3">
-        <v>388900</v>
+        <v>198500</v>
       </c>
       <c r="I94" s="3">
-        <v>36100</v>
+        <v>405300</v>
       </c>
       <c r="J94" s="3">
+        <v>37600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-365700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-81200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-143800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>82600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-374100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>365300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>88000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-36700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>110800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-319300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-565800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-682600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-165900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>8300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>260000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6030,10 +6263,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-262100</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-273100</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -6042,11 +6275,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-417100</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -6054,11 +6287,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-463200</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -6066,11 +6299,11 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-478800</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -6078,16 +6311,19 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-502800</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-412400</v>
+        <v>682300</v>
       </c>
       <c r="E100" s="3">
-        <v>1161900</v>
+        <v>-429700</v>
       </c>
       <c r="F100" s="3">
-        <v>197200</v>
+        <v>1210700</v>
       </c>
       <c r="G100" s="3">
-        <v>-202200</v>
+        <v>205500</v>
       </c>
       <c r="H100" s="3">
-        <v>-966000</v>
+        <v>-210700</v>
       </c>
       <c r="I100" s="3">
-        <v>3048000</v>
+        <v>-1006600</v>
       </c>
       <c r="J100" s="3">
+        <v>3176000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-140500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-231800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1168000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>919100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-701800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>575400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>283400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>152300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-199200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>237400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-152300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>17700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>92300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-55300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>329700</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>186100</v>
+        <v>121900</v>
       </c>
       <c r="E101" s="3">
-        <v>66600</v>
+        <v>193900</v>
       </c>
       <c r="F101" s="3">
-        <v>17100</v>
+        <v>69400</v>
       </c>
       <c r="G101" s="3">
-        <v>-105600</v>
+        <v>17800</v>
       </c>
       <c r="H101" s="3">
-        <v>-71500</v>
+        <v>-110000</v>
       </c>
       <c r="I101" s="3">
-        <v>95400</v>
+        <v>-74600</v>
       </c>
       <c r="J101" s="3">
+        <v>99400</v>
+      </c>
+      <c r="K101" s="3">
         <v>40800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-14300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>56700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-6700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>11300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>34800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>36400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>86400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-10300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-34600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-12900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>10300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-19200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>14300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1063200</v>
+        <v>1597800</v>
       </c>
       <c r="E102" s="3">
-        <v>1537700</v>
+        <v>1107900</v>
       </c>
       <c r="F102" s="3">
-        <v>-2706400</v>
+        <v>1602300</v>
       </c>
       <c r="G102" s="3">
-        <v>731200</v>
+        <v>-2820100</v>
       </c>
       <c r="H102" s="3">
-        <v>-360500</v>
+        <v>762000</v>
       </c>
       <c r="I102" s="3">
-        <v>2370100</v>
+        <v>-375700</v>
       </c>
       <c r="J102" s="3">
+        <v>2469700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-174300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>770200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1147000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>26200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>268000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>360800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-27200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-64200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>37300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>587400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-480200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-219200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>86200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>365900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>383400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BCH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>BCH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,185 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1075800</v>
+        <v>969500</v>
       </c>
       <c r="E8" s="3">
-        <v>668800</v>
+        <v>1006400</v>
       </c>
       <c r="F8" s="3">
-        <v>605800</v>
+        <v>625700</v>
       </c>
       <c r="G8" s="3">
-        <v>604500</v>
+        <v>566700</v>
       </c>
       <c r="H8" s="3">
-        <v>641600</v>
+        <v>565500</v>
       </c>
       <c r="I8" s="3">
-        <v>447100</v>
+        <v>600200</v>
       </c>
       <c r="J8" s="3">
+        <v>418300</v>
+      </c>
+      <c r="K8" s="3">
         <v>546600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>659600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>724200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>693200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>829400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>559900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>667200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>630400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>634800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>601400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>705400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>579000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>809800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>671400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>702900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>721300</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -906,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,70 +1237,73 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-24500</v>
+        <v>-23100</v>
       </c>
       <c r="E15" s="3">
-        <v>-23900</v>
+        <v>-23000</v>
       </c>
       <c r="F15" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="H15" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="K15" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="L15" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="M15" s="3">
         <v>-23700</v>
       </c>
-      <c r="G15" s="3">
-        <v>-23100</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-22900</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-23300</v>
-      </c>
-      <c r="J15" s="3">
-        <v>-21900</v>
-      </c>
-      <c r="K15" s="3">
-        <v>-22000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>-23700</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-23400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-24100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-22400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-11700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-11900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-11700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-13300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-13200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-12700</v>
-      </c>
-      <c r="W15" s="3">
-        <v>-12600</v>
       </c>
       <c r="X15" s="3">
         <v>-12600</v>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>-12600</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>-12600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>611300</v>
+        <v>431300</v>
       </c>
       <c r="E17" s="3">
-        <v>325000</v>
+        <v>571900</v>
       </c>
       <c r="F17" s="3">
-        <v>279800</v>
+        <v>304000</v>
       </c>
       <c r="G17" s="3">
-        <v>256600</v>
+        <v>261800</v>
       </c>
       <c r="H17" s="3">
-        <v>312800</v>
+        <v>240100</v>
       </c>
       <c r="I17" s="3">
-        <v>194100</v>
+        <v>292700</v>
       </c>
       <c r="J17" s="3">
+        <v>181600</v>
+      </c>
+      <c r="K17" s="3">
         <v>317400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>392900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>389200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>355500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>417900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>284500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>314000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>335700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>280000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>287100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>323900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>236400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>425600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>318000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>372400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>352500</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>464400</v>
+        <v>538200</v>
       </c>
       <c r="E18" s="3">
-        <v>343900</v>
+        <v>434500</v>
       </c>
       <c r="F18" s="3">
-        <v>326000</v>
+        <v>321700</v>
       </c>
       <c r="G18" s="3">
-        <v>347800</v>
+        <v>305000</v>
       </c>
       <c r="H18" s="3">
-        <v>328700</v>
+        <v>325400</v>
       </c>
       <c r="I18" s="3">
-        <v>253000</v>
+        <v>307500</v>
       </c>
       <c r="J18" s="3">
+        <v>236600</v>
+      </c>
+      <c r="K18" s="3">
         <v>229100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>266700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>335000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>337700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>411500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>275400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>353200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>294600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>354800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>314300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>381500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>342700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>384200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>353400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>330400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>368900</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,150 +1514,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-52300</v>
+        <v>-130600</v>
       </c>
       <c r="E20" s="3">
-        <v>-55100</v>
+        <v>-48900</v>
       </c>
       <c r="F20" s="3">
-        <v>-74400</v>
+        <v>-51500</v>
       </c>
       <c r="G20" s="3">
-        <v>-95800</v>
+        <v>-69600</v>
       </c>
       <c r="H20" s="3">
-        <v>-132600</v>
+        <v>-89600</v>
       </c>
       <c r="I20" s="3">
-        <v>-105300</v>
+        <v>-124100</v>
       </c>
       <c r="J20" s="3">
+        <v>-98600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-52100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-65500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-90600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-75300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-78200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-98900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-67600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-95300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-105400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-95600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-125500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-110000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-104600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-105900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-114200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-116200</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>436700</v>
+        <v>430700</v>
       </c>
       <c r="E21" s="3">
-        <v>312700</v>
+        <v>408500</v>
       </c>
       <c r="F21" s="3">
-        <v>275400</v>
+        <v>292500</v>
       </c>
       <c r="G21" s="3">
-        <v>275100</v>
+        <v>257600</v>
       </c>
       <c r="H21" s="3">
-        <v>219000</v>
+        <v>257300</v>
       </c>
       <c r="I21" s="3">
-        <v>170900</v>
+        <v>204900</v>
       </c>
       <c r="J21" s="3">
+        <v>159800</v>
+      </c>
+      <c r="K21" s="3">
         <v>198900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>223200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>268100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>285800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>357400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>198800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>298000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>211000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>261300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>230500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>269300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>245900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>292300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>260100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>228900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>265300</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1694,150 +1734,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>412200</v>
+        <v>407600</v>
       </c>
       <c r="E23" s="3">
-        <v>288800</v>
+        <v>385600</v>
       </c>
       <c r="F23" s="3">
-        <v>251600</v>
+        <v>270200</v>
       </c>
       <c r="G23" s="3">
-        <v>252000</v>
+        <v>235400</v>
       </c>
       <c r="H23" s="3">
-        <v>196100</v>
+        <v>235700</v>
       </c>
       <c r="I23" s="3">
-        <v>147600</v>
+        <v>183400</v>
       </c>
       <c r="J23" s="3">
+        <v>138100</v>
+      </c>
+      <c r="K23" s="3">
         <v>177000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>201300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>244500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>262400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>333300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>176400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>285600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>199300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>249400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>218700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>256000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>232700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>279600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>247600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>216200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>252700</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>60200</v>
+        <v>69200</v>
       </c>
       <c r="E24" s="3">
-        <v>60400</v>
+        <v>56400</v>
       </c>
       <c r="F24" s="3">
-        <v>50300</v>
+        <v>56500</v>
       </c>
       <c r="G24" s="3">
-        <v>50500</v>
+        <v>47000</v>
       </c>
       <c r="H24" s="3">
-        <v>39500</v>
+        <v>47300</v>
       </c>
       <c r="I24" s="3">
-        <v>38200</v>
+        <v>37000</v>
       </c>
       <c r="J24" s="3">
+        <v>35700</v>
+      </c>
+      <c r="K24" s="3">
         <v>38500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>38400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>57600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>55400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>68200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>44400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>80500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>40400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>41300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>36100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>46700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>35900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>44700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>41800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>28900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>351900</v>
+        <v>338400</v>
       </c>
       <c r="E26" s="3">
-        <v>228500</v>
+        <v>329200</v>
       </c>
       <c r="F26" s="3">
-        <v>201300</v>
+        <v>213700</v>
       </c>
       <c r="G26" s="3">
-        <v>201500</v>
+        <v>188400</v>
       </c>
       <c r="H26" s="3">
-        <v>156600</v>
+        <v>188500</v>
       </c>
       <c r="I26" s="3">
-        <v>109400</v>
+        <v>146500</v>
       </c>
       <c r="J26" s="3">
+        <v>102400</v>
+      </c>
+      <c r="K26" s="3">
         <v>138500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>162900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>186900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>207000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>265100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>132000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>205100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>158900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>208100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>182600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>209300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>196800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>234900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>205800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>187300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>351900</v>
+        <v>338400</v>
       </c>
       <c r="E27" s="3">
-        <v>228500</v>
+        <v>329200</v>
       </c>
       <c r="F27" s="3">
-        <v>201300</v>
+        <v>213700</v>
       </c>
       <c r="G27" s="3">
-        <v>201500</v>
+        <v>188400</v>
       </c>
       <c r="H27" s="3">
-        <v>156600</v>
+        <v>188500</v>
       </c>
       <c r="I27" s="3">
-        <v>109400</v>
+        <v>146500</v>
       </c>
       <c r="J27" s="3">
+        <v>102400</v>
+      </c>
+      <c r="K27" s="3">
         <v>138500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>162900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>186900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>207000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>265100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>132000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>205100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>158900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>208100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>182600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>209300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>196800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>234900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>205800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>187300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>52300</v>
+        <v>130600</v>
       </c>
       <c r="E32" s="3">
-        <v>55100</v>
+        <v>48900</v>
       </c>
       <c r="F32" s="3">
-        <v>74400</v>
+        <v>51500</v>
       </c>
       <c r="G32" s="3">
-        <v>95800</v>
+        <v>69600</v>
       </c>
       <c r="H32" s="3">
-        <v>132600</v>
+        <v>89600</v>
       </c>
       <c r="I32" s="3">
-        <v>105300</v>
+        <v>124100</v>
       </c>
       <c r="J32" s="3">
+        <v>98600</v>
+      </c>
+      <c r="K32" s="3">
         <v>52100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>65500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>90600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>75300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>78200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>98900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>67600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>95300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>105400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>95600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>125500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>110000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>104600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>105900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>114200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>116200</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>351900</v>
+        <v>338400</v>
       </c>
       <c r="E33" s="3">
-        <v>228500</v>
+        <v>329200</v>
       </c>
       <c r="F33" s="3">
-        <v>201300</v>
+        <v>213700</v>
       </c>
       <c r="G33" s="3">
-        <v>201500</v>
+        <v>188400</v>
       </c>
       <c r="H33" s="3">
-        <v>156600</v>
+        <v>188500</v>
       </c>
       <c r="I33" s="3">
-        <v>109400</v>
+        <v>146500</v>
       </c>
       <c r="J33" s="3">
+        <v>102400</v>
+      </c>
+      <c r="K33" s="3">
         <v>138500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>162900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>186900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>207000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>265100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>132000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>205100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>158900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>208100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>182600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>209300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>196800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>234900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>205800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>187300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>351900</v>
+        <v>338400</v>
       </c>
       <c r="E35" s="3">
-        <v>228500</v>
+        <v>329200</v>
       </c>
       <c r="F35" s="3">
-        <v>201300</v>
+        <v>213700</v>
       </c>
       <c r="G35" s="3">
-        <v>201500</v>
+        <v>188400</v>
       </c>
       <c r="H35" s="3">
-        <v>156600</v>
+        <v>188500</v>
       </c>
       <c r="I35" s="3">
-        <v>109400</v>
+        <v>146500</v>
       </c>
       <c r="J35" s="3">
+        <v>102400</v>
+      </c>
+      <c r="K35" s="3">
         <v>138500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>162900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>186900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>207000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>265100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>132000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>205100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>158900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>208100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>182600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>209300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>196800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>234900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>205800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>187300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,150 +2833,157 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5858800</v>
+        <v>8223300</v>
       </c>
       <c r="E41" s="3">
-        <v>4855200</v>
+        <v>5480800</v>
       </c>
       <c r="F41" s="3">
-        <v>6567500</v>
+        <v>4541900</v>
       </c>
       <c r="G41" s="3">
-        <v>7855100</v>
+        <v>6143800</v>
       </c>
       <c r="H41" s="3">
-        <v>5926000</v>
+        <v>7348300</v>
       </c>
       <c r="I41" s="3">
-        <v>4899400</v>
+        <v>5543700</v>
       </c>
       <c r="J41" s="3">
+        <v>4583300</v>
+      </c>
+      <c r="K41" s="3">
         <v>4216200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4060100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3546400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3694500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4361500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3350700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3583100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3428900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3538600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2836400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2891200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3077300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2958500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3387100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3523000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3447400</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9943600</v>
+        <v>2113500</v>
       </c>
       <c r="E42" s="3">
-        <v>9516900</v>
+        <v>9302100</v>
       </c>
       <c r="F42" s="3">
-        <v>8113700</v>
+        <v>8902900</v>
       </c>
       <c r="G42" s="3">
-        <v>6420300</v>
+        <v>7590300</v>
       </c>
       <c r="H42" s="3">
-        <v>10742200</v>
+        <v>6006100</v>
       </c>
       <c r="I42" s="3">
-        <v>10105400</v>
+        <v>10049100</v>
       </c>
       <c r="J42" s="3">
+        <v>9453500</v>
+      </c>
+      <c r="K42" s="3">
         <v>11532500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>9205000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>7778400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>6750600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>4533900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>4327400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>4432300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>4120600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3732800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>4057800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>4892500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3759300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>4831100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>4779700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>4568200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>4469300</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2960,8 +3053,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3102,8 +3201,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3173,221 +3275,233 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>61000</v>
+        <v>63100</v>
       </c>
       <c r="E47" s="3">
-        <v>59600</v>
+        <v>57000</v>
       </c>
       <c r="F47" s="3">
-        <v>54000</v>
+        <v>55800</v>
       </c>
       <c r="G47" s="3">
-        <v>54500</v>
+        <v>50600</v>
       </c>
       <c r="H47" s="3">
-        <v>55400</v>
+        <v>51000</v>
       </c>
       <c r="I47" s="3">
-        <v>60700</v>
+        <v>51800</v>
       </c>
       <c r="J47" s="3">
+        <v>56800</v>
+      </c>
+      <c r="K47" s="3">
         <v>63600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>62600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>64500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>66900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>65800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>59400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>56600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>55000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>53200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>49900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>55900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>53600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>51200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>50200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>49200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>415400</v>
+        <v>378400</v>
       </c>
       <c r="E48" s="3">
-        <v>421000</v>
+        <v>388600</v>
       </c>
       <c r="F48" s="3">
-        <v>429200</v>
+        <v>393800</v>
       </c>
       <c r="G48" s="3">
-        <v>438100</v>
+        <v>401500</v>
       </c>
       <c r="H48" s="3">
-        <v>433500</v>
+        <v>409800</v>
       </c>
       <c r="I48" s="3">
-        <v>446500</v>
+        <v>405500</v>
       </c>
       <c r="J48" s="3">
+        <v>417600</v>
+      </c>
+      <c r="K48" s="3">
         <v>459900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>456900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>487800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>526400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>536200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>506100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>291900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>285700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>290400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>289800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>338900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>338500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>338100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>340900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>353000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>350300</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>89900</v>
+        <v>84300</v>
       </c>
       <c r="E49" s="3">
-        <v>84800</v>
+        <v>84100</v>
       </c>
       <c r="F49" s="3">
-        <v>82800</v>
+        <v>79300</v>
       </c>
       <c r="G49" s="3">
         <v>77500</v>
       </c>
       <c r="H49" s="3">
-        <v>75300</v>
+        <v>72500</v>
       </c>
       <c r="I49" s="3">
+        <v>70400</v>
+      </c>
+      <c r="J49" s="3">
+        <v>69700</v>
+      </c>
+      <c r="K49" s="3">
+        <v>73700</v>
+      </c>
+      <c r="L49" s="3">
+        <v>69900</v>
+      </c>
+      <c r="M49" s="3">
+        <v>74000</v>
+      </c>
+      <c r="N49" s="3">
         <v>74500</v>
       </c>
-      <c r="J49" s="3">
-        <v>73700</v>
-      </c>
-      <c r="K49" s="3">
-        <v>69900</v>
-      </c>
-      <c r="L49" s="3">
-        <v>74000</v>
-      </c>
-      <c r="M49" s="3">
-        <v>74500</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>75100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>68900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>66100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>60000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>58300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>53500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>57400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>49900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>45000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>44100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>44300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>544600</v>
+        <v>539000</v>
       </c>
       <c r="E52" s="3">
-        <v>480200</v>
+        <v>509500</v>
       </c>
       <c r="F52" s="3">
-        <v>473400</v>
+        <v>449300</v>
       </c>
       <c r="G52" s="3">
-        <v>438500</v>
+        <v>442900</v>
       </c>
       <c r="H52" s="3">
-        <v>443900</v>
+        <v>410300</v>
       </c>
       <c r="I52" s="3">
-        <v>413300</v>
+        <v>415200</v>
       </c>
       <c r="J52" s="3">
+        <v>386700</v>
+      </c>
+      <c r="K52" s="3">
         <v>402000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>376800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>407600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>429800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>441500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>359500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>353000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>331800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>333300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>339900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>393100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>436900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>435600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>433600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>425400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>64111000</v>
+        <v>57983700</v>
       </c>
       <c r="E54" s="3">
-        <v>61030800</v>
+        <v>59974800</v>
       </c>
       <c r="F54" s="3">
-        <v>58672100</v>
+        <v>57093400</v>
       </c>
       <c r="G54" s="3">
-        <v>55781900</v>
+        <v>54886800</v>
       </c>
       <c r="H54" s="3">
-        <v>57158000</v>
+        <v>52183000</v>
       </c>
       <c r="I54" s="3">
-        <v>56209000</v>
+        <v>53470400</v>
       </c>
       <c r="J54" s="3">
+        <v>52582700</v>
+      </c>
+      <c r="K54" s="3">
         <v>57216900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>53308100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>52417100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>53648400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>51411400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>46920100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>45626600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>43505300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>43981900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>42552000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>48251600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>46956400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>47447700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>46794000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>47615900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>46838400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,221 +3925,231 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>844300</v>
+        <v>1144300</v>
       </c>
       <c r="E57" s="3">
-        <v>709400</v>
+        <v>789900</v>
       </c>
       <c r="F57" s="3">
-        <v>1238400</v>
+        <v>663600</v>
       </c>
       <c r="G57" s="3">
-        <v>1320100</v>
+        <v>1158500</v>
       </c>
       <c r="H57" s="3">
-        <v>1953200</v>
+        <v>1234900</v>
       </c>
       <c r="I57" s="3">
-        <v>1517400</v>
+        <v>1827200</v>
       </c>
       <c r="J57" s="3">
+        <v>1419500</v>
+      </c>
+      <c r="K57" s="3">
         <v>981800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>835500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>741200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>892200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1324600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1014300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>650700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>855600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>770600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>834400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>714200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>723800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1213600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>773100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>515500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>680800</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4158500</v>
+        <v>2097700</v>
       </c>
       <c r="E58" s="3">
-        <v>4352700</v>
+        <v>3890200</v>
       </c>
       <c r="F58" s="3">
-        <v>4462600</v>
+        <v>4071900</v>
       </c>
       <c r="G58" s="3">
-        <v>4536700</v>
+        <v>4174700</v>
       </c>
       <c r="H58" s="3">
-        <v>2993000</v>
+        <v>4244000</v>
       </c>
       <c r="I58" s="3">
-        <v>2757900</v>
+        <v>2799900</v>
       </c>
       <c r="J58" s="3">
+        <v>2580000</v>
+      </c>
+      <c r="K58" s="3">
         <v>3428900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3912700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3974500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4593000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4598600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3662400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3931500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3540700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3309200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3137700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3693500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3661200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3726400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3443200</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
-      </c>
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>548300</v>
+        <v>287200</v>
       </c>
       <c r="E59" s="3">
-        <v>390100</v>
+        <v>512900</v>
       </c>
       <c r="F59" s="3">
-        <v>214500</v>
+        <v>364900</v>
       </c>
       <c r="G59" s="3">
-        <v>94000</v>
+        <v>200700</v>
       </c>
       <c r="H59" s="3">
-        <v>278900</v>
+        <v>87900</v>
       </c>
       <c r="I59" s="3">
-        <v>217300</v>
+        <v>260900</v>
       </c>
       <c r="J59" s="3">
+        <v>203300</v>
+      </c>
+      <c r="K59" s="3">
         <v>154200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>153700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>480300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>385800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>309200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>120800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>415800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>277700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>202400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>99500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>466800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>352500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>235000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>110600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>432900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>339800</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4079,150 +4219,159 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14201100</v>
+        <v>14630600</v>
       </c>
       <c r="E61" s="3">
-        <v>13060000</v>
+        <v>13284900</v>
       </c>
       <c r="F61" s="3">
-        <v>13166400</v>
+        <v>12217400</v>
       </c>
       <c r="G61" s="3">
-        <v>11728500</v>
+        <v>12317000</v>
       </c>
       <c r="H61" s="3">
-        <v>12952200</v>
+        <v>10971800</v>
       </c>
       <c r="I61" s="3">
-        <v>13473200</v>
+        <v>12116500</v>
       </c>
       <c r="J61" s="3">
+        <v>12603900</v>
+      </c>
+      <c r="K61" s="3">
         <v>13852000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9816300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9979800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10302500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9268000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8462600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8024500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7630200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7685300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7531900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>8090800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7957500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>8136900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>8411800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>11180300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>11255500</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>897900</v>
+        <v>908100</v>
       </c>
       <c r="E62" s="3">
-        <v>813500</v>
+        <v>840000</v>
       </c>
       <c r="F62" s="3">
-        <v>728400</v>
+        <v>761000</v>
       </c>
       <c r="G62" s="3">
-        <v>650600</v>
+        <v>681400</v>
       </c>
       <c r="H62" s="3">
-        <v>636900</v>
+        <v>608600</v>
       </c>
       <c r="I62" s="3">
-        <v>522000</v>
+        <v>595800</v>
       </c>
       <c r="J62" s="3">
+        <v>488400</v>
+      </c>
+      <c r="K62" s="3">
         <v>554900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>429400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>487900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>502900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>494600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>440400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>463200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>439600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>454100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>458700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>563000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>590800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>576700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>553100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>569000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>589100</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>58874500</v>
+        <v>53111800</v>
       </c>
       <c r="E66" s="3">
-        <v>56019200</v>
+        <v>55076100</v>
       </c>
       <c r="F66" s="3">
-        <v>53794600</v>
+        <v>52405100</v>
       </c>
       <c r="G66" s="3">
-        <v>51044900</v>
+        <v>50324000</v>
       </c>
       <c r="H66" s="3">
-        <v>52537400</v>
+        <v>47751700</v>
       </c>
       <c r="I66" s="3">
-        <v>51706000</v>
+        <v>49147900</v>
       </c>
       <c r="J66" s="3">
+        <v>48370200</v>
+      </c>
+      <c r="K66" s="3">
         <v>52779000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>49082500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>47936300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>48991800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>46729600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>42628800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>41430300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>39508100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>39927200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>38580100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>43686200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>42491400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>43061400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>42536500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>43255900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>42530100</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2234000</v>
+        <v>2067300</v>
       </c>
       <c r="E72" s="3">
-        <v>1998200</v>
+        <v>2089900</v>
       </c>
       <c r="F72" s="3">
-        <v>1922600</v>
+        <v>1869300</v>
       </c>
       <c r="G72" s="3">
-        <v>1821700</v>
+        <v>1798500</v>
       </c>
       <c r="H72" s="3">
-        <v>1707900</v>
+        <v>1704200</v>
       </c>
       <c r="I72" s="3">
-        <v>1622300</v>
+        <v>1597700</v>
       </c>
       <c r="J72" s="3">
+        <v>1517700</v>
+      </c>
+      <c r="K72" s="3">
         <v>1582900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1448400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1507000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1523300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1428200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1203600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1192200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1069700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1019000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>910500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1242200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1147100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1065000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>959400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1171800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5236500</v>
+        <v>4871900</v>
       </c>
       <c r="E76" s="3">
-        <v>5011600</v>
+        <v>4898700</v>
       </c>
       <c r="F76" s="3">
-        <v>4877600</v>
+        <v>4688300</v>
       </c>
       <c r="G76" s="3">
-        <v>4737000</v>
+        <v>4562900</v>
       </c>
       <c r="H76" s="3">
-        <v>4620600</v>
+        <v>4431300</v>
       </c>
       <c r="I76" s="3">
-        <v>4503000</v>
+        <v>4322500</v>
       </c>
       <c r="J76" s="3">
+        <v>4212500</v>
+      </c>
+      <c r="K76" s="3">
         <v>4437800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4225600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4480800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4656600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4681900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4291200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4196300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3997200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4054600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3971900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4565400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4465000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4386200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4257500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>4360000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>4308300</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>351900</v>
+        <v>338400</v>
       </c>
       <c r="E81" s="3">
-        <v>228500</v>
+        <v>329200</v>
       </c>
       <c r="F81" s="3">
-        <v>201300</v>
+        <v>213700</v>
       </c>
       <c r="G81" s="3">
-        <v>201500</v>
+        <v>188400</v>
       </c>
       <c r="H81" s="3">
-        <v>156600</v>
+        <v>188500</v>
       </c>
       <c r="I81" s="3">
-        <v>109400</v>
+        <v>146500</v>
       </c>
       <c r="J81" s="3">
+        <v>102400</v>
+      </c>
+      <c r="K81" s="3">
         <v>138500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>162900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>186900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>207000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>265100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>132000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>205100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>158900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>208100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>182600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>209300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>196800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>234900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>205800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>187300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,70 +5614,71 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>24500</v>
+        <v>23100</v>
       </c>
       <c r="E83" s="3">
-        <v>23900</v>
+        <v>23000</v>
       </c>
       <c r="F83" s="3">
+        <v>22300</v>
+      </c>
+      <c r="G83" s="3">
+        <v>22200</v>
+      </c>
+      <c r="H83" s="3">
+        <v>21600</v>
+      </c>
+      <c r="I83" s="3">
+        <v>7700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>35500</v>
+      </c>
+      <c r="K83" s="3">
+        <v>21900</v>
+      </c>
+      <c r="L83" s="3">
+        <v>22000</v>
+      </c>
+      <c r="M83" s="3">
         <v>23700</v>
       </c>
-      <c r="G83" s="3">
-        <v>23100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>8300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>37900</v>
-      </c>
-      <c r="J83" s="3">
-        <v>21900</v>
-      </c>
-      <c r="K83" s="3">
-        <v>22000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>23700</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>23400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>24100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>22400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>12400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>11700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>11900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>11700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>13300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>13200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>12700</v>
-      </c>
-      <c r="W83" s="3">
-        <v>12600</v>
       </c>
       <c r="X83" s="3">
         <v>12600</v>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>12600</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>871500</v>
+        <v>-1575200</v>
       </c>
       <c r="E89" s="3">
-        <v>2982700</v>
+        <v>815300</v>
       </c>
       <c r="F89" s="3">
-        <v>2161800</v>
+        <v>2790300</v>
       </c>
       <c r="G89" s="3">
-        <v>-3003500</v>
+        <v>2022300</v>
       </c>
       <c r="H89" s="3">
-        <v>857500</v>
+        <v>-2809700</v>
       </c>
       <c r="I89" s="3">
-        <v>326900</v>
+        <v>802200</v>
       </c>
       <c r="J89" s="3">
+        <v>305800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-843300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>291100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1097500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>66100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-970600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1334400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-614600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-434900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-266200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>136000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>703800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>250800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>435500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>179000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>398600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-193700</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5949,70 +6170,73 @@
         <v>-400</v>
       </c>
       <c r="E91" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="F91" s="3">
         <v>-400</v>
       </c>
       <c r="G91" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="H91" s="3">
         <v>-400</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-16900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-23800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-12800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-10800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-10300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-10500</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-6700</v>
       </c>
       <c r="W91" s="3">
         <v>-6700</v>
       </c>
       <c r="X91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-12200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-77900</v>
+        <v>-11000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1638900</v>
+        <v>-72900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1839700</v>
+        <v>-1533200</v>
       </c>
       <c r="G94" s="3">
-        <v>-39900</v>
+        <v>-1721000</v>
       </c>
       <c r="H94" s="3">
-        <v>198500</v>
+        <v>-37300</v>
       </c>
       <c r="I94" s="3">
-        <v>405300</v>
+        <v>185700</v>
       </c>
       <c r="J94" s="3">
+        <v>379100</v>
+      </c>
+      <c r="K94" s="3">
         <v>37600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-365700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-81200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-143800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>82600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-374100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>365300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>88000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-36700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>110800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-319300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-565800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-682600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-165900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>8300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>260000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,13 +6484,14 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-626200</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -6266,10 +6500,10 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-273100</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-255500</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -6278,11 +6512,11 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-417100</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -6290,11 +6524,11 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-463200</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -6302,11 +6536,11 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-478800</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
@@ -6314,16 +6548,19 @@
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-502800</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>682300</v>
+        <v>-776000</v>
       </c>
       <c r="E100" s="3">
-        <v>-429700</v>
+        <v>638300</v>
       </c>
       <c r="F100" s="3">
-        <v>1210700</v>
+        <v>-402000</v>
       </c>
       <c r="G100" s="3">
-        <v>205500</v>
+        <v>1132600</v>
       </c>
       <c r="H100" s="3">
-        <v>-210700</v>
+        <v>192200</v>
       </c>
       <c r="I100" s="3">
-        <v>-1006600</v>
+        <v>-197100</v>
       </c>
       <c r="J100" s="3">
+        <v>-941600</v>
+      </c>
+      <c r="K100" s="3">
         <v>3176000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-140500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-231800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1168000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>919100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-701800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>575400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>283400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>152300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-199200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>237400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-152300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>17700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>92300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-55300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>329700</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>121900</v>
+        <v>-250500</v>
       </c>
       <c r="E101" s="3">
-        <v>193900</v>
+        <v>114000</v>
       </c>
       <c r="F101" s="3">
-        <v>69400</v>
+        <v>181400</v>
       </c>
       <c r="G101" s="3">
-        <v>17800</v>
+        <v>65000</v>
       </c>
       <c r="H101" s="3">
-        <v>-110000</v>
+        <v>16600</v>
       </c>
       <c r="I101" s="3">
-        <v>-74600</v>
+        <v>-102900</v>
       </c>
       <c r="J101" s="3">
+        <v>-69700</v>
+      </c>
+      <c r="K101" s="3">
         <v>99400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>40800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-14300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>56700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-6700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>11300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>34800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>36400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>86400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-10300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-34600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-12900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>10300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-19200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>14300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1597800</v>
+        <v>-2612800</v>
       </c>
       <c r="E102" s="3">
-        <v>1107900</v>
+        <v>1494700</v>
       </c>
       <c r="F102" s="3">
-        <v>1602300</v>
+        <v>1036400</v>
       </c>
       <c r="G102" s="3">
-        <v>-2820100</v>
+        <v>1498900</v>
       </c>
       <c r="H102" s="3">
-        <v>762000</v>
+        <v>-2638200</v>
       </c>
       <c r="I102" s="3">
-        <v>-375700</v>
+        <v>712800</v>
       </c>
       <c r="J102" s="3">
+        <v>-351400</v>
+      </c>
+      <c r="K102" s="3">
         <v>2469700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-174300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>770200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1147000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>26200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>268000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>360800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-27200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-64200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>37300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>587400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-480200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-219200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>86200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>365900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>383400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BCH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>BCH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,185 +665,192 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>969500</v>
+        <v>1374500</v>
       </c>
       <c r="E8" s="3">
-        <v>1006400</v>
+        <v>927700</v>
       </c>
       <c r="F8" s="3">
-        <v>625700</v>
+        <v>963000</v>
       </c>
       <c r="G8" s="3">
-        <v>566700</v>
+        <v>598700</v>
       </c>
       <c r="H8" s="3">
-        <v>565500</v>
+        <v>542300</v>
       </c>
       <c r="I8" s="3">
-        <v>600200</v>
+        <v>541100</v>
       </c>
       <c r="J8" s="3">
+        <v>574300</v>
+      </c>
+      <c r="K8" s="3">
         <v>418300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>546600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>659600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>724200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>693200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>829400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>559900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>667200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>630400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>634800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>601400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>705400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>579000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>809800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>671400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>702900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>721300</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1240,73 +1260,76 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-23100</v>
+        <v>-23400</v>
       </c>
       <c r="E15" s="3">
-        <v>-23000</v>
+        <v>-22100</v>
       </c>
       <c r="F15" s="3">
-        <v>-22300</v>
+        <v>-22000</v>
       </c>
       <c r="G15" s="3">
-        <v>-22200</v>
+        <v>-21400</v>
       </c>
       <c r="H15" s="3">
-        <v>-21600</v>
+        <v>-21300</v>
       </c>
       <c r="I15" s="3">
-        <v>-21400</v>
+        <v>-20700</v>
       </c>
       <c r="J15" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="K15" s="3">
         <v>-21800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-21900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-22000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-23700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-23400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-24100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-22400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-12400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-11700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-11900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-11700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-13300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-13200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-12700</v>
-      </c>
-      <c r="X15" s="3">
-        <v>-12600</v>
       </c>
       <c r="Y15" s="3">
         <v>-12600</v>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>-12600</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>-12600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>431300</v>
+        <v>736200</v>
       </c>
       <c r="E17" s="3">
-        <v>571900</v>
+        <v>412700</v>
       </c>
       <c r="F17" s="3">
-        <v>304000</v>
+        <v>547200</v>
       </c>
       <c r="G17" s="3">
-        <v>261800</v>
+        <v>290900</v>
       </c>
       <c r="H17" s="3">
-        <v>240100</v>
+        <v>250500</v>
       </c>
       <c r="I17" s="3">
-        <v>292700</v>
+        <v>229700</v>
       </c>
       <c r="J17" s="3">
+        <v>280000</v>
+      </c>
+      <c r="K17" s="3">
         <v>181600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>317400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>392900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>389200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>355500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>417900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>284500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>314000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>335700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>280000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>287100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>323900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>236400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>425600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>318000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>372400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>352500</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>538200</v>
+        <v>638300</v>
       </c>
       <c r="E18" s="3">
-        <v>434500</v>
+        <v>515000</v>
       </c>
       <c r="F18" s="3">
-        <v>321700</v>
+        <v>415700</v>
       </c>
       <c r="G18" s="3">
-        <v>305000</v>
+        <v>307800</v>
       </c>
       <c r="H18" s="3">
-        <v>325400</v>
+        <v>291800</v>
       </c>
       <c r="I18" s="3">
-        <v>307500</v>
+        <v>311400</v>
       </c>
       <c r="J18" s="3">
+        <v>294300</v>
+      </c>
+      <c r="K18" s="3">
         <v>236600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>229100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>266700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>335000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>337700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>411500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>275400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>353200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>294600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>354800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>314300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>381500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>342700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>384200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>353400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>330400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>368900</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,156 +1548,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-130600</v>
+        <v>-78000</v>
       </c>
       <c r="E20" s="3">
-        <v>-48900</v>
+        <v>-125000</v>
       </c>
       <c r="F20" s="3">
-        <v>-51500</v>
+        <v>-46800</v>
       </c>
       <c r="G20" s="3">
-        <v>-69600</v>
+        <v>-49300</v>
       </c>
       <c r="H20" s="3">
-        <v>-89600</v>
+        <v>-66600</v>
       </c>
       <c r="I20" s="3">
-        <v>-124100</v>
+        <v>-85800</v>
       </c>
       <c r="J20" s="3">
+        <v>-118700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-98600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-52100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-65500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-90600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-75300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-78200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-98900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-67600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-95300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-105400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-95600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-125500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-110000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-104600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-105900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-114200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-116200</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>430700</v>
+        <v>583700</v>
       </c>
       <c r="E21" s="3">
-        <v>408500</v>
+        <v>412100</v>
       </c>
       <c r="F21" s="3">
-        <v>292500</v>
+        <v>390900</v>
       </c>
       <c r="G21" s="3">
-        <v>257600</v>
+        <v>279900</v>
       </c>
       <c r="H21" s="3">
-        <v>257300</v>
+        <v>246500</v>
       </c>
       <c r="I21" s="3">
-        <v>204900</v>
+        <v>246200</v>
       </c>
       <c r="J21" s="3">
+        <v>196100</v>
+      </c>
+      <c r="K21" s="3">
         <v>159800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>198900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>223200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>268100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>285800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>357400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>198800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>298000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>211000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>261300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>230500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>269300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>245900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>292300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>260100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>228900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>265300</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,156 +1777,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>407600</v>
+        <v>560300</v>
       </c>
       <c r="E23" s="3">
-        <v>385600</v>
+        <v>390000</v>
       </c>
       <c r="F23" s="3">
-        <v>270200</v>
+        <v>369000</v>
       </c>
       <c r="G23" s="3">
-        <v>235400</v>
+        <v>258500</v>
       </c>
       <c r="H23" s="3">
-        <v>235700</v>
+        <v>225200</v>
       </c>
       <c r="I23" s="3">
-        <v>183400</v>
+        <v>225600</v>
       </c>
       <c r="J23" s="3">
+        <v>175500</v>
+      </c>
+      <c r="K23" s="3">
         <v>138100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>177000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>201300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>244500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>262400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>333300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>176400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>285600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>199300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>249400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>218700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>256000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>232700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>279600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>247600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>216200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>252700</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>69200</v>
+        <v>81300</v>
       </c>
       <c r="E24" s="3">
-        <v>56400</v>
+        <v>66200</v>
       </c>
       <c r="F24" s="3">
-        <v>56500</v>
+        <v>53900</v>
       </c>
       <c r="G24" s="3">
-        <v>47000</v>
+        <v>54000</v>
       </c>
       <c r="H24" s="3">
-        <v>47300</v>
+        <v>45000</v>
       </c>
       <c r="I24" s="3">
-        <v>37000</v>
+        <v>45200</v>
       </c>
       <c r="J24" s="3">
+        <v>35400</v>
+      </c>
+      <c r="K24" s="3">
         <v>35700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>38500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>38400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>57600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>55400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>68200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>44400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>80500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>40400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>41300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>36100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>46700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>35900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>44700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>41800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>28900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>338400</v>
+        <v>479000</v>
       </c>
       <c r="E26" s="3">
-        <v>329200</v>
+        <v>323800</v>
       </c>
       <c r="F26" s="3">
-        <v>213700</v>
+        <v>315000</v>
       </c>
       <c r="G26" s="3">
-        <v>188400</v>
+        <v>204500</v>
       </c>
       <c r="H26" s="3">
-        <v>188500</v>
+        <v>180200</v>
       </c>
       <c r="I26" s="3">
-        <v>146500</v>
+        <v>180400</v>
       </c>
       <c r="J26" s="3">
+        <v>140200</v>
+      </c>
+      <c r="K26" s="3">
         <v>102400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>138500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>162900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>186900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>207000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>265100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>132000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>205100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>158900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>208100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>182600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>209300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>196800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>234900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>205800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>187300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>338400</v>
+        <v>479000</v>
       </c>
       <c r="E27" s="3">
-        <v>329200</v>
+        <v>323800</v>
       </c>
       <c r="F27" s="3">
-        <v>213700</v>
+        <v>315000</v>
       </c>
       <c r="G27" s="3">
-        <v>188400</v>
+        <v>204500</v>
       </c>
       <c r="H27" s="3">
-        <v>188500</v>
+        <v>180200</v>
       </c>
       <c r="I27" s="3">
-        <v>146500</v>
+        <v>180400</v>
       </c>
       <c r="J27" s="3">
+        <v>140200</v>
+      </c>
+      <c r="K27" s="3">
         <v>102400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>138500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>162900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>186900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>207000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>265100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>132000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>205100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>158900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>208100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>182600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>209300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>196800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>234900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>205800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>187300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>130600</v>
+        <v>78000</v>
       </c>
       <c r="E32" s="3">
-        <v>48900</v>
+        <v>125000</v>
       </c>
       <c r="F32" s="3">
-        <v>51500</v>
+        <v>46800</v>
       </c>
       <c r="G32" s="3">
-        <v>69600</v>
+        <v>49300</v>
       </c>
       <c r="H32" s="3">
-        <v>89600</v>
+        <v>66600</v>
       </c>
       <c r="I32" s="3">
-        <v>124100</v>
+        <v>85800</v>
       </c>
       <c r="J32" s="3">
+        <v>118700</v>
+      </c>
+      <c r="K32" s="3">
         <v>98600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>52100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>65500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>90600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>75300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>78200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>98900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>67600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>95300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>105400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>95600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>125500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>110000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>104600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>105900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>114200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>116200</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>338400</v>
+        <v>479000</v>
       </c>
       <c r="E33" s="3">
-        <v>329200</v>
+        <v>323800</v>
       </c>
       <c r="F33" s="3">
-        <v>213700</v>
+        <v>315000</v>
       </c>
       <c r="G33" s="3">
-        <v>188400</v>
+        <v>204500</v>
       </c>
       <c r="H33" s="3">
-        <v>188500</v>
+        <v>180200</v>
       </c>
       <c r="I33" s="3">
-        <v>146500</v>
+        <v>180400</v>
       </c>
       <c r="J33" s="3">
+        <v>140200</v>
+      </c>
+      <c r="K33" s="3">
         <v>102400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>138500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>162900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>186900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>207000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>265100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>132000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>205100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>158900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>208100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>182600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>209300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>196800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>234900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>205800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>187300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>338400</v>
+        <v>479000</v>
       </c>
       <c r="E35" s="3">
-        <v>329200</v>
+        <v>323800</v>
       </c>
       <c r="F35" s="3">
-        <v>213700</v>
+        <v>315000</v>
       </c>
       <c r="G35" s="3">
-        <v>188400</v>
+        <v>204500</v>
       </c>
       <c r="H35" s="3">
-        <v>188500</v>
+        <v>180200</v>
       </c>
       <c r="I35" s="3">
-        <v>146500</v>
+        <v>180400</v>
       </c>
       <c r="J35" s="3">
+        <v>140200</v>
+      </c>
+      <c r="K35" s="3">
         <v>102400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>138500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>162900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>186900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>207000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>265100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>132000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>205100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>158900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>208100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>182600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>209300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>196800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>234900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>205800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>187300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,156 +2920,163 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8223300</v>
+        <v>5226800</v>
       </c>
       <c r="E41" s="3">
-        <v>5480800</v>
+        <v>7868900</v>
       </c>
       <c r="F41" s="3">
-        <v>4541900</v>
+        <v>5244600</v>
       </c>
       <c r="G41" s="3">
-        <v>6143800</v>
+        <v>4346200</v>
       </c>
       <c r="H41" s="3">
-        <v>7348300</v>
+        <v>5879000</v>
       </c>
       <c r="I41" s="3">
-        <v>5543700</v>
+        <v>7031600</v>
       </c>
       <c r="J41" s="3">
+        <v>5304700</v>
+      </c>
+      <c r="K41" s="3">
         <v>4583300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4216200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4060100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3546400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3694500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4361500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3350700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3583100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3428900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3538600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2836400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2891200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3077300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2958500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3387100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3523000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3447400</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2113500</v>
+        <v>4937200</v>
       </c>
       <c r="E42" s="3">
-        <v>9302100</v>
+        <v>2022400</v>
       </c>
       <c r="F42" s="3">
-        <v>8902900</v>
+        <v>8901100</v>
       </c>
       <c r="G42" s="3">
-        <v>7590300</v>
+        <v>8519200</v>
       </c>
       <c r="H42" s="3">
-        <v>6006100</v>
+        <v>7263100</v>
       </c>
       <c r="I42" s="3">
-        <v>10049100</v>
+        <v>5747200</v>
       </c>
       <c r="J42" s="3">
+        <v>9616000</v>
+      </c>
+      <c r="K42" s="3">
         <v>9453500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>11532500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>9205000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>7778400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>6750600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>4533900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>4327400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>4432300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>4120600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3732800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>4057800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>4892500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3759300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>4831100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>4779700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>4568200</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>4469300</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3204,8 +3303,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3278,230 +3380,242 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>63100</v>
+        <v>63400</v>
       </c>
       <c r="E47" s="3">
-        <v>57000</v>
+        <v>60300</v>
       </c>
       <c r="F47" s="3">
-        <v>55800</v>
+        <v>54600</v>
       </c>
       <c r="G47" s="3">
-        <v>50600</v>
+        <v>53400</v>
       </c>
       <c r="H47" s="3">
-        <v>51000</v>
+        <v>48400</v>
       </c>
       <c r="I47" s="3">
-        <v>51800</v>
+        <v>48800</v>
       </c>
       <c r="J47" s="3">
+        <v>49600</v>
+      </c>
+      <c r="K47" s="3">
         <v>56800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>63600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>62600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>64500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>66900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>65800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>59400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>56600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>55000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>53200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>49900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>55900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>53600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>51200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>50200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>49200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>378400</v>
+        <v>365000</v>
       </c>
       <c r="E48" s="3">
-        <v>388600</v>
+        <v>362100</v>
       </c>
       <c r="F48" s="3">
-        <v>393800</v>
+        <v>371800</v>
       </c>
       <c r="G48" s="3">
-        <v>401500</v>
+        <v>376800</v>
       </c>
       <c r="H48" s="3">
-        <v>409800</v>
+        <v>384200</v>
       </c>
       <c r="I48" s="3">
-        <v>405500</v>
+        <v>392100</v>
       </c>
       <c r="J48" s="3">
+        <v>388000</v>
+      </c>
+      <c r="K48" s="3">
         <v>417600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>459900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>456900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>487800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>526400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>536200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>506100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>291900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>285700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>290400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>289800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>338900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>338500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>338100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>340900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>353000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>350300</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>84300</v>
+        <v>88500</v>
       </c>
       <c r="E49" s="3">
-        <v>84100</v>
+        <v>80700</v>
       </c>
       <c r="F49" s="3">
-        <v>79300</v>
+        <v>80500</v>
       </c>
       <c r="G49" s="3">
-        <v>77500</v>
+        <v>75900</v>
       </c>
       <c r="H49" s="3">
-        <v>72500</v>
+        <v>74100</v>
       </c>
       <c r="I49" s="3">
-        <v>70400</v>
+        <v>69400</v>
       </c>
       <c r="J49" s="3">
+        <v>67400</v>
+      </c>
+      <c r="K49" s="3">
         <v>69700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>73700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>69900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>74000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>74500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>75100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>68900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>66100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>60000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>58300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>53500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>57400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>49900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>45000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>44100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>44300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>539000</v>
+        <v>560500</v>
       </c>
       <c r="E52" s="3">
-        <v>509500</v>
+        <v>515800</v>
       </c>
       <c r="F52" s="3">
-        <v>449300</v>
+        <v>487500</v>
       </c>
       <c r="G52" s="3">
-        <v>442900</v>
+        <v>429900</v>
       </c>
       <c r="H52" s="3">
-        <v>410300</v>
+        <v>423800</v>
       </c>
       <c r="I52" s="3">
-        <v>415200</v>
+        <v>392600</v>
       </c>
       <c r="J52" s="3">
+        <v>397300</v>
+      </c>
+      <c r="K52" s="3">
         <v>386700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>402000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>376800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>407600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>429800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>441500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>359500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>353000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>331800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>333300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>339900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>393100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>436900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>435600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>433600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>425400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>57983700</v>
+        <v>60277800</v>
       </c>
       <c r="E54" s="3">
-        <v>59974800</v>
+        <v>55484400</v>
       </c>
       <c r="F54" s="3">
-        <v>57093400</v>
+        <v>57389700</v>
       </c>
       <c r="G54" s="3">
-        <v>54886800</v>
+        <v>54632400</v>
       </c>
       <c r="H54" s="3">
-        <v>52183000</v>
+        <v>52521000</v>
       </c>
       <c r="I54" s="3">
-        <v>53470400</v>
+        <v>49933800</v>
       </c>
       <c r="J54" s="3">
+        <v>51165600</v>
+      </c>
+      <c r="K54" s="3">
         <v>52582700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>57216900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>53308100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>52417100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>53648400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>51411400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>46920100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>45626600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>43505300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>43981900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>42552000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>48251600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>46956400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>47447700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>46794000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>47615900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>46838400</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,230 +4056,240 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1144300</v>
+        <v>1158000</v>
       </c>
       <c r="E57" s="3">
-        <v>789900</v>
+        <v>1094900</v>
       </c>
       <c r="F57" s="3">
-        <v>663600</v>
+        <v>755800</v>
       </c>
       <c r="G57" s="3">
-        <v>1158500</v>
+        <v>635000</v>
       </c>
       <c r="H57" s="3">
-        <v>1234900</v>
+        <v>1108500</v>
       </c>
       <c r="I57" s="3">
-        <v>1827200</v>
+        <v>1181700</v>
       </c>
       <c r="J57" s="3">
+        <v>1748400</v>
+      </c>
+      <c r="K57" s="3">
         <v>1419500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>981800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>835500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>741200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>892200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1324600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1014300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>650700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>855600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>770600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>834400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>714200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>723800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1213600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>773100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>515500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>680800</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2097700</v>
+        <v>2960400</v>
       </c>
       <c r="E58" s="3">
-        <v>3890200</v>
+        <v>2007200</v>
       </c>
       <c r="F58" s="3">
-        <v>4071900</v>
+        <v>3722500</v>
       </c>
       <c r="G58" s="3">
-        <v>4174700</v>
+        <v>3896400</v>
       </c>
       <c r="H58" s="3">
-        <v>4244000</v>
+        <v>3994700</v>
       </c>
       <c r="I58" s="3">
-        <v>2799900</v>
+        <v>4061100</v>
       </c>
       <c r="J58" s="3">
+        <v>2679200</v>
+      </c>
+      <c r="K58" s="3">
         <v>2580000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3428900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3912700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3974500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4593000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4598600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3662400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3931500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3540700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3309200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3137700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3693500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3661200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3726400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3443200</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
-      </c>
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>287200</v>
+        <v>323300</v>
       </c>
       <c r="E59" s="3">
-        <v>512900</v>
+        <v>274800</v>
       </c>
       <c r="F59" s="3">
-        <v>364900</v>
+        <v>490800</v>
       </c>
       <c r="G59" s="3">
-        <v>200700</v>
+        <v>349200</v>
       </c>
       <c r="H59" s="3">
-        <v>87900</v>
+        <v>192000</v>
       </c>
       <c r="I59" s="3">
-        <v>260900</v>
+        <v>84100</v>
       </c>
       <c r="J59" s="3">
+        <v>249600</v>
+      </c>
+      <c r="K59" s="3">
         <v>203300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>154200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>153700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>480300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>385800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>309200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>120800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>415800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>277700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>202400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>99500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>466800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>352500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>235000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>110600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>432900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>339800</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4222,156 +4362,165 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14630600</v>
+        <v>14345300</v>
       </c>
       <c r="E61" s="3">
-        <v>13284900</v>
+        <v>14000000</v>
       </c>
       <c r="F61" s="3">
-        <v>12217400</v>
+        <v>12712200</v>
       </c>
       <c r="G61" s="3">
-        <v>12317000</v>
+        <v>11690800</v>
       </c>
       <c r="H61" s="3">
-        <v>10971800</v>
+        <v>11786100</v>
       </c>
       <c r="I61" s="3">
-        <v>12116500</v>
+        <v>10498900</v>
       </c>
       <c r="J61" s="3">
+        <v>11594300</v>
+      </c>
+      <c r="K61" s="3">
         <v>12603900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13852000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9816300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9979800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10302500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9268000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8462600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8024500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7630200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7685300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7531900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>8090800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7957500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>8136900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>8411800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>11180300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>11255500</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>908100</v>
+        <v>947400</v>
       </c>
       <c r="E62" s="3">
-        <v>840000</v>
+        <v>868900</v>
       </c>
       <c r="F62" s="3">
-        <v>761000</v>
+        <v>803800</v>
       </c>
       <c r="G62" s="3">
-        <v>681400</v>
+        <v>728200</v>
       </c>
       <c r="H62" s="3">
-        <v>608600</v>
+        <v>652100</v>
       </c>
       <c r="I62" s="3">
-        <v>595800</v>
+        <v>582400</v>
       </c>
       <c r="J62" s="3">
+        <v>570100</v>
+      </c>
+      <c r="K62" s="3">
         <v>488400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>554900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>429400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>487900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>502900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>494600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>440400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>463200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>439600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>454100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>458700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>563000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>590800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>576700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>553100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>569000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>589100</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>53111800</v>
+        <v>55364400</v>
       </c>
       <c r="E66" s="3">
-        <v>55076100</v>
+        <v>50822500</v>
       </c>
       <c r="F66" s="3">
-        <v>52405100</v>
+        <v>52702200</v>
       </c>
       <c r="G66" s="3">
-        <v>50324000</v>
+        <v>50146200</v>
       </c>
       <c r="H66" s="3">
-        <v>47751700</v>
+        <v>48154800</v>
       </c>
       <c r="I66" s="3">
-        <v>49147900</v>
+        <v>45693400</v>
       </c>
       <c r="J66" s="3">
+        <v>47029400</v>
+      </c>
+      <c r="K66" s="3">
         <v>48370200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>52779000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>49082500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>47936300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>48991800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>46729600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>42628800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>41430300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>39508100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>39927200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>38580100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>43686200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>42491400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>43061400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>42536500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>43255900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>42530100</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2067300</v>
+        <v>2316200</v>
       </c>
       <c r="E72" s="3">
-        <v>2089900</v>
+        <v>1978200</v>
       </c>
       <c r="F72" s="3">
-        <v>1869300</v>
+        <v>1999800</v>
       </c>
       <c r="G72" s="3">
-        <v>1798500</v>
+        <v>1788700</v>
       </c>
       <c r="H72" s="3">
-        <v>1704200</v>
+        <v>1721000</v>
       </c>
       <c r="I72" s="3">
-        <v>1597700</v>
+        <v>1630700</v>
       </c>
       <c r="J72" s="3">
+        <v>1528800</v>
+      </c>
+      <c r="K72" s="3">
         <v>1517700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1582900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1448400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1507000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1523300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1428200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1203600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1192200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1069700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1019000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>910500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1242200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1147100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1065000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>959400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1171800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4871900</v>
+        <v>4913400</v>
       </c>
       <c r="E76" s="3">
-        <v>4898700</v>
+        <v>4661900</v>
       </c>
       <c r="F76" s="3">
-        <v>4688300</v>
+        <v>4687500</v>
       </c>
       <c r="G76" s="3">
-        <v>4562900</v>
+        <v>4486200</v>
       </c>
       <c r="H76" s="3">
-        <v>4431300</v>
+        <v>4366200</v>
       </c>
       <c r="I76" s="3">
-        <v>4322500</v>
+        <v>4240300</v>
       </c>
       <c r="J76" s="3">
+        <v>4136200</v>
+      </c>
+      <c r="K76" s="3">
         <v>4212500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4437800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4225600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4480800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4656600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4681900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4291200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4196300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3997200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4054600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3971900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4565400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4465000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4386200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>4257500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>4360000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>4308300</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>338400</v>
+        <v>479000</v>
       </c>
       <c r="E81" s="3">
-        <v>329200</v>
+        <v>323800</v>
       </c>
       <c r="F81" s="3">
-        <v>213700</v>
+        <v>315000</v>
       </c>
       <c r="G81" s="3">
-        <v>188400</v>
+        <v>204500</v>
       </c>
       <c r="H81" s="3">
-        <v>188500</v>
+        <v>180200</v>
       </c>
       <c r="I81" s="3">
-        <v>146500</v>
+        <v>180400</v>
       </c>
       <c r="J81" s="3">
+        <v>140200</v>
+      </c>
+      <c r="K81" s="3">
         <v>102400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>138500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>162900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>186900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>207000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>265100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>132000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>205100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>158900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>208100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>182600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>209300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>196800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>234900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>205800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>187300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,73 +5813,74 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>23100</v>
+        <v>23400</v>
       </c>
       <c r="E83" s="3">
-        <v>23000</v>
+        <v>22100</v>
       </c>
       <c r="F83" s="3">
-        <v>22300</v>
+        <v>22000</v>
       </c>
       <c r="G83" s="3">
-        <v>22200</v>
+        <v>21400</v>
       </c>
       <c r="H83" s="3">
-        <v>21600</v>
+        <v>21300</v>
       </c>
       <c r="I83" s="3">
-        <v>7700</v>
+        <v>20700</v>
       </c>
       <c r="J83" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K83" s="3">
         <v>35500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>21900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>22000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>23700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>23400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>24100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>22400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>12400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>11700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>11900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>11700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>13300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>13200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>12700</v>
-      </c>
-      <c r="X83" s="3">
-        <v>12600</v>
       </c>
       <c r="Y83" s="3">
         <v>12600</v>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>12600</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1575200</v>
+        <v>-125000</v>
       </c>
       <c r="E89" s="3">
-        <v>815300</v>
+        <v>-1507300</v>
       </c>
       <c r="F89" s="3">
-        <v>2790300</v>
+        <v>780200</v>
       </c>
       <c r="G89" s="3">
-        <v>2022300</v>
+        <v>2670000</v>
       </c>
       <c r="H89" s="3">
-        <v>-2809700</v>
+        <v>1935200</v>
       </c>
       <c r="I89" s="3">
-        <v>802200</v>
+        <v>-2688600</v>
       </c>
       <c r="J89" s="3">
+        <v>767600</v>
+      </c>
+      <c r="K89" s="3">
         <v>305800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-843300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>291100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1097500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>66100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-970600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1334400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-614600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-434900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-266200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>136000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>703800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>250800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>435500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>179000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>398600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-193700</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,19 +6381,20 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-400</v>
       </c>
       <c r="G91" s="3">
         <v>-400</v>
@@ -6182,61 +6403,64 @@
         <v>-400</v>
       </c>
       <c r="I91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-16900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-23800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-12800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-10800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-10300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-10500</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-6700</v>
       </c>
       <c r="X91" s="3">
         <v>-6700</v>
       </c>
       <c r="Y91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-12200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-11000</v>
+        <v>-17200</v>
       </c>
       <c r="E94" s="3">
-        <v>-72900</v>
+        <v>-10600</v>
       </c>
       <c r="F94" s="3">
-        <v>-1533200</v>
+        <v>-69700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1721000</v>
+        <v>-1467100</v>
       </c>
       <c r="H94" s="3">
-        <v>-37300</v>
+        <v>-1646800</v>
       </c>
       <c r="I94" s="3">
-        <v>185700</v>
+        <v>-35700</v>
       </c>
       <c r="J94" s="3">
+        <v>177700</v>
+      </c>
+      <c r="K94" s="3">
         <v>379100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>37600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-365700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-81200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-143800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>82600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-374100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>365300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>88000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-36700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>110800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-319300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-565800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-682600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-165900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>8300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>260000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,16 +6718,17 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-626200</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-599200</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -6503,10 +6737,10 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-255500</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-244500</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -6515,11 +6749,11 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-417100</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -6527,11 +6761,11 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-463200</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -6539,11 +6773,11 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-478800</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
@@ -6551,16 +6785,19 @@
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-502800</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-776000</v>
+        <v>-351300</v>
       </c>
       <c r="E100" s="3">
-        <v>638300</v>
+        <v>-742600</v>
       </c>
       <c r="F100" s="3">
-        <v>-402000</v>
+        <v>610800</v>
       </c>
       <c r="G100" s="3">
-        <v>1132600</v>
+        <v>-384700</v>
       </c>
       <c r="H100" s="3">
-        <v>192200</v>
+        <v>1083800</v>
       </c>
       <c r="I100" s="3">
-        <v>-197100</v>
+        <v>184000</v>
       </c>
       <c r="J100" s="3">
+        <v>-188600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-941600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3176000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-140500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-231800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1168000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>919100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-701800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>575400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>283400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>152300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-199200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>237400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-152300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>17700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>92300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-55300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>329700</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-250500</v>
+        <v>376500</v>
       </c>
       <c r="E101" s="3">
-        <v>114000</v>
+        <v>-239700</v>
       </c>
       <c r="F101" s="3">
-        <v>181400</v>
+        <v>109100</v>
       </c>
       <c r="G101" s="3">
-        <v>65000</v>
+        <v>173500</v>
       </c>
       <c r="H101" s="3">
-        <v>16600</v>
+        <v>62200</v>
       </c>
       <c r="I101" s="3">
-        <v>-102900</v>
+        <v>15900</v>
       </c>
       <c r="J101" s="3">
+        <v>-98500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-69700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>99400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>40800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-14300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>56700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-6700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>11300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>34800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>36400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>86400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-10300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-34600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-12900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>10300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-19200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>14300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2612800</v>
+        <v>-117000</v>
       </c>
       <c r="E102" s="3">
-        <v>1494700</v>
+        <v>-2500200</v>
       </c>
       <c r="F102" s="3">
-        <v>1036400</v>
+        <v>1430300</v>
       </c>
       <c r="G102" s="3">
-        <v>1498900</v>
+        <v>991800</v>
       </c>
       <c r="H102" s="3">
-        <v>-2638200</v>
+        <v>1434300</v>
       </c>
       <c r="I102" s="3">
-        <v>712800</v>
+        <v>-2524400</v>
       </c>
       <c r="J102" s="3">
+        <v>682100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-351400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2469700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-174300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>770200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1147000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>26200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>268000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>360800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-27200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-64200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>37300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>587400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-480200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-219200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>86200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>365900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>383400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BCH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>BCH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,192 +665,199 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1374500</v>
+        <v>1377500</v>
       </c>
       <c r="E8" s="3">
-        <v>927700</v>
+        <v>1386900</v>
       </c>
       <c r="F8" s="3">
-        <v>963000</v>
+        <v>936000</v>
       </c>
       <c r="G8" s="3">
-        <v>598700</v>
+        <v>971700</v>
       </c>
       <c r="H8" s="3">
-        <v>542300</v>
+        <v>604100</v>
       </c>
       <c r="I8" s="3">
-        <v>541100</v>
+        <v>547200</v>
       </c>
       <c r="J8" s="3">
+        <v>546000</v>
+      </c>
+      <c r="K8" s="3">
         <v>574300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>418300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>546600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>659600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>724200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>693200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>829400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>559900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>667200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>630400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>634800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>601400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>705400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>579000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>809800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>671400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>702900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>721300</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,76 +1283,79 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="H15" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="K15" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="L15" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="M15" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="N15" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="O15" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="P15" s="3">
         <v>-23400</v>
       </c>
-      <c r="E15" s="3">
-        <v>-22100</v>
-      </c>
-      <c r="F15" s="3">
-        <v>-22000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-21400</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-21300</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-20700</v>
-      </c>
-      <c r="J15" s="3">
-        <v>-20500</v>
-      </c>
-      <c r="K15" s="3">
-        <v>-21800</v>
-      </c>
-      <c r="L15" s="3">
-        <v>-21900</v>
-      </c>
-      <c r="M15" s="3">
-        <v>-22000</v>
-      </c>
-      <c r="N15" s="3">
-        <v>-23700</v>
-      </c>
-      <c r="O15" s="3">
-        <v>-23400</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-24100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-22400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-12400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-11700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-11900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-11700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-13300</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-13200</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-12700</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>-12600</v>
       </c>
       <c r="Z15" s="3">
         <v>-12600</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>-12600</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>-12600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>736200</v>
+        <v>789700</v>
       </c>
       <c r="E17" s="3">
-        <v>412700</v>
+        <v>742900</v>
       </c>
       <c r="F17" s="3">
-        <v>547200</v>
+        <v>416400</v>
       </c>
       <c r="G17" s="3">
-        <v>290900</v>
+        <v>552200</v>
       </c>
       <c r="H17" s="3">
-        <v>250500</v>
+        <v>293500</v>
       </c>
       <c r="I17" s="3">
-        <v>229700</v>
+        <v>252800</v>
       </c>
       <c r="J17" s="3">
+        <v>231800</v>
+      </c>
+      <c r="K17" s="3">
         <v>280000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>181600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>317400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>392900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>389200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>355500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>417900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>284500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>314000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>335700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>280000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>287100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>323900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>236400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>425600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>318000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>372400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>352500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>638300</v>
+        <v>587800</v>
       </c>
       <c r="E18" s="3">
-        <v>515000</v>
+        <v>644100</v>
       </c>
       <c r="F18" s="3">
-        <v>415700</v>
+        <v>519600</v>
       </c>
       <c r="G18" s="3">
-        <v>307800</v>
+        <v>419500</v>
       </c>
       <c r="H18" s="3">
-        <v>291800</v>
+        <v>310600</v>
       </c>
       <c r="I18" s="3">
-        <v>311400</v>
+        <v>294400</v>
       </c>
       <c r="J18" s="3">
+        <v>314200</v>
+      </c>
+      <c r="K18" s="3">
         <v>294300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>236600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>229100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>266700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>335000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>337700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>411500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>275400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>353200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>294600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>354800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>314300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>381500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>342700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>384200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>353400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>330400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>368900</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,162 +1582,169 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-78000</v>
+        <v>-124800</v>
       </c>
       <c r="E20" s="3">
-        <v>-125000</v>
+        <v>-78700</v>
       </c>
       <c r="F20" s="3">
-        <v>-46800</v>
+        <v>-126100</v>
       </c>
       <c r="G20" s="3">
-        <v>-49300</v>
+        <v>-47200</v>
       </c>
       <c r="H20" s="3">
-        <v>-66600</v>
+        <v>-49700</v>
       </c>
       <c r="I20" s="3">
-        <v>-85800</v>
+        <v>-67200</v>
       </c>
       <c r="J20" s="3">
+        <v>-86600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-118700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-98600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-52100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-65500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-90600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-75300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-78200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-98900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-67600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-95300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-105400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-95600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-125500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-110000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-104600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-105900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-114200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-116200</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>583700</v>
+        <v>487400</v>
       </c>
       <c r="E21" s="3">
-        <v>412100</v>
+        <v>589000</v>
       </c>
       <c r="F21" s="3">
-        <v>390900</v>
+        <v>415900</v>
       </c>
       <c r="G21" s="3">
-        <v>279900</v>
+        <v>394500</v>
       </c>
       <c r="H21" s="3">
-        <v>246500</v>
+        <v>282400</v>
       </c>
       <c r="I21" s="3">
-        <v>246200</v>
+        <v>248700</v>
       </c>
       <c r="J21" s="3">
+        <v>248500</v>
+      </c>
+      <c r="K21" s="3">
         <v>196100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>159800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>198900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>223200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>268100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>285800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>357400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>198800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>298000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>211000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>261300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>230500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>269300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>245900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>292300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>260100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>228900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>265300</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,162 +1820,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>560300</v>
+        <v>463000</v>
       </c>
       <c r="E23" s="3">
-        <v>390000</v>
+        <v>565300</v>
       </c>
       <c r="F23" s="3">
-        <v>369000</v>
+        <v>393500</v>
       </c>
       <c r="G23" s="3">
-        <v>258500</v>
+        <v>372300</v>
       </c>
       <c r="H23" s="3">
-        <v>225200</v>
+        <v>260900</v>
       </c>
       <c r="I23" s="3">
-        <v>225600</v>
+        <v>227300</v>
       </c>
       <c r="J23" s="3">
+        <v>227600</v>
+      </c>
+      <c r="K23" s="3">
         <v>175500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>138100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>177000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>201300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>244500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>262400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>333300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>176400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>285600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>199300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>249400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>218700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>256000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>232700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>279600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>247600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>216200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>252700</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>81300</v>
+        <v>82600</v>
       </c>
       <c r="E24" s="3">
-        <v>66200</v>
+        <v>82000</v>
       </c>
       <c r="F24" s="3">
-        <v>53900</v>
+        <v>66800</v>
       </c>
       <c r="G24" s="3">
-        <v>54000</v>
+        <v>54400</v>
       </c>
       <c r="H24" s="3">
-        <v>45000</v>
+        <v>54500</v>
       </c>
       <c r="I24" s="3">
-        <v>45200</v>
+        <v>45400</v>
       </c>
       <c r="J24" s="3">
+        <v>45600</v>
+      </c>
+      <c r="K24" s="3">
         <v>35400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>35700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>38500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>38400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>57600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>55400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>68200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>44400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>80500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>40400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>41300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>36100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>46700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>35900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>44700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>41800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>28900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>479000</v>
+        <v>380300</v>
       </c>
       <c r="E26" s="3">
-        <v>323800</v>
+        <v>483300</v>
       </c>
       <c r="F26" s="3">
-        <v>315000</v>
+        <v>326700</v>
       </c>
       <c r="G26" s="3">
-        <v>204500</v>
+        <v>317900</v>
       </c>
       <c r="H26" s="3">
-        <v>180200</v>
+        <v>206300</v>
       </c>
       <c r="I26" s="3">
-        <v>180400</v>
+        <v>181900</v>
       </c>
       <c r="J26" s="3">
+        <v>182000</v>
+      </c>
+      <c r="K26" s="3">
         <v>140200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>102400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>138500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>162900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>186900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>207000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>265100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>132000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>205100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>158900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>208100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>182600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>209300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>196800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>234900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>205800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>187300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>479000</v>
+        <v>380300</v>
       </c>
       <c r="E27" s="3">
-        <v>323800</v>
+        <v>483300</v>
       </c>
       <c r="F27" s="3">
-        <v>315000</v>
+        <v>326700</v>
       </c>
       <c r="G27" s="3">
-        <v>204500</v>
+        <v>317900</v>
       </c>
       <c r="H27" s="3">
-        <v>180200</v>
+        <v>206300</v>
       </c>
       <c r="I27" s="3">
-        <v>180400</v>
+        <v>181900</v>
       </c>
       <c r="J27" s="3">
+        <v>182000</v>
+      </c>
+      <c r="K27" s="3">
         <v>140200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>102400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>138500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>162900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>186900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>207000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>265100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>132000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>205100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>158900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>208100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>182600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>209300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>196800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>234900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>205800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>187300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>78000</v>
+        <v>124800</v>
       </c>
       <c r="E32" s="3">
-        <v>125000</v>
+        <v>78700</v>
       </c>
       <c r="F32" s="3">
-        <v>46800</v>
+        <v>126100</v>
       </c>
       <c r="G32" s="3">
-        <v>49300</v>
+        <v>47200</v>
       </c>
       <c r="H32" s="3">
-        <v>66600</v>
+        <v>49700</v>
       </c>
       <c r="I32" s="3">
-        <v>85800</v>
+        <v>67200</v>
       </c>
       <c r="J32" s="3">
+        <v>86600</v>
+      </c>
+      <c r="K32" s="3">
         <v>118700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>98600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>52100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>65500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>90600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>75300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>78200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>98900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>67600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>95300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>105400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>95600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>125500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>110000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>104600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>105900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>114200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>116200</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>479000</v>
+        <v>380300</v>
       </c>
       <c r="E33" s="3">
-        <v>323800</v>
+        <v>483300</v>
       </c>
       <c r="F33" s="3">
-        <v>315000</v>
+        <v>326700</v>
       </c>
       <c r="G33" s="3">
-        <v>204500</v>
+        <v>317900</v>
       </c>
       <c r="H33" s="3">
-        <v>180200</v>
+        <v>206300</v>
       </c>
       <c r="I33" s="3">
-        <v>180400</v>
+        <v>181900</v>
       </c>
       <c r="J33" s="3">
+        <v>182000</v>
+      </c>
+      <c r="K33" s="3">
         <v>140200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>102400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>138500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>162900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>186900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>207000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>265100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>132000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>205100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>158900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>208100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>182600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>209300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>196800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>234900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>205800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>187300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>479000</v>
+        <v>380300</v>
       </c>
       <c r="E35" s="3">
-        <v>323800</v>
+        <v>483300</v>
       </c>
       <c r="F35" s="3">
-        <v>315000</v>
+        <v>326700</v>
       </c>
       <c r="G35" s="3">
-        <v>204500</v>
+        <v>317900</v>
       </c>
       <c r="H35" s="3">
-        <v>180200</v>
+        <v>206300</v>
       </c>
       <c r="I35" s="3">
-        <v>180400</v>
+        <v>181900</v>
       </c>
       <c r="J35" s="3">
+        <v>182000</v>
+      </c>
+      <c r="K35" s="3">
         <v>140200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>102400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>138500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>162900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>186900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>207000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>265100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>132000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>205100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>158900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>208100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>182600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>209300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>196800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>234900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>205800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>187300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,162 +3007,169 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5226800</v>
+        <v>5695700</v>
       </c>
       <c r="E41" s="3">
-        <v>7868900</v>
+        <v>5273900</v>
       </c>
       <c r="F41" s="3">
-        <v>5244600</v>
+        <v>7939800</v>
       </c>
       <c r="G41" s="3">
-        <v>4346200</v>
+        <v>5291800</v>
       </c>
       <c r="H41" s="3">
-        <v>5879000</v>
+        <v>4385300</v>
       </c>
       <c r="I41" s="3">
-        <v>7031600</v>
+        <v>5931900</v>
       </c>
       <c r="J41" s="3">
+        <v>7094900</v>
+      </c>
+      <c r="K41" s="3">
         <v>5304700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4583300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4216200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4060100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3546400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3694500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4361500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3350700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3583100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3428900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3538600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2836400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2891200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3077300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2958500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3387100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3523000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3447400</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4937200</v>
+        <v>4225800</v>
       </c>
       <c r="E42" s="3">
-        <v>2022400</v>
+        <v>4981700</v>
       </c>
       <c r="F42" s="3">
-        <v>8901100</v>
+        <v>2040700</v>
       </c>
       <c r="G42" s="3">
-        <v>8519200</v>
+        <v>8981300</v>
       </c>
       <c r="H42" s="3">
-        <v>7263100</v>
+        <v>8596000</v>
       </c>
       <c r="I42" s="3">
-        <v>5747200</v>
+        <v>7328500</v>
       </c>
       <c r="J42" s="3">
+        <v>5799000</v>
+      </c>
+      <c r="K42" s="3">
         <v>9616000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>9453500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>11532500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>9205000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>7778400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>6750600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>4533900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>4327400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>4432300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>4120600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3732800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>4057800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>4892500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>3759300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>4831100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>4779700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>4568200</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>4469300</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3306,8 +3405,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3383,239 +3485,251 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>63400</v>
+        <v>66900</v>
       </c>
       <c r="E47" s="3">
-        <v>60300</v>
+        <v>64000</v>
       </c>
       <c r="F47" s="3">
-        <v>54600</v>
+        <v>60900</v>
       </c>
       <c r="G47" s="3">
-        <v>53400</v>
+        <v>55100</v>
       </c>
       <c r="H47" s="3">
-        <v>48400</v>
+        <v>53900</v>
       </c>
       <c r="I47" s="3">
         <v>48800</v>
       </c>
       <c r="J47" s="3">
+        <v>49300</v>
+      </c>
+      <c r="K47" s="3">
         <v>49600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>56800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>63600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>62600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>64500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>66900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>65800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>59400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>56600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>55000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>53200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>49900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>55900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>53600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>51200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>50200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>49200</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>365000</v>
+        <v>361800</v>
       </c>
       <c r="E48" s="3">
-        <v>362100</v>
+        <v>368300</v>
       </c>
       <c r="F48" s="3">
-        <v>371800</v>
+        <v>365300</v>
       </c>
       <c r="G48" s="3">
-        <v>376800</v>
+        <v>375200</v>
       </c>
       <c r="H48" s="3">
-        <v>384200</v>
+        <v>380200</v>
       </c>
       <c r="I48" s="3">
-        <v>392100</v>
+        <v>387700</v>
       </c>
       <c r="J48" s="3">
+        <v>395700</v>
+      </c>
+      <c r="K48" s="3">
         <v>388000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>417600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>459900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>456900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>487800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>526400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>536200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>506100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>291900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>285700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>290400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>289800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>338900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>338500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>338100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>340900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>353000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>350300</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>88500</v>
+        <v>97300</v>
       </c>
       <c r="E49" s="3">
-        <v>80700</v>
+        <v>89300</v>
       </c>
       <c r="F49" s="3">
-        <v>80500</v>
+        <v>81400</v>
       </c>
       <c r="G49" s="3">
-        <v>75900</v>
+        <v>81200</v>
       </c>
       <c r="H49" s="3">
-        <v>74100</v>
+        <v>76600</v>
       </c>
       <c r="I49" s="3">
-        <v>69400</v>
+        <v>74800</v>
       </c>
       <c r="J49" s="3">
+        <v>70000</v>
+      </c>
+      <c r="K49" s="3">
         <v>67400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>69700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>73700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>69900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>74000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>74500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>75100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>68900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>66100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>60000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>58300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>53500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>57400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>49900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>45000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>44100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>44300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>560500</v>
+        <v>598700</v>
       </c>
       <c r="E52" s="3">
-        <v>515800</v>
+        <v>565500</v>
       </c>
       <c r="F52" s="3">
-        <v>487500</v>
+        <v>520500</v>
       </c>
       <c r="G52" s="3">
-        <v>429900</v>
+        <v>491900</v>
       </c>
       <c r="H52" s="3">
-        <v>423800</v>
+        <v>433800</v>
       </c>
       <c r="I52" s="3">
-        <v>392600</v>
+        <v>427600</v>
       </c>
       <c r="J52" s="3">
+        <v>396100</v>
+      </c>
+      <c r="K52" s="3">
         <v>397300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>386700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>402000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>376800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>407600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>429800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>441500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>359500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>353000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>331800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>333300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>339900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>393100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>436900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>435600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>433600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>425400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>60277800</v>
+        <v>61391100</v>
       </c>
       <c r="E54" s="3">
-        <v>55484400</v>
+        <v>60820900</v>
       </c>
       <c r="F54" s="3">
-        <v>57389700</v>
+        <v>55984200</v>
       </c>
       <c r="G54" s="3">
-        <v>54632400</v>
+        <v>57906700</v>
       </c>
       <c r="H54" s="3">
-        <v>52521000</v>
+        <v>55124600</v>
       </c>
       <c r="I54" s="3">
-        <v>49933800</v>
+        <v>52994200</v>
       </c>
       <c r="J54" s="3">
+        <v>50383600</v>
+      </c>
+      <c r="K54" s="3">
         <v>51165600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>52582700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>57216900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>53308100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>52417100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>53648400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>51411400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>46920100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>45626600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>43505300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>43981900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>42552000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>48251600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>46956400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>47447700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>46794000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>47615900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>46838400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,239 +4187,249 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1158000</v>
+        <v>972200</v>
       </c>
       <c r="E57" s="3">
-        <v>1094900</v>
+        <v>1168500</v>
       </c>
       <c r="F57" s="3">
-        <v>755800</v>
+        <v>1104800</v>
       </c>
       <c r="G57" s="3">
-        <v>635000</v>
+        <v>762600</v>
       </c>
       <c r="H57" s="3">
-        <v>1108500</v>
+        <v>640800</v>
       </c>
       <c r="I57" s="3">
-        <v>1181700</v>
+        <v>1118500</v>
       </c>
       <c r="J57" s="3">
+        <v>1192300</v>
+      </c>
+      <c r="K57" s="3">
         <v>1748400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1419500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>981800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>835500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>741200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>892200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1324600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1014300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>650700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>855600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>770600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>834400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>714200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>723800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1213600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>773100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>515500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>680800</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2960400</v>
+        <v>3215200</v>
       </c>
       <c r="E58" s="3">
-        <v>2007200</v>
+        <v>2987100</v>
       </c>
       <c r="F58" s="3">
-        <v>3722500</v>
+        <v>2025300</v>
       </c>
       <c r="G58" s="3">
-        <v>3896400</v>
+        <v>3756000</v>
       </c>
       <c r="H58" s="3">
-        <v>3994700</v>
+        <v>3931500</v>
       </c>
       <c r="I58" s="3">
-        <v>4061100</v>
+        <v>4030700</v>
       </c>
       <c r="J58" s="3">
+        <v>4097700</v>
+      </c>
+      <c r="K58" s="3">
         <v>2679200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2580000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3428900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3912700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3974500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4593000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4598600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3662400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3931500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3540700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3309200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3137700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3693500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3661200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3726400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3443200</v>
       </c>
-      <c r="Z58" s="3">
-        <v>0</v>
-      </c>
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>323300</v>
+        <v>437400</v>
       </c>
       <c r="E59" s="3">
-        <v>274800</v>
+        <v>326200</v>
       </c>
       <c r="F59" s="3">
-        <v>490800</v>
+        <v>277300</v>
       </c>
       <c r="G59" s="3">
-        <v>349200</v>
+        <v>495200</v>
       </c>
       <c r="H59" s="3">
-        <v>192000</v>
+        <v>352300</v>
       </c>
       <c r="I59" s="3">
-        <v>84100</v>
+        <v>193800</v>
       </c>
       <c r="J59" s="3">
+        <v>84900</v>
+      </c>
+      <c r="K59" s="3">
         <v>249600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>203300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>154200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>153700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>480300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>385800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>309200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>120800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>415800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>277700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>202400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>99500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>466800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>352500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>235000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>110600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>432900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>339800</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4365,162 +4505,171 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14345300</v>
+        <v>14343200</v>
       </c>
       <c r="E61" s="3">
-        <v>14000000</v>
+        <v>14474600</v>
       </c>
       <c r="F61" s="3">
-        <v>12712200</v>
+        <v>14126100</v>
       </c>
       <c r="G61" s="3">
-        <v>11690800</v>
+        <v>12826800</v>
       </c>
       <c r="H61" s="3">
-        <v>11786100</v>
+        <v>11796100</v>
       </c>
       <c r="I61" s="3">
-        <v>10498900</v>
+        <v>11892200</v>
       </c>
       <c r="J61" s="3">
+        <v>10593500</v>
+      </c>
+      <c r="K61" s="3">
         <v>11594300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12603900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>13852000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9816300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9979800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10302500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9268000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8462600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8024500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7630200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7685300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7531900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>8090800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7957500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>8136900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>8411800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>11180300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>11255500</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>947400</v>
+        <v>1022300</v>
       </c>
       <c r="E62" s="3">
-        <v>868900</v>
+        <v>955900</v>
       </c>
       <c r="F62" s="3">
-        <v>803800</v>
+        <v>876700</v>
       </c>
       <c r="G62" s="3">
-        <v>728200</v>
+        <v>811000</v>
       </c>
       <c r="H62" s="3">
-        <v>652100</v>
+        <v>734700</v>
       </c>
       <c r="I62" s="3">
-        <v>582400</v>
+        <v>657900</v>
       </c>
       <c r="J62" s="3">
+        <v>587600</v>
+      </c>
+      <c r="K62" s="3">
         <v>570100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>488400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>554900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>429400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>487900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>502900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>494600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>440400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>463200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>439600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>454100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>458700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>563000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>590800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>576700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>553100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>569000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>589100</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>55364400</v>
+        <v>56143100</v>
       </c>
       <c r="E66" s="3">
-        <v>50822500</v>
+        <v>55863200</v>
       </c>
       <c r="F66" s="3">
-        <v>52702200</v>
+        <v>51280300</v>
       </c>
       <c r="G66" s="3">
-        <v>50146200</v>
+        <v>53177000</v>
       </c>
       <c r="H66" s="3">
-        <v>48154800</v>
+        <v>50598000</v>
       </c>
       <c r="I66" s="3">
-        <v>45693400</v>
+        <v>48588700</v>
       </c>
       <c r="J66" s="3">
+        <v>46105100</v>
+      </c>
+      <c r="K66" s="3">
         <v>47029400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>48370200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>52779000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>49082500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>47936300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>48991800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>46729600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>42628800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>41430300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>39508100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>39927200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>38580100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>43686200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>42491400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>43061400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>42536500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>43255900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>42530100</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2316200</v>
+        <v>2590100</v>
       </c>
       <c r="E72" s="3">
-        <v>1978200</v>
+        <v>2337100</v>
       </c>
       <c r="F72" s="3">
-        <v>1999800</v>
+        <v>1996000</v>
       </c>
       <c r="G72" s="3">
-        <v>1788700</v>
+        <v>2017800</v>
       </c>
       <c r="H72" s="3">
-        <v>1721000</v>
+        <v>1804800</v>
       </c>
       <c r="I72" s="3">
-        <v>1630700</v>
+        <v>1736500</v>
       </c>
       <c r="J72" s="3">
+        <v>1645400</v>
+      </c>
+      <c r="K72" s="3">
         <v>1528800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1517700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1582900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1448400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1507000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1523300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1428200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1203600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1192200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1069700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1019000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>910500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1242200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1147100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1065000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>959400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1171800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4913400</v>
+        <v>5248000</v>
       </c>
       <c r="E76" s="3">
-        <v>4661900</v>
+        <v>4957700</v>
       </c>
       <c r="F76" s="3">
-        <v>4687500</v>
+        <v>4703900</v>
       </c>
       <c r="G76" s="3">
-        <v>4486200</v>
+        <v>4729800</v>
       </c>
       <c r="H76" s="3">
-        <v>4366200</v>
+        <v>4526600</v>
       </c>
       <c r="I76" s="3">
-        <v>4240300</v>
+        <v>4405500</v>
       </c>
       <c r="J76" s="3">
+        <v>4278500</v>
+      </c>
+      <c r="K76" s="3">
         <v>4136200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4212500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4437800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4225600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4480800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4656600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4681900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4291200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4196300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3997200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4054600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3971900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4565400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4465000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>4386200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>4257500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>4360000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>4308300</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>479000</v>
+        <v>380300</v>
       </c>
       <c r="E81" s="3">
-        <v>323800</v>
+        <v>483300</v>
       </c>
       <c r="F81" s="3">
-        <v>315000</v>
+        <v>326700</v>
       </c>
       <c r="G81" s="3">
-        <v>204500</v>
+        <v>317900</v>
       </c>
       <c r="H81" s="3">
-        <v>180200</v>
+        <v>206300</v>
       </c>
       <c r="I81" s="3">
-        <v>180400</v>
+        <v>181900</v>
       </c>
       <c r="J81" s="3">
+        <v>182000</v>
+      </c>
+      <c r="K81" s="3">
         <v>140200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>102400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>138500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>162900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>186900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>207000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>265100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>132000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>205100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>158900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>208100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>182600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>209300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>196800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>234900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>205800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>187300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,76 +6012,77 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>23600</v>
+      </c>
+      <c r="F83" s="3">
+        <v>22300</v>
+      </c>
+      <c r="G83" s="3">
+        <v>22200</v>
+      </c>
+      <c r="H83" s="3">
+        <v>21500</v>
+      </c>
+      <c r="I83" s="3">
+        <v>21400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>20900</v>
+      </c>
+      <c r="K83" s="3">
+        <v>7400</v>
+      </c>
+      <c r="L83" s="3">
+        <v>35500</v>
+      </c>
+      <c r="M83" s="3">
+        <v>21900</v>
+      </c>
+      <c r="N83" s="3">
+        <v>22000</v>
+      </c>
+      <c r="O83" s="3">
+        <v>23700</v>
+      </c>
+      <c r="P83" s="3">
         <v>23400</v>
       </c>
-      <c r="E83" s="3">
-        <v>22100</v>
-      </c>
-      <c r="F83" s="3">
-        <v>22000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>21400</v>
-      </c>
-      <c r="H83" s="3">
-        <v>21300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>20700</v>
-      </c>
-      <c r="J83" s="3">
-        <v>7400</v>
-      </c>
-      <c r="K83" s="3">
-        <v>35500</v>
-      </c>
-      <c r="L83" s="3">
-        <v>21900</v>
-      </c>
-      <c r="M83" s="3">
-        <v>22000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>23700</v>
-      </c>
-      <c r="O83" s="3">
-        <v>23400</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>24100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>22400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>12400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>11700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>11900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>11700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>13300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>13200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>12700</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>12600</v>
       </c>
       <c r="Z83" s="3">
         <v>12600</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>12600</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-125000</v>
+        <v>44200</v>
       </c>
       <c r="E89" s="3">
-        <v>-1507300</v>
+        <v>-126100</v>
       </c>
       <c r="F89" s="3">
-        <v>780200</v>
+        <v>-1520900</v>
       </c>
       <c r="G89" s="3">
-        <v>2670000</v>
+        <v>787200</v>
       </c>
       <c r="H89" s="3">
-        <v>1935200</v>
+        <v>2694100</v>
       </c>
       <c r="I89" s="3">
-        <v>-2688600</v>
+        <v>1952600</v>
       </c>
       <c r="J89" s="3">
+        <v>-2712800</v>
+      </c>
+      <c r="K89" s="3">
         <v>767600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>305800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-843300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>291100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1097500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>66100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-970600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1334400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-614600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-434900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-266200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>136000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>703800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>250800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>435500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>179000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>398600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-193700</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6391,13 +6612,13 @@
         <v>-800</v>
       </c>
       <c r="E91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-400</v>
       </c>
       <c r="H91" s="3">
         <v>-400</v>
@@ -6406,61 +6627,64 @@
         <v>-400</v>
       </c>
       <c r="J91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-16900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-23800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-12800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-10800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-10300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-10500</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-6700</v>
       </c>
       <c r="Y91" s="3">
         <v>-6700</v>
       </c>
       <c r="Z91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-12200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-17200</v>
+        <v>-19900</v>
       </c>
       <c r="E94" s="3">
-        <v>-10600</v>
+        <v>-17300</v>
       </c>
       <c r="F94" s="3">
-        <v>-69700</v>
+        <v>-10700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1467100</v>
+        <v>-70300</v>
       </c>
       <c r="H94" s="3">
-        <v>-1646800</v>
+        <v>-1480300</v>
       </c>
       <c r="I94" s="3">
-        <v>-35700</v>
+        <v>-1661700</v>
       </c>
       <c r="J94" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="K94" s="3">
         <v>177700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>379100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>37600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-365700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-81200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-143800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>82600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-374100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>365300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>88000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-36700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>110800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-319300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-565800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-682600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-165900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>8300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>260000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6728,10 +6962,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-599200</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-604600</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -6740,10 +6974,10 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-244500</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-246700</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -6752,11 +6986,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-417100</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -6764,11 +6998,11 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-463200</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -6776,11 +7010,11 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-478800</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
@@ -6788,16 +7022,19 @@
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-502800</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-351300</v>
+        <v>-403200</v>
       </c>
       <c r="E100" s="3">
-        <v>-742600</v>
+        <v>-354500</v>
       </c>
       <c r="F100" s="3">
-        <v>610800</v>
+        <v>-749300</v>
       </c>
       <c r="G100" s="3">
-        <v>-384700</v>
+        <v>616300</v>
       </c>
       <c r="H100" s="3">
-        <v>1083800</v>
+        <v>-388100</v>
       </c>
       <c r="I100" s="3">
-        <v>184000</v>
+        <v>1093600</v>
       </c>
       <c r="J100" s="3">
+        <v>185600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-188600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-941600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3176000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-140500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-231800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1168000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>919100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-701800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>575400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>283400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>152300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-199200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>237400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-152300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>17700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>92300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-55300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>329700</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>376500</v>
+        <v>136300</v>
       </c>
       <c r="E101" s="3">
-        <v>-239700</v>
+        <v>379900</v>
       </c>
       <c r="F101" s="3">
-        <v>109100</v>
+        <v>-241900</v>
       </c>
       <c r="G101" s="3">
-        <v>173500</v>
+        <v>110100</v>
       </c>
       <c r="H101" s="3">
-        <v>62200</v>
+        <v>175100</v>
       </c>
       <c r="I101" s="3">
-        <v>15900</v>
+        <v>62700</v>
       </c>
       <c r="J101" s="3">
+        <v>16100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-98500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-69700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>99400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>40800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-14300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>56700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>11300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>34800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>36400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>86400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-10300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-34600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-12900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>10300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-19200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>14300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-117000</v>
+        <v>-242600</v>
       </c>
       <c r="E102" s="3">
-        <v>-2500200</v>
+        <v>-118100</v>
       </c>
       <c r="F102" s="3">
-        <v>1430300</v>
+        <v>-2522700</v>
       </c>
       <c r="G102" s="3">
-        <v>991800</v>
+        <v>1443200</v>
       </c>
       <c r="H102" s="3">
-        <v>1434300</v>
+        <v>1000700</v>
       </c>
       <c r="I102" s="3">
-        <v>-2524400</v>
+        <v>1447200</v>
       </c>
       <c r="J102" s="3">
+        <v>-2547200</v>
+      </c>
+      <c r="K102" s="3">
         <v>682100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-351400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2469700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-174300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>770200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1147000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>26200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>268000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>360800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-27200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-64200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>37300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>587400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-480200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-219200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>86200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>365900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>383400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BCH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>BCH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,199 +665,205 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1377500</v>
+        <v>1426700</v>
       </c>
       <c r="E8" s="3">
-        <v>1386900</v>
+        <v>1549700</v>
       </c>
       <c r="F8" s="3">
-        <v>936000</v>
+        <v>1560300</v>
       </c>
       <c r="G8" s="3">
-        <v>971700</v>
+        <v>1053000</v>
       </c>
       <c r="H8" s="3">
-        <v>604100</v>
+        <v>1093100</v>
       </c>
       <c r="I8" s="3">
-        <v>547200</v>
+        <v>679600</v>
       </c>
       <c r="J8" s="3">
+        <v>615600</v>
+      </c>
+      <c r="K8" s="3">
         <v>546000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>574300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>418300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>546600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>659600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>724200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>693200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>829400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>559900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>667200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>630400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>634800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>601400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>705400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>579000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>809800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>671400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>702900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>721300</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -936,8 +942,11 @@
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1025,11 @@
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1222,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,79 +1305,82 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-24400</v>
+        <v>-26900</v>
       </c>
       <c r="E15" s="3">
-        <v>-23600</v>
+        <v>-27500</v>
       </c>
       <c r="F15" s="3">
-        <v>-22300</v>
+        <v>-26600</v>
       </c>
       <c r="G15" s="3">
-        <v>-22200</v>
+        <v>-25100</v>
       </c>
       <c r="H15" s="3">
-        <v>-21500</v>
+        <v>-24900</v>
       </c>
       <c r="I15" s="3">
-        <v>-21400</v>
+        <v>-24200</v>
       </c>
       <c r="J15" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="K15" s="3">
         <v>-20900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-20500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-21800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-21900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-22000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-23700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-23400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-24100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-22400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-12400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-11700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-11900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-11700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-13300</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-13200</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>-12700</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>-12600</v>
       </c>
       <c r="AA15" s="3">
         <v>-12600</v>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>-12600</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>-12600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>789700</v>
+        <v>911000</v>
       </c>
       <c r="E17" s="3">
-        <v>742900</v>
+        <v>888400</v>
       </c>
       <c r="F17" s="3">
-        <v>416400</v>
+        <v>835700</v>
       </c>
       <c r="G17" s="3">
-        <v>552200</v>
+        <v>468400</v>
       </c>
       <c r="H17" s="3">
-        <v>293500</v>
+        <v>621200</v>
       </c>
       <c r="I17" s="3">
-        <v>252800</v>
+        <v>330200</v>
       </c>
       <c r="J17" s="3">
+        <v>284300</v>
+      </c>
+      <c r="K17" s="3">
         <v>231800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>280000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>181600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>317400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>392900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>389200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>355500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>417900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>284500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>314000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>335700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>280000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>287100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>323900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>236400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>425600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>318000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>372400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>352500</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>587800</v>
+        <v>515700</v>
       </c>
       <c r="E18" s="3">
-        <v>644100</v>
+        <v>661200</v>
       </c>
       <c r="F18" s="3">
-        <v>519600</v>
+        <v>724600</v>
       </c>
       <c r="G18" s="3">
-        <v>419500</v>
+        <v>584600</v>
       </c>
       <c r="H18" s="3">
-        <v>310600</v>
+        <v>471900</v>
       </c>
       <c r="I18" s="3">
-        <v>294400</v>
+        <v>349400</v>
       </c>
       <c r="J18" s="3">
+        <v>331200</v>
+      </c>
+      <c r="K18" s="3">
         <v>314200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>294300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>236600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>229100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>266700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>335000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>337700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>411500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>275400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>353200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>294600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>354800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>314300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>381500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>342700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>384200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>353400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>330400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>368900</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,168 +1615,175 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-124800</v>
+        <v>8000</v>
       </c>
       <c r="E20" s="3">
-        <v>-78700</v>
+        <v>-140400</v>
       </c>
       <c r="F20" s="3">
-        <v>-126100</v>
+        <v>-88500</v>
       </c>
       <c r="G20" s="3">
-        <v>-47200</v>
+        <v>-141900</v>
       </c>
       <c r="H20" s="3">
-        <v>-49700</v>
+        <v>-53100</v>
       </c>
       <c r="I20" s="3">
-        <v>-67200</v>
+        <v>-56000</v>
       </c>
       <c r="J20" s="3">
+        <v>-75600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-86600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-118700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-98600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-52100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-65500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-90600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-75300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-78200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-98900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-67600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-95300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-105400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-95600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-125500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-110000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-104600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-105900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-114200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-116200</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>487400</v>
+        <v>550700</v>
       </c>
       <c r="E21" s="3">
-        <v>589000</v>
+        <v>548300</v>
       </c>
       <c r="F21" s="3">
-        <v>415900</v>
+        <v>662600</v>
       </c>
       <c r="G21" s="3">
-        <v>394500</v>
+        <v>467800</v>
       </c>
       <c r="H21" s="3">
-        <v>282400</v>
+        <v>443800</v>
       </c>
       <c r="I21" s="3">
-        <v>248700</v>
+        <v>317700</v>
       </c>
       <c r="J21" s="3">
+        <v>279800</v>
+      </c>
+      <c r="K21" s="3">
         <v>248500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>196100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>159800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>198900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>223200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>268100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>285800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>357400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>198800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>298000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>211000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>261300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>230500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>269300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>245900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>292300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>260100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>228900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>265300</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,168 +1862,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>463000</v>
+        <v>523800</v>
       </c>
       <c r="E23" s="3">
-        <v>565300</v>
+        <v>520800</v>
       </c>
       <c r="F23" s="3">
-        <v>393500</v>
+        <v>636000</v>
       </c>
       <c r="G23" s="3">
-        <v>372300</v>
+        <v>442700</v>
       </c>
       <c r="H23" s="3">
-        <v>260900</v>
+        <v>418800</v>
       </c>
       <c r="I23" s="3">
-        <v>227300</v>
+        <v>293500</v>
       </c>
       <c r="J23" s="3">
+        <v>255700</v>
+      </c>
+      <c r="K23" s="3">
         <v>227600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>175500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>138100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>177000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>201300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>244500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>262400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>333300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>176400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>285600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>199300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>249400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>218700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>256000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>232700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>279600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>247600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>216200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>252700</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>82600</v>
+        <v>87000</v>
       </c>
       <c r="E24" s="3">
-        <v>82000</v>
+        <v>93000</v>
       </c>
       <c r="F24" s="3">
-        <v>66800</v>
+        <v>92300</v>
       </c>
       <c r="G24" s="3">
-        <v>54400</v>
+        <v>75200</v>
       </c>
       <c r="H24" s="3">
-        <v>54500</v>
+        <v>61200</v>
       </c>
       <c r="I24" s="3">
-        <v>45400</v>
+        <v>61300</v>
       </c>
       <c r="J24" s="3">
+        <v>51100</v>
+      </c>
+      <c r="K24" s="3">
         <v>45600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>35400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>35700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>38500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>38400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>57600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>55400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>68200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>44400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>80500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>40400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>41300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>36100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>46700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>35900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>44700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>41800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>28900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>380300</v>
+        <v>436700</v>
       </c>
       <c r="E26" s="3">
-        <v>483300</v>
+        <v>427900</v>
       </c>
       <c r="F26" s="3">
-        <v>326700</v>
+        <v>543700</v>
       </c>
       <c r="G26" s="3">
-        <v>317900</v>
+        <v>367600</v>
       </c>
       <c r="H26" s="3">
-        <v>206300</v>
+        <v>357600</v>
       </c>
       <c r="I26" s="3">
-        <v>181900</v>
+        <v>232100</v>
       </c>
       <c r="J26" s="3">
+        <v>204600</v>
+      </c>
+      <c r="K26" s="3">
         <v>182000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>140200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>102400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>138500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>162900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>186900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>207000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>265100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>132000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>205100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>158900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>208100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>182600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>209300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>196800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>234900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>205800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>187300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>380300</v>
+        <v>436700</v>
       </c>
       <c r="E27" s="3">
-        <v>483300</v>
+        <v>427900</v>
       </c>
       <c r="F27" s="3">
-        <v>326700</v>
+        <v>543700</v>
       </c>
       <c r="G27" s="3">
-        <v>317900</v>
+        <v>367600</v>
       </c>
       <c r="H27" s="3">
-        <v>206300</v>
+        <v>357600</v>
       </c>
       <c r="I27" s="3">
-        <v>181900</v>
+        <v>232100</v>
       </c>
       <c r="J27" s="3">
+        <v>204600</v>
+      </c>
+      <c r="K27" s="3">
         <v>182000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>140200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>102400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>138500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>162900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>186900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>207000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>265100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>132000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>205100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>158900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>208100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>182600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>209300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>196800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>234900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>205800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>187300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>124800</v>
+        <v>-8000</v>
       </c>
       <c r="E32" s="3">
-        <v>78700</v>
+        <v>140400</v>
       </c>
       <c r="F32" s="3">
-        <v>126100</v>
+        <v>88500</v>
       </c>
       <c r="G32" s="3">
-        <v>47200</v>
+        <v>141900</v>
       </c>
       <c r="H32" s="3">
-        <v>49700</v>
+        <v>53100</v>
       </c>
       <c r="I32" s="3">
-        <v>67200</v>
+        <v>56000</v>
       </c>
       <c r="J32" s="3">
+        <v>75600</v>
+      </c>
+      <c r="K32" s="3">
         <v>86600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>118700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>98600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>52100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>65500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>90600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>75300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>78200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>98900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>67600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>95300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>105400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>95600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>125500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>110000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>104600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>105900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>114200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>116200</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>380300</v>
+        <v>436700</v>
       </c>
       <c r="E33" s="3">
-        <v>483300</v>
+        <v>427900</v>
       </c>
       <c r="F33" s="3">
-        <v>326700</v>
+        <v>543700</v>
       </c>
       <c r="G33" s="3">
-        <v>317900</v>
+        <v>367600</v>
       </c>
       <c r="H33" s="3">
-        <v>206300</v>
+        <v>357600</v>
       </c>
       <c r="I33" s="3">
-        <v>181900</v>
+        <v>232100</v>
       </c>
       <c r="J33" s="3">
+        <v>204600</v>
+      </c>
+      <c r="K33" s="3">
         <v>182000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>140200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>102400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>138500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>162900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>186900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>207000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>265100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>132000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>205100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>158900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>208100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>182600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>209300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>196800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>234900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>205800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>187300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>380300</v>
+        <v>436700</v>
       </c>
       <c r="E35" s="3">
-        <v>483300</v>
+        <v>427900</v>
       </c>
       <c r="F35" s="3">
-        <v>326700</v>
+        <v>543700</v>
       </c>
       <c r="G35" s="3">
-        <v>317900</v>
+        <v>367600</v>
       </c>
       <c r="H35" s="3">
-        <v>206300</v>
+        <v>357600</v>
       </c>
       <c r="I35" s="3">
-        <v>181900</v>
+        <v>232100</v>
       </c>
       <c r="J35" s="3">
+        <v>204600</v>
+      </c>
+      <c r="K35" s="3">
         <v>182000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>140200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>102400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>138500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>162900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>186900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>207000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>265100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>132000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>205100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>158900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>208100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>182600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>209300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>196800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>234900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>205800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>187300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,168 +3093,175 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5695700</v>
+        <v>5390500</v>
       </c>
       <c r="E41" s="3">
-        <v>5273900</v>
+        <v>6407700</v>
       </c>
       <c r="F41" s="3">
-        <v>7939800</v>
+        <v>5933200</v>
       </c>
       <c r="G41" s="3">
-        <v>5291800</v>
+        <v>8932200</v>
       </c>
       <c r="H41" s="3">
-        <v>4385300</v>
+        <v>5953300</v>
       </c>
       <c r="I41" s="3">
-        <v>5931900</v>
+        <v>4933500</v>
       </c>
       <c r="J41" s="3">
+        <v>6673400</v>
+      </c>
+      <c r="K41" s="3">
         <v>7094900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5304700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4583300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4216200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4060100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3546400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3694500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4361500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3350700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3583100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3428900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3538600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2836400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2891200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3077300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2958500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3387100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3523000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3447400</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4225800</v>
+        <v>6558500</v>
       </c>
       <c r="E42" s="3">
-        <v>4981700</v>
+        <v>4754000</v>
       </c>
       <c r="F42" s="3">
-        <v>2040700</v>
+        <v>5604400</v>
       </c>
       <c r="G42" s="3">
-        <v>8981300</v>
+        <v>2295700</v>
       </c>
       <c r="H42" s="3">
-        <v>8596000</v>
+        <v>10104000</v>
       </c>
       <c r="I42" s="3">
-        <v>7328500</v>
+        <v>9670400</v>
       </c>
       <c r="J42" s="3">
+        <v>8244600</v>
+      </c>
+      <c r="K42" s="3">
         <v>5799000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>9616000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>9453500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>11532500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>9205000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>7778400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>6750600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>4533900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>4327400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>4432300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>4120600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3732800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>4057800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>4892500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>3759300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>4831100</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>4779700</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>4568200</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>4469300</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,8 +3340,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3423,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3408,8 +3506,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3488,248 +3589,260 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>78400</v>
+      </c>
+      <c r="E47" s="3">
+        <v>75300</v>
+      </c>
+      <c r="F47" s="3">
+        <v>72000</v>
+      </c>
+      <c r="G47" s="3">
+        <v>68500</v>
+      </c>
+      <c r="H47" s="3">
+        <v>62000</v>
+      </c>
+      <c r="I47" s="3">
+        <v>60600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>54900</v>
+      </c>
+      <c r="K47" s="3">
+        <v>49300</v>
+      </c>
+      <c r="L47" s="3">
+        <v>49600</v>
+      </c>
+      <c r="M47" s="3">
+        <v>56800</v>
+      </c>
+      <c r="N47" s="3">
+        <v>63600</v>
+      </c>
+      <c r="O47" s="3">
+        <v>62600</v>
+      </c>
+      <c r="P47" s="3">
+        <v>64500</v>
+      </c>
+      <c r="Q47" s="3">
         <v>66900</v>
       </c>
-      <c r="E47" s="3">
-        <v>64000</v>
-      </c>
-      <c r="F47" s="3">
-        <v>60900</v>
-      </c>
-      <c r="G47" s="3">
-        <v>55100</v>
-      </c>
-      <c r="H47" s="3">
-        <v>53900</v>
-      </c>
-      <c r="I47" s="3">
-        <v>48800</v>
-      </c>
-      <c r="J47" s="3">
-        <v>49300</v>
-      </c>
-      <c r="K47" s="3">
-        <v>49600</v>
-      </c>
-      <c r="L47" s="3">
-        <v>56800</v>
-      </c>
-      <c r="M47" s="3">
-        <v>63600</v>
-      </c>
-      <c r="N47" s="3">
-        <v>62600</v>
-      </c>
-      <c r="O47" s="3">
-        <v>64500</v>
-      </c>
-      <c r="P47" s="3">
-        <v>66900</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>65800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>59400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>56600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>55000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>53200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>49900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>55900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>53600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>51200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>50200</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>49200</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>361800</v>
+        <v>399600</v>
       </c>
       <c r="E48" s="3">
-        <v>368300</v>
+        <v>407100</v>
       </c>
       <c r="F48" s="3">
-        <v>365300</v>
+        <v>414300</v>
       </c>
       <c r="G48" s="3">
-        <v>375200</v>
+        <v>411000</v>
       </c>
       <c r="H48" s="3">
-        <v>380200</v>
+        <v>422100</v>
       </c>
       <c r="I48" s="3">
-        <v>387700</v>
+        <v>427700</v>
       </c>
       <c r="J48" s="3">
+        <v>436100</v>
+      </c>
+      <c r="K48" s="3">
         <v>395700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>388000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>417600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>459900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>456900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>487800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>526400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>536200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>506100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>291900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>285700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>290400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>289800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>338900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>338500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>338100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>340900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>353000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>350300</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>97300</v>
+        <v>134300</v>
       </c>
       <c r="E49" s="3">
-        <v>89300</v>
+        <v>109500</v>
       </c>
       <c r="F49" s="3">
-        <v>81400</v>
+        <v>100500</v>
       </c>
       <c r="G49" s="3">
-        <v>81200</v>
+        <v>91600</v>
       </c>
       <c r="H49" s="3">
-        <v>76600</v>
+        <v>91400</v>
       </c>
       <c r="I49" s="3">
-        <v>74800</v>
+        <v>86200</v>
       </c>
       <c r="J49" s="3">
+        <v>84200</v>
+      </c>
+      <c r="K49" s="3">
         <v>70000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>67400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>69700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>73700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>69900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>74000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>74500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>75100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>68900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>66100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>60000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>58300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>53500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>57400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>49900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>45000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>44100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>44300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4004,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>598700</v>
+        <v>693500</v>
       </c>
       <c r="E52" s="3">
-        <v>565500</v>
+        <v>673500</v>
       </c>
       <c r="F52" s="3">
-        <v>520500</v>
+        <v>636200</v>
       </c>
       <c r="G52" s="3">
-        <v>491900</v>
+        <v>585500</v>
       </c>
       <c r="H52" s="3">
-        <v>433800</v>
+        <v>553400</v>
       </c>
       <c r="I52" s="3">
-        <v>427600</v>
+        <v>488000</v>
       </c>
       <c r="J52" s="3">
+        <v>481100</v>
+      </c>
+      <c r="K52" s="3">
         <v>396100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>397300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>386700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>402000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>376800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>407600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>429800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>441500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>359500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>353000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>331800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>333300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>339900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>393100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>436900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>435600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>433600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>425400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>61391100</v>
+        <v>69621800</v>
       </c>
       <c r="E54" s="3">
-        <v>60820900</v>
+        <v>69065000</v>
       </c>
       <c r="F54" s="3">
-        <v>55984200</v>
+        <v>68423500</v>
       </c>
       <c r="G54" s="3">
-        <v>57906700</v>
+        <v>62982300</v>
       </c>
       <c r="H54" s="3">
-        <v>55124600</v>
+        <v>65145100</v>
       </c>
       <c r="I54" s="3">
-        <v>52994200</v>
+        <v>62015200</v>
       </c>
       <c r="J54" s="3">
+        <v>59618500</v>
+      </c>
+      <c r="K54" s="3">
         <v>50383600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>51165600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>52582700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>57216900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>53308100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>52417100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>53648400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>51411400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>46920100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>45626600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>43505300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>43981900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>42552000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>48251600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>46956400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>47447700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>46794000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>47615900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>46838400</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,248 +4317,258 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>972200</v>
+        <v>1508900</v>
       </c>
       <c r="E57" s="3">
-        <v>1168500</v>
+        <v>1093700</v>
       </c>
       <c r="F57" s="3">
-        <v>1104800</v>
+        <v>1314500</v>
       </c>
       <c r="G57" s="3">
-        <v>762600</v>
+        <v>1242900</v>
       </c>
       <c r="H57" s="3">
-        <v>640800</v>
+        <v>857900</v>
       </c>
       <c r="I57" s="3">
-        <v>1118500</v>
+        <v>720900</v>
       </c>
       <c r="J57" s="3">
+        <v>1258300</v>
+      </c>
+      <c r="K57" s="3">
         <v>1192300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1748400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1419500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>981800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>835500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>741200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>892200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1324600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1014300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>650700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>855600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>770600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>834400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>714200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>723800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1213600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>773100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>515500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>680800</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3215200</v>
+        <v>4053200</v>
       </c>
       <c r="E58" s="3">
-        <v>2987100</v>
+        <v>3617100</v>
       </c>
       <c r="F58" s="3">
-        <v>2025300</v>
+        <v>3360500</v>
       </c>
       <c r="G58" s="3">
-        <v>3756000</v>
+        <v>2278500</v>
       </c>
       <c r="H58" s="3">
+        <v>4225500</v>
+      </c>
+      <c r="I58" s="3">
+        <v>4422900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>4534600</v>
+      </c>
+      <c r="K58" s="3">
+        <v>4097700</v>
+      </c>
+      <c r="L58" s="3">
+        <v>2679200</v>
+      </c>
+      <c r="M58" s="3">
+        <v>2580000</v>
+      </c>
+      <c r="N58" s="3">
+        <v>3428900</v>
+      </c>
+      <c r="O58" s="3">
+        <v>3912700</v>
+      </c>
+      <c r="P58" s="3">
+        <v>3974500</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>4593000</v>
+      </c>
+      <c r="R58" s="3">
+        <v>4598600</v>
+      </c>
+      <c r="S58" s="3">
+        <v>3662400</v>
+      </c>
+      <c r="T58" s="3">
         <v>3931500</v>
       </c>
-      <c r="I58" s="3">
-        <v>4030700</v>
-      </c>
-      <c r="J58" s="3">
-        <v>4097700</v>
-      </c>
-      <c r="K58" s="3">
-        <v>2679200</v>
-      </c>
-      <c r="L58" s="3">
-        <v>2580000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>3428900</v>
-      </c>
-      <c r="N58" s="3">
-        <v>3912700</v>
-      </c>
-      <c r="O58" s="3">
-        <v>3974500</v>
-      </c>
-      <c r="P58" s="3">
-        <v>4593000</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>4598600</v>
-      </c>
-      <c r="R58" s="3">
-        <v>3662400</v>
-      </c>
-      <c r="S58" s="3">
-        <v>3931500</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3540700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3309200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3137700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3693500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3661200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3726400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3443200</v>
       </c>
-      <c r="AA58" s="3">
-        <v>0</v>
-      </c>
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>437400</v>
+        <v>672600</v>
       </c>
       <c r="E59" s="3">
-        <v>326200</v>
+        <v>492100</v>
       </c>
       <c r="F59" s="3">
-        <v>277300</v>
+        <v>367000</v>
       </c>
       <c r="G59" s="3">
-        <v>495200</v>
+        <v>311900</v>
       </c>
       <c r="H59" s="3">
-        <v>352300</v>
+        <v>557100</v>
       </c>
       <c r="I59" s="3">
-        <v>193800</v>
+        <v>396400</v>
       </c>
       <c r="J59" s="3">
+        <v>218000</v>
+      </c>
+      <c r="K59" s="3">
         <v>84900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>249600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>203300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>154200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>153700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>480300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>385800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>309200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>120800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>415800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>277700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>202400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>99500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>466800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>352500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>235000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>110600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>432900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>339800</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4508,168 +4647,177 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14343200</v>
+        <v>16517800</v>
       </c>
       <c r="E61" s="3">
-        <v>14474600</v>
+        <v>16136100</v>
       </c>
       <c r="F61" s="3">
-        <v>14126100</v>
+        <v>16283900</v>
       </c>
       <c r="G61" s="3">
-        <v>12826800</v>
+        <v>15891900</v>
       </c>
       <c r="H61" s="3">
-        <v>11796100</v>
+        <v>14430100</v>
       </c>
       <c r="I61" s="3">
-        <v>11892200</v>
+        <v>13270600</v>
       </c>
       <c r="J61" s="3">
+        <v>13378800</v>
+      </c>
+      <c r="K61" s="3">
         <v>10593500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11594300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>12603900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>13852000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9816300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9979800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10302500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9268000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8462600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8024500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7630200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7685300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7531900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>8090800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>7957500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>8136900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>8411800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>11180300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>11255500</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1022300</v>
+        <v>1186700</v>
       </c>
       <c r="E62" s="3">
-        <v>955900</v>
+        <v>1150100</v>
       </c>
       <c r="F62" s="3">
-        <v>876700</v>
+        <v>1075400</v>
       </c>
       <c r="G62" s="3">
-        <v>811000</v>
+        <v>986300</v>
       </c>
       <c r="H62" s="3">
-        <v>734700</v>
+        <v>912400</v>
       </c>
       <c r="I62" s="3">
-        <v>657900</v>
+        <v>826600</v>
       </c>
       <c r="J62" s="3">
+        <v>740200</v>
+      </c>
+      <c r="K62" s="3">
         <v>587600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>570100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>488400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>554900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>429400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>487900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>502900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>494600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>440400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>463200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>439600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>454100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>458700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>563000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>590800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>576700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>553100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>569000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>589100</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>56143100</v>
+        <v>63500300</v>
       </c>
       <c r="E66" s="3">
-        <v>55863200</v>
+        <v>63161000</v>
       </c>
       <c r="F66" s="3">
-        <v>51280300</v>
+        <v>62846100</v>
       </c>
       <c r="G66" s="3">
-        <v>53177000</v>
+        <v>57690400</v>
       </c>
       <c r="H66" s="3">
-        <v>50598000</v>
+        <v>59824100</v>
       </c>
       <c r="I66" s="3">
-        <v>48588700</v>
+        <v>56922800</v>
       </c>
       <c r="J66" s="3">
+        <v>54662200</v>
+      </c>
+      <c r="K66" s="3">
         <v>46105100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>47029400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>48370200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>52779000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>49082500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>47936300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>48991800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>46729600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>42628800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>41430300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>39508100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>39927200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>38580100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>43686200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>42491400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>43061400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>42536500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>43255900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>42530100</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2590100</v>
+        <v>3197900</v>
       </c>
       <c r="E72" s="3">
-        <v>2337100</v>
+        <v>2913800</v>
       </c>
       <c r="F72" s="3">
-        <v>1996000</v>
+        <v>2629200</v>
       </c>
       <c r="G72" s="3">
-        <v>2017800</v>
+        <v>2245500</v>
       </c>
       <c r="H72" s="3">
-        <v>1804800</v>
+        <v>2270000</v>
       </c>
       <c r="I72" s="3">
-        <v>1736500</v>
+        <v>2030400</v>
       </c>
       <c r="J72" s="3">
+        <v>1953600</v>
+      </c>
+      <c r="K72" s="3">
         <v>1645400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1528800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1517700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1582900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1448400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1507000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1523300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1428200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1203600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1192200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1069700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1019000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>910500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1242200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1147100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1065000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>959400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1171800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5248000</v>
+        <v>6121500</v>
       </c>
       <c r="E76" s="3">
-        <v>4957700</v>
+        <v>5903900</v>
       </c>
       <c r="F76" s="3">
-        <v>4703900</v>
+        <v>5577400</v>
       </c>
       <c r="G76" s="3">
-        <v>4729800</v>
+        <v>5291900</v>
       </c>
       <c r="H76" s="3">
-        <v>4526600</v>
+        <v>5321000</v>
       </c>
       <c r="I76" s="3">
-        <v>4405500</v>
+        <v>5092500</v>
       </c>
       <c r="J76" s="3">
+        <v>4956200</v>
+      </c>
+      <c r="K76" s="3">
         <v>4278500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4136200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4212500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4437800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4225600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4480800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4656600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4681900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4291200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4196300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3997200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4054600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3971900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4565400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>4465000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>4386200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>4257500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>4360000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>4308300</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>380300</v>
+        <v>436700</v>
       </c>
       <c r="E81" s="3">
-        <v>483300</v>
+        <v>427900</v>
       </c>
       <c r="F81" s="3">
-        <v>326700</v>
+        <v>543700</v>
       </c>
       <c r="G81" s="3">
-        <v>317900</v>
+        <v>367600</v>
       </c>
       <c r="H81" s="3">
-        <v>206300</v>
+        <v>357600</v>
       </c>
       <c r="I81" s="3">
-        <v>181900</v>
+        <v>232100</v>
       </c>
       <c r="J81" s="3">
+        <v>204600</v>
+      </c>
+      <c r="K81" s="3">
         <v>182000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>140200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>102400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>138500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>162900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>186900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>207000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>265100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>132000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>205100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>158900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>208100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>182600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>209300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>196800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>234900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>205800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>187300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,79 +6210,80 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>24400</v>
+        <v>26900</v>
       </c>
       <c r="E83" s="3">
-        <v>23600</v>
+        <v>27500</v>
       </c>
       <c r="F83" s="3">
-        <v>22300</v>
+        <v>26600</v>
       </c>
       <c r="G83" s="3">
-        <v>22200</v>
+        <v>25100</v>
       </c>
       <c r="H83" s="3">
-        <v>21500</v>
+        <v>24900</v>
       </c>
       <c r="I83" s="3">
-        <v>21400</v>
+        <v>24200</v>
       </c>
       <c r="J83" s="3">
+        <v>24100</v>
+      </c>
+      <c r="K83" s="3">
         <v>20900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>35500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>21900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>22000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>23700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>23400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>24100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>22400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>12400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>11700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>11900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>11700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>13300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>13200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>12700</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>12600</v>
       </c>
       <c r="AA83" s="3">
         <v>12600</v>
@@ -6093,8 +6291,11 @@
       <c r="AB83" s="3">
         <v>12600</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>44200</v>
+        <v>1382900</v>
       </c>
       <c r="E89" s="3">
-        <v>-126100</v>
+        <v>49700</v>
       </c>
       <c r="F89" s="3">
-        <v>-1520900</v>
+        <v>-141900</v>
       </c>
       <c r="G89" s="3">
-        <v>787200</v>
+        <v>-1711000</v>
       </c>
       <c r="H89" s="3">
-        <v>2694100</v>
+        <v>885600</v>
       </c>
       <c r="I89" s="3">
-        <v>1952600</v>
+        <v>3030800</v>
       </c>
       <c r="J89" s="3">
+        <v>2196700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-2712800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>767600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>305800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-843300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>291100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1097500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>66100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-970600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1334400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-614600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-434900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-266200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>136000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>703800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>250800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>435500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>179000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>398600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-193700</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6822,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="E91" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="F91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G91" s="3">
         <v>-400</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-300</v>
       </c>
       <c r="H91" s="3">
         <v>-400</v>
       </c>
       <c r="I91" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="J91" s="3">
         <v>-400</v>
       </c>
       <c r="K91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-16900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-15800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-23800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-8600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-12800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-10800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-10300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-10500</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>-6700</v>
       </c>
       <c r="Z91" s="3">
         <v>-6700</v>
       </c>
       <c r="AA91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-12200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7069,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-19900</v>
+        <v>-37700</v>
       </c>
       <c r="E94" s="3">
-        <v>-17300</v>
+        <v>-22400</v>
       </c>
       <c r="F94" s="3">
-        <v>-10700</v>
+        <v>-19500</v>
       </c>
       <c r="G94" s="3">
-        <v>-70300</v>
+        <v>-12000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1480300</v>
+        <v>-79100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1661700</v>
+        <v>-1665400</v>
       </c>
       <c r="J94" s="3">
+        <v>-1869400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-36000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>177700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>379100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>37600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-365700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-81200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-143800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>82600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-374100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>365300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>88000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-36700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>110800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-319300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-565800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-682600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-165900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>8300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>260000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6965,10 +7198,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-604600</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-680200</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -6977,11 +7210,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-246700</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -6989,11 +7222,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-417100</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -7001,11 +7234,11 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-463200</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -7013,11 +7246,11 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-478800</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
@@ -7025,16 +7258,19 @@
         <v>0</v>
       </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-502800</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7515,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-403200</v>
+        <v>668200</v>
       </c>
       <c r="E100" s="3">
-        <v>-354500</v>
+        <v>-453700</v>
       </c>
       <c r="F100" s="3">
-        <v>-749300</v>
+        <v>-398800</v>
       </c>
       <c r="G100" s="3">
-        <v>616300</v>
+        <v>-842900</v>
       </c>
       <c r="H100" s="3">
-        <v>-388100</v>
+        <v>693300</v>
       </c>
       <c r="I100" s="3">
-        <v>1093600</v>
+        <v>-436700</v>
       </c>
       <c r="J100" s="3">
+        <v>1230300</v>
+      </c>
+      <c r="K100" s="3">
         <v>185600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-188600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-941600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3176000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-140500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-231800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1168000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>919100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-701800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>575400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>283400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>152300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-199200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>237400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-152300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>17700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>92300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-55300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>329700</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>136300</v>
+        <v>-260800</v>
       </c>
       <c r="E101" s="3">
-        <v>379900</v>
+        <v>153400</v>
       </c>
       <c r="F101" s="3">
-        <v>-241900</v>
+        <v>427400</v>
       </c>
       <c r="G101" s="3">
-        <v>110100</v>
+        <v>-272100</v>
       </c>
       <c r="H101" s="3">
-        <v>175100</v>
+        <v>123800</v>
       </c>
       <c r="I101" s="3">
-        <v>62700</v>
+        <v>197000</v>
       </c>
       <c r="J101" s="3">
+        <v>70600</v>
+      </c>
+      <c r="K101" s="3">
         <v>16100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-98500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-69700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>99400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>40800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-14300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>56700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-6700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>11300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>34800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>36400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>86400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-10300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-34600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-12900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>10300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-19200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>14300</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-242600</v>
+        <v>1752700</v>
       </c>
       <c r="E102" s="3">
-        <v>-118100</v>
+        <v>-272900</v>
       </c>
       <c r="F102" s="3">
-        <v>-2522700</v>
+        <v>-132800</v>
       </c>
       <c r="G102" s="3">
-        <v>1443200</v>
+        <v>-2838000</v>
       </c>
       <c r="H102" s="3">
-        <v>1000700</v>
+        <v>1623600</v>
       </c>
       <c r="I102" s="3">
-        <v>1447200</v>
+        <v>1125800</v>
       </c>
       <c r="J102" s="3">
+        <v>1628100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2547200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>682100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-351400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2469700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-174300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>770200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1147000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>26200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>268000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>360800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-27200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-64200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>37300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>587400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-480200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-219200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>86200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>365900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>383400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BCH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>BCH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,205 +665,210 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1260700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1426700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1549700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1560300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1053000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1093100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>679600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>615600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>546000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>574300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>418300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>546600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>659600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>724200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>693200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>829400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>559900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>667200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>630400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>634800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>601400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>705400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>579000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>809800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>671400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>702900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>721300</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -945,8 +950,11 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,8 +1036,11 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1070,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1142,8 +1154,11 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,8 +1240,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1308,82 +1326,85 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="E15" s="3">
         <v>-26900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-27500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-26600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-25100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-24900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-24200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-24100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-20900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-20500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-21800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-21900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-22000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-23700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-23400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-24100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-22400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-12400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-11700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-11900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-11700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-13300</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>-13200</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>-12700</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>-12600</v>
       </c>
       <c r="AB15" s="3">
         <v>-12600</v>
@@ -1391,8 +1412,11 @@
       <c r="AC15" s="3">
         <v>-12600</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>-12600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1443,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>822000</v>
+      </c>
+      <c r="E17" s="3">
         <v>911000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>888400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>835700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>468400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>621200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>330200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>284300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>231800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>280000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>181600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>317400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>392900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>389200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>355500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>417900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>284500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>314000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>335700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>280000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>287100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>323900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>236400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>425600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>318000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>372400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>352500</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>438800</v>
+      </c>
+      <c r="E18" s="3">
         <v>515700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>661200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>724600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>584600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>471900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>349400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>331200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>314200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>294300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>236600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>229100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>266700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>335000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>337700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>411500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>275400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>353200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>294600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>354800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>314300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>381500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>342700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>384200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>353400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>330400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>368900</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,174 +1647,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E20" s="3">
         <v>8000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-140400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-88500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-141900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-53100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-56000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-75600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-86600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-118700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-98600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-52100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-65500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-90600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-75300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-78200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-98900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-67600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-95300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-105400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-95600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-125500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-110000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-104600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-105900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-114200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-116200</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>449000</v>
+      </c>
+      <c r="E21" s="3">
         <v>550700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>548300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>662600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>467800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>443800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>317700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>279800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>248500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>196100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>159800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>198900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>223200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>268100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>285800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>357400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>198800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>298000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>211000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>261300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>230500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>269300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>245900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>292300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>260100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>228900</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>265300</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1865,174 +1903,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>420300</v>
+      </c>
+      <c r="E23" s="3">
         <v>523800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>520800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>636000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>442700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>418800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>293500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>255700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>227600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>175500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>138100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>177000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>201300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>244500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>262400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>333300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>176400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>285600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>199300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>249400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>218700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>256000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>232700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>279600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>247600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>216200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>252700</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>85200</v>
+      </c>
+      <c r="E24" s="3">
         <v>87000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>93000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>92300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>75200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>61200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>61300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>51100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>45600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>35400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>35700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>38500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>38400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>57600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>55400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>68200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>44400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>80500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>40400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>41300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>36100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>46700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>35900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>44700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>41800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>28900</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2161,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>335100</v>
+      </c>
+      <c r="E26" s="3">
         <v>436700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>427900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>543700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>367600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>357600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>232100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>204600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>182000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>140200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>102400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>138500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>162900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>186900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>207000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>265100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>132000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>205100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>158900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>208100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>182600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>209300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>196800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>234900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>205800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>187300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>335100</v>
+      </c>
+      <c r="E27" s="3">
         <v>436700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>427900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>543700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>367600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>357600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>232100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>204600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>182000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>140200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>102400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>138500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>162900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>186900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>207000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>265100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>132000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>205100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>158900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>208100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>182600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>209300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>196800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>234900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>205800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>187300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2419,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2505,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2591,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2677,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-8000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>140400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>88500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>141900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>53100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>56000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>75600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>86600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>118700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>98600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>52100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>65500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>90600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>75300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>78200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>98900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>67600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>95300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>105400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>95600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>125500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>110000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>104600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>105900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>114200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>116200</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>335100</v>
+      </c>
+      <c r="E33" s="3">
         <v>436700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>427900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>543700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>367600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>357600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>232100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>204600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>182000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>140200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>102400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>138500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>162900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>186900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>207000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>265100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>132000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>205100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>158900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>208100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>182600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>209300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>196800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>234900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>205800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>187300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2935,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>335100</v>
+      </c>
+      <c r="E35" s="3">
         <v>436700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>427900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>543700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>367600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>357600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>232100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>204600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>182000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>140200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>102400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>138500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>162900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>186900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>207000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>265100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>132000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>205100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>158900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>208100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>182600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>209300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>196800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>234900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>205800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>187300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3146,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,174 +3178,181 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4417800</v>
+      </c>
+      <c r="E41" s="3">
         <v>5390500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6407700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5933200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8932200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5953300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4933500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6673400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7094900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5304700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4583300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4216200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4060100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3546400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3694500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4361500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3350700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3583100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3428900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3538600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2836400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2891200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3077300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2958500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3387100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3523000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>3447400</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5219700</v>
+      </c>
+      <c r="E42" s="3">
         <v>6558500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>4754000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>5604400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2295700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>10104000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>9670400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>8244600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>5799000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>9616000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>9453500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>11532500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>9205000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>7778400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>6750600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>4533900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>4327400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>4432300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>4120600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3732800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>4057800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>4892500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>3759300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>4831100</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>4779700</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>4568200</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>4469300</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3343,8 +3434,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,8 +3520,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3509,8 +3606,11 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3592,257 +3692,269 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E47" s="3">
         <v>78400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>75300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>72000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>68500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>62000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>60600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>54900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>49300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>49600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>56800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>63600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>62600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>64500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>66900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>65800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>59400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>56600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>55000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>53200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>49900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>55900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>53600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>51200</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>50200</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>49200</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>401500</v>
+      </c>
+      <c r="E48" s="3">
         <v>399600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>407100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>414300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>411000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>422100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>427700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>436100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>395700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>388000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>417600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>459900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>456900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>487800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>526400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>536200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>506100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>291900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>285700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>290400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>289800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>338900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>338500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>338100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>340900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>353000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>350300</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>138800</v>
+      </c>
+      <c r="E49" s="3">
         <v>134300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>109500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>100500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>91600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>91400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>86200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>84200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>70000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>67400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>69700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>73700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>69900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>74000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>74500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>75100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>68900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>66100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>60000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>58300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>53500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>57400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>49900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>45000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>44100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>44300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4036,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4122,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>684200</v>
+      </c>
+      <c r="E52" s="3">
         <v>693500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>673500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>636200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>585500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>553400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>488000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>481100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>396100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>397300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>386700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>402000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>376800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>407600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>429800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>441500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>359500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>353000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>331800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>333300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>339900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>393100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>436900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>435600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>433600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>425400</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4294,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>69233700</v>
+      </c>
+      <c r="E54" s="3">
         <v>69621800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>69065000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>68423500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>62982300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>65145100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>62015200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>59618500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>50383600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>51165600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>52582700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>57216900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>53308100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>52417100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>53648400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>51411400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>46920100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>45626600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>43505300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>43981900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>42552000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>48251600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>46956400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>47447700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>46794000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>47615900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>46838400</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4414,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,257 +4446,267 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1419100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1508900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1093700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1314500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1242900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>857900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>720900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1258300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1192300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1748400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1419500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>981800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>835500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>741200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>892200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1324600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1014300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>650700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>855600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>770600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>834400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>714200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>723800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1213600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>773100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>515500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>680800</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7907200</v>
+      </c>
+      <c r="E58" s="3">
         <v>4053200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3617100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3360500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2278500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4225500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4422900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4534600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4097700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2679200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2580000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3428900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3912700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3974500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4593000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4598600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3662400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3931500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3540700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3309200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3137700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3693500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3661200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3726400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3443200</v>
       </c>
-      <c r="AB58" s="3">
-        <v>0</v>
-      </c>
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>186200</v>
+      </c>
+      <c r="E59" s="3">
         <v>672600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>492100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>367000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>311900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>557100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>396400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>218000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>84900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>249600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>203300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>154200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>153700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>480300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>385800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>309200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>120800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>415800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>277700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>202400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>99500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>466800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>352500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>235000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>110600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>432900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>339800</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4650,174 +4788,183 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>12689200</v>
+      </c>
+      <c r="E61" s="3">
         <v>16517800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>16136100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>16283900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>15891900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>14430100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>13270600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>13378800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10593500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11594300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>12603900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>13852000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9816300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9979800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10302500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9268000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8462600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>8024500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7630200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7685300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7531900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>8090800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>7957500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>8136900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>8411800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>11180300</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>11255500</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1133700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1186700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1150100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1075400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>986300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>912400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>826600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>740200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>587600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>570100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>488400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>554900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>429400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>487900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>502900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>494600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>440400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>463200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>439600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>454100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>458700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>563000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>590800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>576700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>553100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>569000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>589100</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5046,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5132,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5218,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>63308200</v>
+      </c>
+      <c r="E66" s="3">
         <v>63500300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>63161000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>62846100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>57690400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>59824100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>56922800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>54662200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>46105100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>47029400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>48370200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>52779000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>49082500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>47936300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>48991800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>46729600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>42628800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>41430300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>39508100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>39927200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>38580100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>43686200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>42491400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>43061400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>42536500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>43255900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>42530100</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5338,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5422,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5508,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5594,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5680,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2909900</v>
+      </c>
+      <c r="E72" s="3">
         <v>3197900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2913800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2629200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2245500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2270000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2030400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1953600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1645400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1528800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1517700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1582900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1448400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1507000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1523300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1428200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1203600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1192200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1069700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1019000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>910500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1242200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1147100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1065000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>959400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1171800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5852,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5938,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6024,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5925500</v>
+      </c>
+      <c r="E76" s="3">
         <v>6121500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5903900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5577400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5291900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5321000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5092500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4956200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4278500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4136200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4212500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4437800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4225600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4480800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4656600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4681900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4291200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4196300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3997200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4054600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3971900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>4565400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>4465000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>4386200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>4257500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>4360000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>4308300</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6196,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>335100</v>
+      </c>
+      <c r="E81" s="3">
         <v>436700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>427900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>543700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>367600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>357600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>232100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>204600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>182000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>140200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>102400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>138500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>162900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>186900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>207000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>265100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>132000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>205100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>158900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>208100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>182600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>209300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>196800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>234900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>205800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>187300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,82 +6407,83 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E83" s="3">
         <v>26900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>27500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>26600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>25100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>24900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>24200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>24100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>20900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>35500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>21900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>22000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>23700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>23400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>24100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>22400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>12400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>11700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>11900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>11700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>13300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>13200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>12700</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>12600</v>
       </c>
       <c r="AB83" s="3">
         <v>12600</v>
@@ -6294,8 +6491,11 @@
       <c r="AC83" s="3">
         <v>12600</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6577,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6663,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6749,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6835,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6921,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-592200</v>
+      </c>
+      <c r="E89" s="3">
         <v>1382900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>49700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-141900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1711000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>885600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3030800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2196700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2712800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>767600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>305800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-843300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>291100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1097500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>66100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-970600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1334400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-614600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-434900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-266200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>136000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>703800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>250800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>435500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>179000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>398600</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-193700</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7041,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-900</v>
+        <v>-16770000</v>
       </c>
       <c r="E91" s="3">
-        <v>-900</v>
+        <v>-33219000</v>
       </c>
       <c r="F91" s="3">
-        <v>-900</v>
+        <v>-18302000</v>
       </c>
       <c r="G91" s="3">
-        <v>-400</v>
+        <v>-17061000</v>
       </c>
       <c r="H91" s="3">
-        <v>-400</v>
+        <v>-9558000</v>
       </c>
       <c r="I91" s="3">
-        <v>-500</v>
+        <v>-16086000</v>
       </c>
       <c r="J91" s="3">
-        <v>-400</v>
+        <v>-16424000</v>
       </c>
       <c r="K91" s="3">
         <v>-400</v>
       </c>
       <c r="L91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-16900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-15800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-23800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-8600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-12800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-10800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-10300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-10500</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>-6700</v>
       </c>
       <c r="AA91" s="3">
         <v>-6700</v>
       </c>
       <c r="AB91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-12200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7211,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7297,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-37700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-22400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-19500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-12000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-79100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1665400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1869400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-36000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>177700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>379100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>37600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-365700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-81200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-143800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>82600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-374100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>365300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>88000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-36700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>110800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-319300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-565800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-682600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-165900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>8300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>260000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,13 +7417,14 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-1092300</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -7201,11 +7433,11 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-680200</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -7213,11 +7445,11 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-246700</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -7225,11 +7457,11 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-417100</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -7237,11 +7469,11 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-463200</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
@@ -7249,11 +7481,11 @@
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-478800</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
         <v>0</v>
       </c>
@@ -7261,16 +7493,19 @@
         <v>0</v>
       </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-502800</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7587,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7673,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,253 +7759,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1034200</v>
+      </c>
+      <c r="E100" s="3">
         <v>668200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-453700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-398800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-842900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>693300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-436700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1230300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>185600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-188600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-941600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3176000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-140500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-231800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1168000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>919100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-701800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>575400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>283400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>152300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-199200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>237400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-152300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>17700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>92300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-55300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>329700</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-151400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-260800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>153400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>427400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-272100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>123800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>197000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>70600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>16100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-98500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-69700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>99400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>40800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-14300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>56700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-6700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>11300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>34800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>36400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>86400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-10300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-34600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-12900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>10300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-19200</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>14300</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1798900</v>
+      </c>
+      <c r="E102" s="3">
         <v>1752700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-272900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-132800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2838000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1623600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1125800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1628100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2547200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>682100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-351400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2469700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-174300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>770200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1147000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>26200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>268000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>360800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-27200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-64200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>37300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>587400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-480200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-219200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>86200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>365900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>383400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BCH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>BCH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,210 +665,216 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1260700</v>
+        <v>1229000</v>
       </c>
       <c r="E8" s="3">
-        <v>1426700</v>
+        <v>1170700</v>
       </c>
       <c r="F8" s="3">
-        <v>1549700</v>
+        <v>1324800</v>
       </c>
       <c r="G8" s="3">
-        <v>1560300</v>
+        <v>1439000</v>
       </c>
       <c r="H8" s="3">
-        <v>1053000</v>
+        <v>1448800</v>
       </c>
       <c r="I8" s="3">
-        <v>1093100</v>
+        <v>977800</v>
       </c>
       <c r="J8" s="3">
+        <v>1015000</v>
+      </c>
+      <c r="K8" s="3">
         <v>679600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>615600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>546000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>574300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>418300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>546600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>659600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>724200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>693200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>829400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>559900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>667200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>630400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>634800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>601400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>705400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>579000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>809800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>671400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>702900</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>721300</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -953,8 +959,11 @@
       <c r="AD9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1039,8 +1048,11 @@
       <c r="AD10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1071,8 +1083,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1157,8 +1170,11 @@
       <c r="AD12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1243,8 +1259,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1329,85 +1348,88 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-28700</v>
+        <v>-27500</v>
       </c>
       <c r="E15" s="3">
-        <v>-26900</v>
+        <v>-26600</v>
       </c>
       <c r="F15" s="3">
-        <v>-27500</v>
+        <v>-25000</v>
       </c>
       <c r="G15" s="3">
-        <v>-26600</v>
+        <v>-25500</v>
       </c>
       <c r="H15" s="3">
-        <v>-25100</v>
+        <v>-24700</v>
       </c>
       <c r="I15" s="3">
-        <v>-24900</v>
+        <v>-23300</v>
       </c>
       <c r="J15" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="K15" s="3">
         <v>-24200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-24100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-20900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-20500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-21800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-21900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-22000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-23700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-23400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-24100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-22400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-12400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-11700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-11900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-11700</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>-13300</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>-13200</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>-12700</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>-12600</v>
       </c>
       <c r="AC15" s="3">
         <v>-12600</v>
@@ -1415,8 +1437,11 @@
       <c r="AD15" s="3">
         <v>-12600</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>-12600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1444,180 +1469,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>822000</v>
+        <v>764400</v>
       </c>
       <c r="E17" s="3">
-        <v>911000</v>
+        <v>763200</v>
       </c>
       <c r="F17" s="3">
-        <v>888400</v>
+        <v>845900</v>
       </c>
       <c r="G17" s="3">
-        <v>835700</v>
+        <v>825000</v>
       </c>
       <c r="H17" s="3">
-        <v>468400</v>
+        <v>776000</v>
       </c>
       <c r="I17" s="3">
-        <v>621200</v>
+        <v>435000</v>
       </c>
       <c r="J17" s="3">
+        <v>576800</v>
+      </c>
+      <c r="K17" s="3">
         <v>330200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>284300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>231800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>280000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>181600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>317400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>392900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>389200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>355500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>417900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>284500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>314000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>335700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>280000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>287100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>323900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>236400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>425600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>318000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>372400</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>352500</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>438800</v>
+        <v>464700</v>
       </c>
       <c r="E18" s="3">
-        <v>515700</v>
+        <v>407400</v>
       </c>
       <c r="F18" s="3">
-        <v>661200</v>
+        <v>478900</v>
       </c>
       <c r="G18" s="3">
-        <v>724600</v>
+        <v>614000</v>
       </c>
       <c r="H18" s="3">
-        <v>584600</v>
+        <v>672800</v>
       </c>
       <c r="I18" s="3">
-        <v>471900</v>
+        <v>542800</v>
       </c>
       <c r="J18" s="3">
+        <v>438200</v>
+      </c>
+      <c r="K18" s="3">
         <v>349400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>331200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>314200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>294300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>236600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>229100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>266700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>335000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>337700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>411500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>275400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>353200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>294600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>354800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>314300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>381500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>342700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>384200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>353400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>330400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>368900</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1648,180 +1680,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-18500</v>
+        <v>22100</v>
       </c>
       <c r="E20" s="3">
-        <v>8000</v>
+        <v>-17200</v>
       </c>
       <c r="F20" s="3">
-        <v>-140400</v>
+        <v>7500</v>
       </c>
       <c r="G20" s="3">
-        <v>-88500</v>
+        <v>-130400</v>
       </c>
       <c r="H20" s="3">
-        <v>-141900</v>
+        <v>-82200</v>
       </c>
       <c r="I20" s="3">
-        <v>-53100</v>
+        <v>-131700</v>
       </c>
       <c r="J20" s="3">
+        <v>-49300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-56000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-75600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-86600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-118700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-98600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-52100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-65500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-90600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-75300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-78200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-98900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-67600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-95300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-105400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-95600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-125500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-110000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-104600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-105900</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-114200</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-116200</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>449000</v>
+        <v>514300</v>
       </c>
       <c r="E21" s="3">
-        <v>550700</v>
+        <v>416900</v>
       </c>
       <c r="F21" s="3">
-        <v>548300</v>
+        <v>511400</v>
       </c>
       <c r="G21" s="3">
-        <v>662600</v>
+        <v>509100</v>
       </c>
       <c r="H21" s="3">
-        <v>467800</v>
+        <v>615300</v>
       </c>
       <c r="I21" s="3">
-        <v>443800</v>
+        <v>434400</v>
       </c>
       <c r="J21" s="3">
+        <v>412100</v>
+      </c>
+      <c r="K21" s="3">
         <v>317700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>279800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>248500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>196100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>159800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>198900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>223200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>268100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>285800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>357400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>198800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>298000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>211000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>261300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>230500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>269300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>245900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>292300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>260100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>228900</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>265300</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1906,180 +1945,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>420300</v>
+        <v>486800</v>
       </c>
       <c r="E23" s="3">
-        <v>523800</v>
+        <v>390300</v>
       </c>
       <c r="F23" s="3">
-        <v>520800</v>
+        <v>486300</v>
       </c>
       <c r="G23" s="3">
-        <v>636000</v>
+        <v>483600</v>
       </c>
       <c r="H23" s="3">
-        <v>442700</v>
+        <v>590600</v>
       </c>
       <c r="I23" s="3">
-        <v>418800</v>
+        <v>411100</v>
       </c>
       <c r="J23" s="3">
+        <v>388900</v>
+      </c>
+      <c r="K23" s="3">
         <v>293500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>255700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>227600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>175500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>138100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>177000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>201300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>244500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>262400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>333300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>176400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>285600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>199300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>249400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>218700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>256000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>232700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>279600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>247600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>216200</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>252700</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>85200</v>
+        <v>98200</v>
       </c>
       <c r="E24" s="3">
-        <v>87000</v>
+        <v>79100</v>
       </c>
       <c r="F24" s="3">
-        <v>93000</v>
+        <v>80800</v>
       </c>
       <c r="G24" s="3">
-        <v>92300</v>
+        <v>86300</v>
       </c>
       <c r="H24" s="3">
-        <v>75200</v>
+        <v>85700</v>
       </c>
       <c r="I24" s="3">
-        <v>61200</v>
+        <v>69800</v>
       </c>
       <c r="J24" s="3">
+        <v>56800</v>
+      </c>
+      <c r="K24" s="3">
         <v>61300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>51100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>45600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>35400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>35700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>38500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>38400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>57600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>55400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>68200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>44400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>80500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>40400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>41300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>36100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>46700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>35900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>44700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>41800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>28900</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2164,180 +2212,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>335100</v>
+        <v>388600</v>
       </c>
       <c r="E26" s="3">
-        <v>436700</v>
+        <v>311200</v>
       </c>
       <c r="F26" s="3">
-        <v>427900</v>
+        <v>405500</v>
       </c>
       <c r="G26" s="3">
-        <v>543700</v>
+        <v>397300</v>
       </c>
       <c r="H26" s="3">
-        <v>367600</v>
+        <v>504900</v>
       </c>
       <c r="I26" s="3">
-        <v>357600</v>
+        <v>341300</v>
       </c>
       <c r="J26" s="3">
+        <v>332100</v>
+      </c>
+      <c r="K26" s="3">
         <v>232100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>204600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>182000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>140200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>102400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>138500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>162900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>186900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>207000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>265100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>132000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>205100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>158900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>208100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>182600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>209300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>196800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>234900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>205800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>187300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>335100</v>
+        <v>388600</v>
       </c>
       <c r="E27" s="3">
-        <v>436700</v>
+        <v>311200</v>
       </c>
       <c r="F27" s="3">
-        <v>427900</v>
+        <v>405500</v>
       </c>
       <c r="G27" s="3">
-        <v>543700</v>
+        <v>397300</v>
       </c>
       <c r="H27" s="3">
-        <v>367600</v>
+        <v>504900</v>
       </c>
       <c r="I27" s="3">
-        <v>357600</v>
+        <v>341300</v>
       </c>
       <c r="J27" s="3">
+        <v>332100</v>
+      </c>
+      <c r="K27" s="3">
         <v>232100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>204600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>182000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>140200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>102400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>138500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>162900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>186900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>207000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>265100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>132000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>205100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>158900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>208100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>182600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>209300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>196800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>234900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>205800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>187300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2422,8 +2479,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2508,8 +2568,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2594,8 +2657,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2680,180 +2746,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>18500</v>
+        <v>-22100</v>
       </c>
       <c r="E32" s="3">
-        <v>-8000</v>
+        <v>17200</v>
       </c>
       <c r="F32" s="3">
-        <v>140400</v>
+        <v>-7500</v>
       </c>
       <c r="G32" s="3">
-        <v>88500</v>
+        <v>130400</v>
       </c>
       <c r="H32" s="3">
-        <v>141900</v>
+        <v>82200</v>
       </c>
       <c r="I32" s="3">
-        <v>53100</v>
+        <v>131700</v>
       </c>
       <c r="J32" s="3">
+        <v>49300</v>
+      </c>
+      <c r="K32" s="3">
         <v>56000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>75600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>86600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>118700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>98600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>52100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>65500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>90600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>75300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>78200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>98900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>67600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>95300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>105400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>95600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>125500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>110000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>104600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>105900</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>114200</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>116200</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>335100</v>
+        <v>388600</v>
       </c>
       <c r="E33" s="3">
-        <v>436700</v>
+        <v>311200</v>
       </c>
       <c r="F33" s="3">
-        <v>427900</v>
+        <v>405500</v>
       </c>
       <c r="G33" s="3">
-        <v>543700</v>
+        <v>397300</v>
       </c>
       <c r="H33" s="3">
-        <v>367600</v>
+        <v>504900</v>
       </c>
       <c r="I33" s="3">
-        <v>357600</v>
+        <v>341300</v>
       </c>
       <c r="J33" s="3">
+        <v>332100</v>
+      </c>
+      <c r="K33" s="3">
         <v>232100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>204600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>182000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>140200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>102400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>138500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>162900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>186900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>207000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>265100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>132000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>205100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>158900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>208100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>182600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>209300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>196800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>234900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>205800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>187300</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2938,185 +3013,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>335100</v>
+        <v>388600</v>
       </c>
       <c r="E35" s="3">
-        <v>436700</v>
+        <v>311200</v>
       </c>
       <c r="F35" s="3">
-        <v>427900</v>
+        <v>405500</v>
       </c>
       <c r="G35" s="3">
-        <v>543700</v>
+        <v>397300</v>
       </c>
       <c r="H35" s="3">
-        <v>367600</v>
+        <v>504900</v>
       </c>
       <c r="I35" s="3">
-        <v>357600</v>
+        <v>341300</v>
       </c>
       <c r="J35" s="3">
+        <v>332100</v>
+      </c>
+      <c r="K35" s="3">
         <v>232100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>204600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>182000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>140200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>102400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>138500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>162900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>186900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>207000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>265100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>132000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>205100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>158900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>208100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>182600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>209300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>196800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>234900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>205800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>187300</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3147,8 +3231,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3179,180 +3264,187 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4417800</v>
+        <v>5138800</v>
       </c>
       <c r="E41" s="3">
-        <v>5390500</v>
+        <v>4102200</v>
       </c>
       <c r="F41" s="3">
-        <v>6407700</v>
+        <v>5005500</v>
       </c>
       <c r="G41" s="3">
-        <v>5933200</v>
+        <v>5950000</v>
       </c>
       <c r="H41" s="3">
-        <v>8932200</v>
+        <v>5509400</v>
       </c>
       <c r="I41" s="3">
-        <v>5953300</v>
+        <v>8294200</v>
       </c>
       <c r="J41" s="3">
+        <v>5528100</v>
+      </c>
+      <c r="K41" s="3">
         <v>4933500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6673400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7094900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5304700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4583300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4216200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4060100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3546400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3694500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4361500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3350700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3583100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3428900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3538600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2836400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2891200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3077300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2958500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3387100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>3523000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>3447400</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5219700</v>
+        <v>5229100</v>
       </c>
       <c r="E42" s="3">
-        <v>6558500</v>
+        <v>4846900</v>
       </c>
       <c r="F42" s="3">
-        <v>4754000</v>
+        <v>6090100</v>
       </c>
       <c r="G42" s="3">
-        <v>5604400</v>
+        <v>4414400</v>
       </c>
       <c r="H42" s="3">
-        <v>2295700</v>
+        <v>5204000</v>
       </c>
       <c r="I42" s="3">
-        <v>10104000</v>
+        <v>2131800</v>
       </c>
       <c r="J42" s="3">
+        <v>9382300</v>
+      </c>
+      <c r="K42" s="3">
         <v>9670400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>8244600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>5799000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>9616000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>9453500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>11532500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>9205000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>7778400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>6750600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>4533900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>4327400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>4432300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>4120600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>3732800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>4057800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>4892500</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>3759300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>4831100</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>4779700</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>4568200</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>4469300</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3437,8 +3529,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3523,8 +3618,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3609,8 +3707,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3695,266 +3796,278 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>81000</v>
+        <v>75600</v>
       </c>
       <c r="E47" s="3">
-        <v>78400</v>
+        <v>75200</v>
       </c>
       <c r="F47" s="3">
-        <v>75300</v>
+        <v>72800</v>
       </c>
       <c r="G47" s="3">
-        <v>72000</v>
+        <v>69900</v>
       </c>
       <c r="H47" s="3">
-        <v>68500</v>
+        <v>66800</v>
       </c>
       <c r="I47" s="3">
-        <v>62000</v>
+        <v>63600</v>
       </c>
       <c r="J47" s="3">
+        <v>57500</v>
+      </c>
+      <c r="K47" s="3">
         <v>60600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>54900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>49300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>49600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>56800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>63600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>62600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>64500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>66900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>65800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>59400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>56600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>55000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>53200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>49900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>55900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>53600</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>51200</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>50200</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>49200</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>401500</v>
+        <v>364700</v>
       </c>
       <c r="E48" s="3">
-        <v>399600</v>
+        <v>372800</v>
       </c>
       <c r="F48" s="3">
-        <v>407100</v>
+        <v>371100</v>
       </c>
       <c r="G48" s="3">
-        <v>414300</v>
+        <v>378000</v>
       </c>
       <c r="H48" s="3">
-        <v>411000</v>
+        <v>384700</v>
       </c>
       <c r="I48" s="3">
-        <v>422100</v>
+        <v>381600</v>
       </c>
       <c r="J48" s="3">
+        <v>391900</v>
+      </c>
+      <c r="K48" s="3">
         <v>427700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>436100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>395700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>388000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>417600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>459900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>456900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>487800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>526400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>536200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>506100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>291900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>285700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>290400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>289800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>338900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>338500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>338100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>340900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>353000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>350300</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>138800</v>
+        <v>138900</v>
       </c>
       <c r="E49" s="3">
-        <v>134300</v>
+        <v>128900</v>
       </c>
       <c r="F49" s="3">
-        <v>109500</v>
+        <v>124700</v>
       </c>
       <c r="G49" s="3">
-        <v>100500</v>
+        <v>101700</v>
       </c>
       <c r="H49" s="3">
-        <v>91600</v>
+        <v>93300</v>
       </c>
       <c r="I49" s="3">
-        <v>91400</v>
+        <v>85000</v>
       </c>
       <c r="J49" s="3">
+        <v>84900</v>
+      </c>
+      <c r="K49" s="3">
         <v>86200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>84200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>70000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>67400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>69700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>73700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>69900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>74000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>74500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>75100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>68900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>66100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>60000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>58300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>53500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>57400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>49900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>45000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>44100</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>44300</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4039,8 +4152,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4125,94 +4241,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>684200</v>
+        <v>644500</v>
       </c>
       <c r="E52" s="3">
-        <v>693500</v>
+        <v>635300</v>
       </c>
       <c r="F52" s="3">
-        <v>673500</v>
+        <v>643900</v>
       </c>
       <c r="G52" s="3">
-        <v>636200</v>
+        <v>625400</v>
       </c>
       <c r="H52" s="3">
-        <v>585500</v>
+        <v>590700</v>
       </c>
       <c r="I52" s="3">
-        <v>553400</v>
+        <v>543700</v>
       </c>
       <c r="J52" s="3">
+        <v>513900</v>
+      </c>
+      <c r="K52" s="3">
         <v>488000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>481100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>396100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>397300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>386700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>402000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>376800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>407600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>429800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>441500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>359500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>353000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>331800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>333300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>339900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>393100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>436900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>435600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>433600</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>425400</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4297,94 +4419,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>69233700</v>
+        <v>63501200</v>
       </c>
       <c r="E54" s="3">
-        <v>69621800</v>
+        <v>64288400</v>
       </c>
       <c r="F54" s="3">
-        <v>69065000</v>
+        <v>64648800</v>
       </c>
       <c r="G54" s="3">
-        <v>68423500</v>
+        <v>64131700</v>
       </c>
       <c r="H54" s="3">
-        <v>62982300</v>
+        <v>63536100</v>
       </c>
       <c r="I54" s="3">
-        <v>65145100</v>
+        <v>58483500</v>
       </c>
       <c r="J54" s="3">
+        <v>60491900</v>
+      </c>
+      <c r="K54" s="3">
         <v>62015200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>59618500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>50383600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>51165600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>52582700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>57216900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>53308100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>52417100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>53648400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>51411400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>46920100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>45626600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>43505300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>43981900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>42552000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>48251600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>46956400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>47447700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>46794000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>47615900</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>46838400</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4415,8 +4543,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4447,266 +4576,276 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1419100</v>
+        <v>977900</v>
       </c>
       <c r="E57" s="3">
-        <v>1508900</v>
+        <v>1317800</v>
       </c>
       <c r="F57" s="3">
-        <v>1093700</v>
+        <v>1401100</v>
       </c>
       <c r="G57" s="3">
-        <v>1314500</v>
+        <v>1015600</v>
       </c>
       <c r="H57" s="3">
-        <v>1242900</v>
+        <v>1220600</v>
       </c>
       <c r="I57" s="3">
-        <v>857900</v>
+        <v>1154100</v>
       </c>
       <c r="J57" s="3">
+        <v>796700</v>
+      </c>
+      <c r="K57" s="3">
         <v>720900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1258300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1192300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1748400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1419500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>981800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>835500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>741200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>892200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1324600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1014300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>650700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>855600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>770600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>834400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>714200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>723800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1213600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>773100</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>515500</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>680800</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7907200</v>
+        <v>6684100</v>
       </c>
       <c r="E58" s="3">
-        <v>4053200</v>
+        <v>7342400</v>
       </c>
       <c r="F58" s="3">
-        <v>3617100</v>
+        <v>3763700</v>
       </c>
       <c r="G58" s="3">
-        <v>3360500</v>
+        <v>3358700</v>
       </c>
       <c r="H58" s="3">
-        <v>2278500</v>
+        <v>3120400</v>
       </c>
       <c r="I58" s="3">
-        <v>4225500</v>
+        <v>2115700</v>
       </c>
       <c r="J58" s="3">
+        <v>3923700</v>
+      </c>
+      <c r="K58" s="3">
         <v>4422900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4534600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4097700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2679200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2580000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3428900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3912700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3974500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4593000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4598600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3662400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3931500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3540700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3309200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3137700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3693500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3661200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3726400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>3443200</v>
       </c>
-      <c r="AC58" s="3">
-        <v>0</v>
-      </c>
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>186200</v>
+        <v>359100</v>
       </c>
       <c r="E59" s="3">
-        <v>672600</v>
+        <v>172900</v>
       </c>
       <c r="F59" s="3">
-        <v>492100</v>
+        <v>624600</v>
       </c>
       <c r="G59" s="3">
-        <v>367000</v>
+        <v>456900</v>
       </c>
       <c r="H59" s="3">
-        <v>311900</v>
+        <v>340800</v>
       </c>
       <c r="I59" s="3">
-        <v>557100</v>
+        <v>289600</v>
       </c>
       <c r="J59" s="3">
+        <v>517300</v>
+      </c>
+      <c r="K59" s="3">
         <v>396400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>218000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>84900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>249600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>203300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>154200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>153700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>480300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>385800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>309200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>120800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>415800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>277700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>202400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>99500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>466800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>352500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>235000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>110600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>432900</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>339800</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4791,180 +4930,189 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12689200</v>
+        <v>12080500</v>
       </c>
       <c r="E61" s="3">
-        <v>16517800</v>
+        <v>11782900</v>
       </c>
       <c r="F61" s="3">
-        <v>16136100</v>
+        <v>15338000</v>
       </c>
       <c r="G61" s="3">
-        <v>16283900</v>
+        <v>14983500</v>
       </c>
       <c r="H61" s="3">
-        <v>15891900</v>
+        <v>15120700</v>
       </c>
       <c r="I61" s="3">
-        <v>14430100</v>
+        <v>14756800</v>
       </c>
       <c r="J61" s="3">
+        <v>13399400</v>
+      </c>
+      <c r="K61" s="3">
         <v>13270600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13378800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10593500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>11594300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>12603900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>13852000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9816300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9979800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>10302500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9268000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>8462600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>8024500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7630200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7685300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>7531900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>8090800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>7957500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>8136900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>8411800</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>11180300</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>11255500</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1133700</v>
+        <v>1068000</v>
       </c>
       <c r="E62" s="3">
-        <v>1186700</v>
+        <v>1052700</v>
       </c>
       <c r="F62" s="3">
-        <v>1150100</v>
+        <v>1101900</v>
       </c>
       <c r="G62" s="3">
-        <v>1075400</v>
+        <v>1068000</v>
       </c>
       <c r="H62" s="3">
-        <v>986300</v>
+        <v>998600</v>
       </c>
       <c r="I62" s="3">
-        <v>912400</v>
+        <v>915900</v>
       </c>
       <c r="J62" s="3">
+        <v>847200</v>
+      </c>
+      <c r="K62" s="3">
         <v>826600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>740200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>587600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>570100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>488400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>554900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>429400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>487900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>502900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>494600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>440400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>463200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>439600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>454100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>458700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>563000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>590800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>576700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>553100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>569000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>589100</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5049,8 +5197,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5135,8 +5286,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5221,94 +5375,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>63308200</v>
+        <v>57801000</v>
       </c>
       <c r="E66" s="3">
-        <v>63500300</v>
+        <v>58786200</v>
       </c>
       <c r="F66" s="3">
-        <v>63161000</v>
+        <v>58964500</v>
       </c>
       <c r="G66" s="3">
-        <v>62846100</v>
+        <v>58649500</v>
       </c>
       <c r="H66" s="3">
-        <v>57690400</v>
+        <v>58357100</v>
       </c>
       <c r="I66" s="3">
-        <v>59824100</v>
+        <v>53569600</v>
       </c>
       <c r="J66" s="3">
+        <v>55550900</v>
+      </c>
+      <c r="K66" s="3">
         <v>56922800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>54662200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>46105100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>47029400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>48370200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>52779000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>49082500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>47936300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>48991800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>46729600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>42628800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>41430300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>39508100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>39927200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>38580100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>43686200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>42491400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>43061400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>42536500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>43255900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>42530100</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5339,8 +5499,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5425,8 +5586,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5511,8 +5675,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5597,8 +5764,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5683,94 +5853,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2909900</v>
+        <v>2909000</v>
       </c>
       <c r="E72" s="3">
-        <v>3197900</v>
+        <v>2702100</v>
       </c>
       <c r="F72" s="3">
-        <v>2913800</v>
+        <v>2969500</v>
       </c>
       <c r="G72" s="3">
-        <v>2629200</v>
+        <v>2705700</v>
       </c>
       <c r="H72" s="3">
-        <v>2245500</v>
+        <v>2441400</v>
       </c>
       <c r="I72" s="3">
-        <v>2270000</v>
+        <v>2085100</v>
       </c>
       <c r="J72" s="3">
+        <v>2107900</v>
+      </c>
+      <c r="K72" s="3">
         <v>2030400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1953600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1645400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1528800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1517700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1582900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1448400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1507000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1523300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1428200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1203600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1192200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1069700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1019000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>910500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1242200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1147100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1065000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>959400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1171800</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5855,8 +6031,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5941,8 +6120,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6027,94 +6209,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5925500</v>
+        <v>5700200</v>
       </c>
       <c r="E76" s="3">
-        <v>6121500</v>
+        <v>5502300</v>
       </c>
       <c r="F76" s="3">
-        <v>5903900</v>
+        <v>5684200</v>
       </c>
       <c r="G76" s="3">
-        <v>5577400</v>
+        <v>5482200</v>
       </c>
       <c r="H76" s="3">
-        <v>5291900</v>
+        <v>5179000</v>
       </c>
       <c r="I76" s="3">
-        <v>5321000</v>
+        <v>4913900</v>
       </c>
       <c r="J76" s="3">
+        <v>4940900</v>
+      </c>
+      <c r="K76" s="3">
         <v>5092500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4956200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4278500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4136200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4212500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4437800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4225600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4480800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4656600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4681900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4291200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4196300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3997200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4054600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3971900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>4565400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>4465000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>4386200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>4257500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>4360000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>4308300</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6199,185 +6387,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>335100</v>
+        <v>388600</v>
       </c>
       <c r="E81" s="3">
-        <v>436700</v>
+        <v>311200</v>
       </c>
       <c r="F81" s="3">
-        <v>427900</v>
+        <v>405500</v>
       </c>
       <c r="G81" s="3">
-        <v>543700</v>
+        <v>397300</v>
       </c>
       <c r="H81" s="3">
-        <v>367600</v>
+        <v>504900</v>
       </c>
       <c r="I81" s="3">
-        <v>357600</v>
+        <v>341300</v>
       </c>
       <c r="J81" s="3">
+        <v>332100</v>
+      </c>
+      <c r="K81" s="3">
         <v>232100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>204600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>182000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>140200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>102400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>138500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>162900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>186900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>207000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>265100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>132000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>205100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>158900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>208100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>182600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>209300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>196800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>234900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>205800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>187300</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6408,85 +6605,86 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>28700</v>
+        <v>27500</v>
       </c>
       <c r="E83" s="3">
-        <v>26900</v>
+        <v>26600</v>
       </c>
       <c r="F83" s="3">
-        <v>27500</v>
+        <v>25000</v>
       </c>
       <c r="G83" s="3">
-        <v>26600</v>
+        <v>25500</v>
       </c>
       <c r="H83" s="3">
-        <v>25100</v>
+        <v>24700</v>
       </c>
       <c r="I83" s="3">
-        <v>24900</v>
+        <v>23300</v>
       </c>
       <c r="J83" s="3">
+        <v>23200</v>
+      </c>
+      <c r="K83" s="3">
         <v>24200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>24100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>20900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>35500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>21900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>22000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>23700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>23400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>24100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>22400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>12400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>11700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>11900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>11700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>13300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>13200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>12700</v>
-      </c>
-      <c r="AB83" s="3">
-        <v>12600</v>
       </c>
       <c r="AC83" s="3">
         <v>12600</v>
@@ -6494,8 +6692,11 @@
       <c r="AD83" s="3">
         <v>12600</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6580,8 +6781,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6666,8 +6870,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6752,8 +6959,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6838,8 +7048,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6924,94 +7137,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-592200</v>
+        <v>-8000</v>
       </c>
       <c r="E89" s="3">
-        <v>1382900</v>
+        <v>-549900</v>
       </c>
       <c r="F89" s="3">
-        <v>49700</v>
+        <v>1284100</v>
       </c>
       <c r="G89" s="3">
-        <v>-141900</v>
+        <v>46200</v>
       </c>
       <c r="H89" s="3">
-        <v>-1711000</v>
+        <v>-131800</v>
       </c>
       <c r="I89" s="3">
-        <v>885600</v>
+        <v>-1588800</v>
       </c>
       <c r="J89" s="3">
+        <v>822300</v>
+      </c>
+      <c r="K89" s="3">
         <v>3030800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2196700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2712800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>767600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>305800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-843300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>291100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1097500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>66100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-970600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1334400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-614600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-434900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-266200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>136000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>703800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>250800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>435500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>179000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>398600</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-193700</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7042,94 +7261,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-23634000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-16770000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-33219000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-18302000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-17061000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9558000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-16086000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-16424000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-400</v>
       </c>
       <c r="L91" s="3">
         <v>-400</v>
       </c>
       <c r="M91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-16900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-15800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-23800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-8600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-12800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-10800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-10300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-10500</v>
-      </c>
-      <c r="AA91" s="3">
-        <v>-6700</v>
       </c>
       <c r="AB91" s="3">
         <v>-6700</v>
       </c>
       <c r="AC91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="AD91" s="3">
         <v>-12200</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7214,8 +7437,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7300,94 +7526,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-21100</v>
+        <v>-19800</v>
       </c>
       <c r="E94" s="3">
-        <v>-37700</v>
+        <v>-19600</v>
       </c>
       <c r="F94" s="3">
-        <v>-22400</v>
+        <v>-35000</v>
       </c>
       <c r="G94" s="3">
-        <v>-19500</v>
+        <v>-21200</v>
       </c>
       <c r="H94" s="3">
-        <v>-12000</v>
+        <v>-17600</v>
       </c>
       <c r="I94" s="3">
-        <v>-79100</v>
+        <v>-11100</v>
       </c>
       <c r="J94" s="3">
+        <v>-73500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1665400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1869400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-36000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>177700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>379100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>37600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-365700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-81200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-143800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>82600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-374100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>365300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>88000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-36700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>110800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-319300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-565800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-682600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-165900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>8300</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>260000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7418,16 +7650,17 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1092300</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-1014300</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -7436,10 +7669,10 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-680200</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-631600</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -7448,11 +7681,11 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-246700</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -7460,11 +7693,11 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-417100</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -7472,11 +7705,11 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-463200</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
@@ -7484,11 +7717,11 @@
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-478800</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
         <v>0</v>
       </c>
@@ -7496,16 +7729,19 @@
         <v>0</v>
       </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-502800</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7590,8 +7826,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7676,8 +7915,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7762,262 +8004,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1034200</v>
+        <v>-20500</v>
       </c>
       <c r="E100" s="3">
-        <v>668200</v>
+        <v>-960400</v>
       </c>
       <c r="F100" s="3">
-        <v>-453700</v>
+        <v>620500</v>
       </c>
       <c r="G100" s="3">
-        <v>-398800</v>
+        <v>-421300</v>
       </c>
       <c r="H100" s="3">
-        <v>-842900</v>
+        <v>-370300</v>
       </c>
       <c r="I100" s="3">
-        <v>693300</v>
+        <v>-782700</v>
       </c>
       <c r="J100" s="3">
+        <v>643800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-436700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1230300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>185600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-188600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-941600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3176000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-140500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-231800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1168000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>919100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-701800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>575400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>283400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>152300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-199200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>237400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-152300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>17700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>92300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-55300</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>329700</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-151400</v>
+        <v>21200</v>
       </c>
       <c r="E101" s="3">
-        <v>-260800</v>
+        <v>-140600</v>
       </c>
       <c r="F101" s="3">
-        <v>153400</v>
+        <v>-242100</v>
       </c>
       <c r="G101" s="3">
-        <v>427400</v>
+        <v>142400</v>
       </c>
       <c r="H101" s="3">
-        <v>-272100</v>
+        <v>396900</v>
       </c>
       <c r="I101" s="3">
-        <v>123800</v>
+        <v>-252700</v>
       </c>
       <c r="J101" s="3">
+        <v>115000</v>
+      </c>
+      <c r="K101" s="3">
         <v>197000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>70600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>16100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-98500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-69700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>99400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>40800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-14300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>56700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-6700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>11300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>34800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>36400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>86400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-10300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-34600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-12900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>10300</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-19200</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>14300</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1798900</v>
+        <v>-27100</v>
       </c>
       <c r="E102" s="3">
-        <v>1752700</v>
+        <v>-1670400</v>
       </c>
       <c r="F102" s="3">
-        <v>-272900</v>
+        <v>1627500</v>
       </c>
       <c r="G102" s="3">
-        <v>-132800</v>
+        <v>-253400</v>
       </c>
       <c r="H102" s="3">
-        <v>-2838000</v>
+        <v>-123300</v>
       </c>
       <c r="I102" s="3">
-        <v>1623600</v>
+        <v>-2635300</v>
       </c>
       <c r="J102" s="3">
+        <v>1507600</v>
+      </c>
+      <c r="K102" s="3">
         <v>1125800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1628100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2547200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>682100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-351400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2469700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-174300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>770200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1147000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>26200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>268000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>360800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-27200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-64200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>37300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>587400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-480200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-219200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>86200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>365900</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>383400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BCH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BCH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>BCH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,216 +665,222 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1229000</v>
+        <v>963100</v>
       </c>
       <c r="E8" s="3">
-        <v>1170700</v>
+        <v>1187000</v>
       </c>
       <c r="F8" s="3">
-        <v>1324800</v>
+        <v>1130600</v>
       </c>
       <c r="G8" s="3">
-        <v>1439000</v>
+        <v>1279500</v>
       </c>
       <c r="H8" s="3">
-        <v>1448800</v>
+        <v>1389800</v>
       </c>
       <c r="I8" s="3">
-        <v>977800</v>
+        <v>1399300</v>
       </c>
       <c r="J8" s="3">
+        <v>944400</v>
+      </c>
+      <c r="K8" s="3">
         <v>1015000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>679600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>615600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>546000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>574300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>418300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>546600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>659600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>724200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>693200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>829400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>559900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>667200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>630400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>634800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>601400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>705400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>579000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>809800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>671400</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>702900</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>721300</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -962,8 +968,11 @@
       <c r="AE9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1051,8 +1060,11 @@
       <c r="AE10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1084,8 +1096,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1173,8 +1186,11 @@
       <c r="AE12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1262,8 +1278,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1351,88 +1370,91 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-27500</v>
+        <v>-25400</v>
       </c>
       <c r="E15" s="3">
         <v>-26600</v>
       </c>
       <c r="F15" s="3">
-        <v>-25000</v>
+        <v>-25700</v>
       </c>
       <c r="G15" s="3">
-        <v>-25500</v>
+        <v>-24200</v>
       </c>
       <c r="H15" s="3">
-        <v>-24700</v>
+        <v>-24600</v>
       </c>
       <c r="I15" s="3">
-        <v>-23300</v>
+        <v>-23800</v>
       </c>
       <c r="J15" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="K15" s="3">
         <v>-23200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-24200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-24100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-20900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-20500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-21800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-21900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-22000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-23700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-23400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-24100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-22400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-12400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-11700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-11900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>-11700</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>-13300</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>-13200</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>-12700</v>
-      </c>
-      <c r="AC15" s="3">
-        <v>-12600</v>
       </c>
       <c r="AD15" s="3">
         <v>-12600</v>
@@ -1440,8 +1462,11 @@
       <c r="AE15" s="3">
         <v>-12600</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>-12600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1470,186 +1495,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>764400</v>
+        <v>570600</v>
       </c>
       <c r="E17" s="3">
-        <v>763200</v>
+        <v>738200</v>
       </c>
       <c r="F17" s="3">
-        <v>845900</v>
+        <v>737100</v>
       </c>
       <c r="G17" s="3">
-        <v>825000</v>
+        <v>817000</v>
       </c>
       <c r="H17" s="3">
-        <v>776000</v>
+        <v>796800</v>
       </c>
       <c r="I17" s="3">
-        <v>435000</v>
+        <v>749500</v>
       </c>
       <c r="J17" s="3">
+        <v>420100</v>
+      </c>
+      <c r="K17" s="3">
         <v>576800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>330200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>284300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>231800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>280000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>181600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>317400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>392900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>389200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>355500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>417900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>284500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>314000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>335700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>280000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>287100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>323900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>236400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>425600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>318000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>372400</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>352500</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>464700</v>
+        <v>392500</v>
       </c>
       <c r="E18" s="3">
-        <v>407400</v>
+        <v>448800</v>
       </c>
       <c r="F18" s="3">
-        <v>478900</v>
+        <v>393500</v>
       </c>
       <c r="G18" s="3">
-        <v>614000</v>
+        <v>462500</v>
       </c>
       <c r="H18" s="3">
-        <v>672800</v>
+        <v>593000</v>
       </c>
       <c r="I18" s="3">
-        <v>542800</v>
+        <v>649800</v>
       </c>
       <c r="J18" s="3">
+        <v>524300</v>
+      </c>
+      <c r="K18" s="3">
         <v>438200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>349400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>331200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>314200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>294300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>236600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>229100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>266700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>335000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>337700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>411500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>275400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>353200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>294600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>354800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>314300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>381500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>342700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>384200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>353400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>330400</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>368900</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1681,186 +1713,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>22100</v>
+        <v>4900</v>
       </c>
       <c r="E20" s="3">
-        <v>-17200</v>
+        <v>21400</v>
       </c>
       <c r="F20" s="3">
-        <v>7500</v>
+        <v>-16600</v>
       </c>
       <c r="G20" s="3">
-        <v>-130400</v>
+        <v>7200</v>
       </c>
       <c r="H20" s="3">
-        <v>-82200</v>
+        <v>-125900</v>
       </c>
       <c r="I20" s="3">
-        <v>-131700</v>
+        <v>-79400</v>
       </c>
       <c r="J20" s="3">
+        <v>-127200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-49300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-56000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-75600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-86600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-118700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-98600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-52100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-65500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-90600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-75300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-78200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-98900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-67600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-95300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-105400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-95600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-125500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-110000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-104600</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-105900</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-114200</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-116200</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>514300</v>
+        <v>422800</v>
       </c>
       <c r="E21" s="3">
-        <v>416900</v>
+        <v>496700</v>
       </c>
       <c r="F21" s="3">
-        <v>511400</v>
+        <v>402600</v>
       </c>
       <c r="G21" s="3">
-        <v>509100</v>
+        <v>493900</v>
       </c>
       <c r="H21" s="3">
-        <v>615300</v>
+        <v>491700</v>
       </c>
       <c r="I21" s="3">
-        <v>434400</v>
+        <v>594200</v>
       </c>
       <c r="J21" s="3">
+        <v>419600</v>
+      </c>
+      <c r="K21" s="3">
         <v>412100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>317700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>279800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>248500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>196100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>159800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>198900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>223200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>268100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>285800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>357400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>198800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>298000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>211000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>261300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>230500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>269300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>245900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>292300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>260100</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>228900</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>265300</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1948,186 +1987,195 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>486800</v>
+        <v>397400</v>
       </c>
       <c r="E23" s="3">
-        <v>390300</v>
+        <v>470100</v>
       </c>
       <c r="F23" s="3">
-        <v>486300</v>
+        <v>376900</v>
       </c>
       <c r="G23" s="3">
-        <v>483600</v>
+        <v>469700</v>
       </c>
       <c r="H23" s="3">
-        <v>590600</v>
+        <v>467100</v>
       </c>
       <c r="I23" s="3">
-        <v>411100</v>
+        <v>570400</v>
       </c>
       <c r="J23" s="3">
+        <v>397100</v>
+      </c>
+      <c r="K23" s="3">
         <v>388900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>293500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>255700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>227600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>175500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>138100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>177000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>201300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>244500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>262400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>333300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>176400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>285600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>199300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>249400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>218700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>256000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>232700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>279600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>247600</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>216200</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>252700</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>98200</v>
+        <v>103600</v>
       </c>
       <c r="E24" s="3">
-        <v>79100</v>
+        <v>94800</v>
       </c>
       <c r="F24" s="3">
-        <v>80800</v>
+        <v>76400</v>
       </c>
       <c r="G24" s="3">
-        <v>86300</v>
+        <v>78100</v>
       </c>
       <c r="H24" s="3">
-        <v>85700</v>
+        <v>83400</v>
       </c>
       <c r="I24" s="3">
-        <v>69800</v>
+        <v>82800</v>
       </c>
       <c r="J24" s="3">
+        <v>67400</v>
+      </c>
+      <c r="K24" s="3">
         <v>56800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>61300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>51100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>45600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>35400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>35700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>38500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>38400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>57600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>55400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>68200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>44400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>80500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>40400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>41300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>36100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>46700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>35900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>44700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>41800</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>28900</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2215,186 +2263,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>388600</v>
+        <v>293800</v>
       </c>
       <c r="E26" s="3">
-        <v>311200</v>
+        <v>375300</v>
       </c>
       <c r="F26" s="3">
-        <v>405500</v>
+        <v>300500</v>
       </c>
       <c r="G26" s="3">
-        <v>397300</v>
+        <v>391700</v>
       </c>
       <c r="H26" s="3">
-        <v>504900</v>
+        <v>383700</v>
       </c>
       <c r="I26" s="3">
-        <v>341300</v>
+        <v>487600</v>
       </c>
       <c r="J26" s="3">
+        <v>329700</v>
+      </c>
+      <c r="K26" s="3">
         <v>332100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>232100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>204600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>182000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>140200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>102400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>138500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>162900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>186900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>207000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>265100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>132000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>205100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>158900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>208100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>182600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>209300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>196800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>234900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>205800</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>187300</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>388600</v>
+        <v>293800</v>
       </c>
       <c r="E27" s="3">
-        <v>311200</v>
+        <v>375300</v>
       </c>
       <c r="F27" s="3">
-        <v>405500</v>
+        <v>300500</v>
       </c>
       <c r="G27" s="3">
-        <v>397300</v>
+        <v>391700</v>
       </c>
       <c r="H27" s="3">
-        <v>504900</v>
+        <v>383700</v>
       </c>
       <c r="I27" s="3">
-        <v>341300</v>
+        <v>487600</v>
       </c>
       <c r="J27" s="3">
+        <v>329700</v>
+      </c>
+      <c r="K27" s="3">
         <v>332100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>232100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>204600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>182000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>140200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>102400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>138500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>162900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>186900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>207000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>265100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>132000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>205100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>158900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>208100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>182600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>209300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>196800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>234900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>205800</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>187300</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2482,8 +2539,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2571,8 +2631,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2660,8 +2723,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2749,186 +2815,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-22100</v>
+        <v>-4900</v>
       </c>
       <c r="E32" s="3">
-        <v>17200</v>
+        <v>-21400</v>
       </c>
       <c r="F32" s="3">
-        <v>-7500</v>
+        <v>16600</v>
       </c>
       <c r="G32" s="3">
-        <v>130400</v>
+        <v>-7200</v>
       </c>
       <c r="H32" s="3">
-        <v>82200</v>
+        <v>125900</v>
       </c>
       <c r="I32" s="3">
-        <v>131700</v>
+        <v>79400</v>
       </c>
       <c r="J32" s="3">
+        <v>127200</v>
+      </c>
+      <c r="K32" s="3">
         <v>49300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>56000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>75600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>86600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>118700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>98600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>52100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>65500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>90600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>75300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>78200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>98900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>67600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>95300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>105400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>95600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>125500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>110000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>104600</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>105900</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>114200</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>116200</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>388600</v>
+        <v>293800</v>
       </c>
       <c r="E33" s="3">
-        <v>311200</v>
+        <v>375300</v>
       </c>
       <c r="F33" s="3">
-        <v>405500</v>
+        <v>300500</v>
       </c>
       <c r="G33" s="3">
-        <v>397300</v>
+        <v>391700</v>
       </c>
       <c r="H33" s="3">
-        <v>504900</v>
+        <v>383700</v>
       </c>
       <c r="I33" s="3">
-        <v>341300</v>
+        <v>487600</v>
       </c>
       <c r="J33" s="3">
+        <v>329700</v>
+      </c>
+      <c r="K33" s="3">
         <v>332100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>232100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>204600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>182000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>140200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>102400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>138500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>162900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>186900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>207000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>265100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>132000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>205100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>158900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>208100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>182600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>209300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>196800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>234900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>205800</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>187300</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3016,191 +3091,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>388600</v>
+        <v>293800</v>
       </c>
       <c r="E35" s="3">
-        <v>311200</v>
+        <v>375300</v>
       </c>
       <c r="F35" s="3">
-        <v>405500</v>
+        <v>300500</v>
       </c>
       <c r="G35" s="3">
-        <v>397300</v>
+        <v>391700</v>
       </c>
       <c r="H35" s="3">
-        <v>504900</v>
+        <v>383700</v>
       </c>
       <c r="I35" s="3">
-        <v>341300</v>
+        <v>487600</v>
       </c>
       <c r="J35" s="3">
+        <v>329700</v>
+      </c>
+      <c r="K35" s="3">
         <v>332100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>232100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>204600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>182000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>140200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>102400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>138500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>162900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>186900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>207000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>265100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>132000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>205100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>158900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>208100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>182600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>209300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>196800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>234900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>205800</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>187300</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3232,8 +3316,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3265,186 +3350,193 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5138800</v>
+        <v>4984900</v>
       </c>
       <c r="E41" s="3">
-        <v>4102200</v>
+        <v>4963100</v>
       </c>
       <c r="F41" s="3">
-        <v>5005500</v>
+        <v>3962000</v>
       </c>
       <c r="G41" s="3">
-        <v>5950000</v>
+        <v>4834400</v>
       </c>
       <c r="H41" s="3">
-        <v>5509400</v>
+        <v>5746600</v>
       </c>
       <c r="I41" s="3">
-        <v>8294200</v>
+        <v>5321000</v>
       </c>
       <c r="J41" s="3">
+        <v>8010600</v>
+      </c>
+      <c r="K41" s="3">
         <v>5528100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4933500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6673400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7094900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5304700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4583300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4216200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4060100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3546400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3694500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4361500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3350700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3583100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3428900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3538600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2836400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2891200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3077300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2958500</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>3387100</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>3523000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>3447400</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5229100</v>
+        <v>6233800</v>
       </c>
       <c r="E42" s="3">
-        <v>4846900</v>
+        <v>5050400</v>
       </c>
       <c r="F42" s="3">
-        <v>6090100</v>
+        <v>4681200</v>
       </c>
       <c r="G42" s="3">
-        <v>4414400</v>
+        <v>5881900</v>
       </c>
       <c r="H42" s="3">
-        <v>5204000</v>
+        <v>4263500</v>
       </c>
       <c r="I42" s="3">
-        <v>2131800</v>
+        <v>5026100</v>
       </c>
       <c r="J42" s="3">
+        <v>2058900</v>
+      </c>
+      <c r="K42" s="3">
         <v>9382300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>9670400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>8244600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>5799000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>9616000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>9453500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>11532500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>9205000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>7778400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>6750600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>4533900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>4327400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>4432300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>4120600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>3732800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>4057800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>4892500</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>3759300</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>4831100</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>4779700</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>4568200</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>4469300</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3532,8 +3624,11 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3621,8 +3716,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3710,8 +3808,11 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3799,275 +3900,287 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>75600</v>
+        <v>79900</v>
       </c>
       <c r="E47" s="3">
-        <v>75200</v>
+        <v>73100</v>
       </c>
       <c r="F47" s="3">
-        <v>72800</v>
+        <v>72700</v>
       </c>
       <c r="G47" s="3">
-        <v>69900</v>
+        <v>70300</v>
       </c>
       <c r="H47" s="3">
-        <v>66800</v>
+        <v>67500</v>
       </c>
       <c r="I47" s="3">
+        <v>64500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>61400</v>
+      </c>
+      <c r="K47" s="3">
+        <v>57500</v>
+      </c>
+      <c r="L47" s="3">
+        <v>60600</v>
+      </c>
+      <c r="M47" s="3">
+        <v>54900</v>
+      </c>
+      <c r="N47" s="3">
+        <v>49300</v>
+      </c>
+      <c r="O47" s="3">
+        <v>49600</v>
+      </c>
+      <c r="P47" s="3">
+        <v>56800</v>
+      </c>
+      <c r="Q47" s="3">
         <v>63600</v>
       </c>
-      <c r="J47" s="3">
-        <v>57500</v>
-      </c>
-      <c r="K47" s="3">
-        <v>60600</v>
-      </c>
-      <c r="L47" s="3">
-        <v>54900</v>
-      </c>
-      <c r="M47" s="3">
-        <v>49300</v>
-      </c>
-      <c r="N47" s="3">
-        <v>49600</v>
-      </c>
-      <c r="O47" s="3">
-        <v>56800</v>
-      </c>
-      <c r="P47" s="3">
-        <v>63600</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>62600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>64500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>66900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>65800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>59400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>56600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>55000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>53200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>49900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>55900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>53600</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>51200</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>50200</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>49200</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>364700</v>
+        <v>346400</v>
       </c>
       <c r="E48" s="3">
-        <v>372800</v>
+        <v>352200</v>
       </c>
       <c r="F48" s="3">
-        <v>371100</v>
+        <v>360000</v>
       </c>
       <c r="G48" s="3">
-        <v>378000</v>
+        <v>358400</v>
       </c>
       <c r="H48" s="3">
-        <v>384700</v>
+        <v>365100</v>
       </c>
       <c r="I48" s="3">
-        <v>381600</v>
+        <v>371500</v>
       </c>
       <c r="J48" s="3">
+        <v>368600</v>
+      </c>
+      <c r="K48" s="3">
         <v>391900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>427700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>436100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>395700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>388000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>417600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>459900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>456900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>487800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>526400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>536200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>506100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>291900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>285700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>290400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>289800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>338900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>338500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>338100</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>340900</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>353000</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>350300</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>138900</v>
+        <v>144100</v>
       </c>
       <c r="E49" s="3">
-        <v>128900</v>
+        <v>134100</v>
       </c>
       <c r="F49" s="3">
-        <v>124700</v>
+        <v>124500</v>
       </c>
       <c r="G49" s="3">
-        <v>101700</v>
+        <v>120500</v>
       </c>
       <c r="H49" s="3">
-        <v>93300</v>
+        <v>98200</v>
       </c>
       <c r="I49" s="3">
-        <v>85000</v>
+        <v>90100</v>
       </c>
       <c r="J49" s="3">
+        <v>82100</v>
+      </c>
+      <c r="K49" s="3">
         <v>84900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>86200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>84200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>70000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>67400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>69700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>73700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>69900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>74000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>74500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>75100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>68900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>66100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>60000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>58300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>53500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>57400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>49900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>45000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>44100</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>44300</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4155,8 +4268,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4244,97 +4360,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>644500</v>
+        <v>612800</v>
       </c>
       <c r="E52" s="3">
-        <v>635300</v>
+        <v>622500</v>
       </c>
       <c r="F52" s="3">
-        <v>643900</v>
+        <v>613600</v>
       </c>
       <c r="G52" s="3">
-        <v>625400</v>
+        <v>621900</v>
       </c>
       <c r="H52" s="3">
-        <v>590700</v>
+        <v>604000</v>
       </c>
       <c r="I52" s="3">
-        <v>543700</v>
+        <v>570600</v>
       </c>
       <c r="J52" s="3">
+        <v>525100</v>
+      </c>
+      <c r="K52" s="3">
         <v>513900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>488000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>481100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>396100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>397300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>386700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>402000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>376800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>407600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>429800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>441500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>359500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>353000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>331800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>333300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>339900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>393100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>436900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>435600</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>433600</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>425400</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4422,97 +4544,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>63501200</v>
+        <v>62323300</v>
       </c>
       <c r="E54" s="3">
-        <v>64288400</v>
+        <v>61330200</v>
       </c>
       <c r="F54" s="3">
-        <v>64648800</v>
+        <v>62090500</v>
       </c>
       <c r="G54" s="3">
-        <v>64131700</v>
+        <v>62438600</v>
       </c>
       <c r="H54" s="3">
-        <v>63536100</v>
+        <v>61939200</v>
       </c>
       <c r="I54" s="3">
-        <v>58483500</v>
+        <v>61363900</v>
       </c>
       <c r="J54" s="3">
+        <v>56484100</v>
+      </c>
+      <c r="K54" s="3">
         <v>60491900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>62015200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>59618500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>50383600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>51165600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>52582700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>57216900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>53308100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>52417100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>53648400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>51411400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>46920100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>45626600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>43505300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>43981900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>42552000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>48251600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>46956400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>47447700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>46794000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>47615900</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>46838400</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4544,8 +4672,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4577,275 +4706,285 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>977900</v>
+        <v>1260500</v>
       </c>
       <c r="E57" s="3">
-        <v>1317800</v>
+        <v>944500</v>
       </c>
       <c r="F57" s="3">
-        <v>1401100</v>
+        <v>1272700</v>
       </c>
       <c r="G57" s="3">
-        <v>1015600</v>
+        <v>1353200</v>
       </c>
       <c r="H57" s="3">
-        <v>1220600</v>
+        <v>980800</v>
       </c>
       <c r="I57" s="3">
-        <v>1154100</v>
+        <v>1178900</v>
       </c>
       <c r="J57" s="3">
+        <v>1114700</v>
+      </c>
+      <c r="K57" s="3">
         <v>796700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>720900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1258300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1192300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1748400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1419500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>981800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>835500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>741200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>892200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1324600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1014300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>650700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>855600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>770600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>834400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>714200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>723800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1213600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>773100</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>515500</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>680800</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6684100</v>
+        <v>7932400</v>
       </c>
       <c r="E58" s="3">
-        <v>7342400</v>
+        <v>6455600</v>
       </c>
       <c r="F58" s="3">
-        <v>3763700</v>
+        <v>7091400</v>
       </c>
       <c r="G58" s="3">
-        <v>3358700</v>
+        <v>3635000</v>
       </c>
       <c r="H58" s="3">
-        <v>3120400</v>
+        <v>3243900</v>
       </c>
       <c r="I58" s="3">
-        <v>2115700</v>
+        <v>3013800</v>
       </c>
       <c r="J58" s="3">
+        <v>2043400</v>
+      </c>
+      <c r="K58" s="3">
         <v>3923700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4422900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4534600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4097700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2679200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2580000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3428900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3912700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3974500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4593000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4598600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3662400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3931500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3540700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3309200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3137700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3693500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3661200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>3726400</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>3443200</v>
       </c>
-      <c r="AD58" s="3">
-        <v>0</v>
-      </c>
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>359100</v>
+        <v>511900</v>
       </c>
       <c r="E59" s="3">
-        <v>172900</v>
+        <v>346800</v>
       </c>
       <c r="F59" s="3">
-        <v>624600</v>
+        <v>167000</v>
       </c>
       <c r="G59" s="3">
-        <v>456900</v>
+        <v>603200</v>
       </c>
       <c r="H59" s="3">
-        <v>340800</v>
+        <v>441300</v>
       </c>
       <c r="I59" s="3">
-        <v>289600</v>
+        <v>329100</v>
       </c>
       <c r="J59" s="3">
+        <v>279700</v>
+      </c>
+      <c r="K59" s="3">
         <v>517300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>396400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>218000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>84900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>249600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>203300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>154200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>153700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>480300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>385800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>309200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>120800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>415800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>277700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>202400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>99500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>466800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>352500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>235000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>110600</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>432900</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>339800</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4933,186 +5072,195 @@
       <c r="AE60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12080500</v>
+        <v>10528900</v>
       </c>
       <c r="E61" s="3">
-        <v>11782900</v>
+        <v>11667500</v>
       </c>
       <c r="F61" s="3">
-        <v>15338000</v>
+        <v>11380000</v>
       </c>
       <c r="G61" s="3">
-        <v>14983500</v>
+        <v>14813600</v>
       </c>
       <c r="H61" s="3">
-        <v>15120700</v>
+        <v>14471200</v>
       </c>
       <c r="I61" s="3">
-        <v>14756800</v>
+        <v>14603800</v>
       </c>
       <c r="J61" s="3">
+        <v>14252300</v>
+      </c>
+      <c r="K61" s="3">
         <v>13399400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13270600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>13378800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10593500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>11594300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>12603900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>13852000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9816300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9979800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>10302500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9268000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>8462600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>8024500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7630200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>7685300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>7531900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>8090800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>7957500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>8136900</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>8411800</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>11180300</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>11255500</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1068000</v>
+        <v>1050600</v>
       </c>
       <c r="E62" s="3">
-        <v>1052700</v>
+        <v>1031500</v>
       </c>
       <c r="F62" s="3">
-        <v>1101900</v>
+        <v>1016700</v>
       </c>
       <c r="G62" s="3">
-        <v>1068000</v>
+        <v>1064200</v>
       </c>
       <c r="H62" s="3">
-        <v>998600</v>
+        <v>1031500</v>
       </c>
       <c r="I62" s="3">
-        <v>915900</v>
+        <v>964500</v>
       </c>
       <c r="J62" s="3">
+        <v>884600</v>
+      </c>
+      <c r="K62" s="3">
         <v>847200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>826600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>740200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>587600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>570100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>488400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>554900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>429400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>487900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>502900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>494600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>440400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>463200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>439600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>454100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>458700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>563000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>590800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>576700</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>553100</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>569000</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>589100</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5200,8 +5348,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5289,8 +5440,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5378,97 +5532,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>57801000</v>
+        <v>56643700</v>
       </c>
       <c r="E66" s="3">
-        <v>58786200</v>
+        <v>55824900</v>
       </c>
       <c r="F66" s="3">
-        <v>58964500</v>
+        <v>56776400</v>
       </c>
       <c r="G66" s="3">
-        <v>58649500</v>
+        <v>56948700</v>
       </c>
       <c r="H66" s="3">
-        <v>58357100</v>
+        <v>56644400</v>
       </c>
       <c r="I66" s="3">
-        <v>53569600</v>
+        <v>56362000</v>
       </c>
       <c r="J66" s="3">
+        <v>51738200</v>
+      </c>
+      <c r="K66" s="3">
         <v>55550900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>56922800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>54662200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>46105100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>47029400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>48370200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>52779000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>49082500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>47936300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>48991800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>46729600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>42628800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>41430300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>39508100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>39927200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>38580100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>43686200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>42491400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>43061400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>42536500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>43255900</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>42530100</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5500,8 +5660,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5589,8 +5750,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5678,8 +5842,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5767,8 +5934,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5856,97 +6026,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2909000</v>
+        <v>2911800</v>
       </c>
       <c r="E72" s="3">
-        <v>2702100</v>
+        <v>2809500</v>
       </c>
       <c r="F72" s="3">
-        <v>2969500</v>
+        <v>2609700</v>
       </c>
       <c r="G72" s="3">
-        <v>2705700</v>
+        <v>2868000</v>
       </c>
       <c r="H72" s="3">
-        <v>2441400</v>
+        <v>2613200</v>
       </c>
       <c r="I72" s="3">
-        <v>2085100</v>
+        <v>2358000</v>
       </c>
       <c r="J72" s="3">
+        <v>2013800</v>
+      </c>
+      <c r="K72" s="3">
         <v>2107900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2030400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1953600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1645400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1528800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1517700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1582900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1448400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1507000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1523300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1428200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1203600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1192200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1069700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1019000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>910500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1242200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1147100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1065000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>959400</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1171800</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6034,8 +6210,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6123,8 +6302,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6212,97 +6394,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5700200</v>
+        <v>5679500</v>
       </c>
       <c r="E76" s="3">
-        <v>5502300</v>
+        <v>5505300</v>
       </c>
       <c r="F76" s="3">
-        <v>5684200</v>
+        <v>5314200</v>
       </c>
       <c r="G76" s="3">
-        <v>5482200</v>
+        <v>5489900</v>
       </c>
       <c r="H76" s="3">
-        <v>5179000</v>
+        <v>5294800</v>
       </c>
       <c r="I76" s="3">
-        <v>4913900</v>
+        <v>5001900</v>
       </c>
       <c r="J76" s="3">
+        <v>4745900</v>
+      </c>
+      <c r="K76" s="3">
         <v>4940900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5092500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4956200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4278500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4136200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4212500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4437800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4225600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4480800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4656600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4681900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4291200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4196300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3997200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>4054600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3971900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>4565400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>4465000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>4386200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>4257500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>4360000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>4308300</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6390,191 +6578,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>388600</v>
+        <v>293800</v>
       </c>
       <c r="E81" s="3">
-        <v>311200</v>
+        <v>375300</v>
       </c>
       <c r="F81" s="3">
-        <v>405500</v>
+        <v>300500</v>
       </c>
       <c r="G81" s="3">
-        <v>397300</v>
+        <v>391700</v>
       </c>
       <c r="H81" s="3">
-        <v>504900</v>
+        <v>383700</v>
       </c>
       <c r="I81" s="3">
-        <v>341300</v>
+        <v>487600</v>
       </c>
       <c r="J81" s="3">
+        <v>329700</v>
+      </c>
+      <c r="K81" s="3">
         <v>332100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>232100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>204600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>182000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>140200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>102400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>138500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>162900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>186900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>207000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>265100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>132000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>205100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>158900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>208100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>182600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>209300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>196800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>234900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>205800</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>187300</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>218500</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6606,88 +6803,89 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>27500</v>
+        <v>25400</v>
       </c>
       <c r="E83" s="3">
         <v>26600</v>
       </c>
       <c r="F83" s="3">
-        <v>25000</v>
+        <v>25700</v>
       </c>
       <c r="G83" s="3">
-        <v>25500</v>
+        <v>24200</v>
       </c>
       <c r="H83" s="3">
-        <v>24700</v>
+        <v>24600</v>
       </c>
       <c r="I83" s="3">
-        <v>23300</v>
+        <v>23800</v>
       </c>
       <c r="J83" s="3">
+        <v>22500</v>
+      </c>
+      <c r="K83" s="3">
         <v>23200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>24200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>24100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>20900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>35500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>21900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>22000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>23700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>23400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>24100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>22400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>12400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>11700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>11900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>11700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>13300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>13200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>12700</v>
-      </c>
-      <c r="AC83" s="3">
-        <v>12600</v>
       </c>
       <c r="AD83" s="3">
         <v>12600</v>
@@ -6695,8 +6893,11 @@
       <c r="AE83" s="3">
         <v>12600</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6784,8 +6985,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6873,8 +7077,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6962,8 +7169,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7051,8 +7261,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7140,97 +7353,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-8000</v>
+        <v>2406200</v>
       </c>
       <c r="E89" s="3">
-        <v>-549900</v>
+        <v>-7800</v>
       </c>
       <c r="F89" s="3">
-        <v>1284100</v>
+        <v>-531100</v>
       </c>
       <c r="G89" s="3">
-        <v>46200</v>
+        <v>1240200</v>
       </c>
       <c r="H89" s="3">
-        <v>-131800</v>
+        <v>44600</v>
       </c>
       <c r="I89" s="3">
-        <v>-1588800</v>
+        <v>-127300</v>
       </c>
       <c r="J89" s="3">
+        <v>-1534500</v>
+      </c>
+      <c r="K89" s="3">
         <v>822300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3030800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2196700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2712800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>767600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>305800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-843300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>291100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1097500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>66100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-970600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1334400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-614600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-434900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-266200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>136000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>703800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>250800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>435500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>179000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>398600</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-193700</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7262,97 +7481,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-23433000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-23634000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-16770000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-33219000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-18302000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-17061000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9558000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-16086000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-16424000</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-400</v>
       </c>
       <c r="M91" s="3">
         <v>-400</v>
       </c>
       <c r="N91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-16900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-15800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-23800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-8600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-12800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-10800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-10300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-10500</v>
-      </c>
-      <c r="AB91" s="3">
-        <v>-6700</v>
       </c>
       <c r="AC91" s="3">
         <v>-6700</v>
       </c>
       <c r="AD91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="AE91" s="3">
         <v>-12200</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7440,8 +7663,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7529,97 +7755,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-19800</v>
+        <v>-25600</v>
       </c>
       <c r="E94" s="3">
-        <v>-19600</v>
+        <v>-19100</v>
       </c>
       <c r="F94" s="3">
-        <v>-35000</v>
+        <v>-18900</v>
       </c>
       <c r="G94" s="3">
-        <v>-21200</v>
+        <v>-33800</v>
       </c>
       <c r="H94" s="3">
-        <v>-17600</v>
+        <v>-20500</v>
       </c>
       <c r="I94" s="3">
-        <v>-11100</v>
+        <v>-17000</v>
       </c>
       <c r="J94" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-73500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1665400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1869400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-36000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>177700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>379100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>37600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-365700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-81200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-143800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>82600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-374100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>365300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>88000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-36700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>110800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-319300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-565800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-682600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-165900</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>8300</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>260000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7651,8 +7883,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7660,10 +7893,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-1014300</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-979600</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -7672,10 +7905,10 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-631600</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-610000</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -7684,11 +7917,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-246700</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -7696,11 +7929,11 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-417100</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -7708,11 +7941,11 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-463200</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
@@ -7720,11 +7953,11 @@
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-478800</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
         <v>0</v>
       </c>
@@ -7732,16 +7965,19 @@
         <v>0</v>
       </c>
       <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-502800</v>
       </c>
-      <c r="AD96" s="3">
-        <v>0</v>
-      </c>
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7829,8 +8065,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7918,8 +8157,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8007,271 +8249,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-20500</v>
+        <v>-353600</v>
       </c>
       <c r="E100" s="3">
-        <v>-960400</v>
+        <v>-19800</v>
       </c>
       <c r="F100" s="3">
-        <v>620500</v>
+        <v>-927500</v>
       </c>
       <c r="G100" s="3">
-        <v>-421300</v>
+        <v>599300</v>
       </c>
       <c r="H100" s="3">
-        <v>-370300</v>
+        <v>-406900</v>
       </c>
       <c r="I100" s="3">
-        <v>-782700</v>
+        <v>-357600</v>
       </c>
       <c r="J100" s="3">
+        <v>-756000</v>
+      </c>
+      <c r="K100" s="3">
         <v>643800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-436700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1230300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>185600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-188600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-941600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3176000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-140500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-231800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1168000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>919100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-701800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>575400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>283400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>152300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-199200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>237400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-152300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>17700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>92300</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-55300</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>329700</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>21200</v>
+        <v>160100</v>
       </c>
       <c r="E101" s="3">
-        <v>-140600</v>
+        <v>20500</v>
       </c>
       <c r="F101" s="3">
-        <v>-242100</v>
+        <v>-135800</v>
       </c>
       <c r="G101" s="3">
-        <v>142400</v>
+        <v>-233900</v>
       </c>
       <c r="H101" s="3">
-        <v>396900</v>
+        <v>137500</v>
       </c>
       <c r="I101" s="3">
-        <v>-252700</v>
+        <v>383300</v>
       </c>
       <c r="J101" s="3">
+        <v>-244000</v>
+      </c>
+      <c r="K101" s="3">
         <v>115000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>197000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>70600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>16100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-98500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-69700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>99400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>40800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-14300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>56700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-6700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>11300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>34800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>36400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>86400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-10300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-34600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-12900</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>10300</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-19200</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>14300</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-27100</v>
+        <v>2187200</v>
       </c>
       <c r="E102" s="3">
-        <v>-1670400</v>
+        <v>-26200</v>
       </c>
       <c r="F102" s="3">
-        <v>1627500</v>
+        <v>-1613300</v>
       </c>
       <c r="G102" s="3">
-        <v>-253400</v>
+        <v>1571800</v>
       </c>
       <c r="H102" s="3">
-        <v>-123300</v>
+        <v>-244800</v>
       </c>
       <c r="I102" s="3">
-        <v>-2635300</v>
+        <v>-119100</v>
       </c>
       <c r="J102" s="3">
+        <v>-2545200</v>
+      </c>
+      <c r="K102" s="3">
         <v>1507600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1125800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1628100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2547200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>682100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-351400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2469700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-174300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>770200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1147000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>26200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>268000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>360800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-27200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-64200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>37300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>587400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-480200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-219200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>86200</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>365900</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>383400</v>
       </c>
     </row>
